--- a/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2025.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="2880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="2976">
   <si>
     <t>Date</t>
   </si>
@@ -8654,6 +8654,294 @@
   </si>
   <si>
     <t>30.03.202596.0</t>
+  </si>
+  <si>
+    <t>31.03.20251.0</t>
+  </si>
+  <si>
+    <t>31.03.20252.0</t>
+  </si>
+  <si>
+    <t>31.03.20253.0</t>
+  </si>
+  <si>
+    <t>31.03.20254.0</t>
+  </si>
+  <si>
+    <t>31.03.20255.0</t>
+  </si>
+  <si>
+    <t>31.03.20256.0</t>
+  </si>
+  <si>
+    <t>31.03.20257.0</t>
+  </si>
+  <si>
+    <t>31.03.20258.0</t>
+  </si>
+  <si>
+    <t>31.03.20259.0</t>
+  </si>
+  <si>
+    <t>31.03.202510.0</t>
+  </si>
+  <si>
+    <t>31.03.202511.0</t>
+  </si>
+  <si>
+    <t>31.03.202512.0</t>
+  </si>
+  <si>
+    <t>31.03.202513.0</t>
+  </si>
+  <si>
+    <t>31.03.202514.0</t>
+  </si>
+  <si>
+    <t>31.03.202515.0</t>
+  </si>
+  <si>
+    <t>31.03.202516.0</t>
+  </si>
+  <si>
+    <t>31.03.202517.0</t>
+  </si>
+  <si>
+    <t>31.03.202518.0</t>
+  </si>
+  <si>
+    <t>31.03.202519.0</t>
+  </si>
+  <si>
+    <t>31.03.202520.0</t>
+  </si>
+  <si>
+    <t>31.03.202521.0</t>
+  </si>
+  <si>
+    <t>31.03.202522.0</t>
+  </si>
+  <si>
+    <t>31.03.202523.0</t>
+  </si>
+  <si>
+    <t>31.03.202524.0</t>
+  </si>
+  <si>
+    <t>31.03.202525.0</t>
+  </si>
+  <si>
+    <t>31.03.202526.0</t>
+  </si>
+  <si>
+    <t>31.03.202527.0</t>
+  </si>
+  <si>
+    <t>31.03.202528.0</t>
+  </si>
+  <si>
+    <t>31.03.202529.0</t>
+  </si>
+  <si>
+    <t>31.03.202530.0</t>
+  </si>
+  <si>
+    <t>31.03.202531.0</t>
+  </si>
+  <si>
+    <t>31.03.202532.0</t>
+  </si>
+  <si>
+    <t>31.03.202533.0</t>
+  </si>
+  <si>
+    <t>31.03.202534.0</t>
+  </si>
+  <si>
+    <t>31.03.202535.0</t>
+  </si>
+  <si>
+    <t>31.03.202536.0</t>
+  </si>
+  <si>
+    <t>31.03.202537.0</t>
+  </si>
+  <si>
+    <t>31.03.202538.0</t>
+  </si>
+  <si>
+    <t>31.03.202539.0</t>
+  </si>
+  <si>
+    <t>31.03.202540.0</t>
+  </si>
+  <si>
+    <t>31.03.202541.0</t>
+  </si>
+  <si>
+    <t>31.03.202542.0</t>
+  </si>
+  <si>
+    <t>31.03.202543.0</t>
+  </si>
+  <si>
+    <t>31.03.202544.0</t>
+  </si>
+  <si>
+    <t>31.03.202545.0</t>
+  </si>
+  <si>
+    <t>31.03.202546.0</t>
+  </si>
+  <si>
+    <t>31.03.202547.0</t>
+  </si>
+  <si>
+    <t>31.03.202548.0</t>
+  </si>
+  <si>
+    <t>31.03.202549.0</t>
+  </si>
+  <si>
+    <t>31.03.202550.0</t>
+  </si>
+  <si>
+    <t>31.03.202551.0</t>
+  </si>
+  <si>
+    <t>31.03.202552.0</t>
+  </si>
+  <si>
+    <t>31.03.202553.0</t>
+  </si>
+  <si>
+    <t>31.03.202554.0</t>
+  </si>
+  <si>
+    <t>31.03.202555.0</t>
+  </si>
+  <si>
+    <t>31.03.202556.0</t>
+  </si>
+  <si>
+    <t>31.03.202557.0</t>
+  </si>
+  <si>
+    <t>31.03.202558.0</t>
+  </si>
+  <si>
+    <t>31.03.202559.0</t>
+  </si>
+  <si>
+    <t>31.03.202560.0</t>
+  </si>
+  <si>
+    <t>31.03.202561.0</t>
+  </si>
+  <si>
+    <t>31.03.202562.0</t>
+  </si>
+  <si>
+    <t>31.03.202563.0</t>
+  </si>
+  <si>
+    <t>31.03.202564.0</t>
+  </si>
+  <si>
+    <t>31.03.202565.0</t>
+  </si>
+  <si>
+    <t>31.03.202566.0</t>
+  </si>
+  <si>
+    <t>31.03.202567.0</t>
+  </si>
+  <si>
+    <t>31.03.202568.0</t>
+  </si>
+  <si>
+    <t>31.03.202569.0</t>
+  </si>
+  <si>
+    <t>31.03.202570.0</t>
+  </si>
+  <si>
+    <t>31.03.202571.0</t>
+  </si>
+  <si>
+    <t>31.03.202572.0</t>
+  </si>
+  <si>
+    <t>31.03.202573.0</t>
+  </si>
+  <si>
+    <t>31.03.202574.0</t>
+  </si>
+  <si>
+    <t>31.03.202575.0</t>
+  </si>
+  <si>
+    <t>31.03.202576.0</t>
+  </si>
+  <si>
+    <t>31.03.202577.0</t>
+  </si>
+  <si>
+    <t>31.03.202578.0</t>
+  </si>
+  <si>
+    <t>31.03.202579.0</t>
+  </si>
+  <si>
+    <t>31.03.202580.0</t>
+  </si>
+  <si>
+    <t>31.03.202581.0</t>
+  </si>
+  <si>
+    <t>31.03.202582.0</t>
+  </si>
+  <si>
+    <t>31.03.202583.0</t>
+  </si>
+  <si>
+    <t>31.03.202584.0</t>
+  </si>
+  <si>
+    <t>31.03.202585.0</t>
+  </si>
+  <si>
+    <t>31.03.202586.0</t>
+  </si>
+  <si>
+    <t>31.03.202587.0</t>
+  </si>
+  <si>
+    <t>31.03.202588.0</t>
+  </si>
+  <si>
+    <t>31.03.202589.0</t>
+  </si>
+  <si>
+    <t>31.03.202590.0</t>
+  </si>
+  <si>
+    <t>31.03.202591.0</t>
+  </si>
+  <si>
+    <t>31.03.202592.0</t>
+  </si>
+  <si>
+    <t>31.03.202593.0</t>
+  </si>
+  <si>
+    <t>31.03.202594.0</t>
+  </si>
+  <si>
+    <t>31.03.202595.0</t>
+  </si>
+  <si>
+    <t>31.03.202596.0</t>
   </si>
 </sst>
 </file>
@@ -9015,7 +9303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2877"/>
+  <dimension ref="A1:D2973"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39955,7 +40243,7 @@
         <v>1</v>
       </c>
       <c r="C2210">
-        <v>5500</v>
+        <v>5420</v>
       </c>
       <c r="D2210" t="s">
         <v>2212</v>
@@ -39969,7 +40257,7 @@
         <v>2</v>
       </c>
       <c r="C2211">
-        <v>5450</v>
+        <v>5360</v>
       </c>
       <c r="D2211" t="s">
         <v>2213</v>
@@ -39983,7 +40271,7 @@
         <v>3</v>
       </c>
       <c r="C2212">
-        <v>5420</v>
+        <v>5310</v>
       </c>
       <c r="D2212" t="s">
         <v>2214</v>
@@ -39997,7 +40285,7 @@
         <v>4</v>
       </c>
       <c r="C2213">
-        <v>5380</v>
+        <v>5250</v>
       </c>
       <c r="D2213" t="s">
         <v>2215</v>
@@ -40011,7 +40299,7 @@
         <v>5</v>
       </c>
       <c r="C2214">
-        <v>5340</v>
+        <v>5210</v>
       </c>
       <c r="D2214" t="s">
         <v>2216</v>
@@ -40025,7 +40313,7 @@
         <v>6</v>
       </c>
       <c r="C2215">
-        <v>5310</v>
+        <v>5170</v>
       </c>
       <c r="D2215" t="s">
         <v>2217</v>
@@ -40039,7 +40327,7 @@
         <v>7</v>
       </c>
       <c r="C2216">
-        <v>5280</v>
+        <v>5130</v>
       </c>
       <c r="D2216" t="s">
         <v>2218</v>
@@ -40053,7 +40341,7 @@
         <v>8</v>
       </c>
       <c r="C2217">
-        <v>5250</v>
+        <v>5090</v>
       </c>
       <c r="D2217" t="s">
         <v>2219</v>
@@ -40067,7 +40355,7 @@
         <v>9</v>
       </c>
       <c r="C2218">
-        <v>5220</v>
+        <v>5050</v>
       </c>
       <c r="D2218" t="s">
         <v>2220</v>
@@ -40081,7 +40369,7 @@
         <v>10</v>
       </c>
       <c r="C2219">
-        <v>5210</v>
+        <v>5030</v>
       </c>
       <c r="D2219" t="s">
         <v>2221</v>
@@ -40095,7 +40383,7 @@
         <v>11</v>
       </c>
       <c r="C2220">
-        <v>5190</v>
+        <v>5010</v>
       </c>
       <c r="D2220" t="s">
         <v>2222</v>
@@ -40109,7 +40397,7 @@
         <v>12</v>
       </c>
       <c r="C2221">
-        <v>5170</v>
+        <v>5000</v>
       </c>
       <c r="D2221" t="s">
         <v>2223</v>
@@ -40123,7 +40411,7 @@
         <v>13</v>
       </c>
       <c r="C2222">
-        <v>5160</v>
+        <v>5000</v>
       </c>
       <c r="D2222" t="s">
         <v>2224</v>
@@ -40137,7 +40425,7 @@
         <v>14</v>
       </c>
       <c r="C2223">
-        <v>5150</v>
+        <v>5000</v>
       </c>
       <c r="D2223" t="s">
         <v>2225</v>
@@ -40151,7 +40439,7 @@
         <v>15</v>
       </c>
       <c r="C2224">
-        <v>5150</v>
+        <v>5000</v>
       </c>
       <c r="D2224" t="s">
         <v>2226</v>
@@ -40165,7 +40453,7 @@
         <v>16</v>
       </c>
       <c r="C2225">
-        <v>5160</v>
+        <v>5010</v>
       </c>
       <c r="D2225" t="s">
         <v>2227</v>
@@ -40179,7 +40467,7 @@
         <v>17</v>
       </c>
       <c r="C2226">
-        <v>5190</v>
+        <v>5030</v>
       </c>
       <c r="D2226" t="s">
         <v>2228</v>
@@ -40193,7 +40481,7 @@
         <v>18</v>
       </c>
       <c r="C2227">
-        <v>5230</v>
+        <v>5050</v>
       </c>
       <c r="D2227" t="s">
         <v>2229</v>
@@ -40207,7 +40495,7 @@
         <v>19</v>
       </c>
       <c r="C2228">
-        <v>5270</v>
+        <v>5080</v>
       </c>
       <c r="D2228" t="s">
         <v>2230</v>
@@ -40221,7 +40509,7 @@
         <v>20</v>
       </c>
       <c r="C2229">
-        <v>5320</v>
+        <v>5140</v>
       </c>
       <c r="D2229" t="s">
         <v>2231</v>
@@ -40235,7 +40523,7 @@
         <v>21</v>
       </c>
       <c r="C2230">
-        <v>5390</v>
+        <v>5200</v>
       </c>
       <c r="D2230" t="s">
         <v>2232</v>
@@ -40249,7 +40537,7 @@
         <v>22</v>
       </c>
       <c r="C2231">
-        <v>5470</v>
+        <v>5290</v>
       </c>
       <c r="D2231" t="s">
         <v>2233</v>
@@ -40263,7 +40551,7 @@
         <v>23</v>
       </c>
       <c r="C2232">
-        <v>5580</v>
+        <v>5400</v>
       </c>
       <c r="D2232" t="s">
         <v>2234</v>
@@ -40277,7 +40565,7 @@
         <v>24</v>
       </c>
       <c r="C2233">
-        <v>5710</v>
+        <v>5530</v>
       </c>
       <c r="D2233" t="s">
         <v>2235</v>
@@ -40291,7 +40579,7 @@
         <v>25</v>
       </c>
       <c r="C2234">
-        <v>5860</v>
+        <v>5730</v>
       </c>
       <c r="D2234" t="s">
         <v>2236</v>
@@ -40305,7 +40593,7 @@
         <v>26</v>
       </c>
       <c r="C2235">
-        <v>6020</v>
+        <v>5910</v>
       </c>
       <c r="D2235" t="s">
         <v>2237</v>
@@ -40319,7 +40607,7 @@
         <v>27</v>
       </c>
       <c r="C2236">
-        <v>6160</v>
+        <v>6090</v>
       </c>
       <c r="D2236" t="s">
         <v>2238</v>
@@ -40333,7 +40621,7 @@
         <v>28</v>
       </c>
       <c r="C2237">
-        <v>6330</v>
+        <v>6270</v>
       </c>
       <c r="D2237" t="s">
         <v>2239</v>
@@ -40347,7 +40635,7 @@
         <v>29</v>
       </c>
       <c r="C2238">
-        <v>6480</v>
+        <v>6470</v>
       </c>
       <c r="D2238" t="s">
         <v>2240</v>
@@ -40361,7 +40649,7 @@
         <v>30</v>
       </c>
       <c r="C2239">
-        <v>6630</v>
+        <v>6640</v>
       </c>
       <c r="D2239" t="s">
         <v>2241</v>
@@ -40375,7 +40663,7 @@
         <v>31</v>
       </c>
       <c r="C2240">
-        <v>6770</v>
+        <v>6790</v>
       </c>
       <c r="D2240" t="s">
         <v>2242</v>
@@ -40389,7 +40677,7 @@
         <v>32</v>
       </c>
       <c r="C2241">
-        <v>6880</v>
+        <v>6920</v>
       </c>
       <c r="D2241" t="s">
         <v>2243</v>
@@ -40403,7 +40691,7 @@
         <v>33</v>
       </c>
       <c r="C2242">
-        <v>6980</v>
+        <v>7040</v>
       </c>
       <c r="D2242" t="s">
         <v>2244</v>
@@ -40417,7 +40705,7 @@
         <v>34</v>
       </c>
       <c r="C2243">
-        <v>7020</v>
+        <v>7090</v>
       </c>
       <c r="D2243" t="s">
         <v>2245</v>
@@ -40431,7 +40719,7 @@
         <v>35</v>
       </c>
       <c r="C2244">
-        <v>7050</v>
+        <v>7110</v>
       </c>
       <c r="D2244" t="s">
         <v>2246</v>
@@ -40445,7 +40733,7 @@
         <v>36</v>
       </c>
       <c r="C2245">
-        <v>7050</v>
+        <v>7110</v>
       </c>
       <c r="D2245" t="s">
         <v>2247</v>
@@ -40459,7 +40747,7 @@
         <v>37</v>
       </c>
       <c r="C2246">
-        <v>7030</v>
+        <v>7090</v>
       </c>
       <c r="D2246" t="s">
         <v>2248</v>
@@ -40473,7 +40761,7 @@
         <v>38</v>
       </c>
       <c r="C2247">
-        <v>7020</v>
+        <v>7040</v>
       </c>
       <c r="D2247" t="s">
         <v>2249</v>
@@ -40501,7 +40789,7 @@
         <v>40</v>
       </c>
       <c r="C2249">
-        <v>6940</v>
+        <v>6900</v>
       </c>
       <c r="D2249" t="s">
         <v>2251</v>
@@ -40515,7 +40803,7 @@
         <v>41</v>
       </c>
       <c r="C2250">
-        <v>6900</v>
+        <v>6820</v>
       </c>
       <c r="D2250" t="s">
         <v>2252</v>
@@ -40529,7 +40817,7 @@
         <v>42</v>
       </c>
       <c r="C2251">
-        <v>6830</v>
+        <v>6740</v>
       </c>
       <c r="D2251" t="s">
         <v>2253</v>
@@ -40543,7 +40831,7 @@
         <v>43</v>
       </c>
       <c r="C2252">
-        <v>6760</v>
+        <v>6660</v>
       </c>
       <c r="D2252" t="s">
         <v>2254</v>
@@ -40557,7 +40845,7 @@
         <v>44</v>
       </c>
       <c r="C2253">
-        <v>6690</v>
+        <v>6590</v>
       </c>
       <c r="D2253" t="s">
         <v>2255</v>
@@ -40571,7 +40859,7 @@
         <v>45</v>
       </c>
       <c r="C2254">
-        <v>6630</v>
+        <v>6520</v>
       </c>
       <c r="D2254" t="s">
         <v>2256</v>
@@ -40585,7 +40873,7 @@
         <v>46</v>
       </c>
       <c r="C2255">
-        <v>6580</v>
+        <v>6470</v>
       </c>
       <c r="D2255" t="s">
         <v>2257</v>
@@ -40599,7 +40887,7 @@
         <v>47</v>
       </c>
       <c r="C2256">
-        <v>6540</v>
+        <v>6420</v>
       </c>
       <c r="D2256" t="s">
         <v>2258</v>
@@ -40613,7 +40901,7 @@
         <v>48</v>
       </c>
       <c r="C2257">
-        <v>6500</v>
+        <v>6370</v>
       </c>
       <c r="D2257" t="s">
         <v>2259</v>
@@ -40627,7 +40915,7 @@
         <v>49</v>
       </c>
       <c r="C2258">
-        <v>6470</v>
+        <v>6320</v>
       </c>
       <c r="D2258" t="s">
         <v>2260</v>
@@ -40641,7 +40929,7 @@
         <v>50</v>
       </c>
       <c r="C2259">
-        <v>6440</v>
+        <v>6300</v>
       </c>
       <c r="D2259" t="s">
         <v>2261</v>
@@ -40655,7 +40943,7 @@
         <v>51</v>
       </c>
       <c r="C2260">
-        <v>6420</v>
+        <v>6290</v>
       </c>
       <c r="D2260" t="s">
         <v>2262</v>
@@ -40669,7 +40957,7 @@
         <v>52</v>
       </c>
       <c r="C2261">
-        <v>6400</v>
+        <v>6280</v>
       </c>
       <c r="D2261" t="s">
         <v>2263</v>
@@ -40683,7 +40971,7 @@
         <v>53</v>
       </c>
       <c r="C2262">
-        <v>6390</v>
+        <v>6280</v>
       </c>
       <c r="D2262" t="s">
         <v>2264</v>
@@ -40697,7 +40985,7 @@
         <v>54</v>
       </c>
       <c r="C2263">
-        <v>6390</v>
+        <v>6280</v>
       </c>
       <c r="D2263" t="s">
         <v>2265</v>
@@ -40711,7 +40999,7 @@
         <v>55</v>
       </c>
       <c r="C2264">
-        <v>6390</v>
+        <v>6280</v>
       </c>
       <c r="D2264" t="s">
         <v>2266</v>
@@ -40725,7 +41013,7 @@
         <v>56</v>
       </c>
       <c r="C2265">
-        <v>6400</v>
+        <v>6280</v>
       </c>
       <c r="D2265" t="s">
         <v>2267</v>
@@ -40739,7 +41027,7 @@
         <v>57</v>
       </c>
       <c r="C2266">
-        <v>6420</v>
+        <v>6290</v>
       </c>
       <c r="D2266" t="s">
         <v>2268</v>
@@ -40753,7 +41041,7 @@
         <v>58</v>
       </c>
       <c r="C2267">
-        <v>6440</v>
+        <v>6300</v>
       </c>
       <c r="D2267" t="s">
         <v>2269</v>
@@ -40767,7 +41055,7 @@
         <v>59</v>
       </c>
       <c r="C2268">
-        <v>6460</v>
+        <v>6310</v>
       </c>
       <c r="D2268" t="s">
         <v>2270</v>
@@ -40781,7 +41069,7 @@
         <v>60</v>
       </c>
       <c r="C2269">
-        <v>6490</v>
+        <v>6330</v>
       </c>
       <c r="D2269" t="s">
         <v>2271</v>
@@ -40795,7 +41083,7 @@
         <v>61</v>
       </c>
       <c r="C2270">
-        <v>6510</v>
+        <v>6390</v>
       </c>
       <c r="D2270" t="s">
         <v>2272</v>
@@ -40809,7 +41097,7 @@
         <v>62</v>
       </c>
       <c r="C2271">
-        <v>6530</v>
+        <v>6450</v>
       </c>
       <c r="D2271" t="s">
         <v>2273</v>
@@ -40823,7 +41111,7 @@
         <v>63</v>
       </c>
       <c r="C2272">
-        <v>6550</v>
+        <v>6500</v>
       </c>
       <c r="D2272" t="s">
         <v>2274</v>
@@ -40837,7 +41125,7 @@
         <v>64</v>
       </c>
       <c r="C2273">
-        <v>6580</v>
+        <v>6560</v>
       </c>
       <c r="D2273" t="s">
         <v>2275</v>
@@ -40851,7 +41139,7 @@
         <v>65</v>
       </c>
       <c r="C2274">
-        <v>6630</v>
+        <v>6620</v>
       </c>
       <c r="D2274" t="s">
         <v>2276</v>
@@ -40865,7 +41153,7 @@
         <v>66</v>
       </c>
       <c r="C2275">
-        <v>6690</v>
+        <v>6700</v>
       </c>
       <c r="D2275" t="s">
         <v>2277</v>
@@ -40879,7 +41167,7 @@
         <v>67</v>
       </c>
       <c r="C2276">
-        <v>6760</v>
+        <v>6780</v>
       </c>
       <c r="D2276" t="s">
         <v>2278</v>
@@ -40921,7 +41209,7 @@
         <v>70</v>
       </c>
       <c r="C2279">
-        <v>7080</v>
+        <v>7050</v>
       </c>
       <c r="D2279" t="s">
         <v>2281</v>
@@ -40935,7 +41223,7 @@
         <v>71</v>
       </c>
       <c r="C2280">
-        <v>7190</v>
+        <v>7150</v>
       </c>
       <c r="D2280" t="s">
         <v>2282</v>
@@ -40949,7 +41237,7 @@
         <v>72</v>
       </c>
       <c r="C2281">
-        <v>7300</v>
+        <v>7250</v>
       </c>
       <c r="D2281" t="s">
         <v>2283</v>
@@ -40963,7 +41251,7 @@
         <v>73</v>
       </c>
       <c r="C2282">
-        <v>7410</v>
+        <v>7380</v>
       </c>
       <c r="D2282" t="s">
         <v>2284</v>
@@ -40977,7 +41265,7 @@
         <v>74</v>
       </c>
       <c r="C2283">
-        <v>7520</v>
+        <v>7470</v>
       </c>
       <c r="D2283" t="s">
         <v>2285</v>
@@ -40991,7 +41279,7 @@
         <v>75</v>
       </c>
       <c r="C2284">
-        <v>7620</v>
+        <v>7570</v>
       </c>
       <c r="D2284" t="s">
         <v>2286</v>
@@ -41005,7 +41293,7 @@
         <v>76</v>
       </c>
       <c r="C2285">
-        <v>7710</v>
+        <v>7660</v>
       </c>
       <c r="D2285" t="s">
         <v>2287</v>
@@ -41019,7 +41307,7 @@
         <v>77</v>
       </c>
       <c r="C2286">
-        <v>7790</v>
+        <v>7750</v>
       </c>
       <c r="D2286" t="s">
         <v>2288</v>
@@ -41033,7 +41321,7 @@
         <v>78</v>
       </c>
       <c r="C2287">
-        <v>7850</v>
+        <v>7810</v>
       </c>
       <c r="D2287" t="s">
         <v>2289</v>
@@ -41047,7 +41335,7 @@
         <v>79</v>
       </c>
       <c r="C2288">
-        <v>7850</v>
+        <v>7820</v>
       </c>
       <c r="D2288" t="s">
         <v>2290</v>
@@ -41061,7 +41349,7 @@
         <v>80</v>
       </c>
       <c r="C2289">
-        <v>7840</v>
+        <v>7810</v>
       </c>
       <c r="D2289" t="s">
         <v>2291</v>
@@ -41075,7 +41363,7 @@
         <v>81</v>
       </c>
       <c r="C2290">
-        <v>7820</v>
+        <v>7770</v>
       </c>
       <c r="D2290" t="s">
         <v>2292</v>
@@ -41089,7 +41377,7 @@
         <v>82</v>
       </c>
       <c r="C2291">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="D2291" t="s">
         <v>2293</v>
@@ -41103,7 +41391,7 @@
         <v>83</v>
       </c>
       <c r="C2292">
-        <v>7770</v>
+        <v>7640</v>
       </c>
       <c r="D2292" t="s">
         <v>2294</v>
@@ -41117,7 +41405,7 @@
         <v>84</v>
       </c>
       <c r="C2293">
-        <v>7710</v>
+        <v>7570</v>
       </c>
       <c r="D2293" t="s">
         <v>2295</v>
@@ -41131,7 +41419,7 @@
         <v>85</v>
       </c>
       <c r="C2294">
-        <v>7580</v>
+        <v>7470</v>
       </c>
       <c r="D2294" t="s">
         <v>2296</v>
@@ -41145,7 +41433,7 @@
         <v>86</v>
       </c>
       <c r="C2295">
-        <v>7460</v>
+        <v>7380</v>
       </c>
       <c r="D2295" t="s">
         <v>2297</v>
@@ -41159,7 +41447,7 @@
         <v>87</v>
       </c>
       <c r="C2296">
-        <v>7350</v>
+        <v>7280</v>
       </c>
       <c r="D2296" t="s">
         <v>2298</v>
@@ -41173,7 +41461,7 @@
         <v>88</v>
       </c>
       <c r="C2297">
-        <v>7220</v>
+        <v>7150</v>
       </c>
       <c r="D2297" t="s">
         <v>2299</v>
@@ -41187,7 +41475,7 @@
         <v>89</v>
       </c>
       <c r="C2298">
-        <v>7040</v>
+        <v>6970</v>
       </c>
       <c r="D2298" t="s">
         <v>2300</v>
@@ -41201,7 +41489,7 @@
         <v>90</v>
       </c>
       <c r="C2299">
-        <v>6910</v>
+        <v>6820</v>
       </c>
       <c r="D2299" t="s">
         <v>2301</v>
@@ -41215,7 +41503,7 @@
         <v>91</v>
       </c>
       <c r="C2300">
-        <v>6740</v>
+        <v>6660</v>
       </c>
       <c r="D2300" t="s">
         <v>2302</v>
@@ -41229,7 +41517,7 @@
         <v>92</v>
       </c>
       <c r="C2301">
-        <v>6570</v>
+        <v>6530</v>
       </c>
       <c r="D2301" t="s">
         <v>2303</v>
@@ -41243,7 +41531,7 @@
         <v>93</v>
       </c>
       <c r="C2302">
-        <v>6400</v>
+        <v>6410</v>
       </c>
       <c r="D2302" t="s">
         <v>2304</v>
@@ -41257,7 +41545,7 @@
         <v>94</v>
       </c>
       <c r="C2303">
-        <v>6240</v>
+        <v>6280</v>
       </c>
       <c r="D2303" t="s">
         <v>2305</v>
@@ -41271,7 +41559,7 @@
         <v>95</v>
       </c>
       <c r="C2304">
-        <v>6100</v>
+        <v>6170</v>
       </c>
       <c r="D2304" t="s">
         <v>2306</v>
@@ -41285,7 +41573,7 @@
         <v>96</v>
       </c>
       <c r="C2305">
-        <v>5970</v>
+        <v>6040</v>
       </c>
       <c r="D2305" t="s">
         <v>2307</v>
@@ -49297,6 +49585,1350 @@
       </c>
       <c r="D2877" t="s">
         <v>2879</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:4">
+      <c r="A2878" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2878">
+        <v>1</v>
+      </c>
+      <c r="C2878">
+        <v>5470</v>
+      </c>
+      <c r="D2878" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:4">
+      <c r="A2879" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2879">
+        <v>2</v>
+      </c>
+      <c r="C2879">
+        <v>5410</v>
+      </c>
+      <c r="D2879" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:4">
+      <c r="A2880" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2880">
+        <v>3</v>
+      </c>
+      <c r="C2880">
+        <v>5350</v>
+      </c>
+      <c r="D2880" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:4">
+      <c r="A2881" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2881">
+        <v>4</v>
+      </c>
+      <c r="C2881">
+        <v>5290</v>
+      </c>
+      <c r="D2881" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:4">
+      <c r="A2882" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2882">
+        <v>5</v>
+      </c>
+      <c r="C2882">
+        <v>5250</v>
+      </c>
+      <c r="D2882" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:4">
+      <c r="A2883" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2883">
+        <v>6</v>
+      </c>
+      <c r="C2883">
+        <v>5210</v>
+      </c>
+      <c r="D2883" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:4">
+      <c r="A2884" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2884">
+        <v>7</v>
+      </c>
+      <c r="C2884">
+        <v>5180</v>
+      </c>
+      <c r="D2884" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:4">
+      <c r="A2885" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2885">
+        <v>8</v>
+      </c>
+      <c r="C2885">
+        <v>5140</v>
+      </c>
+      <c r="D2885" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:4">
+      <c r="A2886" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2886">
+        <v>9</v>
+      </c>
+      <c r="C2886">
+        <v>5110</v>
+      </c>
+      <c r="D2886" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:4">
+      <c r="A2887" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2887">
+        <v>10</v>
+      </c>
+      <c r="C2887">
+        <v>5080</v>
+      </c>
+      <c r="D2887" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:4">
+      <c r="A2888" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2888">
+        <v>11</v>
+      </c>
+      <c r="C2888">
+        <v>5070</v>
+      </c>
+      <c r="D2888" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:4">
+      <c r="A2889" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2889">
+        <v>12</v>
+      </c>
+      <c r="C2889">
+        <v>5060</v>
+      </c>
+      <c r="D2889" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:4">
+      <c r="A2890" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2890">
+        <v>13</v>
+      </c>
+      <c r="C2890">
+        <v>5060</v>
+      </c>
+      <c r="D2890" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:4">
+      <c r="A2891" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2891">
+        <v>14</v>
+      </c>
+      <c r="C2891">
+        <v>5070</v>
+      </c>
+      <c r="D2891" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:4">
+      <c r="A2892" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2892">
+        <v>15</v>
+      </c>
+      <c r="C2892">
+        <v>5080</v>
+      </c>
+      <c r="D2892" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:4">
+      <c r="A2893" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2893">
+        <v>16</v>
+      </c>
+      <c r="C2893">
+        <v>5080</v>
+      </c>
+      <c r="D2893" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:4">
+      <c r="A2894" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2894">
+        <v>17</v>
+      </c>
+      <c r="C2894">
+        <v>5090</v>
+      </c>
+      <c r="D2894" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:4">
+      <c r="A2895" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2895">
+        <v>18</v>
+      </c>
+      <c r="C2895">
+        <v>5110</v>
+      </c>
+      <c r="D2895" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:4">
+      <c r="A2896" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2896">
+        <v>19</v>
+      </c>
+      <c r="C2896">
+        <v>5140</v>
+      </c>
+      <c r="D2896" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:4">
+      <c r="A2897" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2897">
+        <v>20</v>
+      </c>
+      <c r="C2897">
+        <v>5180</v>
+      </c>
+      <c r="D2897" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:4">
+      <c r="A2898" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2898">
+        <v>21</v>
+      </c>
+      <c r="C2898">
+        <v>5240</v>
+      </c>
+      <c r="D2898" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:4">
+      <c r="A2899" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2899">
+        <v>22</v>
+      </c>
+      <c r="C2899">
+        <v>5320</v>
+      </c>
+      <c r="D2899" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:4">
+      <c r="A2900" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2900">
+        <v>23</v>
+      </c>
+      <c r="C2900">
+        <v>5430</v>
+      </c>
+      <c r="D2900" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:4">
+      <c r="A2901" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2901">
+        <v>24</v>
+      </c>
+      <c r="C2901">
+        <v>5560</v>
+      </c>
+      <c r="D2901" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:4">
+      <c r="A2902" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2902">
+        <v>25</v>
+      </c>
+      <c r="C2902">
+        <v>5710</v>
+      </c>
+      <c r="D2902" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:4">
+      <c r="A2903" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2903">
+        <v>26</v>
+      </c>
+      <c r="C2903">
+        <v>5880</v>
+      </c>
+      <c r="D2903" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:4">
+      <c r="A2904" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2904">
+        <v>27</v>
+      </c>
+      <c r="C2904">
+        <v>6070</v>
+      </c>
+      <c r="D2904" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:4">
+      <c r="A2905" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2905">
+        <v>28</v>
+      </c>
+      <c r="C2905">
+        <v>6260</v>
+      </c>
+      <c r="D2905" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:4">
+      <c r="A2906" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2906">
+        <v>29</v>
+      </c>
+      <c r="C2906">
+        <v>6450</v>
+      </c>
+      <c r="D2906" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:4">
+      <c r="A2907" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2907">
+        <v>30</v>
+      </c>
+      <c r="C2907">
+        <v>6620</v>
+      </c>
+      <c r="D2907" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:4">
+      <c r="A2908" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2908">
+        <v>31</v>
+      </c>
+      <c r="C2908">
+        <v>6780</v>
+      </c>
+      <c r="D2908" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:4">
+      <c r="A2909" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2909">
+        <v>32</v>
+      </c>
+      <c r="C2909">
+        <v>6920</v>
+      </c>
+      <c r="D2909" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:4">
+      <c r="A2910" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2910">
+        <v>33</v>
+      </c>
+      <c r="C2910">
+        <v>7030</v>
+      </c>
+      <c r="D2910" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:4">
+      <c r="A2911" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2911">
+        <v>34</v>
+      </c>
+      <c r="C2911">
+        <v>7110</v>
+      </c>
+      <c r="D2911" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:4">
+      <c r="A2912" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2912">
+        <v>35</v>
+      </c>
+      <c r="C2912">
+        <v>7150</v>
+      </c>
+      <c r="D2912" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:4">
+      <c r="A2913" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2913">
+        <v>36</v>
+      </c>
+      <c r="C2913">
+        <v>7160</v>
+      </c>
+      <c r="D2913" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:4">
+      <c r="A2914" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2914">
+        <v>37</v>
+      </c>
+      <c r="C2914">
+        <v>7140</v>
+      </c>
+      <c r="D2914" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:4">
+      <c r="A2915" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2915">
+        <v>38</v>
+      </c>
+      <c r="C2915">
+        <v>7090</v>
+      </c>
+      <c r="D2915" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:4">
+      <c r="A2916" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2916">
+        <v>39</v>
+      </c>
+      <c r="C2916">
+        <v>7020</v>
+      </c>
+      <c r="D2916" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:4">
+      <c r="A2917" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2917">
+        <v>40</v>
+      </c>
+      <c r="C2917">
+        <v>6940</v>
+      </c>
+      <c r="D2917" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:4">
+      <c r="A2918" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2918">
+        <v>41</v>
+      </c>
+      <c r="C2918">
+        <v>6850</v>
+      </c>
+      <c r="D2918" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:4">
+      <c r="A2919" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2919">
+        <v>42</v>
+      </c>
+      <c r="C2919">
+        <v>6760</v>
+      </c>
+      <c r="D2919" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:4">
+      <c r="A2920" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2920">
+        <v>43</v>
+      </c>
+      <c r="C2920">
+        <v>6680</v>
+      </c>
+      <c r="D2920" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:4">
+      <c r="A2921" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2921">
+        <v>44</v>
+      </c>
+      <c r="C2921">
+        <v>6600</v>
+      </c>
+      <c r="D2921" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:4">
+      <c r="A2922" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2922">
+        <v>45</v>
+      </c>
+      <c r="C2922">
+        <v>6540</v>
+      </c>
+      <c r="D2922" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:4">
+      <c r="A2923" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2923">
+        <v>46</v>
+      </c>
+      <c r="C2923">
+        <v>6490</v>
+      </c>
+      <c r="D2923" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:4">
+      <c r="A2924" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2924">
+        <v>47</v>
+      </c>
+      <c r="C2924">
+        <v>6450</v>
+      </c>
+      <c r="D2924" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:4">
+      <c r="A2925" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2925">
+        <v>48</v>
+      </c>
+      <c r="C2925">
+        <v>6420</v>
+      </c>
+      <c r="D2925" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:4">
+      <c r="A2926" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2926">
+        <v>49</v>
+      </c>
+      <c r="C2926">
+        <v>6390</v>
+      </c>
+      <c r="D2926" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:4">
+      <c r="A2927" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2927">
+        <v>50</v>
+      </c>
+      <c r="C2927">
+        <v>6370</v>
+      </c>
+      <c r="D2927" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:4">
+      <c r="A2928" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2928">
+        <v>51</v>
+      </c>
+      <c r="C2928">
+        <v>6340</v>
+      </c>
+      <c r="D2928" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:4">
+      <c r="A2929" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2929">
+        <v>52</v>
+      </c>
+      <c r="C2929">
+        <v>6320</v>
+      </c>
+      <c r="D2929" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:4">
+      <c r="A2930" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2930">
+        <v>53</v>
+      </c>
+      <c r="C2930">
+        <v>6300</v>
+      </c>
+      <c r="D2930" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:4">
+      <c r="A2931" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2931">
+        <v>54</v>
+      </c>
+      <c r="C2931">
+        <v>6290</v>
+      </c>
+      <c r="D2931" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:4">
+      <c r="A2932" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2932">
+        <v>55</v>
+      </c>
+      <c r="C2932">
+        <v>6280</v>
+      </c>
+      <c r="D2932" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:4">
+      <c r="A2933" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2933">
+        <v>56</v>
+      </c>
+      <c r="C2933">
+        <v>6290</v>
+      </c>
+      <c r="D2933" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:4">
+      <c r="A2934" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2934">
+        <v>57</v>
+      </c>
+      <c r="C2934">
+        <v>6300</v>
+      </c>
+      <c r="D2934" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:4">
+      <c r="A2935" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2935">
+        <v>58</v>
+      </c>
+      <c r="C2935">
+        <v>6310</v>
+      </c>
+      <c r="D2935" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:4">
+      <c r="A2936" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2936">
+        <v>59</v>
+      </c>
+      <c r="C2936">
+        <v>6330</v>
+      </c>
+      <c r="D2936" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:4">
+      <c r="A2937" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2937">
+        <v>60</v>
+      </c>
+      <c r="C2937">
+        <v>6350</v>
+      </c>
+      <c r="D2937" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:4">
+      <c r="A2938" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2938">
+        <v>61</v>
+      </c>
+      <c r="C2938">
+        <v>6380</v>
+      </c>
+      <c r="D2938" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:4">
+      <c r="A2939" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2939">
+        <v>62</v>
+      </c>
+      <c r="C2939">
+        <v>6400</v>
+      </c>
+      <c r="D2939" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:4">
+      <c r="A2940" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2940">
+        <v>63</v>
+      </c>
+      <c r="C2940">
+        <v>6420</v>
+      </c>
+      <c r="D2940" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:4">
+      <c r="A2941" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2941">
+        <v>64</v>
+      </c>
+      <c r="C2941">
+        <v>6450</v>
+      </c>
+      <c r="D2941" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:4">
+      <c r="A2942" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2942">
+        <v>65</v>
+      </c>
+      <c r="C2942">
+        <v>6490</v>
+      </c>
+      <c r="D2942" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:4">
+      <c r="A2943" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2943">
+        <v>66</v>
+      </c>
+      <c r="C2943">
+        <v>6550</v>
+      </c>
+      <c r="D2943" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:4">
+      <c r="A2944" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2944">
+        <v>67</v>
+      </c>
+      <c r="C2944">
+        <v>6610</v>
+      </c>
+      <c r="D2944" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:4">
+      <c r="A2945" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2945">
+        <v>68</v>
+      </c>
+      <c r="C2945">
+        <v>6700</v>
+      </c>
+      <c r="D2945" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:4">
+      <c r="A2946" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2946">
+        <v>69</v>
+      </c>
+      <c r="C2946">
+        <v>6790</v>
+      </c>
+      <c r="D2946" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:4">
+      <c r="A2947" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2947">
+        <v>70</v>
+      </c>
+      <c r="C2947">
+        <v>6880</v>
+      </c>
+      <c r="D2947" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:4">
+      <c r="A2948" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2948">
+        <v>71</v>
+      </c>
+      <c r="C2948">
+        <v>6970</v>
+      </c>
+      <c r="D2948" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:4">
+      <c r="A2949" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2949">
+        <v>72</v>
+      </c>
+      <c r="C2949">
+        <v>7060</v>
+      </c>
+      <c r="D2949" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:4">
+      <c r="A2950" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2950">
+        <v>73</v>
+      </c>
+      <c r="C2950">
+        <v>7130</v>
+      </c>
+      <c r="D2950" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:4">
+      <c r="A2951" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2951">
+        <v>74</v>
+      </c>
+      <c r="C2951">
+        <v>7210</v>
+      </c>
+      <c r="D2951" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:4">
+      <c r="A2952" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2952">
+        <v>75</v>
+      </c>
+      <c r="C2952">
+        <v>7290</v>
+      </c>
+      <c r="D2952" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:4">
+      <c r="A2953" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2953">
+        <v>76</v>
+      </c>
+      <c r="C2953">
+        <v>7380</v>
+      </c>
+      <c r="D2953" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:4">
+      <c r="A2954" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2954">
+        <v>77</v>
+      </c>
+      <c r="C2954">
+        <v>7480</v>
+      </c>
+      <c r="D2954" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:4">
+      <c r="A2955" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2955">
+        <v>78</v>
+      </c>
+      <c r="C2955">
+        <v>7550</v>
+      </c>
+      <c r="D2955" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:4">
+      <c r="A2956" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2956">
+        <v>79</v>
+      </c>
+      <c r="C2956">
+        <v>7640</v>
+      </c>
+      <c r="D2956" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:4">
+      <c r="A2957" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2957">
+        <v>80</v>
+      </c>
+      <c r="C2957">
+        <v>7720</v>
+      </c>
+      <c r="D2957" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:4">
+      <c r="A2958" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2958">
+        <v>81</v>
+      </c>
+      <c r="C2958">
+        <v>7790</v>
+      </c>
+      <c r="D2958" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:4">
+      <c r="A2959" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2959">
+        <v>82</v>
+      </c>
+      <c r="C2959">
+        <v>7850</v>
+      </c>
+      <c r="D2959" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:4">
+      <c r="A2960" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2960">
+        <v>83</v>
+      </c>
+      <c r="C2960">
+        <v>7870</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:4">
+      <c r="A2961" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2961">
+        <v>84</v>
+      </c>
+      <c r="C2961">
+        <v>7880</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:4">
+      <c r="A2962" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2962">
+        <v>85</v>
+      </c>
+      <c r="C2962">
+        <v>7850</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:4">
+      <c r="A2963" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2963">
+        <v>86</v>
+      </c>
+      <c r="C2963">
+        <v>7760</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:4">
+      <c r="A2964" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2964">
+        <v>87</v>
+      </c>
+      <c r="C2964">
+        <v>7660</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:4">
+      <c r="A2965" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2965">
+        <v>88</v>
+      </c>
+      <c r="C2965">
+        <v>7520</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:4">
+      <c r="A2966" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2966">
+        <v>89</v>
+      </c>
+      <c r="C2966">
+        <v>7360</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:4">
+      <c r="A2967" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2967">
+        <v>90</v>
+      </c>
+      <c r="C2967">
+        <v>7220</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:4">
+      <c r="A2968" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2968">
+        <v>91</v>
+      </c>
+      <c r="C2968">
+        <v>7060</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:4">
+      <c r="A2969" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2969">
+        <v>92</v>
+      </c>
+      <c r="C2969">
+        <v>6910</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:4">
+      <c r="A2970" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2970">
+        <v>93</v>
+      </c>
+      <c r="C2970">
+        <v>6700</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:4">
+      <c r="A2971" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2971">
+        <v>94</v>
+      </c>
+      <c r="C2971">
+        <v>6550</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:4">
+      <c r="A2972" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2972">
+        <v>95</v>
+      </c>
+      <c r="C2972">
+        <v>6430</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:4">
+      <c r="A2973" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2973">
+        <v>96</v>
+      </c>
+      <c r="C2973">
+        <v>6320</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>2975</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2025.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2025.xlsx
@@ -41587,7 +41587,7 @@
         <v>1</v>
       </c>
       <c r="C2306">
-        <v>5950</v>
+        <v>5850</v>
       </c>
       <c r="D2306" t="s">
         <v>2308</v>
@@ -41601,7 +41601,7 @@
         <v>2</v>
       </c>
       <c r="C2307">
-        <v>5900</v>
+        <v>5780</v>
       </c>
       <c r="D2307" t="s">
         <v>2309</v>
@@ -41615,7 +41615,7 @@
         <v>3</v>
       </c>
       <c r="C2308">
-        <v>5860</v>
+        <v>5720</v>
       </c>
       <c r="D2308" t="s">
         <v>2310</v>
@@ -41629,7 +41629,7 @@
         <v>4</v>
       </c>
       <c r="C2309">
-        <v>5810</v>
+        <v>5670</v>
       </c>
       <c r="D2309" t="s">
         <v>2311</v>
@@ -41643,7 +41643,7 @@
         <v>5</v>
       </c>
       <c r="C2310">
-        <v>5750</v>
+        <v>5620</v>
       </c>
       <c r="D2310" t="s">
         <v>2312</v>
@@ -41657,7 +41657,7 @@
         <v>6</v>
       </c>
       <c r="C2311">
-        <v>5710</v>
+        <v>5570</v>
       </c>
       <c r="D2311" t="s">
         <v>2313</v>
@@ -41671,7 +41671,7 @@
         <v>7</v>
       </c>
       <c r="C2312">
-        <v>5680</v>
+        <v>5530</v>
       </c>
       <c r="D2312" t="s">
         <v>2314</v>
@@ -41685,7 +41685,7 @@
         <v>8</v>
       </c>
       <c r="C2313">
-        <v>5640</v>
+        <v>5490</v>
       </c>
       <c r="D2313" t="s">
         <v>2315</v>
@@ -41699,7 +41699,7 @@
         <v>9</v>
       </c>
       <c r="C2314">
-        <v>5610</v>
+        <v>5460</v>
       </c>
       <c r="D2314" t="s">
         <v>2316</v>
@@ -41713,7 +41713,7 @@
         <v>10</v>
       </c>
       <c r="C2315">
-        <v>5600</v>
+        <v>5440</v>
       </c>
       <c r="D2315" t="s">
         <v>2317</v>
@@ -41727,7 +41727,7 @@
         <v>11</v>
       </c>
       <c r="C2316">
-        <v>5590</v>
+        <v>5420</v>
       </c>
       <c r="D2316" t="s">
         <v>2318</v>
@@ -41741,7 +41741,7 @@
         <v>12</v>
       </c>
       <c r="C2317">
-        <v>5580</v>
+        <v>5410</v>
       </c>
       <c r="D2317" t="s">
         <v>2319</v>
@@ -41755,7 +41755,7 @@
         <v>13</v>
       </c>
       <c r="C2318">
-        <v>5570</v>
+        <v>5400</v>
       </c>
       <c r="D2318" t="s">
         <v>2320</v>
@@ -41769,7 +41769,7 @@
         <v>14</v>
       </c>
       <c r="C2319">
-        <v>5550</v>
+        <v>5400</v>
       </c>
       <c r="D2319" t="s">
         <v>2321</v>
@@ -41783,7 +41783,7 @@
         <v>15</v>
       </c>
       <c r="C2320">
-        <v>5550</v>
+        <v>5410</v>
       </c>
       <c r="D2320" t="s">
         <v>2322</v>
@@ -41797,7 +41797,7 @@
         <v>16</v>
       </c>
       <c r="C2321">
-        <v>5560</v>
+        <v>5420</v>
       </c>
       <c r="D2321" t="s">
         <v>2323</v>
@@ -41811,7 +41811,7 @@
         <v>17</v>
       </c>
       <c r="C2322">
-        <v>5580</v>
+        <v>5440</v>
       </c>
       <c r="D2322" t="s">
         <v>2324</v>
@@ -41825,7 +41825,7 @@
         <v>18</v>
       </c>
       <c r="C2323">
-        <v>5600</v>
+        <v>5470</v>
       </c>
       <c r="D2323" t="s">
         <v>2325</v>
@@ -41839,7 +41839,7 @@
         <v>19</v>
       </c>
       <c r="C2324">
-        <v>5630</v>
+        <v>5500</v>
       </c>
       <c r="D2324" t="s">
         <v>2326</v>
@@ -41853,7 +41853,7 @@
         <v>20</v>
       </c>
       <c r="C2325">
-        <v>5680</v>
+        <v>5540</v>
       </c>
       <c r="D2325" t="s">
         <v>2327</v>
@@ -41867,7 +41867,7 @@
         <v>21</v>
       </c>
       <c r="C2326">
-        <v>5740</v>
+        <v>5590</v>
       </c>
       <c r="D2326" t="s">
         <v>2328</v>
@@ -41881,7 +41881,7 @@
         <v>22</v>
       </c>
       <c r="C2327">
-        <v>5820</v>
+        <v>5650</v>
       </c>
       <c r="D2327" t="s">
         <v>2329</v>
@@ -41895,7 +41895,7 @@
         <v>23</v>
       </c>
       <c r="C2328">
-        <v>5920</v>
+        <v>5730</v>
       </c>
       <c r="D2328" t="s">
         <v>2330</v>
@@ -41909,7 +41909,7 @@
         <v>24</v>
       </c>
       <c r="C2329">
-        <v>6030</v>
+        <v>5820</v>
       </c>
       <c r="D2329" t="s">
         <v>2331</v>
@@ -41923,7 +41923,7 @@
         <v>25</v>
       </c>
       <c r="C2330">
-        <v>6150</v>
+        <v>5930</v>
       </c>
       <c r="D2330" t="s">
         <v>2332</v>
@@ -41937,7 +41937,7 @@
         <v>26</v>
       </c>
       <c r="C2331">
-        <v>6280</v>
+        <v>6050</v>
       </c>
       <c r="D2331" t="s">
         <v>2333</v>
@@ -41951,7 +41951,7 @@
         <v>27</v>
       </c>
       <c r="C2332">
-        <v>6400</v>
+        <v>6190</v>
       </c>
       <c r="D2332" t="s">
         <v>2334</v>
@@ -41965,7 +41965,7 @@
         <v>28</v>
       </c>
       <c r="C2333">
-        <v>6520</v>
+        <v>6330</v>
       </c>
       <c r="D2333" t="s">
         <v>2335</v>
@@ -41979,7 +41979,7 @@
         <v>29</v>
       </c>
       <c r="C2334">
-        <v>6640</v>
+        <v>6470</v>
       </c>
       <c r="D2334" t="s">
         <v>2336</v>
@@ -41993,7 +41993,7 @@
         <v>30</v>
       </c>
       <c r="C2335">
-        <v>6740</v>
+        <v>6600</v>
       </c>
       <c r="D2335" t="s">
         <v>2337</v>
@@ -42007,7 +42007,7 @@
         <v>31</v>
       </c>
       <c r="C2336">
-        <v>6820</v>
+        <v>6710</v>
       </c>
       <c r="D2336" t="s">
         <v>2338</v>
@@ -42021,7 +42021,7 @@
         <v>32</v>
       </c>
       <c r="C2337">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="D2337" t="s">
         <v>2339</v>
@@ -42035,7 +42035,7 @@
         <v>33</v>
       </c>
       <c r="C2338">
-        <v>6950</v>
+        <v>6850</v>
       </c>
       <c r="D2338" t="s">
         <v>2340</v>
@@ -42049,7 +42049,7 @@
         <v>34</v>
       </c>
       <c r="C2339">
-        <v>6990</v>
+        <v>6870</v>
       </c>
       <c r="D2339" t="s">
         <v>2341</v>
@@ -42063,7 +42063,7 @@
         <v>35</v>
       </c>
       <c r="C2340">
-        <v>7000</v>
+        <v>6860</v>
       </c>
       <c r="D2340" t="s">
         <v>2342</v>
@@ -42077,7 +42077,7 @@
         <v>36</v>
       </c>
       <c r="C2341">
-        <v>7000</v>
+        <v>6810</v>
       </c>
       <c r="D2341" t="s">
         <v>2343</v>
@@ -42091,7 +42091,7 @@
         <v>37</v>
       </c>
       <c r="C2342">
-        <v>6970</v>
+        <v>6730</v>
       </c>
       <c r="D2342" t="s">
         <v>2344</v>
@@ -42105,7 +42105,7 @@
         <v>38</v>
       </c>
       <c r="C2343">
-        <v>6930</v>
+        <v>6620</v>
       </c>
       <c r="D2343" t="s">
         <v>2345</v>
@@ -42119,7 +42119,7 @@
         <v>39</v>
       </c>
       <c r="C2344">
-        <v>6870</v>
+        <v>6510</v>
       </c>
       <c r="D2344" t="s">
         <v>2346</v>
@@ -42133,7 +42133,7 @@
         <v>40</v>
       </c>
       <c r="C2345">
-        <v>6800</v>
+        <v>6390</v>
       </c>
       <c r="D2345" t="s">
         <v>2347</v>
@@ -42147,7 +42147,7 @@
         <v>41</v>
       </c>
       <c r="C2346">
-        <v>6720</v>
+        <v>6270</v>
       </c>
       <c r="D2346" t="s">
         <v>2348</v>
@@ -42161,7 +42161,7 @@
         <v>42</v>
       </c>
       <c r="C2347">
-        <v>6640</v>
+        <v>6160</v>
       </c>
       <c r="D2347" t="s">
         <v>2349</v>
@@ -42175,7 +42175,7 @@
         <v>43</v>
       </c>
       <c r="C2348">
-        <v>6560</v>
+        <v>6060</v>
       </c>
       <c r="D2348" t="s">
         <v>2350</v>
@@ -42189,7 +42189,7 @@
         <v>44</v>
       </c>
       <c r="C2349">
-        <v>6490</v>
+        <v>5970</v>
       </c>
       <c r="D2349" t="s">
         <v>2351</v>
@@ -42203,7 +42203,7 @@
         <v>45</v>
       </c>
       <c r="C2350">
-        <v>6440</v>
+        <v>5900</v>
       </c>
       <c r="D2350" t="s">
         <v>2352</v>
@@ -42217,7 +42217,7 @@
         <v>46</v>
       </c>
       <c r="C2351">
-        <v>6390</v>
+        <v>5840</v>
       </c>
       <c r="D2351" t="s">
         <v>2353</v>
@@ -42231,7 +42231,7 @@
         <v>47</v>
       </c>
       <c r="C2352">
-        <v>6360</v>
+        <v>5790</v>
       </c>
       <c r="D2352" t="s">
         <v>2354</v>
@@ -42245,7 +42245,7 @@
         <v>48</v>
       </c>
       <c r="C2353">
-        <v>6340</v>
+        <v>5750</v>
       </c>
       <c r="D2353" t="s">
         <v>2355</v>
@@ -42259,7 +42259,7 @@
         <v>49</v>
       </c>
       <c r="C2354">
-        <v>6330</v>
+        <v>5710</v>
       </c>
       <c r="D2354" t="s">
         <v>2356</v>
@@ -42273,7 +42273,7 @@
         <v>50</v>
       </c>
       <c r="C2355">
-        <v>6320</v>
+        <v>5670</v>
       </c>
       <c r="D2355" t="s">
         <v>2357</v>
@@ -42287,7 +42287,7 @@
         <v>51</v>
       </c>
       <c r="C2356">
-        <v>6310</v>
+        <v>5640</v>
       </c>
       <c r="D2356" t="s">
         <v>2358</v>
@@ -42301,7 +42301,7 @@
         <v>52</v>
       </c>
       <c r="C2357">
-        <v>6310</v>
+        <v>5620</v>
       </c>
       <c r="D2357" t="s">
         <v>2359</v>
@@ -42315,7 +42315,7 @@
         <v>53</v>
       </c>
       <c r="C2358">
-        <v>6300</v>
+        <v>5600</v>
       </c>
       <c r="D2358" t="s">
         <v>2360</v>
@@ -42329,7 +42329,7 @@
         <v>54</v>
       </c>
       <c r="C2359">
-        <v>6300</v>
+        <v>5600</v>
       </c>
       <c r="D2359" t="s">
         <v>2361</v>
@@ -42343,7 +42343,7 @@
         <v>55</v>
       </c>
       <c r="C2360">
-        <v>6300</v>
+        <v>5600</v>
       </c>
       <c r="D2360" t="s">
         <v>2362</v>
@@ -42357,7 +42357,7 @@
         <v>56</v>
       </c>
       <c r="C2361">
-        <v>6300</v>
+        <v>5620</v>
       </c>
       <c r="D2361" t="s">
         <v>2363</v>
@@ -42371,7 +42371,7 @@
         <v>57</v>
       </c>
       <c r="C2362">
-        <v>6310</v>
+        <v>5640</v>
       </c>
       <c r="D2362" t="s">
         <v>2364</v>
@@ -42385,7 +42385,7 @@
         <v>58</v>
       </c>
       <c r="C2363">
-        <v>6330</v>
+        <v>5670</v>
       </c>
       <c r="D2363" t="s">
         <v>2365</v>
@@ -42399,7 +42399,7 @@
         <v>59</v>
       </c>
       <c r="C2364">
-        <v>6350</v>
+        <v>5710</v>
       </c>
       <c r="D2364" t="s">
         <v>2366</v>
@@ -42413,7 +42413,7 @@
         <v>60</v>
       </c>
       <c r="C2365">
-        <v>6380</v>
+        <v>5750</v>
       </c>
       <c r="D2365" t="s">
         <v>2367</v>
@@ -42427,7 +42427,7 @@
         <v>61</v>
       </c>
       <c r="C2366">
-        <v>6410</v>
+        <v>5800</v>
       </c>
       <c r="D2366" t="s">
         <v>2368</v>
@@ -42441,7 +42441,7 @@
         <v>62</v>
       </c>
       <c r="C2367">
-        <v>6440</v>
+        <v>5850</v>
       </c>
       <c r="D2367" t="s">
         <v>2369</v>
@@ -42455,7 +42455,7 @@
         <v>63</v>
       </c>
       <c r="C2368">
-        <v>6480</v>
+        <v>5900</v>
       </c>
       <c r="D2368" t="s">
         <v>2370</v>
@@ -42469,7 +42469,7 @@
         <v>64</v>
       </c>
       <c r="C2369">
-        <v>6530</v>
+        <v>5970</v>
       </c>
       <c r="D2369" t="s">
         <v>2371</v>
@@ -42483,7 +42483,7 @@
         <v>65</v>
       </c>
       <c r="C2370">
-        <v>6580</v>
+        <v>6060</v>
       </c>
       <c r="D2370" t="s">
         <v>2372</v>
@@ -42497,7 +42497,7 @@
         <v>66</v>
       </c>
       <c r="C2371">
-        <v>6650</v>
+        <v>6150</v>
       </c>
       <c r="D2371" t="s">
         <v>2373</v>
@@ -42511,7 +42511,7 @@
         <v>67</v>
       </c>
       <c r="C2372">
-        <v>6730</v>
+        <v>6250</v>
       </c>
       <c r="D2372" t="s">
         <v>2374</v>
@@ -42525,7 +42525,7 @@
         <v>68</v>
       </c>
       <c r="C2373">
-        <v>6840</v>
+        <v>6350</v>
       </c>
       <c r="D2373" t="s">
         <v>2375</v>
@@ -42539,7 +42539,7 @@
         <v>69</v>
       </c>
       <c r="C2374">
-        <v>6950</v>
+        <v>6470</v>
       </c>
       <c r="D2374" t="s">
         <v>2376</v>
@@ -42553,7 +42553,7 @@
         <v>70</v>
       </c>
       <c r="C2375">
-        <v>7070</v>
+        <v>6570</v>
       </c>
       <c r="D2375" t="s">
         <v>2377</v>
@@ -42567,7 +42567,7 @@
         <v>71</v>
       </c>
       <c r="C2376">
-        <v>7200</v>
+        <v>6680</v>
       </c>
       <c r="D2376" t="s">
         <v>2378</v>
@@ -42581,7 +42581,7 @@
         <v>72</v>
       </c>
       <c r="C2377">
-        <v>7320</v>
+        <v>6810</v>
       </c>
       <c r="D2377" t="s">
         <v>2379</v>
@@ -42595,7 +42595,7 @@
         <v>73</v>
       </c>
       <c r="C2378">
-        <v>7420</v>
+        <v>6910</v>
       </c>
       <c r="D2378" t="s">
         <v>2380</v>
@@ -42609,7 +42609,7 @@
         <v>74</v>
       </c>
       <c r="C2379">
-        <v>7520</v>
+        <v>7030</v>
       </c>
       <c r="D2379" t="s">
         <v>2381</v>
@@ -42623,7 +42623,7 @@
         <v>75</v>
       </c>
       <c r="C2380">
-        <v>7600</v>
+        <v>7150</v>
       </c>
       <c r="D2380" t="s">
         <v>2382</v>
@@ -42637,7 +42637,7 @@
         <v>76</v>
       </c>
       <c r="C2381">
-        <v>7670</v>
+        <v>7280</v>
       </c>
       <c r="D2381" t="s">
         <v>2383</v>
@@ -42651,7 +42651,7 @@
         <v>77</v>
       </c>
       <c r="C2382">
-        <v>7730</v>
+        <v>7410</v>
       </c>
       <c r="D2382" t="s">
         <v>2384</v>
@@ -42665,7 +42665,7 @@
         <v>78</v>
       </c>
       <c r="C2383">
-        <v>7750</v>
+        <v>7510</v>
       </c>
       <c r="D2383" t="s">
         <v>2385</v>
@@ -42679,7 +42679,7 @@
         <v>79</v>
       </c>
       <c r="C2384">
-        <v>7750</v>
+        <v>7570</v>
       </c>
       <c r="D2384" t="s">
         <v>2386</v>
@@ -42693,7 +42693,7 @@
         <v>80</v>
       </c>
       <c r="C2385">
-        <v>7730</v>
+        <v>7580</v>
       </c>
       <c r="D2385" t="s">
         <v>2387</v>
@@ -42707,7 +42707,7 @@
         <v>81</v>
       </c>
       <c r="C2386">
-        <v>7700</v>
+        <v>7570</v>
       </c>
       <c r="D2386" t="s">
         <v>2388</v>
@@ -42721,7 +42721,7 @@
         <v>82</v>
       </c>
       <c r="C2387">
-        <v>7670</v>
+        <v>7540</v>
       </c>
       <c r="D2387" t="s">
         <v>2389</v>
@@ -42735,7 +42735,7 @@
         <v>83</v>
       </c>
       <c r="C2388">
-        <v>7640</v>
+        <v>7500</v>
       </c>
       <c r="D2388" t="s">
         <v>2390</v>
@@ -42749,7 +42749,7 @@
         <v>84</v>
       </c>
       <c r="C2389">
-        <v>7570</v>
+        <v>7430</v>
       </c>
       <c r="D2389" t="s">
         <v>2391</v>
@@ -42763,7 +42763,7 @@
         <v>85</v>
       </c>
       <c r="C2390">
-        <v>7470</v>
+        <v>7320</v>
       </c>
       <c r="D2390" t="s">
         <v>2392</v>
@@ -42777,7 +42777,7 @@
         <v>86</v>
       </c>
       <c r="C2391">
-        <v>7350</v>
+        <v>7200</v>
       </c>
       <c r="D2391" t="s">
         <v>2393</v>
@@ -42791,7 +42791,7 @@
         <v>87</v>
       </c>
       <c r="C2392">
-        <v>7250</v>
+        <v>7080</v>
       </c>
       <c r="D2392" t="s">
         <v>2394</v>
@@ -42805,7 +42805,7 @@
         <v>88</v>
       </c>
       <c r="C2393">
-        <v>7120</v>
+        <v>6950</v>
       </c>
       <c r="D2393" t="s">
         <v>2395</v>
@@ -42819,7 +42819,7 @@
         <v>89</v>
       </c>
       <c r="C2394">
-        <v>6940</v>
+        <v>6810</v>
       </c>
       <c r="D2394" t="s">
         <v>2396</v>
@@ -42833,7 +42833,7 @@
         <v>90</v>
       </c>
       <c r="C2395">
-        <v>6800</v>
+        <v>6660</v>
       </c>
       <c r="D2395" t="s">
         <v>2397</v>
@@ -42847,7 +42847,7 @@
         <v>91</v>
       </c>
       <c r="C2396">
-        <v>6630</v>
+        <v>6530</v>
       </c>
       <c r="D2396" t="s">
         <v>2398</v>
@@ -42861,7 +42861,7 @@
         <v>92</v>
       </c>
       <c r="C2397">
-        <v>6470</v>
+        <v>6380</v>
       </c>
       <c r="D2397" t="s">
         <v>2399</v>
@@ -42875,7 +42875,7 @@
         <v>93</v>
       </c>
       <c r="C2398">
-        <v>6280</v>
+        <v>6260</v>
       </c>
       <c r="D2398" t="s">
         <v>2400</v>
@@ -42889,7 +42889,7 @@
         <v>94</v>
       </c>
       <c r="C2399">
-        <v>6120</v>
+        <v>6150</v>
       </c>
       <c r="D2399" t="s">
         <v>2401</v>
@@ -42903,7 +42903,7 @@
         <v>95</v>
       </c>
       <c r="C2400">
-        <v>5990</v>
+        <v>6020</v>
       </c>
       <c r="D2400" t="s">
         <v>2402</v>
@@ -42917,7 +42917,7 @@
         <v>96</v>
       </c>
       <c r="C2401">
-        <v>5880</v>
+        <v>5900</v>
       </c>
       <c r="D2401" t="s">
         <v>2403</v>
@@ -42931,7 +42931,7 @@
         <v>1</v>
       </c>
       <c r="C2402">
-        <v>5850</v>
+        <v>5780</v>
       </c>
       <c r="D2402" t="s">
         <v>2404</v>
@@ -42945,7 +42945,7 @@
         <v>2</v>
       </c>
       <c r="C2403">
-        <v>5800</v>
+        <v>5720</v>
       </c>
       <c r="D2403" t="s">
         <v>2405</v>
@@ -42959,7 +42959,7 @@
         <v>3</v>
       </c>
       <c r="C2404">
-        <v>5750</v>
+        <v>5680</v>
       </c>
       <c r="D2404" t="s">
         <v>2406</v>
@@ -42973,7 +42973,7 @@
         <v>4</v>
       </c>
       <c r="C2405">
-        <v>5710</v>
+        <v>5620</v>
       </c>
       <c r="D2405" t="s">
         <v>2407</v>
@@ -42987,7 +42987,7 @@
         <v>5</v>
       </c>
       <c r="C2406">
-        <v>5680</v>
+        <v>5570</v>
       </c>
       <c r="D2406" t="s">
         <v>2408</v>
@@ -43001,7 +43001,7 @@
         <v>6</v>
       </c>
       <c r="C2407">
-        <v>5640</v>
+        <v>5520</v>
       </c>
       <c r="D2407" t="s">
         <v>2409</v>
@@ -43015,7 +43015,7 @@
         <v>7</v>
       </c>
       <c r="C2408">
-        <v>5620</v>
+        <v>5480</v>
       </c>
       <c r="D2408" t="s">
         <v>2410</v>
@@ -43029,7 +43029,7 @@
         <v>8</v>
       </c>
       <c r="C2409">
-        <v>5590</v>
+        <v>5440</v>
       </c>
       <c r="D2409" t="s">
         <v>2411</v>
@@ -43043,7 +43043,7 @@
         <v>9</v>
       </c>
       <c r="C2410">
-        <v>5560</v>
+        <v>5400</v>
       </c>
       <c r="D2410" t="s">
         <v>2412</v>
@@ -43057,7 +43057,7 @@
         <v>10</v>
       </c>
       <c r="C2411">
-        <v>5550</v>
+        <v>5360</v>
       </c>
       <c r="D2411" t="s">
         <v>2413</v>
@@ -43071,7 +43071,7 @@
         <v>11</v>
       </c>
       <c r="C2412">
-        <v>5530</v>
+        <v>5330</v>
       </c>
       <c r="D2412" t="s">
         <v>2414</v>
@@ -43085,7 +43085,7 @@
         <v>12</v>
       </c>
       <c r="C2413">
-        <v>5530</v>
+        <v>5310</v>
       </c>
       <c r="D2413" t="s">
         <v>2415</v>
@@ -43099,7 +43099,7 @@
         <v>13</v>
       </c>
       <c r="C2414">
-        <v>5520</v>
+        <v>5280</v>
       </c>
       <c r="D2414" t="s">
         <v>2416</v>
@@ -43113,7 +43113,7 @@
         <v>14</v>
       </c>
       <c r="C2415">
-        <v>5510</v>
+        <v>5280</v>
       </c>
       <c r="D2415" t="s">
         <v>2417</v>
@@ -43127,7 +43127,7 @@
         <v>15</v>
       </c>
       <c r="C2416">
-        <v>5500</v>
+        <v>5280</v>
       </c>
       <c r="D2416" t="s">
         <v>2418</v>
@@ -43141,7 +43141,7 @@
         <v>16</v>
       </c>
       <c r="C2417">
-        <v>5500</v>
+        <v>5290</v>
       </c>
       <c r="D2417" t="s">
         <v>2419</v>
@@ -43155,7 +43155,7 @@
         <v>17</v>
       </c>
       <c r="C2418">
-        <v>5510</v>
+        <v>5300</v>
       </c>
       <c r="D2418" t="s">
         <v>2420</v>
@@ -43169,7 +43169,7 @@
         <v>18</v>
       </c>
       <c r="C2419">
-        <v>5530</v>
+        <v>5330</v>
       </c>
       <c r="D2419" t="s">
         <v>2421</v>
@@ -43183,7 +43183,7 @@
         <v>19</v>
       </c>
       <c r="C2420">
-        <v>5570</v>
+        <v>5360</v>
       </c>
       <c r="D2420" t="s">
         <v>2422</v>
@@ -43197,7 +43197,7 @@
         <v>20</v>
       </c>
       <c r="C2421">
-        <v>5620</v>
+        <v>5410</v>
       </c>
       <c r="D2421" t="s">
         <v>2423</v>
@@ -43211,7 +43211,7 @@
         <v>21</v>
       </c>
       <c r="C2422">
-        <v>5690</v>
+        <v>5490</v>
       </c>
       <c r="D2422" t="s">
         <v>2424</v>
@@ -43225,7 +43225,7 @@
         <v>22</v>
       </c>
       <c r="C2423">
-        <v>5770</v>
+        <v>5570</v>
       </c>
       <c r="D2423" t="s">
         <v>2425</v>
@@ -43239,7 +43239,7 @@
         <v>23</v>
       </c>
       <c r="C2424">
-        <v>5870</v>
+        <v>5670</v>
       </c>
       <c r="D2424" t="s">
         <v>2426</v>
@@ -43253,7 +43253,7 @@
         <v>24</v>
       </c>
       <c r="C2425">
-        <v>5980</v>
+        <v>5780</v>
       </c>
       <c r="D2425" t="s">
         <v>2427</v>
@@ -43267,7 +43267,7 @@
         <v>25</v>
       </c>
       <c r="C2426">
-        <v>6110</v>
+        <v>5880</v>
       </c>
       <c r="D2426" t="s">
         <v>2428</v>
@@ -43281,7 +43281,7 @@
         <v>26</v>
       </c>
       <c r="C2427">
-        <v>6230</v>
+        <v>6010</v>
       </c>
       <c r="D2427" t="s">
         <v>2429</v>
@@ -43295,7 +43295,7 @@
         <v>27</v>
       </c>
       <c r="C2428">
-        <v>6350</v>
+        <v>6150</v>
       </c>
       <c r="D2428" t="s">
         <v>2430</v>
@@ -43309,7 +43309,7 @@
         <v>28</v>
       </c>
       <c r="C2429">
-        <v>6470</v>
+        <v>6290</v>
       </c>
       <c r="D2429" t="s">
         <v>2431</v>
@@ -43323,7 +43323,7 @@
         <v>29</v>
       </c>
       <c r="C2430">
-        <v>6590</v>
+        <v>6520</v>
       </c>
       <c r="D2430" t="s">
         <v>2432</v>
@@ -43337,7 +43337,7 @@
         <v>30</v>
       </c>
       <c r="C2431">
-        <v>6690</v>
+        <v>6650</v>
       </c>
       <c r="D2431" t="s">
         <v>2433</v>
@@ -43365,7 +43365,7 @@
         <v>32</v>
       </c>
       <c r="C2433">
-        <v>6840</v>
+        <v>6860</v>
       </c>
       <c r="D2433" t="s">
         <v>2435</v>
@@ -43379,7 +43379,7 @@
         <v>33</v>
       </c>
       <c r="C2434">
-        <v>6900</v>
+        <v>6930</v>
       </c>
       <c r="D2434" t="s">
         <v>2436</v>
@@ -43393,7 +43393,7 @@
         <v>34</v>
       </c>
       <c r="C2435">
-        <v>6940</v>
+        <v>6960</v>
       </c>
       <c r="D2435" t="s">
         <v>2437</v>
@@ -43407,7 +43407,7 @@
         <v>35</v>
       </c>
       <c r="C2436">
-        <v>6950</v>
+        <v>6960</v>
       </c>
       <c r="D2436" t="s">
         <v>2438</v>
@@ -43421,7 +43421,7 @@
         <v>36</v>
       </c>
       <c r="C2437">
-        <v>6950</v>
+        <v>6960</v>
       </c>
       <c r="D2437" t="s">
         <v>2439</v>
@@ -43491,7 +43491,7 @@
         <v>41</v>
       </c>
       <c r="C2442">
-        <v>6670</v>
+        <v>6680</v>
       </c>
       <c r="D2442" t="s">
         <v>2444</v>
@@ -43505,7 +43505,7 @@
         <v>42</v>
       </c>
       <c r="C2443">
-        <v>6590</v>
+        <v>6600</v>
       </c>
       <c r="D2443" t="s">
         <v>2445</v>
@@ -43519,7 +43519,7 @@
         <v>43</v>
       </c>
       <c r="C2444">
-        <v>6510</v>
+        <v>6530</v>
       </c>
       <c r="D2444" t="s">
         <v>2446</v>
@@ -43533,7 +43533,7 @@
         <v>44</v>
       </c>
       <c r="C2445">
-        <v>6440</v>
+        <v>6470</v>
       </c>
       <c r="D2445" t="s">
         <v>2447</v>
@@ -43547,7 +43547,7 @@
         <v>45</v>
       </c>
       <c r="C2446">
-        <v>6380</v>
+        <v>6390</v>
       </c>
       <c r="D2446" t="s">
         <v>2448</v>
@@ -43575,7 +43575,7 @@
         <v>47</v>
       </c>
       <c r="C2448">
-        <v>6300</v>
+        <v>6310</v>
       </c>
       <c r="D2448" t="s">
         <v>2450</v>
@@ -43589,7 +43589,7 @@
         <v>48</v>
       </c>
       <c r="C2449">
-        <v>6280</v>
+        <v>6290</v>
       </c>
       <c r="D2449" t="s">
         <v>2451</v>
@@ -43603,7 +43603,7 @@
         <v>49</v>
       </c>
       <c r="C2450">
-        <v>6270</v>
+        <v>6260</v>
       </c>
       <c r="D2450" t="s">
         <v>2452</v>
@@ -43617,7 +43617,7 @@
         <v>50</v>
       </c>
       <c r="C2451">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="D2451" t="s">
         <v>2453</v>
@@ -43631,7 +43631,7 @@
         <v>51</v>
       </c>
       <c r="C2452">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="D2452" t="s">
         <v>2454</v>
@@ -43645,7 +43645,7 @@
         <v>52</v>
       </c>
       <c r="C2453">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="D2453" t="s">
         <v>2455</v>
@@ -43659,7 +43659,7 @@
         <v>53</v>
       </c>
       <c r="C2454">
-        <v>6250</v>
+        <v>6300</v>
       </c>
       <c r="D2454" t="s">
         <v>2456</v>
@@ -43673,7 +43673,7 @@
         <v>54</v>
       </c>
       <c r="C2455">
-        <v>6250</v>
+        <v>6330</v>
       </c>
       <c r="D2455" t="s">
         <v>2457</v>
@@ -43687,7 +43687,7 @@
         <v>55</v>
       </c>
       <c r="C2456">
-        <v>6250</v>
+        <v>6360</v>
       </c>
       <c r="D2456" t="s">
         <v>2458</v>
@@ -43701,7 +43701,7 @@
         <v>56</v>
       </c>
       <c r="C2457">
-        <v>6250</v>
+        <v>6380</v>
       </c>
       <c r="D2457" t="s">
         <v>2459</v>
@@ -43715,7 +43715,7 @@
         <v>57</v>
       </c>
       <c r="C2458">
-        <v>6260</v>
+        <v>6400</v>
       </c>
       <c r="D2458" t="s">
         <v>2460</v>
@@ -43729,7 +43729,7 @@
         <v>58</v>
       </c>
       <c r="C2459">
-        <v>6280</v>
+        <v>6430</v>
       </c>
       <c r="D2459" t="s">
         <v>2461</v>
@@ -43743,7 +43743,7 @@
         <v>59</v>
       </c>
       <c r="C2460">
-        <v>6300</v>
+        <v>6470</v>
       </c>
       <c r="D2460" t="s">
         <v>2462</v>
@@ -43757,7 +43757,7 @@
         <v>60</v>
       </c>
       <c r="C2461">
-        <v>6330</v>
+        <v>6500</v>
       </c>
       <c r="D2461" t="s">
         <v>2463</v>
@@ -43771,7 +43771,7 @@
         <v>61</v>
       </c>
       <c r="C2462">
-        <v>6370</v>
+        <v>6550</v>
       </c>
       <c r="D2462" t="s">
         <v>2464</v>
@@ -43785,7 +43785,7 @@
         <v>62</v>
       </c>
       <c r="C2463">
-        <v>6400</v>
+        <v>6580</v>
       </c>
       <c r="D2463" t="s">
         <v>2465</v>
@@ -43799,7 +43799,7 @@
         <v>63</v>
       </c>
       <c r="C2464">
-        <v>6440</v>
+        <v>6620</v>
       </c>
       <c r="D2464" t="s">
         <v>2466</v>
@@ -43813,7 +43813,7 @@
         <v>64</v>
       </c>
       <c r="C2465">
-        <v>6490</v>
+        <v>6660</v>
       </c>
       <c r="D2465" t="s">
         <v>2467</v>
@@ -43827,7 +43827,7 @@
         <v>65</v>
       </c>
       <c r="C2466">
-        <v>6540</v>
+        <v>6710</v>
       </c>
       <c r="D2466" t="s">
         <v>2468</v>
@@ -43841,7 +43841,7 @@
         <v>66</v>
       </c>
       <c r="C2467">
-        <v>6610</v>
+        <v>6770</v>
       </c>
       <c r="D2467" t="s">
         <v>2469</v>
@@ -43855,7 +43855,7 @@
         <v>67</v>
       </c>
       <c r="C2468">
-        <v>6690</v>
+        <v>6830</v>
       </c>
       <c r="D2468" t="s">
         <v>2470</v>
@@ -43869,7 +43869,7 @@
         <v>68</v>
       </c>
       <c r="C2469">
-        <v>6790</v>
+        <v>6890</v>
       </c>
       <c r="D2469" t="s">
         <v>2471</v>
@@ -43883,7 +43883,7 @@
         <v>69</v>
       </c>
       <c r="C2470">
-        <v>6900</v>
+        <v>6970</v>
       </c>
       <c r="D2470" t="s">
         <v>2472</v>
@@ -43897,7 +43897,7 @@
         <v>70</v>
       </c>
       <c r="C2471">
-        <v>7020</v>
+        <v>7050</v>
       </c>
       <c r="D2471" t="s">
         <v>2473</v>
@@ -43911,7 +43911,7 @@
         <v>71</v>
       </c>
       <c r="C2472">
-        <v>7150</v>
+        <v>7120</v>
       </c>
       <c r="D2472" t="s">
         <v>2474</v>
@@ -43925,7 +43925,7 @@
         <v>72</v>
       </c>
       <c r="C2473">
-        <v>7260</v>
+        <v>7200</v>
       </c>
       <c r="D2473" t="s">
         <v>2475</v>
@@ -43939,7 +43939,7 @@
         <v>73</v>
       </c>
       <c r="C2474">
-        <v>7370</v>
+        <v>7310</v>
       </c>
       <c r="D2474" t="s">
         <v>2476</v>
@@ -43953,7 +43953,7 @@
         <v>74</v>
       </c>
       <c r="C2475">
-        <v>7470</v>
+        <v>7400</v>
       </c>
       <c r="D2475" t="s">
         <v>2477</v>
@@ -43967,7 +43967,7 @@
         <v>75</v>
       </c>
       <c r="C2476">
-        <v>7550</v>
+        <v>7490</v>
       </c>
       <c r="D2476" t="s">
         <v>2478</v>
@@ -43981,7 +43981,7 @@
         <v>76</v>
       </c>
       <c r="C2477">
-        <v>7630</v>
+        <v>7590</v>
       </c>
       <c r="D2477" t="s">
         <v>2479</v>
@@ -44009,7 +44009,7 @@
         <v>78</v>
       </c>
       <c r="C2479">
-        <v>7700</v>
+        <v>7750</v>
       </c>
       <c r="D2479" t="s">
         <v>2481</v>
@@ -44023,7 +44023,7 @@
         <v>79</v>
       </c>
       <c r="C2480">
-        <v>7700</v>
+        <v>7790</v>
       </c>
       <c r="D2480" t="s">
         <v>2482</v>
@@ -44037,7 +44037,7 @@
         <v>80</v>
       </c>
       <c r="C2481">
-        <v>7680</v>
+        <v>7780</v>
       </c>
       <c r="D2481" t="s">
         <v>2483</v>
@@ -44051,7 +44051,7 @@
         <v>81</v>
       </c>
       <c r="C2482">
-        <v>7660</v>
+        <v>7740</v>
       </c>
       <c r="D2482" t="s">
         <v>2484</v>
@@ -44065,7 +44065,7 @@
         <v>82</v>
       </c>
       <c r="C2483">
-        <v>7630</v>
+        <v>7680</v>
       </c>
       <c r="D2483" t="s">
         <v>2485</v>
@@ -44079,7 +44079,7 @@
         <v>83</v>
       </c>
       <c r="C2484">
-        <v>7580</v>
+        <v>7620</v>
       </c>
       <c r="D2484" t="s">
         <v>2486</v>
@@ -44093,7 +44093,7 @@
         <v>84</v>
       </c>
       <c r="C2485">
-        <v>7520</v>
+        <v>7560</v>
       </c>
       <c r="D2485" t="s">
         <v>2487</v>
@@ -44107,7 +44107,7 @@
         <v>85</v>
       </c>
       <c r="C2486">
-        <v>7420</v>
+        <v>7450</v>
       </c>
       <c r="D2486" t="s">
         <v>2488</v>
@@ -44121,7 +44121,7 @@
         <v>86</v>
       </c>
       <c r="C2487">
-        <v>7300</v>
+        <v>7310</v>
       </c>
       <c r="D2487" t="s">
         <v>2489</v>
@@ -44135,7 +44135,7 @@
         <v>87</v>
       </c>
       <c r="C2488">
-        <v>7170</v>
+        <v>7210</v>
       </c>
       <c r="D2488" t="s">
         <v>2490</v>
@@ -44149,7 +44149,7 @@
         <v>88</v>
       </c>
       <c r="C2489">
-        <v>7030</v>
+        <v>7050</v>
       </c>
       <c r="D2489" t="s">
         <v>2491</v>
@@ -44163,7 +44163,7 @@
         <v>89</v>
       </c>
       <c r="C2490">
-        <v>6880</v>
+        <v>6830</v>
       </c>
       <c r="D2490" t="s">
         <v>2492</v>
@@ -44177,7 +44177,7 @@
         <v>90</v>
       </c>
       <c r="C2491">
-        <v>6740</v>
+        <v>6690</v>
       </c>
       <c r="D2491" t="s">
         <v>2493</v>
@@ -44191,7 +44191,7 @@
         <v>91</v>
       </c>
       <c r="C2492">
-        <v>6570</v>
+        <v>6510</v>
       </c>
       <c r="D2492" t="s">
         <v>2494</v>
@@ -44205,7 +44205,7 @@
         <v>92</v>
       </c>
       <c r="C2493">
-        <v>6400</v>
+        <v>6370</v>
       </c>
       <c r="D2493" t="s">
         <v>2495</v>
@@ -44219,7 +44219,7 @@
         <v>93</v>
       </c>
       <c r="C2494">
-        <v>6200</v>
+        <v>6230</v>
       </c>
       <c r="D2494" t="s">
         <v>2496</v>
@@ -44233,7 +44233,7 @@
         <v>94</v>
       </c>
       <c r="C2495">
-        <v>6050</v>
+        <v>6080</v>
       </c>
       <c r="D2495" t="s">
         <v>2497</v>
@@ -44247,7 +44247,7 @@
         <v>95</v>
       </c>
       <c r="C2496">
-        <v>5930</v>
+        <v>5980</v>
       </c>
       <c r="D2496" t="s">
         <v>2498</v>
@@ -44261,7 +44261,7 @@
         <v>96</v>
       </c>
       <c r="C2497">
-        <v>5880</v>
+        <v>5870</v>
       </c>
       <c r="D2497" t="s">
         <v>2499</v>
@@ -44275,7 +44275,7 @@
         <v>1</v>
       </c>
       <c r="C2498">
-        <v>5870</v>
+        <v>5730</v>
       </c>
       <c r="D2498" t="s">
         <v>2500</v>
@@ -44289,7 +44289,7 @@
         <v>2</v>
       </c>
       <c r="C2499">
-        <v>5840</v>
+        <v>5680</v>
       </c>
       <c r="D2499" t="s">
         <v>2501</v>
@@ -44303,7 +44303,7 @@
         <v>3</v>
       </c>
       <c r="C2500">
-        <v>5790</v>
+        <v>5620</v>
       </c>
       <c r="D2500" t="s">
         <v>2502</v>
@@ -44317,7 +44317,7 @@
         <v>4</v>
       </c>
       <c r="C2501">
-        <v>5750</v>
+        <v>5580</v>
       </c>
       <c r="D2501" t="s">
         <v>2503</v>
@@ -44331,7 +44331,7 @@
         <v>5</v>
       </c>
       <c r="C2502">
-        <v>5710</v>
+        <v>5520</v>
       </c>
       <c r="D2502" t="s">
         <v>2504</v>
@@ -44345,7 +44345,7 @@
         <v>6</v>
       </c>
       <c r="C2503">
-        <v>5680</v>
+        <v>5490</v>
       </c>
       <c r="D2503" t="s">
         <v>2505</v>
@@ -44359,7 +44359,7 @@
         <v>7</v>
       </c>
       <c r="C2504">
-        <v>5650</v>
+        <v>5450</v>
       </c>
       <c r="D2504" t="s">
         <v>2506</v>
@@ -44373,7 +44373,7 @@
         <v>8</v>
       </c>
       <c r="C2505">
-        <v>5630</v>
+        <v>5400</v>
       </c>
       <c r="D2505" t="s">
         <v>2507</v>
@@ -44387,7 +44387,7 @@
         <v>9</v>
       </c>
       <c r="C2506">
-        <v>5610</v>
+        <v>5370</v>
       </c>
       <c r="D2506" t="s">
         <v>2508</v>
@@ -44401,7 +44401,7 @@
         <v>10</v>
       </c>
       <c r="C2507">
-        <v>5590</v>
+        <v>5340</v>
       </c>
       <c r="D2507" t="s">
         <v>2509</v>
@@ -44415,7 +44415,7 @@
         <v>11</v>
       </c>
       <c r="C2508">
-        <v>5570</v>
+        <v>5320</v>
       </c>
       <c r="D2508" t="s">
         <v>2510</v>
@@ -44429,7 +44429,7 @@
         <v>12</v>
       </c>
       <c r="C2509">
-        <v>5560</v>
+        <v>5310</v>
       </c>
       <c r="D2509" t="s">
         <v>2511</v>
@@ -44443,7 +44443,7 @@
         <v>13</v>
       </c>
       <c r="C2510">
-        <v>5550</v>
+        <v>5300</v>
       </c>
       <c r="D2510" t="s">
         <v>2512</v>
@@ -44457,7 +44457,7 @@
         <v>14</v>
       </c>
       <c r="C2511">
-        <v>5550</v>
+        <v>5300</v>
       </c>
       <c r="D2511" t="s">
         <v>2513</v>
@@ -44471,7 +44471,7 @@
         <v>15</v>
       </c>
       <c r="C2512">
-        <v>5560</v>
+        <v>5300</v>
       </c>
       <c r="D2512" t="s">
         <v>2514</v>
@@ -44485,7 +44485,7 @@
         <v>16</v>
       </c>
       <c r="C2513">
-        <v>5580</v>
+        <v>5310</v>
       </c>
       <c r="D2513" t="s">
         <v>2515</v>
@@ -44499,7 +44499,7 @@
         <v>17</v>
       </c>
       <c r="C2514">
-        <v>5620</v>
+        <v>5330</v>
       </c>
       <c r="D2514" t="s">
         <v>2516</v>
@@ -44513,7 +44513,7 @@
         <v>18</v>
       </c>
       <c r="C2515">
-        <v>5660</v>
+        <v>5340</v>
       </c>
       <c r="D2515" t="s">
         <v>2517</v>
@@ -44527,7 +44527,7 @@
         <v>19</v>
       </c>
       <c r="C2516">
-        <v>5690</v>
+        <v>5360</v>
       </c>
       <c r="D2516" t="s">
         <v>2518</v>
@@ -44541,7 +44541,7 @@
         <v>20</v>
       </c>
       <c r="C2517">
-        <v>5730</v>
+        <v>5400</v>
       </c>
       <c r="D2517" t="s">
         <v>2519</v>
@@ -44555,7 +44555,7 @@
         <v>21</v>
       </c>
       <c r="C2518">
-        <v>5790</v>
+        <v>5440</v>
       </c>
       <c r="D2518" t="s">
         <v>2520</v>
@@ -44569,7 +44569,7 @@
         <v>22</v>
       </c>
       <c r="C2519">
-        <v>5870</v>
+        <v>5520</v>
       </c>
       <c r="D2519" t="s">
         <v>2521</v>
@@ -44583,7 +44583,7 @@
         <v>23</v>
       </c>
       <c r="C2520">
-        <v>5970</v>
+        <v>5620</v>
       </c>
       <c r="D2520" t="s">
         <v>2522</v>
@@ -44597,7 +44597,7 @@
         <v>24</v>
       </c>
       <c r="C2521">
-        <v>6080</v>
+        <v>5740</v>
       </c>
       <c r="D2521" t="s">
         <v>2523</v>
@@ -44611,7 +44611,7 @@
         <v>25</v>
       </c>
       <c r="C2522">
-        <v>6200</v>
+        <v>5870</v>
       </c>
       <c r="D2522" t="s">
         <v>2524</v>
@@ -44625,7 +44625,7 @@
         <v>26</v>
       </c>
       <c r="C2523">
-        <v>6330</v>
+        <v>6010</v>
       </c>
       <c r="D2523" t="s">
         <v>2525</v>
@@ -44639,7 +44639,7 @@
         <v>27</v>
       </c>
       <c r="C2524">
-        <v>6450</v>
+        <v>6160</v>
       </c>
       <c r="D2524" t="s">
         <v>2526</v>
@@ -44653,7 +44653,7 @@
         <v>28</v>
       </c>
       <c r="C2525">
-        <v>6570</v>
+        <v>6310</v>
       </c>
       <c r="D2525" t="s">
         <v>2527</v>
@@ -44667,7 +44667,7 @@
         <v>29</v>
       </c>
       <c r="C2526">
-        <v>6690</v>
+        <v>6530</v>
       </c>
       <c r="D2526" t="s">
         <v>2528</v>
@@ -44681,7 +44681,7 @@
         <v>30</v>
       </c>
       <c r="C2527">
-        <v>6790</v>
+        <v>6650</v>
       </c>
       <c r="D2527" t="s">
         <v>2529</v>
@@ -44695,7 +44695,7 @@
         <v>31</v>
       </c>
       <c r="C2528">
-        <v>6880</v>
+        <v>6760</v>
       </c>
       <c r="D2528" t="s">
         <v>2530</v>
@@ -44709,7 +44709,7 @@
         <v>32</v>
       </c>
       <c r="C2529">
-        <v>6950</v>
+        <v>6840</v>
       </c>
       <c r="D2529" t="s">
         <v>2531</v>
@@ -44723,7 +44723,7 @@
         <v>33</v>
       </c>
       <c r="C2530">
-        <v>7000</v>
+        <v>6890</v>
       </c>
       <c r="D2530" t="s">
         <v>2532</v>
@@ -44737,7 +44737,7 @@
         <v>34</v>
       </c>
       <c r="C2531">
-        <v>7030</v>
+        <v>6900</v>
       </c>
       <c r="D2531" t="s">
         <v>2533</v>
@@ -44751,7 +44751,7 @@
         <v>35</v>
       </c>
       <c r="C2532">
-        <v>7050</v>
+        <v>6910</v>
       </c>
       <c r="D2532" t="s">
         <v>2534</v>
@@ -44765,7 +44765,7 @@
         <v>36</v>
       </c>
       <c r="C2533">
-        <v>7040</v>
+        <v>6910</v>
       </c>
       <c r="D2533" t="s">
         <v>2535</v>
@@ -44779,7 +44779,7 @@
         <v>37</v>
       </c>
       <c r="C2534">
-        <v>7010</v>
+        <v>6890</v>
       </c>
       <c r="D2534" t="s">
         <v>2536</v>
@@ -44793,7 +44793,7 @@
         <v>38</v>
       </c>
       <c r="C2535">
-        <v>6960</v>
+        <v>6850</v>
       </c>
       <c r="D2535" t="s">
         <v>2537</v>
@@ -44807,7 +44807,7 @@
         <v>39</v>
       </c>
       <c r="C2536">
-        <v>6910</v>
+        <v>6800</v>
       </c>
       <c r="D2536" t="s">
         <v>2538</v>
@@ -44821,7 +44821,7 @@
         <v>40</v>
       </c>
       <c r="C2537">
-        <v>6840</v>
+        <v>6740</v>
       </c>
       <c r="D2537" t="s">
         <v>2539</v>
@@ -44835,7 +44835,7 @@
         <v>41</v>
       </c>
       <c r="C2538">
-        <v>6770</v>
+        <v>6680</v>
       </c>
       <c r="D2538" t="s">
         <v>2540</v>
@@ -44849,7 +44849,7 @@
         <v>42</v>
       </c>
       <c r="C2539">
-        <v>6690</v>
+        <v>6620</v>
       </c>
       <c r="D2539" t="s">
         <v>2541</v>
@@ -44863,7 +44863,7 @@
         <v>43</v>
       </c>
       <c r="C2540">
-        <v>6620</v>
+        <v>6570</v>
       </c>
       <c r="D2540" t="s">
         <v>2542</v>
@@ -44877,7 +44877,7 @@
         <v>44</v>
       </c>
       <c r="C2541">
-        <v>6560</v>
+        <v>6510</v>
       </c>
       <c r="D2541" t="s">
         <v>2543</v>
@@ -44891,7 +44891,7 @@
         <v>45</v>
       </c>
       <c r="C2542">
-        <v>6510</v>
+        <v>6450</v>
       </c>
       <c r="D2542" t="s">
         <v>2544</v>
@@ -44905,7 +44905,7 @@
         <v>46</v>
       </c>
       <c r="C2543">
-        <v>6470</v>
+        <v>6420</v>
       </c>
       <c r="D2543" t="s">
         <v>2545</v>
@@ -44919,7 +44919,7 @@
         <v>47</v>
       </c>
       <c r="C2544">
-        <v>6440</v>
+        <v>6390</v>
       </c>
       <c r="D2544" t="s">
         <v>2546</v>
@@ -44933,7 +44933,7 @@
         <v>48</v>
       </c>
       <c r="C2545">
-        <v>6410</v>
+        <v>6370</v>
       </c>
       <c r="D2545" t="s">
         <v>2547</v>
@@ -44947,7 +44947,7 @@
         <v>49</v>
       </c>
       <c r="C2546">
-        <v>6400</v>
+        <v>6360</v>
       </c>
       <c r="D2546" t="s">
         <v>2548</v>
@@ -44961,7 +44961,7 @@
         <v>50</v>
       </c>
       <c r="C2547">
-        <v>6380</v>
+        <v>6350</v>
       </c>
       <c r="D2547" t="s">
         <v>2549</v>
@@ -44975,7 +44975,7 @@
         <v>51</v>
       </c>
       <c r="C2548">
-        <v>6370</v>
+        <v>6350</v>
       </c>
       <c r="D2548" t="s">
         <v>2550</v>
@@ -44989,7 +44989,7 @@
         <v>52</v>
       </c>
       <c r="C2549">
-        <v>6360</v>
+        <v>6350</v>
       </c>
       <c r="D2549" t="s">
         <v>2551</v>
@@ -45017,7 +45017,7 @@
         <v>54</v>
       </c>
       <c r="C2551">
-        <v>6360</v>
+        <v>6370</v>
       </c>
       <c r="D2551" t="s">
         <v>2553</v>
@@ -45031,7 +45031,7 @@
         <v>55</v>
       </c>
       <c r="C2552">
-        <v>6360</v>
+        <v>6380</v>
       </c>
       <c r="D2552" t="s">
         <v>2554</v>
@@ -45045,7 +45045,7 @@
         <v>56</v>
       </c>
       <c r="C2553">
-        <v>6370</v>
+        <v>6400</v>
       </c>
       <c r="D2553" t="s">
         <v>2555</v>
@@ -45059,7 +45059,7 @@
         <v>57</v>
       </c>
       <c r="C2554">
-        <v>6380</v>
+        <v>6410</v>
       </c>
       <c r="D2554" t="s">
         <v>2556</v>
@@ -45073,7 +45073,7 @@
         <v>58</v>
       </c>
       <c r="C2555">
-        <v>6400</v>
+        <v>6430</v>
       </c>
       <c r="D2555" t="s">
         <v>2557</v>
@@ -45087,7 +45087,7 @@
         <v>59</v>
       </c>
       <c r="C2556">
-        <v>6420</v>
+        <v>6470</v>
       </c>
       <c r="D2556" t="s">
         <v>2558</v>
@@ -45101,7 +45101,7 @@
         <v>60</v>
       </c>
       <c r="C2557">
-        <v>6450</v>
+        <v>6500</v>
       </c>
       <c r="D2557" t="s">
         <v>2559</v>
@@ -45115,7 +45115,7 @@
         <v>61</v>
       </c>
       <c r="C2558">
-        <v>6480</v>
+        <v>6550</v>
       </c>
       <c r="D2558" t="s">
         <v>2560</v>
@@ -45129,7 +45129,7 @@
         <v>62</v>
       </c>
       <c r="C2559">
-        <v>6520</v>
+        <v>6590</v>
       </c>
       <c r="D2559" t="s">
         <v>2561</v>
@@ -45143,7 +45143,7 @@
         <v>63</v>
       </c>
       <c r="C2560">
-        <v>6560</v>
+        <v>6620</v>
       </c>
       <c r="D2560" t="s">
         <v>2562</v>
@@ -45157,7 +45157,7 @@
         <v>64</v>
       </c>
       <c r="C2561">
-        <v>6600</v>
+        <v>6660</v>
       </c>
       <c r="D2561" t="s">
         <v>2563</v>
@@ -45171,7 +45171,7 @@
         <v>65</v>
       </c>
       <c r="C2562">
-        <v>6660</v>
+        <v>6710</v>
       </c>
       <c r="D2562" t="s">
         <v>2564</v>
@@ -45185,7 +45185,7 @@
         <v>66</v>
       </c>
       <c r="C2563">
-        <v>6730</v>
+        <v>6770</v>
       </c>
       <c r="D2563" t="s">
         <v>2565</v>
@@ -45199,7 +45199,7 @@
         <v>67</v>
       </c>
       <c r="C2564">
-        <v>6810</v>
+        <v>6830</v>
       </c>
       <c r="D2564" t="s">
         <v>2566</v>
@@ -45213,7 +45213,7 @@
         <v>68</v>
       </c>
       <c r="C2565">
-        <v>6900</v>
+        <v>6910</v>
       </c>
       <c r="D2565" t="s">
         <v>2567</v>
@@ -45227,7 +45227,7 @@
         <v>69</v>
       </c>
       <c r="C2566">
-        <v>7010</v>
+        <v>6970</v>
       </c>
       <c r="D2566" t="s">
         <v>2568</v>
@@ -45241,7 +45241,7 @@
         <v>70</v>
       </c>
       <c r="C2567">
-        <v>7120</v>
+        <v>7040</v>
       </c>
       <c r="D2567" t="s">
         <v>2569</v>
@@ -45255,7 +45255,7 @@
         <v>71</v>
       </c>
       <c r="C2568">
-        <v>7230</v>
+        <v>7110</v>
       </c>
       <c r="D2568" t="s">
         <v>2570</v>
@@ -45269,7 +45269,7 @@
         <v>72</v>
       </c>
       <c r="C2569">
-        <v>7340</v>
+        <v>7180</v>
       </c>
       <c r="D2569" t="s">
         <v>2571</v>
@@ -45283,7 +45283,7 @@
         <v>73</v>
       </c>
       <c r="C2570">
-        <v>7440</v>
+        <v>7260</v>
       </c>
       <c r="D2570" t="s">
         <v>2572</v>
@@ -45297,7 +45297,7 @@
         <v>74</v>
       </c>
       <c r="C2571">
-        <v>7530</v>
+        <v>7330</v>
       </c>
       <c r="D2571" t="s">
         <v>2573</v>
@@ -45311,7 +45311,7 @@
         <v>75</v>
       </c>
       <c r="C2572">
-        <v>7620</v>
+        <v>7410</v>
       </c>
       <c r="D2572" t="s">
         <v>2574</v>
@@ -45325,7 +45325,7 @@
         <v>76</v>
       </c>
       <c r="C2573">
-        <v>7690</v>
+        <v>7510</v>
       </c>
       <c r="D2573" t="s">
         <v>2575</v>
@@ -45339,7 +45339,7 @@
         <v>77</v>
       </c>
       <c r="C2574">
-        <v>7760</v>
+        <v>7610</v>
       </c>
       <c r="D2574" t="s">
         <v>2576</v>
@@ -45353,7 +45353,7 @@
         <v>78</v>
       </c>
       <c r="C2575">
-        <v>7800</v>
+        <v>7690</v>
       </c>
       <c r="D2575" t="s">
         <v>2577</v>
@@ -45367,7 +45367,7 @@
         <v>79</v>
       </c>
       <c r="C2576">
-        <v>7820</v>
+        <v>7740</v>
       </c>
       <c r="D2576" t="s">
         <v>2578</v>
@@ -45381,7 +45381,7 @@
         <v>80</v>
       </c>
       <c r="C2577">
-        <v>7800</v>
+        <v>7750</v>
       </c>
       <c r="D2577" t="s">
         <v>2579</v>
@@ -45395,7 +45395,7 @@
         <v>81</v>
       </c>
       <c r="C2578">
-        <v>7770</v>
+        <v>7720</v>
       </c>
       <c r="D2578" t="s">
         <v>2580</v>
@@ -45409,7 +45409,7 @@
         <v>82</v>
       </c>
       <c r="C2579">
-        <v>7730</v>
+        <v>7680</v>
       </c>
       <c r="D2579" t="s">
         <v>2581</v>
@@ -45423,7 +45423,7 @@
         <v>83</v>
       </c>
       <c r="C2580">
-        <v>7660</v>
+        <v>7620</v>
       </c>
       <c r="D2580" t="s">
         <v>2582</v>
@@ -45437,7 +45437,7 @@
         <v>84</v>
       </c>
       <c r="C2581">
-        <v>7590</v>
+        <v>7550</v>
       </c>
       <c r="D2581" t="s">
         <v>2583</v>
@@ -45451,7 +45451,7 @@
         <v>85</v>
       </c>
       <c r="C2582">
-        <v>7470</v>
+        <v>7440</v>
       </c>
       <c r="D2582" t="s">
         <v>2584</v>
@@ -45465,7 +45465,7 @@
         <v>86</v>
       </c>
       <c r="C2583">
-        <v>7330</v>
+        <v>7310</v>
       </c>
       <c r="D2583" t="s">
         <v>2585</v>
@@ -45479,7 +45479,7 @@
         <v>87</v>
       </c>
       <c r="C2584">
-        <v>7220</v>
+        <v>7180</v>
       </c>
       <c r="D2584" t="s">
         <v>2586</v>
@@ -45493,7 +45493,7 @@
         <v>88</v>
       </c>
       <c r="C2585">
-        <v>7100</v>
+        <v>7030</v>
       </c>
       <c r="D2585" t="s">
         <v>2587</v>
@@ -45507,7 +45507,7 @@
         <v>89</v>
       </c>
       <c r="C2586">
-        <v>6930</v>
+        <v>6830</v>
       </c>
       <c r="D2586" t="s">
         <v>2588</v>
@@ -45521,7 +45521,7 @@
         <v>90</v>
       </c>
       <c r="C2587">
-        <v>6800</v>
+        <v>6680</v>
       </c>
       <c r="D2587" t="s">
         <v>2589</v>
@@ -45535,7 +45535,7 @@
         <v>91</v>
       </c>
       <c r="C2588">
-        <v>6630</v>
+        <v>6520</v>
       </c>
       <c r="D2588" t="s">
         <v>2590</v>
@@ -45549,7 +45549,7 @@
         <v>92</v>
       </c>
       <c r="C2589">
-        <v>6480</v>
+        <v>6370</v>
       </c>
       <c r="D2589" t="s">
         <v>2591</v>
@@ -45563,7 +45563,7 @@
         <v>93</v>
       </c>
       <c r="C2590">
-        <v>6300</v>
+        <v>6230</v>
       </c>
       <c r="D2590" t="s">
         <v>2592</v>
@@ -45577,7 +45577,7 @@
         <v>94</v>
       </c>
       <c r="C2591">
-        <v>6160</v>
+        <v>6070</v>
       </c>
       <c r="D2591" t="s">
         <v>2593</v>
@@ -45591,7 +45591,7 @@
         <v>95</v>
       </c>
       <c r="C2592">
-        <v>6030</v>
+        <v>5970</v>
       </c>
       <c r="D2592" t="s">
         <v>2594</v>
@@ -45605,7 +45605,7 @@
         <v>96</v>
       </c>
       <c r="C2593">
-        <v>5950</v>
+        <v>5860</v>
       </c>
       <c r="D2593" t="s">
         <v>2595</v>
@@ -45619,7 +45619,7 @@
         <v>1</v>
       </c>
       <c r="C2594">
-        <v>5940</v>
+        <v>5840</v>
       </c>
       <c r="D2594" t="s">
         <v>2596</v>
@@ -45633,7 +45633,7 @@
         <v>2</v>
       </c>
       <c r="C2595">
-        <v>5890</v>
+        <v>5780</v>
       </c>
       <c r="D2595" t="s">
         <v>2597</v>
@@ -45647,7 +45647,7 @@
         <v>3</v>
       </c>
       <c r="C2596">
-        <v>5850</v>
+        <v>5730</v>
       </c>
       <c r="D2596" t="s">
         <v>2598</v>
@@ -45661,7 +45661,7 @@
         <v>4</v>
       </c>
       <c r="C2597">
-        <v>5800</v>
+        <v>5680</v>
       </c>
       <c r="D2597" t="s">
         <v>2599</v>
@@ -45675,7 +45675,7 @@
         <v>5</v>
       </c>
       <c r="C2598">
-        <v>5750</v>
+        <v>5630</v>
       </c>
       <c r="D2598" t="s">
         <v>2600</v>
@@ -45689,7 +45689,7 @@
         <v>6</v>
       </c>
       <c r="C2599">
-        <v>5720</v>
+        <v>5590</v>
       </c>
       <c r="D2599" t="s">
         <v>2601</v>
@@ -45703,7 +45703,7 @@
         <v>7</v>
       </c>
       <c r="C2600">
-        <v>5700</v>
+        <v>5550</v>
       </c>
       <c r="D2600" t="s">
         <v>2602</v>
@@ -45717,7 +45717,7 @@
         <v>8</v>
       </c>
       <c r="C2601">
-        <v>5680</v>
+        <v>5510</v>
       </c>
       <c r="D2601" t="s">
         <v>2603</v>
@@ -45731,7 +45731,7 @@
         <v>9</v>
       </c>
       <c r="C2602">
-        <v>5660</v>
+        <v>5490</v>
       </c>
       <c r="D2602" t="s">
         <v>2604</v>
@@ -45745,7 +45745,7 @@
         <v>10</v>
       </c>
       <c r="C2603">
-        <v>5650</v>
+        <v>5460</v>
       </c>
       <c r="D2603" t="s">
         <v>2605</v>
@@ -45759,7 +45759,7 @@
         <v>11</v>
       </c>
       <c r="C2604">
-        <v>5640</v>
+        <v>5440</v>
       </c>
       <c r="D2604" t="s">
         <v>2606</v>
@@ -45773,7 +45773,7 @@
         <v>12</v>
       </c>
       <c r="C2605">
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="D2605" t="s">
         <v>2607</v>
@@ -45787,7 +45787,7 @@
         <v>13</v>
       </c>
       <c r="C2606">
-        <v>5620</v>
+        <v>5430</v>
       </c>
       <c r="D2606" t="s">
         <v>2608</v>
@@ -45801,7 +45801,7 @@
         <v>14</v>
       </c>
       <c r="C2607">
-        <v>5610</v>
+        <v>5440</v>
       </c>
       <c r="D2607" t="s">
         <v>2609</v>
@@ -45815,7 +45815,7 @@
         <v>15</v>
       </c>
       <c r="C2608">
-        <v>5610</v>
+        <v>5440</v>
       </c>
       <c r="D2608" t="s">
         <v>2610</v>
@@ -45829,7 +45829,7 @@
         <v>16</v>
       </c>
       <c r="C2609">
-        <v>5620</v>
+        <v>5450</v>
       </c>
       <c r="D2609" t="s">
         <v>2611</v>
@@ -45843,7 +45843,7 @@
         <v>17</v>
       </c>
       <c r="C2610">
-        <v>5630</v>
+        <v>5460</v>
       </c>
       <c r="D2610" t="s">
         <v>2612</v>
@@ -45857,7 +45857,7 @@
         <v>18</v>
       </c>
       <c r="C2611">
-        <v>5650</v>
+        <v>5470</v>
       </c>
       <c r="D2611" t="s">
         <v>2613</v>
@@ -45871,7 +45871,7 @@
         <v>19</v>
       </c>
       <c r="C2612">
-        <v>5680</v>
+        <v>5490</v>
       </c>
       <c r="D2612" t="s">
         <v>2614</v>
@@ -45885,7 +45885,7 @@
         <v>20</v>
       </c>
       <c r="C2613">
-        <v>5730</v>
+        <v>5520</v>
       </c>
       <c r="D2613" t="s">
         <v>2615</v>
@@ -45899,7 +45899,7 @@
         <v>21</v>
       </c>
       <c r="C2614">
-        <v>5780</v>
+        <v>5560</v>
       </c>
       <c r="D2614" t="s">
         <v>2616</v>
@@ -45913,7 +45913,7 @@
         <v>22</v>
       </c>
       <c r="C2615">
-        <v>5860</v>
+        <v>5620</v>
       </c>
       <c r="D2615" t="s">
         <v>2617</v>
@@ -45927,7 +45927,7 @@
         <v>23</v>
       </c>
       <c r="C2616">
-        <v>5950</v>
+        <v>5700</v>
       </c>
       <c r="D2616" t="s">
         <v>2618</v>
@@ -45941,7 +45941,7 @@
         <v>24</v>
       </c>
       <c r="C2617">
-        <v>6050</v>
+        <v>5800</v>
       </c>
       <c r="D2617" t="s">
         <v>2619</v>
@@ -45955,7 +45955,7 @@
         <v>25</v>
       </c>
       <c r="C2618">
-        <v>6160</v>
+        <v>5920</v>
       </c>
       <c r="D2618" t="s">
         <v>2620</v>
@@ -45969,7 +45969,7 @@
         <v>26</v>
       </c>
       <c r="C2619">
-        <v>6280</v>
+        <v>6060</v>
       </c>
       <c r="D2619" t="s">
         <v>2621</v>
@@ -45983,7 +45983,7 @@
         <v>27</v>
       </c>
       <c r="C2620">
-        <v>6390</v>
+        <v>6210</v>
       </c>
       <c r="D2620" t="s">
         <v>2622</v>
@@ -45997,7 +45997,7 @@
         <v>28</v>
       </c>
       <c r="C2621">
-        <v>6500</v>
+        <v>6370</v>
       </c>
       <c r="D2621" t="s">
         <v>2623</v>
@@ -46011,7 +46011,7 @@
         <v>29</v>
       </c>
       <c r="C2622">
-        <v>6610</v>
+        <v>6540</v>
       </c>
       <c r="D2622" t="s">
         <v>2624</v>
@@ -46039,7 +46039,7 @@
         <v>31</v>
       </c>
       <c r="C2624">
-        <v>6780</v>
+        <v>6840</v>
       </c>
       <c r="D2624" t="s">
         <v>2626</v>
@@ -46053,7 +46053,7 @@
         <v>32</v>
       </c>
       <c r="C2625">
-        <v>6850</v>
+        <v>6970</v>
       </c>
       <c r="D2625" t="s">
         <v>2627</v>
@@ -46067,7 +46067,7 @@
         <v>33</v>
       </c>
       <c r="C2626">
-        <v>6900</v>
+        <v>7080</v>
       </c>
       <c r="D2626" t="s">
         <v>2628</v>
@@ -46081,7 +46081,7 @@
         <v>34</v>
       </c>
       <c r="C2627">
-        <v>6930</v>
+        <v>7170</v>
       </c>
       <c r="D2627" t="s">
         <v>2629</v>
@@ -46095,7 +46095,7 @@
         <v>35</v>
       </c>
       <c r="C2628">
-        <v>6940</v>
+        <v>7220</v>
       </c>
       <c r="D2628" t="s">
         <v>2630</v>
@@ -46109,7 +46109,7 @@
         <v>36</v>
       </c>
       <c r="C2629">
-        <v>6940</v>
+        <v>7250</v>
       </c>
       <c r="D2629" t="s">
         <v>2631</v>
@@ -46123,7 +46123,7 @@
         <v>37</v>
       </c>
       <c r="C2630">
-        <v>6910</v>
+        <v>7260</v>
       </c>
       <c r="D2630" t="s">
         <v>2632</v>
@@ -46137,7 +46137,7 @@
         <v>38</v>
       </c>
       <c r="C2631">
-        <v>6870</v>
+        <v>7250</v>
       </c>
       <c r="D2631" t="s">
         <v>2633</v>
@@ -46151,7 +46151,7 @@
         <v>39</v>
       </c>
       <c r="C2632">
-        <v>6810</v>
+        <v>7220</v>
       </c>
       <c r="D2632" t="s">
         <v>2634</v>
@@ -46165,7 +46165,7 @@
         <v>40</v>
       </c>
       <c r="C2633">
-        <v>6740</v>
+        <v>7170</v>
       </c>
       <c r="D2633" t="s">
         <v>2635</v>
@@ -46179,7 +46179,7 @@
         <v>41</v>
       </c>
       <c r="C2634">
-        <v>6670</v>
+        <v>7130</v>
       </c>
       <c r="D2634" t="s">
         <v>2636</v>
@@ -46193,7 +46193,7 @@
         <v>42</v>
       </c>
       <c r="C2635">
-        <v>6590</v>
+        <v>7080</v>
       </c>
       <c r="D2635" t="s">
         <v>2637</v>
@@ -46207,7 +46207,7 @@
         <v>43</v>
       </c>
       <c r="C2636">
-        <v>6520</v>
+        <v>7030</v>
       </c>
       <c r="D2636" t="s">
         <v>2638</v>
@@ -46221,7 +46221,7 @@
         <v>44</v>
       </c>
       <c r="C2637">
-        <v>6460</v>
+        <v>6980</v>
       </c>
       <c r="D2637" t="s">
         <v>2639</v>
@@ -46235,7 +46235,7 @@
         <v>45</v>
       </c>
       <c r="C2638">
-        <v>6410</v>
+        <v>6940</v>
       </c>
       <c r="D2638" t="s">
         <v>2640</v>
@@ -46249,7 +46249,7 @@
         <v>46</v>
       </c>
       <c r="C2639">
-        <v>6370</v>
+        <v>6910</v>
       </c>
       <c r="D2639" t="s">
         <v>2641</v>
@@ -46263,7 +46263,7 @@
         <v>47</v>
       </c>
       <c r="C2640">
-        <v>6340</v>
+        <v>6880</v>
       </c>
       <c r="D2640" t="s">
         <v>2642</v>
@@ -46277,7 +46277,7 @@
         <v>48</v>
       </c>
       <c r="C2641">
-        <v>6310</v>
+        <v>6860</v>
       </c>
       <c r="D2641" t="s">
         <v>2643</v>
@@ -46291,7 +46291,7 @@
         <v>49</v>
       </c>
       <c r="C2642">
-        <v>6300</v>
+        <v>6840</v>
       </c>
       <c r="D2642" t="s">
         <v>2644</v>
@@ -46305,7 +46305,7 @@
         <v>50</v>
       </c>
       <c r="C2643">
-        <v>6280</v>
+        <v>6820</v>
       </c>
       <c r="D2643" t="s">
         <v>2645</v>
@@ -46319,7 +46319,7 @@
         <v>51</v>
       </c>
       <c r="C2644">
-        <v>6270</v>
+        <v>6810</v>
       </c>
       <c r="D2644" t="s">
         <v>2646</v>
@@ -46333,7 +46333,7 @@
         <v>52</v>
       </c>
       <c r="C2645">
-        <v>6260</v>
+        <v>6800</v>
       </c>
       <c r="D2645" t="s">
         <v>2647</v>
@@ -46347,7 +46347,7 @@
         <v>53</v>
       </c>
       <c r="C2646">
-        <v>6260</v>
+        <v>6790</v>
       </c>
       <c r="D2646" t="s">
         <v>2648</v>
@@ -46361,7 +46361,7 @@
         <v>54</v>
       </c>
       <c r="C2647">
-        <v>6260</v>
+        <v>6790</v>
       </c>
       <c r="D2647" t="s">
         <v>2649</v>
@@ -46375,7 +46375,7 @@
         <v>55</v>
       </c>
       <c r="C2648">
-        <v>6260</v>
+        <v>6800</v>
       </c>
       <c r="D2648" t="s">
         <v>2650</v>
@@ -46389,7 +46389,7 @@
         <v>56</v>
       </c>
       <c r="C2649">
-        <v>6270</v>
+        <v>6810</v>
       </c>
       <c r="D2649" t="s">
         <v>2651</v>
@@ -46403,7 +46403,7 @@
         <v>57</v>
       </c>
       <c r="C2650">
-        <v>6280</v>
+        <v>6820</v>
       </c>
       <c r="D2650" t="s">
         <v>2652</v>
@@ -46417,7 +46417,7 @@
         <v>58</v>
       </c>
       <c r="C2651">
-        <v>6300</v>
+        <v>6840</v>
       </c>
       <c r="D2651" t="s">
         <v>2653</v>
@@ -46431,7 +46431,7 @@
         <v>59</v>
       </c>
       <c r="C2652">
-        <v>6320</v>
+        <v>6850</v>
       </c>
       <c r="D2652" t="s">
         <v>2654</v>
@@ -46445,7 +46445,7 @@
         <v>60</v>
       </c>
       <c r="C2653">
-        <v>6350</v>
+        <v>6860</v>
       </c>
       <c r="D2653" t="s">
         <v>2655</v>
@@ -46459,7 +46459,7 @@
         <v>61</v>
       </c>
       <c r="C2654">
-        <v>6380</v>
+        <v>6880</v>
       </c>
       <c r="D2654" t="s">
         <v>2656</v>
@@ -46473,7 +46473,7 @@
         <v>62</v>
       </c>
       <c r="C2655">
-        <v>6420</v>
+        <v>6890</v>
       </c>
       <c r="D2655" t="s">
         <v>2657</v>
@@ -46487,7 +46487,7 @@
         <v>63</v>
       </c>
       <c r="C2656">
-        <v>6460</v>
+        <v>6920</v>
       </c>
       <c r="D2656" t="s">
         <v>2658</v>
@@ -46501,7 +46501,7 @@
         <v>64</v>
       </c>
       <c r="C2657">
-        <v>6500</v>
+        <v>6940</v>
       </c>
       <c r="D2657" t="s">
         <v>2659</v>
@@ -46515,7 +46515,7 @@
         <v>65</v>
       </c>
       <c r="C2658">
-        <v>6560</v>
+        <v>6980</v>
       </c>
       <c r="D2658" t="s">
         <v>2660</v>
@@ -46529,7 +46529,7 @@
         <v>66</v>
       </c>
       <c r="C2659">
-        <v>6630</v>
+        <v>7020</v>
       </c>
       <c r="D2659" t="s">
         <v>2661</v>
@@ -46543,7 +46543,7 @@
         <v>67</v>
       </c>
       <c r="C2660">
-        <v>6710</v>
+        <v>7070</v>
       </c>
       <c r="D2660" t="s">
         <v>2662</v>
@@ -46557,7 +46557,7 @@
         <v>68</v>
       </c>
       <c r="C2661">
-        <v>6800</v>
+        <v>7120</v>
       </c>
       <c r="D2661" t="s">
         <v>2663</v>
@@ -46571,7 +46571,7 @@
         <v>69</v>
       </c>
       <c r="C2662">
-        <v>6910</v>
+        <v>7170</v>
       </c>
       <c r="D2662" t="s">
         <v>2664</v>
@@ -46585,7 +46585,7 @@
         <v>70</v>
       </c>
       <c r="C2663">
-        <v>7020</v>
+        <v>7230</v>
       </c>
       <c r="D2663" t="s">
         <v>2665</v>
@@ -46599,7 +46599,7 @@
         <v>71</v>
       </c>
       <c r="C2664">
-        <v>7130</v>
+        <v>7270</v>
       </c>
       <c r="D2664" t="s">
         <v>2666</v>
@@ -46613,7 +46613,7 @@
         <v>72</v>
       </c>
       <c r="C2665">
-        <v>7240</v>
+        <v>7320</v>
       </c>
       <c r="D2665" t="s">
         <v>2667</v>
@@ -46627,7 +46627,7 @@
         <v>73</v>
       </c>
       <c r="C2666">
-        <v>7340</v>
+        <v>7380</v>
       </c>
       <c r="D2666" t="s">
         <v>2668</v>
@@ -46655,7 +46655,7 @@
         <v>75</v>
       </c>
       <c r="C2668">
-        <v>7510</v>
+        <v>7500</v>
       </c>
       <c r="D2668" t="s">
         <v>2670</v>
@@ -46669,7 +46669,7 @@
         <v>76</v>
       </c>
       <c r="C2669">
-        <v>7590</v>
+        <v>7580</v>
       </c>
       <c r="D2669" t="s">
         <v>2671</v>
@@ -46697,7 +46697,7 @@
         <v>78</v>
       </c>
       <c r="C2671">
-        <v>7700</v>
+        <v>7730</v>
       </c>
       <c r="D2671" t="s">
         <v>2673</v>
@@ -46711,7 +46711,7 @@
         <v>79</v>
       </c>
       <c r="C2672">
-        <v>7700</v>
+        <v>7770</v>
       </c>
       <c r="D2672" t="s">
         <v>2674</v>
@@ -46725,7 +46725,7 @@
         <v>80</v>
       </c>
       <c r="C2673">
-        <v>7690</v>
+        <v>7780</v>
       </c>
       <c r="D2673" t="s">
         <v>2675</v>
@@ -46739,7 +46739,7 @@
         <v>81</v>
       </c>
       <c r="C2674">
-        <v>7670</v>
+        <v>7760</v>
       </c>
       <c r="D2674" t="s">
         <v>2676</v>
@@ -46753,7 +46753,7 @@
         <v>82</v>
       </c>
       <c r="C2675">
-        <v>7630</v>
+        <v>7720</v>
       </c>
       <c r="D2675" t="s">
         <v>2677</v>
@@ -46767,7 +46767,7 @@
         <v>83</v>
       </c>
       <c r="C2676">
-        <v>7560</v>
+        <v>7640</v>
       </c>
       <c r="D2676" t="s">
         <v>2678</v>
@@ -46781,7 +46781,7 @@
         <v>84</v>
       </c>
       <c r="C2677">
-        <v>7490</v>
+        <v>7550</v>
       </c>
       <c r="D2677" t="s">
         <v>2679</v>
@@ -46795,7 +46795,7 @@
         <v>85</v>
       </c>
       <c r="C2678">
-        <v>7370</v>
+        <v>7440</v>
       </c>
       <c r="D2678" t="s">
         <v>2680</v>
@@ -46809,7 +46809,7 @@
         <v>86</v>
       </c>
       <c r="C2679">
-        <v>7240</v>
+        <v>7330</v>
       </c>
       <c r="D2679" t="s">
         <v>2681</v>
@@ -46823,7 +46823,7 @@
         <v>87</v>
       </c>
       <c r="C2680">
-        <v>7130</v>
+        <v>7190</v>
       </c>
       <c r="D2680" t="s">
         <v>2682</v>
@@ -46837,7 +46837,7 @@
         <v>88</v>
       </c>
       <c r="C2681">
-        <v>6980</v>
+        <v>7060</v>
       </c>
       <c r="D2681" t="s">
         <v>2683</v>
@@ -46851,7 +46851,7 @@
         <v>89</v>
       </c>
       <c r="C2682">
-        <v>6820</v>
+        <v>6910</v>
       </c>
       <c r="D2682" t="s">
         <v>2684</v>
@@ -46865,7 +46865,7 @@
         <v>90</v>
       </c>
       <c r="C2683">
-        <v>6700</v>
+        <v>6760</v>
       </c>
       <c r="D2683" t="s">
         <v>2685</v>
@@ -46879,7 +46879,7 @@
         <v>91</v>
       </c>
       <c r="C2684">
-        <v>6530</v>
+        <v>6620</v>
       </c>
       <c r="D2684" t="s">
         <v>2686</v>
@@ -46893,7 +46893,7 @@
         <v>92</v>
       </c>
       <c r="C2685">
-        <v>6380</v>
+        <v>6460</v>
       </c>
       <c r="D2685" t="s">
         <v>2687</v>
@@ -46907,7 +46907,7 @@
         <v>93</v>
       </c>
       <c r="C2686">
-        <v>6220</v>
+        <v>6310</v>
       </c>
       <c r="D2686" t="s">
         <v>2688</v>
@@ -46921,7 +46921,7 @@
         <v>94</v>
       </c>
       <c r="C2687">
-        <v>6080</v>
+        <v>6170</v>
       </c>
       <c r="D2687" t="s">
         <v>2689</v>
@@ -46935,7 +46935,7 @@
         <v>95</v>
       </c>
       <c r="C2688">
-        <v>5950</v>
+        <v>6030</v>
       </c>
       <c r="D2688" t="s">
         <v>2690</v>
@@ -46949,7 +46949,7 @@
         <v>96</v>
       </c>
       <c r="C2689">
-        <v>5820</v>
+        <v>5920</v>
       </c>
       <c r="D2689" t="s">
         <v>2691</v>
@@ -46977,7 +46977,7 @@
         <v>2</v>
       </c>
       <c r="C2691">
-        <v>5770</v>
+        <v>5740</v>
       </c>
       <c r="D2691" t="s">
         <v>2693</v>
@@ -46991,7 +46991,7 @@
         <v>3</v>
       </c>
       <c r="C2692">
-        <v>5750</v>
+        <v>5690</v>
       </c>
       <c r="D2692" t="s">
         <v>2694</v>
@@ -47005,7 +47005,7 @@
         <v>4</v>
       </c>
       <c r="C2693">
-        <v>5730</v>
+        <v>5630</v>
       </c>
       <c r="D2693" t="s">
         <v>2695</v>
@@ -47019,7 +47019,7 @@
         <v>5</v>
       </c>
       <c r="C2694">
-        <v>5700</v>
+        <v>5580</v>
       </c>
       <c r="D2694" t="s">
         <v>2696</v>
@@ -47033,7 +47033,7 @@
         <v>6</v>
       </c>
       <c r="C2695">
-        <v>5680</v>
+        <v>5530</v>
       </c>
       <c r="D2695" t="s">
         <v>2697</v>
@@ -47047,7 +47047,7 @@
         <v>7</v>
       </c>
       <c r="C2696">
-        <v>5660</v>
+        <v>5490</v>
       </c>
       <c r="D2696" t="s">
         <v>2698</v>
@@ -47061,7 +47061,7 @@
         <v>8</v>
       </c>
       <c r="C2697">
-        <v>5630</v>
+        <v>5450</v>
       </c>
       <c r="D2697" t="s">
         <v>2699</v>
@@ -47075,7 +47075,7 @@
         <v>9</v>
       </c>
       <c r="C2698">
-        <v>5610</v>
+        <v>5420</v>
       </c>
       <c r="D2698" t="s">
         <v>2700</v>
@@ -47089,7 +47089,7 @@
         <v>10</v>
       </c>
       <c r="C2699">
-        <v>5590</v>
+        <v>5390</v>
       </c>
       <c r="D2699" t="s">
         <v>2701</v>
@@ -47103,7 +47103,7 @@
         <v>11</v>
       </c>
       <c r="C2700">
-        <v>5580</v>
+        <v>5360</v>
       </c>
       <c r="D2700" t="s">
         <v>2702</v>
@@ -47117,7 +47117,7 @@
         <v>12</v>
       </c>
       <c r="C2701">
-        <v>5570</v>
+        <v>5340</v>
       </c>
       <c r="D2701" t="s">
         <v>2703</v>
@@ -47131,7 +47131,7 @@
         <v>13</v>
       </c>
       <c r="C2702">
-        <v>5560</v>
+        <v>5320</v>
       </c>
       <c r="D2702" t="s">
         <v>2704</v>
@@ -47145,7 +47145,7 @@
         <v>14</v>
       </c>
       <c r="C2703">
-        <v>5560</v>
+        <v>5310</v>
       </c>
       <c r="D2703" t="s">
         <v>2705</v>
@@ -47159,7 +47159,7 @@
         <v>15</v>
       </c>
       <c r="C2704">
-        <v>5560</v>
+        <v>5300</v>
       </c>
       <c r="D2704" t="s">
         <v>2706</v>
@@ -47173,7 +47173,7 @@
         <v>16</v>
       </c>
       <c r="C2705">
-        <v>5570</v>
+        <v>5300</v>
       </c>
       <c r="D2705" t="s">
         <v>2707</v>
@@ -47187,7 +47187,7 @@
         <v>17</v>
       </c>
       <c r="C2706">
-        <v>5570</v>
+        <v>5310</v>
       </c>
       <c r="D2706" t="s">
         <v>2708</v>
@@ -47201,7 +47201,7 @@
         <v>18</v>
       </c>
       <c r="C2707">
-        <v>5580</v>
+        <v>5320</v>
       </c>
       <c r="D2707" t="s">
         <v>2709</v>
@@ -47215,7 +47215,7 @@
         <v>19</v>
       </c>
       <c r="C2708">
-        <v>5590</v>
+        <v>5340</v>
       </c>
       <c r="D2708" t="s">
         <v>2710</v>
@@ -47229,7 +47229,7 @@
         <v>20</v>
       </c>
       <c r="C2709">
-        <v>5600</v>
+        <v>5370</v>
       </c>
       <c r="D2709" t="s">
         <v>2711</v>
@@ -47243,7 +47243,7 @@
         <v>21</v>
       </c>
       <c r="C2710">
-        <v>5630</v>
+        <v>5400</v>
       </c>
       <c r="D2710" t="s">
         <v>2712</v>
@@ -47257,7 +47257,7 @@
         <v>22</v>
       </c>
       <c r="C2711">
-        <v>5650</v>
+        <v>5430</v>
       </c>
       <c r="D2711" t="s">
         <v>2713</v>
@@ -47271,7 +47271,7 @@
         <v>23</v>
       </c>
       <c r="C2712">
-        <v>5690</v>
+        <v>5470</v>
       </c>
       <c r="D2712" t="s">
         <v>2714</v>
@@ -47285,7 +47285,7 @@
         <v>24</v>
       </c>
       <c r="C2713">
-        <v>5730</v>
+        <v>5500</v>
       </c>
       <c r="D2713" t="s">
         <v>2715</v>
@@ -47299,7 +47299,7 @@
         <v>25</v>
       </c>
       <c r="C2714">
-        <v>5770</v>
+        <v>5540</v>
       </c>
       <c r="D2714" t="s">
         <v>2716</v>
@@ -47313,7 +47313,7 @@
         <v>26</v>
       </c>
       <c r="C2715">
-        <v>5810</v>
+        <v>5570</v>
       </c>
       <c r="D2715" t="s">
         <v>2717</v>
@@ -47327,7 +47327,7 @@
         <v>27</v>
       </c>
       <c r="C2716">
-        <v>5840</v>
+        <v>5610</v>
       </c>
       <c r="D2716" t="s">
         <v>2718</v>
@@ -47341,7 +47341,7 @@
         <v>28</v>
       </c>
       <c r="C2717">
-        <v>5870</v>
+        <v>5650</v>
       </c>
       <c r="D2717" t="s">
         <v>2719</v>
@@ -47355,7 +47355,7 @@
         <v>29</v>
       </c>
       <c r="C2718">
-        <v>5890</v>
+        <v>5690</v>
       </c>
       <c r="D2718" t="s">
         <v>2720</v>
@@ -47369,7 +47369,7 @@
         <v>30</v>
       </c>
       <c r="C2719">
-        <v>5890</v>
+        <v>5740</v>
       </c>
       <c r="D2719" t="s">
         <v>2721</v>
@@ -47383,7 +47383,7 @@
         <v>31</v>
       </c>
       <c r="C2720">
-        <v>5890</v>
+        <v>5790</v>
       </c>
       <c r="D2720" t="s">
         <v>2722</v>
@@ -47411,7 +47411,7 @@
         <v>33</v>
       </c>
       <c r="C2722">
-        <v>5830</v>
+        <v>5920</v>
       </c>
       <c r="D2722" t="s">
         <v>2724</v>
@@ -47425,7 +47425,7 @@
         <v>34</v>
       </c>
       <c r="C2723">
-        <v>5780</v>
+        <v>5990</v>
       </c>
       <c r="D2723" t="s">
         <v>2725</v>
@@ -47439,7 +47439,7 @@
         <v>35</v>
       </c>
       <c r="C2724">
-        <v>5710</v>
+        <v>6050</v>
       </c>
       <c r="D2724" t="s">
         <v>2726</v>
@@ -47453,7 +47453,7 @@
         <v>36</v>
       </c>
       <c r="C2725">
-        <v>5630</v>
+        <v>6100</v>
       </c>
       <c r="D2725" t="s">
         <v>2727</v>
@@ -47467,7 +47467,7 @@
         <v>37</v>
       </c>
       <c r="C2726">
-        <v>5550</v>
+        <v>6140</v>
       </c>
       <c r="D2726" t="s">
         <v>2728</v>
@@ -47481,7 +47481,7 @@
         <v>38</v>
       </c>
       <c r="C2727">
-        <v>5460</v>
+        <v>6180</v>
       </c>
       <c r="D2727" t="s">
         <v>2729</v>
@@ -47495,7 +47495,7 @@
         <v>39</v>
       </c>
       <c r="C2728">
-        <v>5370</v>
+        <v>6200</v>
       </c>
       <c r="D2728" t="s">
         <v>2730</v>
@@ -47509,7 +47509,7 @@
         <v>40</v>
       </c>
       <c r="C2729">
-        <v>5270</v>
+        <v>6200</v>
       </c>
       <c r="D2729" t="s">
         <v>2731</v>
@@ -47523,7 +47523,7 @@
         <v>41</v>
       </c>
       <c r="C2730">
-        <v>5180</v>
+        <v>6180</v>
       </c>
       <c r="D2730" t="s">
         <v>2732</v>
@@ -47537,7 +47537,7 @@
         <v>42</v>
       </c>
       <c r="C2731">
-        <v>5090</v>
+        <v>6160</v>
       </c>
       <c r="D2731" t="s">
         <v>2733</v>
@@ -47551,7 +47551,7 @@
         <v>43</v>
       </c>
       <c r="C2732">
-        <v>5010</v>
+        <v>6130</v>
       </c>
       <c r="D2732" t="s">
         <v>2734</v>
@@ -47565,7 +47565,7 @@
         <v>44</v>
       </c>
       <c r="C2733">
-        <v>4940</v>
+        <v>6110</v>
       </c>
       <c r="D2733" t="s">
         <v>2735</v>
@@ -47579,7 +47579,7 @@
         <v>45</v>
       </c>
       <c r="C2734">
-        <v>4870</v>
+        <v>6090</v>
       </c>
       <c r="D2734" t="s">
         <v>2736</v>
@@ -47593,7 +47593,7 @@
         <v>46</v>
       </c>
       <c r="C2735">
-        <v>4810</v>
+        <v>6070</v>
       </c>
       <c r="D2735" t="s">
         <v>2737</v>
@@ -47607,7 +47607,7 @@
         <v>47</v>
       </c>
       <c r="C2736">
-        <v>4750</v>
+        <v>6060</v>
       </c>
       <c r="D2736" t="s">
         <v>2738</v>
@@ -47621,7 +47621,7 @@
         <v>48</v>
       </c>
       <c r="C2737">
-        <v>4700</v>
+        <v>6050</v>
       </c>
       <c r="D2737" t="s">
         <v>2739</v>
@@ -47635,7 +47635,7 @@
         <v>49</v>
       </c>
       <c r="C2738">
-        <v>4660</v>
+        <v>6040</v>
       </c>
       <c r="D2738" t="s">
         <v>2740</v>
@@ -47649,7 +47649,7 @@
         <v>50</v>
       </c>
       <c r="C2739">
-        <v>4630</v>
+        <v>6020</v>
       </c>
       <c r="D2739" t="s">
         <v>2741</v>
@@ -47663,7 +47663,7 @@
         <v>51</v>
       </c>
       <c r="C2740">
-        <v>4610</v>
+        <v>6010</v>
       </c>
       <c r="D2740" t="s">
         <v>2742</v>
@@ -47677,7 +47677,7 @@
         <v>52</v>
       </c>
       <c r="C2741">
-        <v>4590</v>
+        <v>5990</v>
       </c>
       <c r="D2741" t="s">
         <v>2743</v>
@@ -47691,7 +47691,7 @@
         <v>53</v>
       </c>
       <c r="C2742">
-        <v>4590</v>
+        <v>5970</v>
       </c>
       <c r="D2742" t="s">
         <v>2744</v>
@@ -47705,7 +47705,7 @@
         <v>54</v>
       </c>
       <c r="C2743">
-        <v>4600</v>
+        <v>5950</v>
       </c>
       <c r="D2743" t="s">
         <v>2745</v>
@@ -47719,7 +47719,7 @@
         <v>55</v>
       </c>
       <c r="C2744">
-        <v>4620</v>
+        <v>5930</v>
       </c>
       <c r="D2744" t="s">
         <v>2746</v>
@@ -47733,7 +47733,7 @@
         <v>56</v>
       </c>
       <c r="C2745">
-        <v>4650</v>
+        <v>5920</v>
       </c>
       <c r="D2745" t="s">
         <v>2747</v>
@@ -47747,7 +47747,7 @@
         <v>57</v>
       </c>
       <c r="C2746">
-        <v>4700</v>
+        <v>5920</v>
       </c>
       <c r="D2746" t="s">
         <v>2748</v>
@@ -47761,7 +47761,7 @@
         <v>58</v>
       </c>
       <c r="C2747">
-        <v>4750</v>
+        <v>5920</v>
       </c>
       <c r="D2747" t="s">
         <v>2749</v>
@@ -47775,7 +47775,7 @@
         <v>59</v>
       </c>
       <c r="C2748">
-        <v>4810</v>
+        <v>5940</v>
       </c>
       <c r="D2748" t="s">
         <v>2750</v>
@@ -47789,7 +47789,7 @@
         <v>60</v>
       </c>
       <c r="C2749">
-        <v>4870</v>
+        <v>5960</v>
       </c>
       <c r="D2749" t="s">
         <v>2751</v>
@@ -47803,7 +47803,7 @@
         <v>61</v>
       </c>
       <c r="C2750">
-        <v>4950</v>
+        <v>5990</v>
       </c>
       <c r="D2750" t="s">
         <v>2752</v>
@@ -47817,7 +47817,7 @@
         <v>62</v>
       </c>
       <c r="C2751">
-        <v>5030</v>
+        <v>6020</v>
       </c>
       <c r="D2751" t="s">
         <v>2753</v>
@@ -47831,7 +47831,7 @@
         <v>63</v>
       </c>
       <c r="C2752">
-        <v>5130</v>
+        <v>6050</v>
       </c>
       <c r="D2752" t="s">
         <v>2754</v>
@@ -47845,7 +47845,7 @@
         <v>64</v>
       </c>
       <c r="C2753">
-        <v>5230</v>
+        <v>6090</v>
       </c>
       <c r="D2753" t="s">
         <v>2755</v>
@@ -47859,7 +47859,7 @@
         <v>65</v>
       </c>
       <c r="C2754">
-        <v>5360</v>
+        <v>6140</v>
       </c>
       <c r="D2754" t="s">
         <v>2756</v>
@@ -47873,7 +47873,7 @@
         <v>66</v>
       </c>
       <c r="C2755">
-        <v>5500</v>
+        <v>6190</v>
       </c>
       <c r="D2755" t="s">
         <v>2757</v>
@@ -47887,7 +47887,7 @@
         <v>67</v>
       </c>
       <c r="C2756">
-        <v>5650</v>
+        <v>6250</v>
       </c>
       <c r="D2756" t="s">
         <v>2758</v>
@@ -47901,7 +47901,7 @@
         <v>68</v>
       </c>
       <c r="C2757">
-        <v>5810</v>
+        <v>6320</v>
       </c>
       <c r="D2757" t="s">
         <v>2759</v>
@@ -47915,7 +47915,7 @@
         <v>69</v>
       </c>
       <c r="C2758">
-        <v>5980</v>
+        <v>6400</v>
       </c>
       <c r="D2758" t="s">
         <v>2760</v>
@@ -47929,7 +47929,7 @@
         <v>70</v>
       </c>
       <c r="C2759">
-        <v>6140</v>
+        <v>6480</v>
       </c>
       <c r="D2759" t="s">
         <v>2761</v>
@@ -47943,7 +47943,7 @@
         <v>71</v>
       </c>
       <c r="C2760">
-        <v>6310</v>
+        <v>6560</v>
       </c>
       <c r="D2760" t="s">
         <v>2762</v>
@@ -47957,7 +47957,7 @@
         <v>72</v>
       </c>
       <c r="C2761">
-        <v>6460</v>
+        <v>6640</v>
       </c>
       <c r="D2761" t="s">
         <v>2763</v>
@@ -47971,7 +47971,7 @@
         <v>73</v>
       </c>
       <c r="C2762">
-        <v>6620</v>
+        <v>6710</v>
       </c>
       <c r="D2762" t="s">
         <v>2764</v>
@@ -47985,7 +47985,7 @@
         <v>74</v>
       </c>
       <c r="C2763">
-        <v>6770</v>
+        <v>6790</v>
       </c>
       <c r="D2763" t="s">
         <v>2765</v>
@@ -47999,7 +47999,7 @@
         <v>75</v>
       </c>
       <c r="C2764">
-        <v>6930</v>
+        <v>6880</v>
       </c>
       <c r="D2764" t="s">
         <v>2766</v>
@@ -48013,7 +48013,7 @@
         <v>76</v>
       </c>
       <c r="C2765">
-        <v>7070</v>
+        <v>6960</v>
       </c>
       <c r="D2765" t="s">
         <v>2767</v>
@@ -48027,7 +48027,7 @@
         <v>77</v>
       </c>
       <c r="C2766">
-        <v>7210</v>
+        <v>7050</v>
       </c>
       <c r="D2766" t="s">
         <v>2768</v>
@@ -48041,7 +48041,7 @@
         <v>78</v>
       </c>
       <c r="C2767">
-        <v>7320</v>
+        <v>7130</v>
       </c>
       <c r="D2767" t="s">
         <v>2769</v>
@@ -48055,7 +48055,7 @@
         <v>79</v>
       </c>
       <c r="C2768">
-        <v>7380</v>
+        <v>7150</v>
       </c>
       <c r="D2768" t="s">
         <v>2770</v>
@@ -48069,7 +48069,7 @@
         <v>80</v>
       </c>
       <c r="C2769">
-        <v>7390</v>
+        <v>7150</v>
       </c>
       <c r="D2769" t="s">
         <v>2771</v>
@@ -48083,7 +48083,7 @@
         <v>81</v>
       </c>
       <c r="C2770">
-        <v>7380</v>
+        <v>7130</v>
       </c>
       <c r="D2770" t="s">
         <v>2772</v>
@@ -48097,7 +48097,7 @@
         <v>82</v>
       </c>
       <c r="C2771">
-        <v>7350</v>
+        <v>7100</v>
       </c>
       <c r="D2771" t="s">
         <v>2773</v>
@@ -48111,7 +48111,7 @@
         <v>83</v>
       </c>
       <c r="C2772">
-        <v>7280</v>
+        <v>7050</v>
       </c>
       <c r="D2772" t="s">
         <v>2774</v>
@@ -48125,7 +48125,7 @@
         <v>84</v>
       </c>
       <c r="C2773">
-        <v>7200</v>
+        <v>6980</v>
       </c>
       <c r="D2773" t="s">
         <v>2775</v>
@@ -48139,7 +48139,7 @@
         <v>85</v>
       </c>
       <c r="C2774">
-        <v>7090</v>
+        <v>6860</v>
       </c>
       <c r="D2774" t="s">
         <v>2776</v>
@@ -48153,7 +48153,7 @@
         <v>86</v>
       </c>
       <c r="C2775">
-        <v>6970</v>
+        <v>6750</v>
       </c>
       <c r="D2775" t="s">
         <v>2777</v>
@@ -48167,7 +48167,7 @@
         <v>87</v>
       </c>
       <c r="C2776">
-        <v>6860</v>
+        <v>6650</v>
       </c>
       <c r="D2776" t="s">
         <v>2778</v>
@@ -48181,7 +48181,7 @@
         <v>88</v>
       </c>
       <c r="C2777">
-        <v>6730</v>
+        <v>6540</v>
       </c>
       <c r="D2777" t="s">
         <v>2779</v>
@@ -48195,7 +48195,7 @@
         <v>89</v>
       </c>
       <c r="C2778">
-        <v>6600</v>
+        <v>6390</v>
       </c>
       <c r="D2778" t="s">
         <v>2780</v>
@@ -48209,7 +48209,7 @@
         <v>90</v>
       </c>
       <c r="C2779">
-        <v>6460</v>
+        <v>6260</v>
       </c>
       <c r="D2779" t="s">
         <v>2781</v>
@@ -48223,7 +48223,7 @@
         <v>91</v>
       </c>
       <c r="C2780">
-        <v>6330</v>
+        <v>6130</v>
       </c>
       <c r="D2780" t="s">
         <v>2782</v>
@@ -48237,7 +48237,7 @@
         <v>92</v>
       </c>
       <c r="C2781">
-        <v>6200</v>
+        <v>5990</v>
       </c>
       <c r="D2781" t="s">
         <v>2783</v>
@@ -48251,7 +48251,7 @@
         <v>93</v>
       </c>
       <c r="C2782">
-        <v>6080</v>
+        <v>5850</v>
       </c>
       <c r="D2782" t="s">
         <v>2784</v>
@@ -48265,7 +48265,7 @@
         <v>94</v>
       </c>
       <c r="C2783">
-        <v>5950</v>
+        <v>5720</v>
       </c>
       <c r="D2783" t="s">
         <v>2785</v>
@@ -48279,7 +48279,7 @@
         <v>95</v>
       </c>
       <c r="C2784">
-        <v>5830</v>
+        <v>5620</v>
       </c>
       <c r="D2784" t="s">
         <v>2786</v>
@@ -48293,7 +48293,7 @@
         <v>96</v>
       </c>
       <c r="C2785">
-        <v>5720</v>
+        <v>5510</v>
       </c>
       <c r="D2785" t="s">
         <v>2787</v>
@@ -48307,7 +48307,7 @@
         <v>1</v>
       </c>
       <c r="C2786">
-        <v>5600</v>
+        <v>5440</v>
       </c>
       <c r="D2786" t="s">
         <v>2788</v>
@@ -48321,7 +48321,7 @@
         <v>2</v>
       </c>
       <c r="C2787">
-        <v>5540</v>
+        <v>5390</v>
       </c>
       <c r="D2787" t="s">
         <v>2789</v>
@@ -48335,7 +48335,7 @@
         <v>3</v>
       </c>
       <c r="C2788">
-        <v>5490</v>
+        <v>5340</v>
       </c>
       <c r="D2788" t="s">
         <v>2790</v>
@@ -48349,7 +48349,7 @@
         <v>4</v>
       </c>
       <c r="C2789">
-        <v>5440</v>
+        <v>5280</v>
       </c>
       <c r="D2789" t="s">
         <v>2791</v>
@@ -48363,7 +48363,7 @@
         <v>5</v>
       </c>
       <c r="C2790">
-        <v>5380</v>
+        <v>5240</v>
       </c>
       <c r="D2790" t="s">
         <v>2792</v>
@@ -48377,7 +48377,7 @@
         <v>6</v>
       </c>
       <c r="C2791">
-        <v>5330</v>
+        <v>5200</v>
       </c>
       <c r="D2791" t="s">
         <v>2793</v>
@@ -48391,7 +48391,7 @@
         <v>7</v>
       </c>
       <c r="C2792">
-        <v>5290</v>
+        <v>5170</v>
       </c>
       <c r="D2792" t="s">
         <v>2794</v>
@@ -48405,7 +48405,7 @@
         <v>8</v>
       </c>
       <c r="C2793">
-        <v>5260</v>
+        <v>5130</v>
       </c>
       <c r="D2793" t="s">
         <v>2795</v>
@@ -48419,7 +48419,7 @@
         <v>9</v>
       </c>
       <c r="C2794">
-        <v>5220</v>
+        <v>5090</v>
       </c>
       <c r="D2794" t="s">
         <v>2796</v>
@@ -48433,7 +48433,7 @@
         <v>10</v>
       </c>
       <c r="C2795">
-        <v>5190</v>
+        <v>5060</v>
       </c>
       <c r="D2795" t="s">
         <v>2797</v>
@@ -48447,7 +48447,7 @@
         <v>11</v>
       </c>
       <c r="C2796">
-        <v>5160</v>
+        <v>5030</v>
       </c>
       <c r="D2796" t="s">
         <v>2798</v>
@@ -48461,7 +48461,7 @@
         <v>12</v>
       </c>
       <c r="C2797">
-        <v>5130</v>
+        <v>5010</v>
       </c>
       <c r="D2797" t="s">
         <v>2799</v>
@@ -48475,7 +48475,7 @@
         <v>17</v>
       </c>
       <c r="C2798">
-        <v>5040</v>
+        <v>4950</v>
       </c>
       <c r="D2798" t="s">
         <v>2800</v>
@@ -48489,7 +48489,7 @@
         <v>18</v>
       </c>
       <c r="C2799">
-        <v>5040</v>
+        <v>4950</v>
       </c>
       <c r="D2799" t="s">
         <v>2801</v>
@@ -48503,7 +48503,7 @@
         <v>19</v>
       </c>
       <c r="C2800">
-        <v>5050</v>
+        <v>4950</v>
       </c>
       <c r="D2800" t="s">
         <v>2802</v>
@@ -48517,7 +48517,7 @@
         <v>20</v>
       </c>
       <c r="C2801">
-        <v>5070</v>
+        <v>4960</v>
       </c>
       <c r="D2801" t="s">
         <v>2803</v>
@@ -48531,7 +48531,7 @@
         <v>21</v>
       </c>
       <c r="C2802">
-        <v>5090</v>
+        <v>4970</v>
       </c>
       <c r="D2802" t="s">
         <v>2804</v>
@@ -48545,7 +48545,7 @@
         <v>22</v>
       </c>
       <c r="C2803">
-        <v>5120</v>
+        <v>4990</v>
       </c>
       <c r="D2803" t="s">
         <v>2805</v>
@@ -48559,7 +48559,7 @@
         <v>23</v>
       </c>
       <c r="C2804">
-        <v>5150</v>
+        <v>5020</v>
       </c>
       <c r="D2804" t="s">
         <v>2806</v>
@@ -48573,7 +48573,7 @@
         <v>24</v>
       </c>
       <c r="C2805">
-        <v>5180</v>
+        <v>5040</v>
       </c>
       <c r="D2805" t="s">
         <v>2807</v>
@@ -48587,7 +48587,7 @@
         <v>25</v>
       </c>
       <c r="C2806">
-        <v>5210</v>
+        <v>5070</v>
       </c>
       <c r="D2806" t="s">
         <v>2808</v>
@@ -48601,7 +48601,7 @@
         <v>26</v>
       </c>
       <c r="C2807">
-        <v>5230</v>
+        <v>5090</v>
       </c>
       <c r="D2807" t="s">
         <v>2809</v>
@@ -48615,7 +48615,7 @@
         <v>27</v>
       </c>
       <c r="C2808">
-        <v>5250</v>
+        <v>5110</v>
       </c>
       <c r="D2808" t="s">
         <v>2810</v>
@@ -48629,7 +48629,7 @@
         <v>28</v>
       </c>
       <c r="C2809">
-        <v>5250</v>
+        <v>5130</v>
       </c>
       <c r="D2809" t="s">
         <v>2811</v>
@@ -48643,7 +48643,7 @@
         <v>29</v>
       </c>
       <c r="C2810">
-        <v>5250</v>
+        <v>5150</v>
       </c>
       <c r="D2810" t="s">
         <v>2812</v>
@@ -48657,7 +48657,7 @@
         <v>30</v>
       </c>
       <c r="C2811">
-        <v>5240</v>
+        <v>5170</v>
       </c>
       <c r="D2811" t="s">
         <v>2813</v>
@@ -48671,7 +48671,7 @@
         <v>31</v>
       </c>
       <c r="C2812">
-        <v>5220</v>
+        <v>5200</v>
       </c>
       <c r="D2812" t="s">
         <v>2814</v>
@@ -48685,7 +48685,7 @@
         <v>32</v>
       </c>
       <c r="C2813">
-        <v>5190</v>
+        <v>5230</v>
       </c>
       <c r="D2813" t="s">
         <v>2815</v>
@@ -48699,7 +48699,7 @@
         <v>33</v>
       </c>
       <c r="C2814">
-        <v>5140</v>
+        <v>5250</v>
       </c>
       <c r="D2814" t="s">
         <v>2816</v>
@@ -48713,7 +48713,7 @@
         <v>34</v>
       </c>
       <c r="C2815">
-        <v>5090</v>
+        <v>5270</v>
       </c>
       <c r="D2815" t="s">
         <v>2817</v>
@@ -48727,7 +48727,7 @@
         <v>35</v>
       </c>
       <c r="C2816">
-        <v>5020</v>
+        <v>5290</v>
       </c>
       <c r="D2816" t="s">
         <v>2818</v>
@@ -48741,7 +48741,7 @@
         <v>36</v>
       </c>
       <c r="C2817">
-        <v>4930</v>
+        <v>5300</v>
       </c>
       <c r="D2817" t="s">
         <v>2819</v>
@@ -48755,7 +48755,7 @@
         <v>37</v>
       </c>
       <c r="C2818">
-        <v>4840</v>
+        <v>5300</v>
       </c>
       <c r="D2818" t="s">
         <v>2820</v>
@@ -48769,7 +48769,7 @@
         <v>38</v>
       </c>
       <c r="C2819">
-        <v>4730</v>
+        <v>5290</v>
       </c>
       <c r="D2819" t="s">
         <v>2821</v>
@@ -48783,7 +48783,7 @@
         <v>39</v>
       </c>
       <c r="C2820">
-        <v>4620</v>
+        <v>5270</v>
       </c>
       <c r="D2820" t="s">
         <v>2822</v>
@@ -48797,7 +48797,7 @@
         <v>40</v>
       </c>
       <c r="C2821">
-        <v>4510</v>
+        <v>5250</v>
       </c>
       <c r="D2821" t="s">
         <v>2823</v>
@@ -48811,7 +48811,7 @@
         <v>41</v>
       </c>
       <c r="C2822">
-        <v>4410</v>
+        <v>5200</v>
       </c>
       <c r="D2822" t="s">
         <v>2824</v>
@@ -48825,7 +48825,7 @@
         <v>42</v>
       </c>
       <c r="C2823">
-        <v>4310</v>
+        <v>5150</v>
       </c>
       <c r="D2823" t="s">
         <v>2825</v>
@@ -48839,7 +48839,7 @@
         <v>43</v>
       </c>
       <c r="C2824">
-        <v>4220</v>
+        <v>5100</v>
       </c>
       <c r="D2824" t="s">
         <v>2826</v>
@@ -48853,7 +48853,7 @@
         <v>44</v>
       </c>
       <c r="C2825">
-        <v>4140</v>
+        <v>5050</v>
       </c>
       <c r="D2825" t="s">
         <v>2827</v>
@@ -48867,7 +48867,7 @@
         <v>45</v>
       </c>
       <c r="C2826">
-        <v>4080</v>
+        <v>5010</v>
       </c>
       <c r="D2826" t="s">
         <v>2828</v>
@@ -48881,7 +48881,7 @@
         <v>46</v>
       </c>
       <c r="C2827">
-        <v>4040</v>
+        <v>4980</v>
       </c>
       <c r="D2827" t="s">
         <v>2829</v>
@@ -48895,7 +48895,7 @@
         <v>47</v>
       </c>
       <c r="C2828">
-        <v>4010</v>
+        <v>4950</v>
       </c>
       <c r="D2828" t="s">
         <v>2830</v>
@@ -48909,7 +48909,7 @@
         <v>48</v>
       </c>
       <c r="C2829">
-        <v>3990</v>
+        <v>4940</v>
       </c>
       <c r="D2829" t="s">
         <v>2831</v>
@@ -48923,7 +48923,7 @@
         <v>49</v>
       </c>
       <c r="C2830">
-        <v>3980</v>
+        <v>4920</v>
       </c>
       <c r="D2830" t="s">
         <v>2832</v>
@@ -48937,7 +48937,7 @@
         <v>50</v>
       </c>
       <c r="C2831">
-        <v>3970</v>
+        <v>4910</v>
       </c>
       <c r="D2831" t="s">
         <v>2833</v>
@@ -48951,7 +48951,7 @@
         <v>51</v>
       </c>
       <c r="C2832">
-        <v>3970</v>
+        <v>4910</v>
       </c>
       <c r="D2832" t="s">
         <v>2834</v>
@@ -48965,7 +48965,7 @@
         <v>52</v>
       </c>
       <c r="C2833">
-        <v>3970</v>
+        <v>4900</v>
       </c>
       <c r="D2833" t="s">
         <v>2835</v>
@@ -48979,7 +48979,7 @@
         <v>53</v>
       </c>
       <c r="C2834">
-        <v>3960</v>
+        <v>4890</v>
       </c>
       <c r="D2834" t="s">
         <v>2836</v>
@@ -48993,7 +48993,7 @@
         <v>54</v>
       </c>
       <c r="C2835">
-        <v>3960</v>
+        <v>4880</v>
       </c>
       <c r="D2835" t="s">
         <v>2837</v>
@@ -49007,7 +49007,7 @@
         <v>55</v>
       </c>
       <c r="C2836">
-        <v>3960</v>
+        <v>4880</v>
       </c>
       <c r="D2836" t="s">
         <v>2838</v>
@@ -49021,7 +49021,7 @@
         <v>56</v>
       </c>
       <c r="C2837">
-        <v>3960</v>
+        <v>4870</v>
       </c>
       <c r="D2837" t="s">
         <v>2839</v>
@@ -49035,7 +49035,7 @@
         <v>57</v>
       </c>
       <c r="C2838">
-        <v>3970</v>
+        <v>4880</v>
       </c>
       <c r="D2838" t="s">
         <v>2840</v>
@@ -49049,7 +49049,7 @@
         <v>58</v>
       </c>
       <c r="C2839">
-        <v>3990</v>
+        <v>4890</v>
       </c>
       <c r="D2839" t="s">
         <v>2841</v>
@@ -49063,7 +49063,7 @@
         <v>59</v>
       </c>
       <c r="C2840">
-        <v>4010</v>
+        <v>4900</v>
       </c>
       <c r="D2840" t="s">
         <v>2842</v>
@@ -49077,7 +49077,7 @@
         <v>60</v>
       </c>
       <c r="C2841">
-        <v>4040</v>
+        <v>4910</v>
       </c>
       <c r="D2841" t="s">
         <v>2843</v>
@@ -49091,7 +49091,7 @@
         <v>61</v>
       </c>
       <c r="C2842">
-        <v>4080</v>
+        <v>4930</v>
       </c>
       <c r="D2842" t="s">
         <v>2844</v>
@@ -49105,7 +49105,7 @@
         <v>62</v>
       </c>
       <c r="C2843">
-        <v>4120</v>
+        <v>4950</v>
       </c>
       <c r="D2843" t="s">
         <v>2845</v>
@@ -49119,7 +49119,7 @@
         <v>63</v>
       </c>
       <c r="C2844">
-        <v>4170</v>
+        <v>4980</v>
       </c>
       <c r="D2844" t="s">
         <v>2846</v>
@@ -49133,7 +49133,7 @@
         <v>64</v>
       </c>
       <c r="C2845">
-        <v>4230</v>
+        <v>5010</v>
       </c>
       <c r="D2845" t="s">
         <v>2847</v>
@@ -49147,7 +49147,7 @@
         <v>65</v>
       </c>
       <c r="C2846">
-        <v>4300</v>
+        <v>5060</v>
       </c>
       <c r="D2846" t="s">
         <v>2848</v>
@@ -49161,7 +49161,7 @@
         <v>66</v>
       </c>
       <c r="C2847">
-        <v>4380</v>
+        <v>5120</v>
       </c>
       <c r="D2847" t="s">
         <v>2849</v>
@@ -49175,7 +49175,7 @@
         <v>67</v>
       </c>
       <c r="C2848">
-        <v>4490</v>
+        <v>5190</v>
       </c>
       <c r="D2848" t="s">
         <v>2850</v>
@@ -49189,7 +49189,7 @@
         <v>68</v>
       </c>
       <c r="C2849">
-        <v>4600</v>
+        <v>5280</v>
       </c>
       <c r="D2849" t="s">
         <v>2851</v>
@@ -49203,7 +49203,7 @@
         <v>69</v>
       </c>
       <c r="C2850">
-        <v>4730</v>
+        <v>5370</v>
       </c>
       <c r="D2850" t="s">
         <v>2852</v>
@@ -49217,7 +49217,7 @@
         <v>70</v>
       </c>
       <c r="C2851">
-        <v>4860</v>
+        <v>5470</v>
       </c>
       <c r="D2851" t="s">
         <v>2853</v>
@@ -49231,7 +49231,7 @@
         <v>71</v>
       </c>
       <c r="C2852">
-        <v>5000</v>
+        <v>5560</v>
       </c>
       <c r="D2852" t="s">
         <v>2854</v>
@@ -49245,7 +49245,7 @@
         <v>72</v>
       </c>
       <c r="C2853">
-        <v>5130</v>
+        <v>5650</v>
       </c>
       <c r="D2853" t="s">
         <v>2855</v>
@@ -49259,7 +49259,7 @@
         <v>73</v>
       </c>
       <c r="C2854">
-        <v>5270</v>
+        <v>5730</v>
       </c>
       <c r="D2854" t="s">
         <v>2856</v>
@@ -49273,7 +49273,7 @@
         <v>74</v>
       </c>
       <c r="C2855">
-        <v>5420</v>
+        <v>5800</v>
       </c>
       <c r="D2855" t="s">
         <v>2857</v>
@@ -49287,7 +49287,7 @@
         <v>75</v>
       </c>
       <c r="C2856">
-        <v>5570</v>
+        <v>5880</v>
       </c>
       <c r="D2856" t="s">
         <v>2858</v>
@@ -49301,7 +49301,7 @@
         <v>76</v>
       </c>
       <c r="C2857">
-        <v>5740</v>
+        <v>5980</v>
       </c>
       <c r="D2857" t="s">
         <v>2859</v>
@@ -49315,7 +49315,7 @@
         <v>77</v>
       </c>
       <c r="C2858">
-        <v>5930</v>
+        <v>6090</v>
       </c>
       <c r="D2858" t="s">
         <v>2860</v>
@@ -49329,7 +49329,7 @@
         <v>78</v>
       </c>
       <c r="C2859">
-        <v>6120</v>
+        <v>6220</v>
       </c>
       <c r="D2859" t="s">
         <v>2861</v>
@@ -49343,7 +49343,7 @@
         <v>79</v>
       </c>
       <c r="C2860">
-        <v>6320</v>
+        <v>6350</v>
       </c>
       <c r="D2860" t="s">
         <v>2862</v>
@@ -49357,7 +49357,7 @@
         <v>80</v>
       </c>
       <c r="C2861">
-        <v>6500</v>
+        <v>6470</v>
       </c>
       <c r="D2861" t="s">
         <v>2863</v>
@@ -49371,7 +49371,7 @@
         <v>81</v>
       </c>
       <c r="C2862">
-        <v>6670</v>
+        <v>6580</v>
       </c>
       <c r="D2862" t="s">
         <v>2864</v>
@@ -49385,7 +49385,7 @@
         <v>82</v>
       </c>
       <c r="C2863">
-        <v>6800</v>
+        <v>6680</v>
       </c>
       <c r="D2863" t="s">
         <v>2865</v>
@@ -49399,7 +49399,7 @@
         <v>83</v>
       </c>
       <c r="C2864">
-        <v>6850</v>
+        <v>6700</v>
       </c>
       <c r="D2864" t="s">
         <v>2866</v>
@@ -49413,7 +49413,7 @@
         <v>84</v>
       </c>
       <c r="C2865">
-        <v>6860</v>
+        <v>6700</v>
       </c>
       <c r="D2865" t="s">
         <v>2867</v>
@@ -49427,7 +49427,7 @@
         <v>85</v>
       </c>
       <c r="C2866">
-        <v>6840</v>
+        <v>6680</v>
       </c>
       <c r="D2866" t="s">
         <v>2868</v>
@@ -49441,7 +49441,7 @@
         <v>86</v>
       </c>
       <c r="C2867">
-        <v>6800</v>
+        <v>6630</v>
       </c>
       <c r="D2867" t="s">
         <v>2869</v>
@@ -49455,7 +49455,7 @@
         <v>87</v>
       </c>
       <c r="C2868">
-        <v>6740</v>
+        <v>6580</v>
       </c>
       <c r="D2868" t="s">
         <v>2870</v>
@@ -49469,7 +49469,7 @@
         <v>88</v>
       </c>
       <c r="C2869">
-        <v>6660</v>
+        <v>6500</v>
       </c>
       <c r="D2869" t="s">
         <v>2871</v>
@@ -49483,7 +49483,7 @@
         <v>89</v>
       </c>
       <c r="C2870">
-        <v>6540</v>
+        <v>6380</v>
       </c>
       <c r="D2870" t="s">
         <v>2872</v>
@@ -49497,7 +49497,7 @@
         <v>90</v>
       </c>
       <c r="C2871">
-        <v>6420</v>
+        <v>6250</v>
       </c>
       <c r="D2871" t="s">
         <v>2873</v>
@@ -49511,7 +49511,7 @@
         <v>91</v>
       </c>
       <c r="C2872">
-        <v>6270</v>
+        <v>6130</v>
       </c>
       <c r="D2872" t="s">
         <v>2874</v>
@@ -49525,7 +49525,7 @@
         <v>92</v>
       </c>
       <c r="C2873">
-        <v>6130</v>
+        <v>5980</v>
       </c>
       <c r="D2873" t="s">
         <v>2875</v>
@@ -49539,7 +49539,7 @@
         <v>93</v>
       </c>
       <c r="C2874">
-        <v>5980</v>
+        <v>5840</v>
       </c>
       <c r="D2874" t="s">
         <v>2876</v>
@@ -49553,7 +49553,7 @@
         <v>94</v>
       </c>
       <c r="C2875">
-        <v>5850</v>
+        <v>5710</v>
       </c>
       <c r="D2875" t="s">
         <v>2877</v>
@@ -49567,7 +49567,7 @@
         <v>95</v>
       </c>
       <c r="C2876">
-        <v>5730</v>
+        <v>5590</v>
       </c>
       <c r="D2876" t="s">
         <v>2878</v>
@@ -49581,7 +49581,7 @@
         <v>96</v>
       </c>
       <c r="C2877">
-        <v>5620</v>
+        <v>5480</v>
       </c>
       <c r="D2877" t="s">
         <v>2879</v>
@@ -49595,7 +49595,7 @@
         <v>1</v>
       </c>
       <c r="C2878">
-        <v>5470</v>
+        <v>5340</v>
       </c>
       <c r="D2878" t="s">
         <v>2880</v>
@@ -49609,7 +49609,7 @@
         <v>2</v>
       </c>
       <c r="C2879">
-        <v>5410</v>
+        <v>5290</v>
       </c>
       <c r="D2879" t="s">
         <v>2881</v>
@@ -49623,7 +49623,7 @@
         <v>3</v>
       </c>
       <c r="C2880">
-        <v>5350</v>
+        <v>5240</v>
       </c>
       <c r="D2880" t="s">
         <v>2882</v>
@@ -49637,7 +49637,7 @@
         <v>4</v>
       </c>
       <c r="C2881">
-        <v>5290</v>
+        <v>5180</v>
       </c>
       <c r="D2881" t="s">
         <v>2883</v>
@@ -49651,7 +49651,7 @@
         <v>5</v>
       </c>
       <c r="C2882">
-        <v>5250</v>
+        <v>5130</v>
       </c>
       <c r="D2882" t="s">
         <v>2884</v>
@@ -49665,7 +49665,7 @@
         <v>6</v>
       </c>
       <c r="C2883">
-        <v>5210</v>
+        <v>5090</v>
       </c>
       <c r="D2883" t="s">
         <v>2885</v>
@@ -49679,7 +49679,7 @@
         <v>7</v>
       </c>
       <c r="C2884">
-        <v>5180</v>
+        <v>5040</v>
       </c>
       <c r="D2884" t="s">
         <v>2886</v>
@@ -49693,7 +49693,7 @@
         <v>8</v>
       </c>
       <c r="C2885">
-        <v>5140</v>
+        <v>5000</v>
       </c>
       <c r="D2885" t="s">
         <v>2887</v>
@@ -49707,7 +49707,7 @@
         <v>9</v>
       </c>
       <c r="C2886">
-        <v>5110</v>
+        <v>4960</v>
       </c>
       <c r="D2886" t="s">
         <v>2888</v>
@@ -49721,7 +49721,7 @@
         <v>10</v>
       </c>
       <c r="C2887">
-        <v>5080</v>
+        <v>4930</v>
       </c>
       <c r="D2887" t="s">
         <v>2889</v>
@@ -49735,7 +49735,7 @@
         <v>11</v>
       </c>
       <c r="C2888">
-        <v>5070</v>
+        <v>4910</v>
       </c>
       <c r="D2888" t="s">
         <v>2890</v>
@@ -49749,7 +49749,7 @@
         <v>12</v>
       </c>
       <c r="C2889">
-        <v>5060</v>
+        <v>4900</v>
       </c>
       <c r="D2889" t="s">
         <v>2891</v>
@@ -49763,7 +49763,7 @@
         <v>13</v>
       </c>
       <c r="C2890">
-        <v>5060</v>
+        <v>4900</v>
       </c>
       <c r="D2890" t="s">
         <v>2892</v>
@@ -49777,7 +49777,7 @@
         <v>14</v>
       </c>
       <c r="C2891">
-        <v>5070</v>
+        <v>4900</v>
       </c>
       <c r="D2891" t="s">
         <v>2893</v>
@@ -49791,7 +49791,7 @@
         <v>15</v>
       </c>
       <c r="C2892">
-        <v>5080</v>
+        <v>4910</v>
       </c>
       <c r="D2892" t="s">
         <v>2894</v>
@@ -49805,7 +49805,7 @@
         <v>16</v>
       </c>
       <c r="C2893">
-        <v>5080</v>
+        <v>4930</v>
       </c>
       <c r="D2893" t="s">
         <v>2895</v>
@@ -49819,7 +49819,7 @@
         <v>17</v>
       </c>
       <c r="C2894">
-        <v>5090</v>
+        <v>4950</v>
       </c>
       <c r="D2894" t="s">
         <v>2896</v>
@@ -49833,7 +49833,7 @@
         <v>18</v>
       </c>
       <c r="C2895">
-        <v>5110</v>
+        <v>4970</v>
       </c>
       <c r="D2895" t="s">
         <v>2897</v>
@@ -49847,7 +49847,7 @@
         <v>19</v>
       </c>
       <c r="C2896">
-        <v>5140</v>
+        <v>4990</v>
       </c>
       <c r="D2896" t="s">
         <v>2898</v>
@@ -49861,7 +49861,7 @@
         <v>20</v>
       </c>
       <c r="C2897">
-        <v>5180</v>
+        <v>5040</v>
       </c>
       <c r="D2897" t="s">
         <v>2899</v>
@@ -49875,7 +49875,7 @@
         <v>21</v>
       </c>
       <c r="C2898">
-        <v>5240</v>
+        <v>5100</v>
       </c>
       <c r="D2898" t="s">
         <v>2900</v>
@@ -49889,7 +49889,7 @@
         <v>22</v>
       </c>
       <c r="C2899">
-        <v>5320</v>
+        <v>5180</v>
       </c>
       <c r="D2899" t="s">
         <v>2901</v>
@@ -49903,7 +49903,7 @@
         <v>23</v>
       </c>
       <c r="C2900">
-        <v>5430</v>
+        <v>5280</v>
       </c>
       <c r="D2900" t="s">
         <v>2902</v>
@@ -49917,7 +49917,7 @@
         <v>24</v>
       </c>
       <c r="C2901">
-        <v>5560</v>
+        <v>5410</v>
       </c>
       <c r="D2901" t="s">
         <v>2903</v>
@@ -49931,7 +49931,7 @@
         <v>25</v>
       </c>
       <c r="C2902">
-        <v>5710</v>
+        <v>5560</v>
       </c>
       <c r="D2902" t="s">
         <v>2904</v>
@@ -49945,7 +49945,7 @@
         <v>26</v>
       </c>
       <c r="C2903">
-        <v>5880</v>
+        <v>5720</v>
       </c>
       <c r="D2903" t="s">
         <v>2905</v>
@@ -49959,7 +49959,7 @@
         <v>27</v>
       </c>
       <c r="C2904">
-        <v>6070</v>
+        <v>5890</v>
       </c>
       <c r="D2904" t="s">
         <v>2906</v>
@@ -49973,7 +49973,7 @@
         <v>28</v>
       </c>
       <c r="C2905">
-        <v>6260</v>
+        <v>6080</v>
       </c>
       <c r="D2905" t="s">
         <v>2907</v>
@@ -49987,7 +49987,7 @@
         <v>29</v>
       </c>
       <c r="C2906">
-        <v>6450</v>
+        <v>6260</v>
       </c>
       <c r="D2906" t="s">
         <v>2908</v>
@@ -50001,7 +50001,7 @@
         <v>30</v>
       </c>
       <c r="C2907">
-        <v>6620</v>
+        <v>6440</v>
       </c>
       <c r="D2907" t="s">
         <v>2909</v>
@@ -50015,7 +50015,7 @@
         <v>31</v>
       </c>
       <c r="C2908">
-        <v>6780</v>
+        <v>6600</v>
       </c>
       <c r="D2908" t="s">
         <v>2910</v>
@@ -50029,7 +50029,7 @@
         <v>32</v>
       </c>
       <c r="C2909">
-        <v>6920</v>
+        <v>6750</v>
       </c>
       <c r="D2909" t="s">
         <v>2911</v>
@@ -50043,7 +50043,7 @@
         <v>33</v>
       </c>
       <c r="C2910">
-        <v>7030</v>
+        <v>6880</v>
       </c>
       <c r="D2910" t="s">
         <v>2912</v>
@@ -50057,7 +50057,7 @@
         <v>34</v>
       </c>
       <c r="C2911">
-        <v>7110</v>
+        <v>6980</v>
       </c>
       <c r="D2911" t="s">
         <v>2913</v>
@@ -50071,7 +50071,7 @@
         <v>35</v>
       </c>
       <c r="C2912">
-        <v>7150</v>
+        <v>7030</v>
       </c>
       <c r="D2912" t="s">
         <v>2914</v>
@@ -50085,7 +50085,7 @@
         <v>36</v>
       </c>
       <c r="C2913">
-        <v>7160</v>
+        <v>7080</v>
       </c>
       <c r="D2913" t="s">
         <v>2915</v>
@@ -50099,7 +50099,7 @@
         <v>37</v>
       </c>
       <c r="C2914">
-        <v>7140</v>
+        <v>7100</v>
       </c>
       <c r="D2914" t="s">
         <v>2916</v>
@@ -50113,7 +50113,7 @@
         <v>38</v>
       </c>
       <c r="C2915">
-        <v>7090</v>
+        <v>7100</v>
       </c>
       <c r="D2915" t="s">
         <v>2917</v>
@@ -50127,7 +50127,7 @@
         <v>39</v>
       </c>
       <c r="C2916">
-        <v>7020</v>
+        <v>7080</v>
       </c>
       <c r="D2916" t="s">
         <v>2918</v>
@@ -50141,7 +50141,7 @@
         <v>40</v>
       </c>
       <c r="C2917">
-        <v>6940</v>
+        <v>7040</v>
       </c>
       <c r="D2917" t="s">
         <v>2919</v>
@@ -50155,7 +50155,7 @@
         <v>41</v>
       </c>
       <c r="C2918">
-        <v>6850</v>
+        <v>6980</v>
       </c>
       <c r="D2918" t="s">
         <v>2920</v>
@@ -50169,7 +50169,7 @@
         <v>42</v>
       </c>
       <c r="C2919">
-        <v>6760</v>
+        <v>6930</v>
       </c>
       <c r="D2919" t="s">
         <v>2921</v>
@@ -50183,7 +50183,7 @@
         <v>43</v>
       </c>
       <c r="C2920">
-        <v>6680</v>
+        <v>6870</v>
       </c>
       <c r="D2920" t="s">
         <v>2922</v>
@@ -50197,7 +50197,7 @@
         <v>44</v>
       </c>
       <c r="C2921">
-        <v>6600</v>
+        <v>6810</v>
       </c>
       <c r="D2921" t="s">
         <v>2923</v>
@@ -50211,7 +50211,7 @@
         <v>45</v>
       </c>
       <c r="C2922">
-        <v>6540</v>
+        <v>6770</v>
       </c>
       <c r="D2922" t="s">
         <v>2924</v>
@@ -50225,7 +50225,7 @@
         <v>46</v>
       </c>
       <c r="C2923">
-        <v>6490</v>
+        <v>6730</v>
       </c>
       <c r="D2923" t="s">
         <v>2925</v>
@@ -50239,7 +50239,7 @@
         <v>47</v>
       </c>
       <c r="C2924">
-        <v>6450</v>
+        <v>6700</v>
       </c>
       <c r="D2924" t="s">
         <v>2926</v>
@@ -50253,7 +50253,7 @@
         <v>48</v>
       </c>
       <c r="C2925">
-        <v>6420</v>
+        <v>6670</v>
       </c>
       <c r="D2925" t="s">
         <v>2927</v>
@@ -50267,7 +50267,7 @@
         <v>49</v>
       </c>
       <c r="C2926">
-        <v>6390</v>
+        <v>6650</v>
       </c>
       <c r="D2926" t="s">
         <v>2928</v>
@@ -50281,7 +50281,7 @@
         <v>50</v>
       </c>
       <c r="C2927">
-        <v>6370</v>
+        <v>6630</v>
       </c>
       <c r="D2927" t="s">
         <v>2929</v>
@@ -50295,7 +50295,7 @@
         <v>51</v>
       </c>
       <c r="C2928">
-        <v>6340</v>
+        <v>6610</v>
       </c>
       <c r="D2928" t="s">
         <v>2930</v>
@@ -50309,7 +50309,7 @@
         <v>52</v>
       </c>
       <c r="C2929">
-        <v>6320</v>
+        <v>6590</v>
       </c>
       <c r="D2929" t="s">
         <v>2931</v>
@@ -50323,7 +50323,7 @@
         <v>53</v>
       </c>
       <c r="C2930">
-        <v>6300</v>
+        <v>6570</v>
       </c>
       <c r="D2930" t="s">
         <v>2932</v>
@@ -50337,7 +50337,7 @@
         <v>54</v>
       </c>
       <c r="C2931">
-        <v>6290</v>
+        <v>6550</v>
       </c>
       <c r="D2931" t="s">
         <v>2933</v>
@@ -50351,7 +50351,7 @@
         <v>55</v>
       </c>
       <c r="C2932">
-        <v>6280</v>
+        <v>6540</v>
       </c>
       <c r="D2932" t="s">
         <v>2934</v>
@@ -50365,7 +50365,7 @@
         <v>56</v>
       </c>
       <c r="C2933">
-        <v>6290</v>
+        <v>6520</v>
       </c>
       <c r="D2933" t="s">
         <v>2935</v>
@@ -50379,7 +50379,7 @@
         <v>57</v>
       </c>
       <c r="C2934">
-        <v>6300</v>
+        <v>6520</v>
       </c>
       <c r="D2934" t="s">
         <v>2936</v>
@@ -50393,7 +50393,7 @@
         <v>58</v>
       </c>
       <c r="C2935">
-        <v>6310</v>
+        <v>6510</v>
       </c>
       <c r="D2935" t="s">
         <v>2937</v>
@@ -50407,7 +50407,7 @@
         <v>59</v>
       </c>
       <c r="C2936">
-        <v>6330</v>
+        <v>6510</v>
       </c>
       <c r="D2936" t="s">
         <v>2938</v>
@@ -50421,7 +50421,7 @@
         <v>60</v>
       </c>
       <c r="C2937">
-        <v>6350</v>
+        <v>6510</v>
       </c>
       <c r="D2937" t="s">
         <v>2939</v>
@@ -50435,7 +50435,7 @@
         <v>61</v>
       </c>
       <c r="C2938">
-        <v>6380</v>
+        <v>6510</v>
       </c>
       <c r="D2938" t="s">
         <v>2940</v>
@@ -50449,7 +50449,7 @@
         <v>62</v>
       </c>
       <c r="C2939">
-        <v>6400</v>
+        <v>6510</v>
       </c>
       <c r="D2939" t="s">
         <v>2941</v>
@@ -50463,7 +50463,7 @@
         <v>63</v>
       </c>
       <c r="C2940">
-        <v>6420</v>
+        <v>6520</v>
       </c>
       <c r="D2940" t="s">
         <v>2942</v>
@@ -50477,7 +50477,7 @@
         <v>64</v>
       </c>
       <c r="C2941">
-        <v>6450</v>
+        <v>6520</v>
       </c>
       <c r="D2941" t="s">
         <v>2943</v>
@@ -50491,7 +50491,7 @@
         <v>65</v>
       </c>
       <c r="C2942">
-        <v>6490</v>
+        <v>6530</v>
       </c>
       <c r="D2942" t="s">
         <v>2944</v>
@@ -50519,7 +50519,7 @@
         <v>67</v>
       </c>
       <c r="C2944">
-        <v>6610</v>
+        <v>6570</v>
       </c>
       <c r="D2944" t="s">
         <v>2946</v>
@@ -50533,7 +50533,7 @@
         <v>68</v>
       </c>
       <c r="C2945">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="D2945" t="s">
         <v>2947</v>
@@ -50547,7 +50547,7 @@
         <v>69</v>
       </c>
       <c r="C2946">
-        <v>6790</v>
+        <v>6640</v>
       </c>
       <c r="D2946" t="s">
         <v>2948</v>
@@ -50561,7 +50561,7 @@
         <v>70</v>
       </c>
       <c r="C2947">
-        <v>6880</v>
+        <v>6690</v>
       </c>
       <c r="D2947" t="s">
         <v>2949</v>
@@ -50575,7 +50575,7 @@
         <v>71</v>
       </c>
       <c r="C2948">
-        <v>6970</v>
+        <v>6740</v>
       </c>
       <c r="D2948" t="s">
         <v>2950</v>
@@ -50589,7 +50589,7 @@
         <v>72</v>
       </c>
       <c r="C2949">
-        <v>7060</v>
+        <v>6800</v>
       </c>
       <c r="D2949" t="s">
         <v>2951</v>
@@ -50603,7 +50603,7 @@
         <v>73</v>
       </c>
       <c r="C2950">
-        <v>7130</v>
+        <v>6860</v>
       </c>
       <c r="D2950" t="s">
         <v>2952</v>
@@ -50617,7 +50617,7 @@
         <v>74</v>
       </c>
       <c r="C2951">
-        <v>7210</v>
+        <v>6940</v>
       </c>
       <c r="D2951" t="s">
         <v>2953</v>
@@ -50631,7 +50631,7 @@
         <v>75</v>
       </c>
       <c r="C2952">
-        <v>7290</v>
+        <v>7040</v>
       </c>
       <c r="D2952" t="s">
         <v>2954</v>
@@ -50645,7 +50645,7 @@
         <v>76</v>
       </c>
       <c r="C2953">
-        <v>7380</v>
+        <v>7150</v>
       </c>
       <c r="D2953" t="s">
         <v>2955</v>
@@ -50659,7 +50659,7 @@
         <v>77</v>
       </c>
       <c r="C2954">
-        <v>7480</v>
+        <v>7280</v>
       </c>
       <c r="D2954" t="s">
         <v>2956</v>
@@ -50673,7 +50673,7 @@
         <v>78</v>
       </c>
       <c r="C2955">
-        <v>7550</v>
+        <v>7410</v>
       </c>
       <c r="D2955" t="s">
         <v>2957</v>
@@ -50687,7 +50687,7 @@
         <v>79</v>
       </c>
       <c r="C2956">
-        <v>7640</v>
+        <v>7520</v>
       </c>
       <c r="D2956" t="s">
         <v>2958</v>
@@ -50701,7 +50701,7 @@
         <v>80</v>
       </c>
       <c r="C2957">
-        <v>7720</v>
+        <v>7610</v>
       </c>
       <c r="D2957" t="s">
         <v>2959</v>
@@ -50715,7 +50715,7 @@
         <v>81</v>
       </c>
       <c r="C2958">
-        <v>7790</v>
+        <v>7680</v>
       </c>
       <c r="D2958" t="s">
         <v>2960</v>
@@ -50729,7 +50729,7 @@
         <v>82</v>
       </c>
       <c r="C2959">
-        <v>7850</v>
+        <v>7740</v>
       </c>
       <c r="D2959" t="s">
         <v>2961</v>
@@ -50743,7 +50743,7 @@
         <v>83</v>
       </c>
       <c r="C2960">
-        <v>7870</v>
+        <v>7750</v>
       </c>
       <c r="D2960" t="s">
         <v>2962</v>
@@ -50757,7 +50757,7 @@
         <v>84</v>
       </c>
       <c r="C2961">
-        <v>7880</v>
+        <v>7750</v>
       </c>
       <c r="D2961" t="s">
         <v>2963</v>
@@ -50771,7 +50771,7 @@
         <v>85</v>
       </c>
       <c r="C2962">
-        <v>7850</v>
+        <v>7680</v>
       </c>
       <c r="D2962" t="s">
         <v>2964</v>
@@ -50785,7 +50785,7 @@
         <v>86</v>
       </c>
       <c r="C2963">
-        <v>7760</v>
+        <v>7580</v>
       </c>
       <c r="D2963" t="s">
         <v>2965</v>
@@ -50799,7 +50799,7 @@
         <v>87</v>
       </c>
       <c r="C2964">
-        <v>7660</v>
+        <v>7470</v>
       </c>
       <c r="D2964" t="s">
         <v>2966</v>
@@ -50813,7 +50813,7 @@
         <v>88</v>
       </c>
       <c r="C2965">
-        <v>7520</v>
+        <v>7350</v>
       </c>
       <c r="D2965" t="s">
         <v>2967</v>
@@ -50827,7 +50827,7 @@
         <v>89</v>
       </c>
       <c r="C2966">
-        <v>7360</v>
+        <v>7180</v>
       </c>
       <c r="D2966" t="s">
         <v>2968</v>
@@ -50841,7 +50841,7 @@
         <v>90</v>
       </c>
       <c r="C2967">
-        <v>7220</v>
+        <v>7020</v>
       </c>
       <c r="D2967" t="s">
         <v>2969</v>
@@ -50855,7 +50855,7 @@
         <v>91</v>
       </c>
       <c r="C2968">
-        <v>7060</v>
+        <v>6860</v>
       </c>
       <c r="D2968" t="s">
         <v>2970</v>
@@ -50869,7 +50869,7 @@
         <v>92</v>
       </c>
       <c r="C2969">
-        <v>6910</v>
+        <v>6700</v>
       </c>
       <c r="D2969" t="s">
         <v>2971</v>
@@ -50883,7 +50883,7 @@
         <v>93</v>
       </c>
       <c r="C2970">
-        <v>6700</v>
+        <v>6530</v>
       </c>
       <c r="D2970" t="s">
         <v>2972</v>
@@ -50897,7 +50897,7 @@
         <v>94</v>
       </c>
       <c r="C2971">
-        <v>6550</v>
+        <v>6400</v>
       </c>
       <c r="D2971" t="s">
         <v>2973</v>
@@ -50911,7 +50911,7 @@
         <v>95</v>
       </c>
       <c r="C2972">
-        <v>6430</v>
+        <v>6290</v>
       </c>
       <c r="D2972" t="s">
         <v>2974</v>
@@ -50925,7 +50925,7 @@
         <v>96</v>
       </c>
       <c r="C2973">
-        <v>6320</v>
+        <v>6180</v>
       </c>
       <c r="D2973" t="s">
         <v>2975</v>

--- a/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2025.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="2884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="2980">
   <si>
     <t>Date</t>
   </si>
@@ -8666,6 +8666,294 @@
   </si>
   <si>
     <t>30.05.202596.0</t>
+  </si>
+  <si>
+    <t>31.05.20251.0</t>
+  </si>
+  <si>
+    <t>31.05.20252.0</t>
+  </si>
+  <si>
+    <t>31.05.20253.0</t>
+  </si>
+  <si>
+    <t>31.05.20254.0</t>
+  </si>
+  <si>
+    <t>31.05.20255.0</t>
+  </si>
+  <si>
+    <t>31.05.20256.0</t>
+  </si>
+  <si>
+    <t>31.05.20257.0</t>
+  </si>
+  <si>
+    <t>31.05.20258.0</t>
+  </si>
+  <si>
+    <t>31.05.20259.0</t>
+  </si>
+  <si>
+    <t>31.05.202510.0</t>
+  </si>
+  <si>
+    <t>31.05.202511.0</t>
+  </si>
+  <si>
+    <t>31.05.202512.0</t>
+  </si>
+  <si>
+    <t>31.05.202513.0</t>
+  </si>
+  <si>
+    <t>31.05.202514.0</t>
+  </si>
+  <si>
+    <t>31.05.202515.0</t>
+  </si>
+  <si>
+    <t>31.05.202516.0</t>
+  </si>
+  <si>
+    <t>31.05.202517.0</t>
+  </si>
+  <si>
+    <t>31.05.202518.0</t>
+  </si>
+  <si>
+    <t>31.05.202519.0</t>
+  </si>
+  <si>
+    <t>31.05.202520.0</t>
+  </si>
+  <si>
+    <t>31.05.202521.0</t>
+  </si>
+  <si>
+    <t>31.05.202522.0</t>
+  </si>
+  <si>
+    <t>31.05.202523.0</t>
+  </si>
+  <si>
+    <t>31.05.202524.0</t>
+  </si>
+  <si>
+    <t>31.05.202525.0</t>
+  </si>
+  <si>
+    <t>31.05.202526.0</t>
+  </si>
+  <si>
+    <t>31.05.202527.0</t>
+  </si>
+  <si>
+    <t>31.05.202528.0</t>
+  </si>
+  <si>
+    <t>31.05.202529.0</t>
+  </si>
+  <si>
+    <t>31.05.202530.0</t>
+  </si>
+  <si>
+    <t>31.05.202531.0</t>
+  </si>
+  <si>
+    <t>31.05.202532.0</t>
+  </si>
+  <si>
+    <t>31.05.202533.0</t>
+  </si>
+  <si>
+    <t>31.05.202534.0</t>
+  </si>
+  <si>
+    <t>31.05.202535.0</t>
+  </si>
+  <si>
+    <t>31.05.202536.0</t>
+  </si>
+  <si>
+    <t>31.05.202537.0</t>
+  </si>
+  <si>
+    <t>31.05.202538.0</t>
+  </si>
+  <si>
+    <t>31.05.202539.0</t>
+  </si>
+  <si>
+    <t>31.05.202540.0</t>
+  </si>
+  <si>
+    <t>31.05.202541.0</t>
+  </si>
+  <si>
+    <t>31.05.202542.0</t>
+  </si>
+  <si>
+    <t>31.05.202543.0</t>
+  </si>
+  <si>
+    <t>31.05.202544.0</t>
+  </si>
+  <si>
+    <t>31.05.202545.0</t>
+  </si>
+  <si>
+    <t>31.05.202546.0</t>
+  </si>
+  <si>
+    <t>31.05.202547.0</t>
+  </si>
+  <si>
+    <t>31.05.202548.0</t>
+  </si>
+  <si>
+    <t>31.05.202549.0</t>
+  </si>
+  <si>
+    <t>31.05.202550.0</t>
+  </si>
+  <si>
+    <t>31.05.202551.0</t>
+  </si>
+  <si>
+    <t>31.05.202552.0</t>
+  </si>
+  <si>
+    <t>31.05.202553.0</t>
+  </si>
+  <si>
+    <t>31.05.202554.0</t>
+  </si>
+  <si>
+    <t>31.05.202555.0</t>
+  </si>
+  <si>
+    <t>31.05.202556.0</t>
+  </si>
+  <si>
+    <t>31.05.202557.0</t>
+  </si>
+  <si>
+    <t>31.05.202558.0</t>
+  </si>
+  <si>
+    <t>31.05.202559.0</t>
+  </si>
+  <si>
+    <t>31.05.202560.0</t>
+  </si>
+  <si>
+    <t>31.05.202561.0</t>
+  </si>
+  <si>
+    <t>31.05.202562.0</t>
+  </si>
+  <si>
+    <t>31.05.202563.0</t>
+  </si>
+  <si>
+    <t>31.05.202564.0</t>
+  </si>
+  <si>
+    <t>31.05.202565.0</t>
+  </si>
+  <si>
+    <t>31.05.202566.0</t>
+  </si>
+  <si>
+    <t>31.05.202567.0</t>
+  </si>
+  <si>
+    <t>31.05.202568.0</t>
+  </si>
+  <si>
+    <t>31.05.202569.0</t>
+  </si>
+  <si>
+    <t>31.05.202570.0</t>
+  </si>
+  <si>
+    <t>31.05.202571.0</t>
+  </si>
+  <si>
+    <t>31.05.202572.0</t>
+  </si>
+  <si>
+    <t>31.05.202573.0</t>
+  </si>
+  <si>
+    <t>31.05.202574.0</t>
+  </si>
+  <si>
+    <t>31.05.202575.0</t>
+  </si>
+  <si>
+    <t>31.05.202576.0</t>
+  </si>
+  <si>
+    <t>31.05.202577.0</t>
+  </si>
+  <si>
+    <t>31.05.202578.0</t>
+  </si>
+  <si>
+    <t>31.05.202579.0</t>
+  </si>
+  <si>
+    <t>31.05.202580.0</t>
+  </si>
+  <si>
+    <t>31.05.202581.0</t>
+  </si>
+  <si>
+    <t>31.05.202582.0</t>
+  </si>
+  <si>
+    <t>31.05.202583.0</t>
+  </si>
+  <si>
+    <t>31.05.202584.0</t>
+  </si>
+  <si>
+    <t>31.05.202585.0</t>
+  </si>
+  <si>
+    <t>31.05.202586.0</t>
+  </si>
+  <si>
+    <t>31.05.202587.0</t>
+  </si>
+  <si>
+    <t>31.05.202588.0</t>
+  </si>
+  <si>
+    <t>31.05.202589.0</t>
+  </si>
+  <si>
+    <t>31.05.202590.0</t>
+  </si>
+  <si>
+    <t>31.05.202591.0</t>
+  </si>
+  <si>
+    <t>31.05.202592.0</t>
+  </si>
+  <si>
+    <t>31.05.202593.0</t>
+  </si>
+  <si>
+    <t>31.05.202594.0</t>
+  </si>
+  <si>
+    <t>31.05.202595.0</t>
+  </si>
+  <si>
+    <t>31.05.202596.0</t>
   </si>
 </sst>
 </file>
@@ -9027,7 +9315,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2881"/>
+  <dimension ref="A1:D2977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38623,7 +38911,7 @@
         <v>1</v>
       </c>
       <c r="C2114">
-        <v>5460</v>
+        <v>5440</v>
       </c>
       <c r="D2114" t="s">
         <v>2116</v>
@@ -38637,7 +38925,7 @@
         <v>2</v>
       </c>
       <c r="C2115">
-        <v>5400</v>
+        <v>5380</v>
       </c>
       <c r="D2115" t="s">
         <v>2117</v>
@@ -38651,7 +38939,7 @@
         <v>3</v>
       </c>
       <c r="C2116">
-        <v>5350</v>
+        <v>5320</v>
       </c>
       <c r="D2116" t="s">
         <v>2118</v>
@@ -38665,7 +38953,7 @@
         <v>4</v>
       </c>
       <c r="C2117">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="D2117" t="s">
         <v>2119</v>
@@ -38679,7 +38967,7 @@
         <v>5</v>
       </c>
       <c r="C2118">
-        <v>5240</v>
+        <v>5210</v>
       </c>
       <c r="D2118" t="s">
         <v>2120</v>
@@ -38693,7 +38981,7 @@
         <v>6</v>
       </c>
       <c r="C2119">
-        <v>5210</v>
+        <v>5160</v>
       </c>
       <c r="D2119" t="s">
         <v>2121</v>
@@ -38707,7 +38995,7 @@
         <v>7</v>
       </c>
       <c r="C2120">
-        <v>5170</v>
+        <v>5120</v>
       </c>
       <c r="D2120" t="s">
         <v>2122</v>
@@ -38721,7 +39009,7 @@
         <v>8</v>
       </c>
       <c r="C2121">
-        <v>5130</v>
+        <v>5080</v>
       </c>
       <c r="D2121" t="s">
         <v>2123</v>
@@ -38735,7 +39023,7 @@
         <v>9</v>
       </c>
       <c r="C2122">
-        <v>5090</v>
+        <v>5050</v>
       </c>
       <c r="D2122" t="s">
         <v>2124</v>
@@ -38749,7 +39037,7 @@
         <v>10</v>
       </c>
       <c r="C2123">
-        <v>5060</v>
+        <v>5020</v>
       </c>
       <c r="D2123" t="s">
         <v>2125</v>
@@ -38763,7 +39051,7 @@
         <v>11</v>
       </c>
       <c r="C2124">
-        <v>5030</v>
+        <v>5000</v>
       </c>
       <c r="D2124" t="s">
         <v>2126</v>
@@ -38777,7 +39065,7 @@
         <v>12</v>
       </c>
       <c r="C2125">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="D2125" t="s">
         <v>2127</v>
@@ -38833,7 +39121,7 @@
         <v>16</v>
       </c>
       <c r="C2129">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="D2129" t="s">
         <v>2131</v>
@@ -38847,7 +39135,7 @@
         <v>17</v>
       </c>
       <c r="C2130">
-        <v>5040</v>
+        <v>5020</v>
       </c>
       <c r="D2130" t="s">
         <v>2132</v>
@@ -38861,7 +39149,7 @@
         <v>18</v>
       </c>
       <c r="C2131">
-        <v>5060</v>
+        <v>5030</v>
       </c>
       <c r="D2131" t="s">
         <v>2133</v>
@@ -38875,7 +39163,7 @@
         <v>19</v>
       </c>
       <c r="C2132">
-        <v>5080</v>
+        <v>5040</v>
       </c>
       <c r="D2132" t="s">
         <v>2134</v>
@@ -38889,7 +39177,7 @@
         <v>20</v>
       </c>
       <c r="C2133">
-        <v>5100</v>
+        <v>5050</v>
       </c>
       <c r="D2133" t="s">
         <v>2135</v>
@@ -38903,7 +39191,7 @@
         <v>21</v>
       </c>
       <c r="C2134">
-        <v>5130</v>
+        <v>5070</v>
       </c>
       <c r="D2134" t="s">
         <v>2136</v>
@@ -38917,7 +39205,7 @@
         <v>22</v>
       </c>
       <c r="C2135">
-        <v>5170</v>
+        <v>5120</v>
       </c>
       <c r="D2135" t="s">
         <v>2137</v>
@@ -38931,7 +39219,7 @@
         <v>23</v>
       </c>
       <c r="C2136">
-        <v>5220</v>
+        <v>5190</v>
       </c>
       <c r="D2136" t="s">
         <v>2138</v>
@@ -38945,7 +39233,7 @@
         <v>24</v>
       </c>
       <c r="C2137">
-        <v>5300</v>
+        <v>5280</v>
       </c>
       <c r="D2137" t="s">
         <v>2139</v>
@@ -38959,7 +39247,7 @@
         <v>25</v>
       </c>
       <c r="C2138">
-        <v>5390</v>
+        <v>5380</v>
       </c>
       <c r="D2138" t="s">
         <v>2140</v>
@@ -38973,7 +39261,7 @@
         <v>26</v>
       </c>
       <c r="C2139">
-        <v>5500</v>
+        <v>5490</v>
       </c>
       <c r="D2139" t="s">
         <v>2141</v>
@@ -38987,7 +39275,7 @@
         <v>27</v>
       </c>
       <c r="C2140">
-        <v>5620</v>
+        <v>5600</v>
       </c>
       <c r="D2140" t="s">
         <v>2142</v>
@@ -39001,7 +39289,7 @@
         <v>28</v>
       </c>
       <c r="C2141">
-        <v>5740</v>
+        <v>5710</v>
       </c>
       <c r="D2141" t="s">
         <v>2143</v>
@@ -39015,7 +39303,7 @@
         <v>29</v>
       </c>
       <c r="C2142">
-        <v>5850</v>
+        <v>5820</v>
       </c>
       <c r="D2142" t="s">
         <v>2144</v>
@@ -39029,7 +39317,7 @@
         <v>30</v>
       </c>
       <c r="C2143">
-        <v>5940</v>
+        <v>5920</v>
       </c>
       <c r="D2143" t="s">
         <v>2145</v>
@@ -39057,7 +39345,7 @@
         <v>32</v>
       </c>
       <c r="C2145">
-        <v>6050</v>
+        <v>6090</v>
       </c>
       <c r="D2145" t="s">
         <v>2147</v>
@@ -39071,7 +39359,7 @@
         <v>33</v>
       </c>
       <c r="C2146">
-        <v>6050</v>
+        <v>6150</v>
       </c>
       <c r="D2146" t="s">
         <v>2148</v>
@@ -39085,7 +39373,7 @@
         <v>34</v>
       </c>
       <c r="C2147">
-        <v>6020</v>
+        <v>6190</v>
       </c>
       <c r="D2147" t="s">
         <v>2149</v>
@@ -39099,7 +39387,7 @@
         <v>35</v>
       </c>
       <c r="C2148">
-        <v>5970</v>
+        <v>6210</v>
       </c>
       <c r="D2148" t="s">
         <v>2150</v>
@@ -39113,7 +39401,7 @@
         <v>36</v>
       </c>
       <c r="C2149">
-        <v>5890</v>
+        <v>6200</v>
       </c>
       <c r="D2149" t="s">
         <v>2151</v>
@@ -39127,7 +39415,7 @@
         <v>37</v>
       </c>
       <c r="C2150">
-        <v>5790</v>
+        <v>6170</v>
       </c>
       <c r="D2150" t="s">
         <v>2152</v>
@@ -39141,7 +39429,7 @@
         <v>38</v>
       </c>
       <c r="C2151">
-        <v>5690</v>
+        <v>6110</v>
       </c>
       <c r="D2151" t="s">
         <v>2153</v>
@@ -39155,7 +39443,7 @@
         <v>39</v>
       </c>
       <c r="C2152">
-        <v>5590</v>
+        <v>6030</v>
       </c>
       <c r="D2152" t="s">
         <v>2154</v>
@@ -39169,7 +39457,7 @@
         <v>40</v>
       </c>
       <c r="C2153">
-        <v>5500</v>
+        <v>5940</v>
       </c>
       <c r="D2153" t="s">
         <v>2155</v>
@@ -39183,7 +39471,7 @@
         <v>41</v>
       </c>
       <c r="C2154">
-        <v>5410</v>
+        <v>5830</v>
       </c>
       <c r="D2154" t="s">
         <v>2156</v>
@@ -39197,7 +39485,7 @@
         <v>42</v>
       </c>
       <c r="C2155">
-        <v>5340</v>
+        <v>5710</v>
       </c>
       <c r="D2155" t="s">
         <v>2157</v>
@@ -39211,7 +39499,7 @@
         <v>43</v>
       </c>
       <c r="C2156">
-        <v>5290</v>
+        <v>5590</v>
       </c>
       <c r="D2156" t="s">
         <v>2158</v>
@@ -39225,7 +39513,7 @@
         <v>44</v>
       </c>
       <c r="C2157">
-        <v>5240</v>
+        <v>5480</v>
       </c>
       <c r="D2157" t="s">
         <v>2159</v>
@@ -39239,7 +39527,7 @@
         <v>45</v>
       </c>
       <c r="C2158">
-        <v>5200</v>
+        <v>5380</v>
       </c>
       <c r="D2158" t="s">
         <v>2160</v>
@@ -39253,7 +39541,7 @@
         <v>46</v>
       </c>
       <c r="C2159">
-        <v>5170</v>
+        <v>5300</v>
       </c>
       <c r="D2159" t="s">
         <v>2161</v>
@@ -39267,7 +39555,7 @@
         <v>47</v>
       </c>
       <c r="C2160">
-        <v>5130</v>
+        <v>5230</v>
       </c>
       <c r="D2160" t="s">
         <v>2162</v>
@@ -39281,7 +39569,7 @@
         <v>48</v>
       </c>
       <c r="C2161">
-        <v>5100</v>
+        <v>5180</v>
       </c>
       <c r="D2161" t="s">
         <v>2163</v>
@@ -39295,7 +39583,7 @@
         <v>49</v>
       </c>
       <c r="C2162">
-        <v>5070</v>
+        <v>5150</v>
       </c>
       <c r="D2162" t="s">
         <v>2164</v>
@@ -39309,7 +39597,7 @@
         <v>50</v>
       </c>
       <c r="C2163">
-        <v>5040</v>
+        <v>5130</v>
       </c>
       <c r="D2163" t="s">
         <v>2165</v>
@@ -39323,7 +39611,7 @@
         <v>51</v>
       </c>
       <c r="C2164">
-        <v>5010</v>
+        <v>5110</v>
       </c>
       <c r="D2164" t="s">
         <v>2166</v>
@@ -39337,7 +39625,7 @@
         <v>52</v>
       </c>
       <c r="C2165">
-        <v>4990</v>
+        <v>5100</v>
       </c>
       <c r="D2165" t="s">
         <v>2167</v>
@@ -39351,7 +39639,7 @@
         <v>53</v>
       </c>
       <c r="C2166">
-        <v>4970</v>
+        <v>5100</v>
       </c>
       <c r="D2166" t="s">
         <v>2168</v>
@@ -39365,7 +39653,7 @@
         <v>54</v>
       </c>
       <c r="C2167">
-        <v>4970</v>
+        <v>5100</v>
       </c>
       <c r="D2167" t="s">
         <v>2169</v>
@@ -39379,7 +39667,7 @@
         <v>55</v>
       </c>
       <c r="C2168">
-        <v>4980</v>
+        <v>5110</v>
       </c>
       <c r="D2168" t="s">
         <v>2170</v>
@@ -39393,7 +39681,7 @@
         <v>56</v>
       </c>
       <c r="C2169">
-        <v>5000</v>
+        <v>5120</v>
       </c>
       <c r="D2169" t="s">
         <v>2171</v>
@@ -39407,7 +39695,7 @@
         <v>57</v>
       </c>
       <c r="C2170">
-        <v>5020</v>
+        <v>5140</v>
       </c>
       <c r="D2170" t="s">
         <v>2172</v>
@@ -39421,7 +39709,7 @@
         <v>58</v>
       </c>
       <c r="C2171">
-        <v>5050</v>
+        <v>5160</v>
       </c>
       <c r="D2171" t="s">
         <v>2173</v>
@@ -39435,7 +39723,7 @@
         <v>59</v>
       </c>
       <c r="C2172">
-        <v>5080</v>
+        <v>5190</v>
       </c>
       <c r="D2172" t="s">
         <v>2174</v>
@@ -39449,7 +39737,7 @@
         <v>60</v>
       </c>
       <c r="C2173">
-        <v>5110</v>
+        <v>5220</v>
       </c>
       <c r="D2173" t="s">
         <v>2175</v>
@@ -39463,7 +39751,7 @@
         <v>61</v>
       </c>
       <c r="C2174">
-        <v>5140</v>
+        <v>5260</v>
       </c>
       <c r="D2174" t="s">
         <v>2176</v>
@@ -39477,7 +39765,7 @@
         <v>62</v>
       </c>
       <c r="C2175">
-        <v>5170</v>
+        <v>5290</v>
       </c>
       <c r="D2175" t="s">
         <v>2177</v>
@@ -39491,7 +39779,7 @@
         <v>63</v>
       </c>
       <c r="C2176">
-        <v>5210</v>
+        <v>5330</v>
       </c>
       <c r="D2176" t="s">
         <v>2178</v>
@@ -39505,7 +39793,7 @@
         <v>64</v>
       </c>
       <c r="C2177">
-        <v>5260</v>
+        <v>5370</v>
       </c>
       <c r="D2177" t="s">
         <v>2179</v>
@@ -39519,7 +39807,7 @@
         <v>65</v>
       </c>
       <c r="C2178">
-        <v>5320</v>
+        <v>5410</v>
       </c>
       <c r="D2178" t="s">
         <v>2180</v>
@@ -39533,7 +39821,7 @@
         <v>66</v>
       </c>
       <c r="C2179">
-        <v>5390</v>
+        <v>5460</v>
       </c>
       <c r="D2179" t="s">
         <v>2181</v>
@@ -39547,7 +39835,7 @@
         <v>67</v>
       </c>
       <c r="C2180">
-        <v>5470</v>
+        <v>5520</v>
       </c>
       <c r="D2180" t="s">
         <v>2182</v>
@@ -39561,7 +39849,7 @@
         <v>68</v>
       </c>
       <c r="C2181">
-        <v>5550</v>
+        <v>5590</v>
       </c>
       <c r="D2181" t="s">
         <v>2183</v>
@@ -39575,7 +39863,7 @@
         <v>69</v>
       </c>
       <c r="C2182">
-        <v>5640</v>
+        <v>5670</v>
       </c>
       <c r="D2182" t="s">
         <v>2184</v>
@@ -39603,7 +39891,7 @@
         <v>71</v>
       </c>
       <c r="C2184">
-        <v>5810</v>
+        <v>5800</v>
       </c>
       <c r="D2184" t="s">
         <v>2186</v>
@@ -39617,7 +39905,7 @@
         <v>72</v>
       </c>
       <c r="C2185">
-        <v>5890</v>
+        <v>5880</v>
       </c>
       <c r="D2185" t="s">
         <v>2187</v>
@@ -39631,7 +39919,7 @@
         <v>73</v>
       </c>
       <c r="C2186">
-        <v>5970</v>
+        <v>5950</v>
       </c>
       <c r="D2186" t="s">
         <v>2188</v>
@@ -39645,7 +39933,7 @@
         <v>74</v>
       </c>
       <c r="C2187">
-        <v>6070</v>
+        <v>6040</v>
       </c>
       <c r="D2187" t="s">
         <v>2189</v>
@@ -39659,7 +39947,7 @@
         <v>75</v>
       </c>
       <c r="C2188">
-        <v>6150</v>
+        <v>6120</v>
       </c>
       <c r="D2188" t="s">
         <v>2190</v>
@@ -39673,7 +39961,7 @@
         <v>76</v>
       </c>
       <c r="C2189">
-        <v>6260</v>
+        <v>6200</v>
       </c>
       <c r="D2189" t="s">
         <v>2191</v>
@@ -39687,7 +39975,7 @@
         <v>77</v>
       </c>
       <c r="C2190">
-        <v>6390</v>
+        <v>6300</v>
       </c>
       <c r="D2190" t="s">
         <v>2192</v>
@@ -39701,7 +39989,7 @@
         <v>78</v>
       </c>
       <c r="C2191">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="D2191" t="s">
         <v>2193</v>
@@ -39715,7 +40003,7 @@
         <v>79</v>
       </c>
       <c r="C2192">
-        <v>6600</v>
+        <v>6480</v>
       </c>
       <c r="D2192" t="s">
         <v>2194</v>
@@ -39729,7 +40017,7 @@
         <v>80</v>
       </c>
       <c r="C2193">
-        <v>6700</v>
+        <v>6580</v>
       </c>
       <c r="D2193" t="s">
         <v>2195</v>
@@ -39743,7 +40031,7 @@
         <v>81</v>
       </c>
       <c r="C2194">
-        <v>6790</v>
+        <v>6650</v>
       </c>
       <c r="D2194" t="s">
         <v>2196</v>
@@ -39757,7 +40045,7 @@
         <v>82</v>
       </c>
       <c r="C2195">
-        <v>6890</v>
+        <v>6730</v>
       </c>
       <c r="D2195" t="s">
         <v>2197</v>
@@ -39771,7 +40059,7 @@
         <v>83</v>
       </c>
       <c r="C2196">
-        <v>6970</v>
+        <v>6800</v>
       </c>
       <c r="D2196" t="s">
         <v>2198</v>
@@ -39785,7 +40073,7 @@
         <v>84</v>
       </c>
       <c r="C2197">
-        <v>7020</v>
+        <v>6880</v>
       </c>
       <c r="D2197" t="s">
         <v>2199</v>
@@ -39799,7 +40087,7 @@
         <v>85</v>
       </c>
       <c r="C2198">
-        <v>7040</v>
+        <v>6920</v>
       </c>
       <c r="D2198" t="s">
         <v>2200</v>
@@ -39813,7 +40101,7 @@
         <v>86</v>
       </c>
       <c r="C2199">
-        <v>7050</v>
+        <v>6910</v>
       </c>
       <c r="D2199" t="s">
         <v>2201</v>
@@ -39827,7 +40115,7 @@
         <v>87</v>
       </c>
       <c r="C2200">
-        <v>7040</v>
+        <v>6880</v>
       </c>
       <c r="D2200" t="s">
         <v>2202</v>
@@ -39841,7 +40129,7 @@
         <v>88</v>
       </c>
       <c r="C2201">
-        <v>6980</v>
+        <v>6800</v>
       </c>
       <c r="D2201" t="s">
         <v>2203</v>
@@ -39855,7 +40143,7 @@
         <v>89</v>
       </c>
       <c r="C2202">
-        <v>6850</v>
+        <v>6680</v>
       </c>
       <c r="D2202" t="s">
         <v>2204</v>
@@ -39869,7 +40157,7 @@
         <v>90</v>
       </c>
       <c r="C2203">
-        <v>6730</v>
+        <v>6530</v>
       </c>
       <c r="D2203" t="s">
         <v>2205</v>
@@ -39883,7 +40171,7 @@
         <v>91</v>
       </c>
       <c r="C2204">
-        <v>6580</v>
+        <v>6400</v>
       </c>
       <c r="D2204" t="s">
         <v>2206</v>
@@ -39897,7 +40185,7 @@
         <v>92</v>
       </c>
       <c r="C2205">
-        <v>6410</v>
+        <v>6220</v>
       </c>
       <c r="D2205" t="s">
         <v>2207</v>
@@ -39911,7 +40199,7 @@
         <v>93</v>
       </c>
       <c r="C2206">
-        <v>6220</v>
+        <v>6040</v>
       </c>
       <c r="D2206" t="s">
         <v>2208</v>
@@ -39925,7 +40213,7 @@
         <v>94</v>
       </c>
       <c r="C2207">
-        <v>6040</v>
+        <v>5900</v>
       </c>
       <c r="D2207" t="s">
         <v>2209</v>
@@ -39939,7 +40227,7 @@
         <v>95</v>
       </c>
       <c r="C2208">
-        <v>5930</v>
+        <v>5750</v>
       </c>
       <c r="D2208" t="s">
         <v>2210</v>
@@ -39953,7 +40241,7 @@
         <v>96</v>
       </c>
       <c r="C2209">
-        <v>5820</v>
+        <v>5650</v>
       </c>
       <c r="D2209" t="s">
         <v>2211</v>
@@ -39967,7 +40255,7 @@
         <v>1</v>
       </c>
       <c r="C2210">
-        <v>5490</v>
+        <v>5540</v>
       </c>
       <c r="D2210" t="s">
         <v>2212</v>
@@ -39981,7 +40269,7 @@
         <v>2</v>
       </c>
       <c r="C2211">
-        <v>5440</v>
+        <v>5470</v>
       </c>
       <c r="D2211" t="s">
         <v>2213</v>
@@ -39995,7 +40283,7 @@
         <v>3</v>
       </c>
       <c r="C2212">
-        <v>5390</v>
+        <v>5420</v>
       </c>
       <c r="D2212" t="s">
         <v>2214</v>
@@ -40009,7 +40297,7 @@
         <v>4</v>
       </c>
       <c r="C2213">
-        <v>5320</v>
+        <v>5370</v>
       </c>
       <c r="D2213" t="s">
         <v>2215</v>
@@ -40023,7 +40311,7 @@
         <v>5</v>
       </c>
       <c r="C2214">
-        <v>5270</v>
+        <v>5300</v>
       </c>
       <c r="D2214" t="s">
         <v>2216</v>
@@ -40037,7 +40325,7 @@
         <v>6</v>
       </c>
       <c r="C2215">
-        <v>5210</v>
+        <v>5240</v>
       </c>
       <c r="D2215" t="s">
         <v>2217</v>
@@ -40051,7 +40339,7 @@
         <v>7</v>
       </c>
       <c r="C2216">
-        <v>5170</v>
+        <v>5190</v>
       </c>
       <c r="D2216" t="s">
         <v>2218</v>
@@ -40065,7 +40353,7 @@
         <v>8</v>
       </c>
       <c r="C2217">
-        <v>5120</v>
+        <v>5150</v>
       </c>
       <c r="D2217" t="s">
         <v>2219</v>
@@ -40079,7 +40367,7 @@
         <v>9</v>
       </c>
       <c r="C2218">
-        <v>5070</v>
+        <v>5100</v>
       </c>
       <c r="D2218" t="s">
         <v>2220</v>
@@ -40093,7 +40381,7 @@
         <v>10</v>
       </c>
       <c r="C2219">
-        <v>5020</v>
+        <v>5060</v>
       </c>
       <c r="D2219" t="s">
         <v>2221</v>
@@ -40107,7 +40395,7 @@
         <v>11</v>
       </c>
       <c r="C2220">
-        <v>4980</v>
+        <v>5030</v>
       </c>
       <c r="D2220" t="s">
         <v>2222</v>
@@ -40121,7 +40409,7 @@
         <v>12</v>
       </c>
       <c r="C2221">
-        <v>4950</v>
+        <v>5010</v>
       </c>
       <c r="D2221" t="s">
         <v>2223</v>
@@ -40135,7 +40423,7 @@
         <v>13</v>
       </c>
       <c r="C2222">
-        <v>4930</v>
+        <v>4990</v>
       </c>
       <c r="D2222" t="s">
         <v>2224</v>
@@ -40149,7 +40437,7 @@
         <v>14</v>
       </c>
       <c r="C2223">
-        <v>4920</v>
+        <v>4980</v>
       </c>
       <c r="D2223" t="s">
         <v>2225</v>
@@ -40163,7 +40451,7 @@
         <v>15</v>
       </c>
       <c r="C2224">
-        <v>4910</v>
+        <v>4970</v>
       </c>
       <c r="D2224" t="s">
         <v>2226</v>
@@ -40177,7 +40465,7 @@
         <v>16</v>
       </c>
       <c r="C2225">
-        <v>4910</v>
+        <v>4970</v>
       </c>
       <c r="D2225" t="s">
         <v>2227</v>
@@ -40191,7 +40479,7 @@
         <v>17</v>
       </c>
       <c r="C2226">
-        <v>4910</v>
+        <v>4970</v>
       </c>
       <c r="D2226" t="s">
         <v>2228</v>
@@ -40205,7 +40493,7 @@
         <v>18</v>
       </c>
       <c r="C2227">
-        <v>4900</v>
+        <v>4970</v>
       </c>
       <c r="D2227" t="s">
         <v>2229</v>
@@ -40219,7 +40507,7 @@
         <v>19</v>
       </c>
       <c r="C2228">
-        <v>4900</v>
+        <v>4970</v>
       </c>
       <c r="D2228" t="s">
         <v>2230</v>
@@ -40233,7 +40521,7 @@
         <v>20</v>
       </c>
       <c r="C2229">
-        <v>4900</v>
+        <v>4970</v>
       </c>
       <c r="D2229" t="s">
         <v>2231</v>
@@ -40247,7 +40535,7 @@
         <v>21</v>
       </c>
       <c r="C2230">
-        <v>4890</v>
+        <v>4980</v>
       </c>
       <c r="D2230" t="s">
         <v>2232</v>
@@ -40261,7 +40549,7 @@
         <v>22</v>
       </c>
       <c r="C2231">
-        <v>4890</v>
+        <v>4990</v>
       </c>
       <c r="D2231" t="s">
         <v>2233</v>
@@ -40275,7 +40563,7 @@
         <v>23</v>
       </c>
       <c r="C2232">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="D2232" t="s">
         <v>2234</v>
@@ -40289,7 +40577,7 @@
         <v>24</v>
       </c>
       <c r="C2233">
-        <v>4910</v>
+        <v>5010</v>
       </c>
       <c r="D2233" t="s">
         <v>2235</v>
@@ -40303,7 +40591,7 @@
         <v>25</v>
       </c>
       <c r="C2234">
-        <v>4940</v>
+        <v>5000</v>
       </c>
       <c r="D2234" t="s">
         <v>2236</v>
@@ -40317,7 +40605,7 @@
         <v>26</v>
       </c>
       <c r="C2235">
-        <v>4970</v>
+        <v>5000</v>
       </c>
       <c r="D2235" t="s">
         <v>2237</v>
@@ -40331,7 +40619,7 @@
         <v>27</v>
       </c>
       <c r="C2236">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="D2236" t="s">
         <v>2238</v>
@@ -40345,7 +40633,7 @@
         <v>28</v>
       </c>
       <c r="C2237">
-        <v>5050</v>
+        <v>5030</v>
       </c>
       <c r="D2237" t="s">
         <v>2239</v>
@@ -40359,7 +40647,7 @@
         <v>29</v>
       </c>
       <c r="C2238">
-        <v>5100</v>
+        <v>5150</v>
       </c>
       <c r="D2238" t="s">
         <v>2240</v>
@@ -40373,7 +40661,7 @@
         <v>30</v>
       </c>
       <c r="C2239">
-        <v>5150</v>
+        <v>5230</v>
       </c>
       <c r="D2239" t="s">
         <v>2241</v>
@@ -40387,7 +40675,7 @@
         <v>31</v>
       </c>
       <c r="C2240">
-        <v>5200</v>
+        <v>5280</v>
       </c>
       <c r="D2240" t="s">
         <v>2242</v>
@@ -40401,7 +40689,7 @@
         <v>32</v>
       </c>
       <c r="C2241">
-        <v>5250</v>
+        <v>5330</v>
       </c>
       <c r="D2241" t="s">
         <v>2243</v>
@@ -40415,7 +40703,7 @@
         <v>33</v>
       </c>
       <c r="C2242">
-        <v>5280</v>
+        <v>5370</v>
       </c>
       <c r="D2242" t="s">
         <v>2244</v>
@@ -40429,7 +40717,7 @@
         <v>34</v>
       </c>
       <c r="C2243">
-        <v>5300</v>
+        <v>5380</v>
       </c>
       <c r="D2243" t="s">
         <v>2245</v>
@@ -40443,7 +40731,7 @@
         <v>35</v>
       </c>
       <c r="C2244">
-        <v>5300</v>
+        <v>5390</v>
       </c>
       <c r="D2244" t="s">
         <v>2246</v>
@@ -40457,7 +40745,7 @@
         <v>36</v>
       </c>
       <c r="C2245">
-        <v>5290</v>
+        <v>5390</v>
       </c>
       <c r="D2245" t="s">
         <v>2247</v>
@@ -40471,7 +40759,7 @@
         <v>37</v>
       </c>
       <c r="C2246">
-        <v>5270</v>
+        <v>5370</v>
       </c>
       <c r="D2246" t="s">
         <v>2248</v>
@@ -40485,7 +40773,7 @@
         <v>38</v>
       </c>
       <c r="C2247">
-        <v>5240</v>
+        <v>5340</v>
       </c>
       <c r="D2247" t="s">
         <v>2249</v>
@@ -40499,7 +40787,7 @@
         <v>39</v>
       </c>
       <c r="C2248">
-        <v>5190</v>
+        <v>5310</v>
       </c>
       <c r="D2248" t="s">
         <v>2250</v>
@@ -40513,7 +40801,7 @@
         <v>40</v>
       </c>
       <c r="C2249">
-        <v>5150</v>
+        <v>5260</v>
       </c>
       <c r="D2249" t="s">
         <v>2251</v>
@@ -40527,7 +40815,7 @@
         <v>41</v>
       </c>
       <c r="C2250">
-        <v>5100</v>
+        <v>5210</v>
       </c>
       <c r="D2250" t="s">
         <v>2252</v>
@@ -40541,7 +40829,7 @@
         <v>42</v>
       </c>
       <c r="C2251">
-        <v>5060</v>
+        <v>5170</v>
       </c>
       <c r="D2251" t="s">
         <v>2253</v>
@@ -40555,7 +40843,7 @@
         <v>43</v>
       </c>
       <c r="C2252">
-        <v>5020</v>
+        <v>5130</v>
       </c>
       <c r="D2252" t="s">
         <v>2254</v>
@@ -40569,7 +40857,7 @@
         <v>44</v>
       </c>
       <c r="C2253">
-        <v>4980</v>
+        <v>5090</v>
       </c>
       <c r="D2253" t="s">
         <v>2255</v>
@@ -40583,7 +40871,7 @@
         <v>45</v>
       </c>
       <c r="C2254">
-        <v>4950</v>
+        <v>5030</v>
       </c>
       <c r="D2254" t="s">
         <v>2256</v>
@@ -40597,7 +40885,7 @@
         <v>46</v>
       </c>
       <c r="C2255">
-        <v>4930</v>
+        <v>5010</v>
       </c>
       <c r="D2255" t="s">
         <v>2257</v>
@@ -40611,7 +40899,7 @@
         <v>47</v>
       </c>
       <c r="C2256">
-        <v>4900</v>
+        <v>4990</v>
       </c>
       <c r="D2256" t="s">
         <v>2258</v>
@@ -40625,7 +40913,7 @@
         <v>48</v>
       </c>
       <c r="C2257">
-        <v>4880</v>
+        <v>4980</v>
       </c>
       <c r="D2257" t="s">
         <v>2259</v>
@@ -40639,7 +40927,7 @@
         <v>49</v>
       </c>
       <c r="C2258">
-        <v>4850</v>
+        <v>4970</v>
       </c>
       <c r="D2258" t="s">
         <v>2260</v>
@@ -40653,7 +40941,7 @@
         <v>50</v>
       </c>
       <c r="C2259">
-        <v>4830</v>
+        <v>4960</v>
       </c>
       <c r="D2259" t="s">
         <v>2261</v>
@@ -40667,7 +40955,7 @@
         <v>51</v>
       </c>
       <c r="C2260">
-        <v>4800</v>
+        <v>4940</v>
       </c>
       <c r="D2260" t="s">
         <v>2262</v>
@@ -40681,7 +40969,7 @@
         <v>52</v>
       </c>
       <c r="C2261">
-        <v>4780</v>
+        <v>4930</v>
       </c>
       <c r="D2261" t="s">
         <v>2263</v>
@@ -40695,7 +40983,7 @@
         <v>53</v>
       </c>
       <c r="C2262">
-        <v>4760</v>
+        <v>4930</v>
       </c>
       <c r="D2262" t="s">
         <v>2264</v>
@@ -40709,7 +40997,7 @@
         <v>54</v>
       </c>
       <c r="C2263">
-        <v>4750</v>
+        <v>4930</v>
       </c>
       <c r="D2263" t="s">
         <v>2265</v>
@@ -40723,7 +41011,7 @@
         <v>55</v>
       </c>
       <c r="C2264">
-        <v>4740</v>
+        <v>4930</v>
       </c>
       <c r="D2264" t="s">
         <v>2266</v>
@@ -40737,7 +41025,7 @@
         <v>56</v>
       </c>
       <c r="C2265">
-        <v>4740</v>
+        <v>4930</v>
       </c>
       <c r="D2265" t="s">
         <v>2267</v>
@@ -40751,7 +41039,7 @@
         <v>57</v>
       </c>
       <c r="C2266">
-        <v>4750</v>
+        <v>4940</v>
       </c>
       <c r="D2266" t="s">
         <v>2268</v>
@@ -40765,7 +41053,7 @@
         <v>58</v>
       </c>
       <c r="C2267">
-        <v>4760</v>
+        <v>4960</v>
       </c>
       <c r="D2267" t="s">
         <v>2269</v>
@@ -40779,7 +41067,7 @@
         <v>59</v>
       </c>
       <c r="C2268">
-        <v>4770</v>
+        <v>4970</v>
       </c>
       <c r="D2268" t="s">
         <v>2270</v>
@@ -40793,7 +41081,7 @@
         <v>60</v>
       </c>
       <c r="C2269">
-        <v>4780</v>
+        <v>4980</v>
       </c>
       <c r="D2269" t="s">
         <v>2271</v>
@@ -40807,7 +41095,7 @@
         <v>61</v>
       </c>
       <c r="C2270">
-        <v>4790</v>
+        <v>5000</v>
       </c>
       <c r="D2270" t="s">
         <v>2272</v>
@@ -40821,7 +41109,7 @@
         <v>62</v>
       </c>
       <c r="C2271">
-        <v>4810</v>
+        <v>5010</v>
       </c>
       <c r="D2271" t="s">
         <v>2273</v>
@@ -40835,7 +41123,7 @@
         <v>63</v>
       </c>
       <c r="C2272">
-        <v>4820</v>
+        <v>5030</v>
       </c>
       <c r="D2272" t="s">
         <v>2274</v>
@@ -40849,7 +41137,7 @@
         <v>64</v>
       </c>
       <c r="C2273">
-        <v>4840</v>
+        <v>5040</v>
       </c>
       <c r="D2273" t="s">
         <v>2275</v>
@@ -40863,7 +41151,7 @@
         <v>65</v>
       </c>
       <c r="C2274">
-        <v>4870</v>
+        <v>5080</v>
       </c>
       <c r="D2274" t="s">
         <v>2276</v>
@@ -40877,7 +41165,7 @@
         <v>66</v>
       </c>
       <c r="C2275">
-        <v>4920</v>
+        <v>5110</v>
       </c>
       <c r="D2275" t="s">
         <v>2277</v>
@@ -40891,7 +41179,7 @@
         <v>67</v>
       </c>
       <c r="C2276">
-        <v>4980</v>
+        <v>5160</v>
       </c>
       <c r="D2276" t="s">
         <v>2278</v>
@@ -40905,7 +41193,7 @@
         <v>68</v>
       </c>
       <c r="C2277">
-        <v>5040</v>
+        <v>5220</v>
       </c>
       <c r="D2277" t="s">
         <v>2279</v>
@@ -40919,7 +41207,7 @@
         <v>69</v>
       </c>
       <c r="C2278">
-        <v>5120</v>
+        <v>5270</v>
       </c>
       <c r="D2278" t="s">
         <v>2280</v>
@@ -40933,7 +41221,7 @@
         <v>70</v>
       </c>
       <c r="C2279">
-        <v>5190</v>
+        <v>5330</v>
       </c>
       <c r="D2279" t="s">
         <v>2281</v>
@@ -40947,7 +41235,7 @@
         <v>71</v>
       </c>
       <c r="C2280">
-        <v>5270</v>
+        <v>5370</v>
       </c>
       <c r="D2280" t="s">
         <v>2282</v>
@@ -40961,7 +41249,7 @@
         <v>72</v>
       </c>
       <c r="C2281">
-        <v>5340</v>
+        <v>5430</v>
       </c>
       <c r="D2281" t="s">
         <v>2283</v>
@@ -40975,7 +41263,7 @@
         <v>73</v>
       </c>
       <c r="C2282">
-        <v>5410</v>
+        <v>5510</v>
       </c>
       <c r="D2282" t="s">
         <v>2284</v>
@@ -40989,7 +41277,7 @@
         <v>74</v>
       </c>
       <c r="C2283">
-        <v>5490</v>
+        <v>5570</v>
       </c>
       <c r="D2283" t="s">
         <v>2285</v>
@@ -41003,7 +41291,7 @@
         <v>75</v>
       </c>
       <c r="C2284">
-        <v>5580</v>
+        <v>5650</v>
       </c>
       <c r="D2284" t="s">
         <v>2286</v>
@@ -41017,7 +41305,7 @@
         <v>76</v>
       </c>
       <c r="C2285">
-        <v>5690</v>
+        <v>5750</v>
       </c>
       <c r="D2285" t="s">
         <v>2287</v>
@@ -41031,7 +41319,7 @@
         <v>77</v>
       </c>
       <c r="C2286">
-        <v>5810</v>
+        <v>5840</v>
       </c>
       <c r="D2286" t="s">
         <v>2288</v>
@@ -41045,7 +41333,7 @@
         <v>78</v>
       </c>
       <c r="C2287">
-        <v>5930</v>
+        <v>5960</v>
       </c>
       <c r="D2287" t="s">
         <v>2289</v>
@@ -41059,7 +41347,7 @@
         <v>79</v>
       </c>
       <c r="C2288">
-        <v>6040</v>
+        <v>6060</v>
       </c>
       <c r="D2288" t="s">
         <v>2290</v>
@@ -41073,7 +41361,7 @@
         <v>80</v>
       </c>
       <c r="C2289">
-        <v>6140</v>
+        <v>6150</v>
       </c>
       <c r="D2289" t="s">
         <v>2291</v>
@@ -41101,7 +41389,7 @@
         <v>82</v>
       </c>
       <c r="C2291">
-        <v>6350</v>
+        <v>6330</v>
       </c>
       <c r="D2291" t="s">
         <v>2293</v>
@@ -41115,7 +41403,7 @@
         <v>83</v>
       </c>
       <c r="C2292">
-        <v>6430</v>
+        <v>6410</v>
       </c>
       <c r="D2292" t="s">
         <v>2294</v>
@@ -41129,7 +41417,7 @@
         <v>84</v>
       </c>
       <c r="C2293">
-        <v>6530</v>
+        <v>6500</v>
       </c>
       <c r="D2293" t="s">
         <v>2295</v>
@@ -41143,7 +41431,7 @@
         <v>85</v>
       </c>
       <c r="C2294">
-        <v>6550</v>
+        <v>6560</v>
       </c>
       <c r="D2294" t="s">
         <v>2296</v>
@@ -41157,7 +41445,7 @@
         <v>86</v>
       </c>
       <c r="C2295">
-        <v>6540</v>
+        <v>6570</v>
       </c>
       <c r="D2295" t="s">
         <v>2297</v>
@@ -41171,7 +41459,7 @@
         <v>87</v>
       </c>
       <c r="C2296">
-        <v>6540</v>
+        <v>6550</v>
       </c>
       <c r="D2296" t="s">
         <v>2298</v>
@@ -41185,7 +41473,7 @@
         <v>88</v>
       </c>
       <c r="C2297">
-        <v>6500</v>
+        <v>6490</v>
       </c>
       <c r="D2297" t="s">
         <v>2299</v>
@@ -41199,7 +41487,7 @@
         <v>89</v>
       </c>
       <c r="C2298">
-        <v>6420</v>
+        <v>6360</v>
       </c>
       <c r="D2298" t="s">
         <v>2300</v>
@@ -41213,7 +41501,7 @@
         <v>90</v>
       </c>
       <c r="C2299">
-        <v>6380</v>
+        <v>6250</v>
       </c>
       <c r="D2299" t="s">
         <v>2301</v>
@@ -41227,7 +41515,7 @@
         <v>91</v>
       </c>
       <c r="C2300">
-        <v>6250</v>
+        <v>6120</v>
       </c>
       <c r="D2300" t="s">
         <v>2302</v>
@@ -41241,7 +41529,7 @@
         <v>92</v>
       </c>
       <c r="C2301">
-        <v>6070</v>
+        <v>5960</v>
       </c>
       <c r="D2301" t="s">
         <v>2303</v>
@@ -41255,7 +41543,7 @@
         <v>93</v>
       </c>
       <c r="C2302">
-        <v>5850</v>
+        <v>5770</v>
       </c>
       <c r="D2302" t="s">
         <v>2304</v>
@@ -41269,7 +41557,7 @@
         <v>94</v>
       </c>
       <c r="C2303">
-        <v>5690</v>
+        <v>5640</v>
       </c>
       <c r="D2303" t="s">
         <v>2305</v>
@@ -41283,7 +41571,7 @@
         <v>95</v>
       </c>
       <c r="C2304">
-        <v>5600</v>
+        <v>5530</v>
       </c>
       <c r="D2304" t="s">
         <v>2306</v>
@@ -41297,7 +41585,7 @@
         <v>96</v>
       </c>
       <c r="C2305">
-        <v>5490</v>
+        <v>5420</v>
       </c>
       <c r="D2305" t="s">
         <v>2307</v>
@@ -41311,7 +41599,7 @@
         <v>1</v>
       </c>
       <c r="C2306">
-        <v>5340</v>
+        <v>5320</v>
       </c>
       <c r="D2306" t="s">
         <v>2308</v>
@@ -41325,7 +41613,7 @@
         <v>2</v>
       </c>
       <c r="C2307">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="D2307" t="s">
         <v>2309</v>
@@ -41339,7 +41627,7 @@
         <v>3</v>
       </c>
       <c r="C2308">
-        <v>5240</v>
+        <v>5200</v>
       </c>
       <c r="D2308" t="s">
         <v>2310</v>
@@ -41353,7 +41641,7 @@
         <v>4</v>
       </c>
       <c r="C2309">
-        <v>5160</v>
+        <v>5150</v>
       </c>
       <c r="D2309" t="s">
         <v>2311</v>
@@ -41367,7 +41655,7 @@
         <v>5</v>
       </c>
       <c r="C2310">
-        <v>5100</v>
+        <v>5080</v>
       </c>
       <c r="D2310" t="s">
         <v>2312</v>
@@ -41381,7 +41669,7 @@
         <v>6</v>
       </c>
       <c r="C2311">
-        <v>5040</v>
+        <v>5030</v>
       </c>
       <c r="D2311" t="s">
         <v>2313</v>
@@ -41395,7 +41683,7 @@
         <v>7</v>
       </c>
       <c r="C2312">
-        <v>4980</v>
+        <v>4970</v>
       </c>
       <c r="D2312" t="s">
         <v>2314</v>
@@ -41409,7 +41697,7 @@
         <v>8</v>
       </c>
       <c r="C2313">
-        <v>4930</v>
+        <v>4920</v>
       </c>
       <c r="D2313" t="s">
         <v>2315</v>
@@ -41423,7 +41711,7 @@
         <v>9</v>
       </c>
       <c r="C2314">
-        <v>4870</v>
+        <v>4880</v>
       </c>
       <c r="D2314" t="s">
         <v>2316</v>
@@ -41437,7 +41725,7 @@
         <v>10</v>
       </c>
       <c r="C2315">
-        <v>4820</v>
+        <v>4840</v>
       </c>
       <c r="D2315" t="s">
         <v>2317</v>
@@ -41451,7 +41739,7 @@
         <v>11</v>
       </c>
       <c r="C2316">
-        <v>4780</v>
+        <v>4810</v>
       </c>
       <c r="D2316" t="s">
         <v>2318</v>
@@ -41465,7 +41753,7 @@
         <v>12</v>
       </c>
       <c r="C2317">
-        <v>4740</v>
+        <v>4790</v>
       </c>
       <c r="D2317" t="s">
         <v>2319</v>
@@ -41479,7 +41767,7 @@
         <v>13</v>
       </c>
       <c r="C2318">
-        <v>4710</v>
+        <v>4760</v>
       </c>
       <c r="D2318" t="s">
         <v>2320</v>
@@ -41493,7 +41781,7 @@
         <v>14</v>
       </c>
       <c r="C2319">
-        <v>4680</v>
+        <v>4740</v>
       </c>
       <c r="D2319" t="s">
         <v>2321</v>
@@ -41507,7 +41795,7 @@
         <v>15</v>
       </c>
       <c r="C2320">
-        <v>4660</v>
+        <v>4720</v>
       </c>
       <c r="D2320" t="s">
         <v>2322</v>
@@ -41521,7 +41809,7 @@
         <v>16</v>
       </c>
       <c r="C2321">
-        <v>4640</v>
+        <v>4710</v>
       </c>
       <c r="D2321" t="s">
         <v>2323</v>
@@ -41535,7 +41823,7 @@
         <v>17</v>
       </c>
       <c r="C2322">
-        <v>4620</v>
+        <v>4700</v>
       </c>
       <c r="D2322" t="s">
         <v>2324</v>
@@ -41549,7 +41837,7 @@
         <v>18</v>
       </c>
       <c r="C2323">
-        <v>4600</v>
+        <v>4690</v>
       </c>
       <c r="D2323" t="s">
         <v>2325</v>
@@ -41563,7 +41851,7 @@
         <v>19</v>
       </c>
       <c r="C2324">
-        <v>4600</v>
+        <v>4670</v>
       </c>
       <c r="D2324" t="s">
         <v>2326</v>
@@ -41577,7 +41865,7 @@
         <v>20</v>
       </c>
       <c r="C2325">
-        <v>4600</v>
+        <v>4660</v>
       </c>
       <c r="D2325" t="s">
         <v>2327</v>
@@ -41591,7 +41879,7 @@
         <v>21</v>
       </c>
       <c r="C2326">
-        <v>4600</v>
+        <v>4650</v>
       </c>
       <c r="D2326" t="s">
         <v>2328</v>
@@ -41605,7 +41893,7 @@
         <v>22</v>
       </c>
       <c r="C2327">
-        <v>4600</v>
+        <v>4650</v>
       </c>
       <c r="D2327" t="s">
         <v>2329</v>
@@ -41619,7 +41907,7 @@
         <v>23</v>
       </c>
       <c r="C2328">
-        <v>4610</v>
+        <v>4650</v>
       </c>
       <c r="D2328" t="s">
         <v>2330</v>
@@ -41633,7 +41921,7 @@
         <v>24</v>
       </c>
       <c r="C2329">
-        <v>4630</v>
+        <v>4650</v>
       </c>
       <c r="D2329" t="s">
         <v>2331</v>
@@ -41647,7 +41935,7 @@
         <v>25</v>
       </c>
       <c r="C2330">
-        <v>4640</v>
+        <v>4650</v>
       </c>
       <c r="D2330" t="s">
         <v>2332</v>
@@ -41661,7 +41949,7 @@
         <v>26</v>
       </c>
       <c r="C2331">
-        <v>4660</v>
+        <v>4650</v>
       </c>
       <c r="D2331" t="s">
         <v>2333</v>
@@ -41675,7 +41963,7 @@
         <v>27</v>
       </c>
       <c r="C2332">
-        <v>4670</v>
+        <v>4650</v>
       </c>
       <c r="D2332" t="s">
         <v>2334</v>
@@ -41689,7 +41977,7 @@
         <v>28</v>
       </c>
       <c r="C2333">
-        <v>4690</v>
+        <v>4660</v>
       </c>
       <c r="D2333" t="s">
         <v>2335</v>
@@ -41703,7 +41991,7 @@
         <v>29</v>
       </c>
       <c r="C2334">
-        <v>4710</v>
+        <v>4680</v>
       </c>
       <c r="D2334" t="s">
         <v>2336</v>
@@ -41717,7 +42005,7 @@
         <v>30</v>
       </c>
       <c r="C2335">
-        <v>4730</v>
+        <v>4710</v>
       </c>
       <c r="D2335" t="s">
         <v>2337</v>
@@ -41731,7 +42019,7 @@
         <v>31</v>
       </c>
       <c r="C2336">
-        <v>4750</v>
+        <v>4730</v>
       </c>
       <c r="D2336" t="s">
         <v>2338</v>
@@ -41745,7 +42033,7 @@
         <v>32</v>
       </c>
       <c r="C2337">
-        <v>4770</v>
+        <v>4760</v>
       </c>
       <c r="D2337" t="s">
         <v>2339</v>
@@ -41759,7 +42047,7 @@
         <v>33</v>
       </c>
       <c r="C2338">
-        <v>4790</v>
+        <v>4800</v>
       </c>
       <c r="D2338" t="s">
         <v>2340</v>
@@ -41773,7 +42061,7 @@
         <v>34</v>
       </c>
       <c r="C2339">
-        <v>4800</v>
+        <v>4820</v>
       </c>
       <c r="D2339" t="s">
         <v>2341</v>
@@ -41787,7 +42075,7 @@
         <v>35</v>
       </c>
       <c r="C2340">
-        <v>4800</v>
+        <v>4840</v>
       </c>
       <c r="D2340" t="s">
         <v>2342</v>
@@ -41801,7 +42089,7 @@
         <v>36</v>
       </c>
       <c r="C2341">
-        <v>4790</v>
+        <v>4860</v>
       </c>
       <c r="D2341" t="s">
         <v>2343</v>
@@ -41815,7 +42103,7 @@
         <v>37</v>
       </c>
       <c r="C2342">
-        <v>4770</v>
+        <v>4860</v>
       </c>
       <c r="D2342" t="s">
         <v>2344</v>
@@ -41829,7 +42117,7 @@
         <v>38</v>
       </c>
       <c r="C2343">
-        <v>4740</v>
+        <v>4860</v>
       </c>
       <c r="D2343" t="s">
         <v>2345</v>
@@ -41843,7 +42131,7 @@
         <v>39</v>
       </c>
       <c r="C2344">
-        <v>4700</v>
+        <v>4850</v>
       </c>
       <c r="D2344" t="s">
         <v>2346</v>
@@ -41857,7 +42145,7 @@
         <v>40</v>
       </c>
       <c r="C2345">
-        <v>4650</v>
+        <v>4840</v>
       </c>
       <c r="D2345" t="s">
         <v>2347</v>
@@ -41871,7 +42159,7 @@
         <v>41</v>
       </c>
       <c r="C2346">
-        <v>4610</v>
+        <v>4820</v>
       </c>
       <c r="D2346" t="s">
         <v>2348</v>
@@ -41885,7 +42173,7 @@
         <v>42</v>
       </c>
       <c r="C2347">
-        <v>4560</v>
+        <v>4810</v>
       </c>
       <c r="D2347" t="s">
         <v>2349</v>
@@ -41899,7 +42187,7 @@
         <v>43</v>
       </c>
       <c r="C2348">
-        <v>4520</v>
+        <v>4800</v>
       </c>
       <c r="D2348" t="s">
         <v>2350</v>
@@ -41913,7 +42201,7 @@
         <v>44</v>
       </c>
       <c r="C2349">
-        <v>4480</v>
+        <v>4780</v>
       </c>
       <c r="D2349" t="s">
         <v>2351</v>
@@ -41927,7 +42215,7 @@
         <v>45</v>
       </c>
       <c r="C2350">
-        <v>4450</v>
+        <v>4750</v>
       </c>
       <c r="D2350" t="s">
         <v>2352</v>
@@ -41941,7 +42229,7 @@
         <v>46</v>
       </c>
       <c r="C2351">
-        <v>4420</v>
+        <v>4740</v>
       </c>
       <c r="D2351" t="s">
         <v>2353</v>
@@ -41955,7 +42243,7 @@
         <v>47</v>
       </c>
       <c r="C2352">
-        <v>4400</v>
+        <v>4730</v>
       </c>
       <c r="D2352" t="s">
         <v>2354</v>
@@ -41969,7 +42257,7 @@
         <v>48</v>
       </c>
       <c r="C2353">
-        <v>4380</v>
+        <v>4720</v>
       </c>
       <c r="D2353" t="s">
         <v>2355</v>
@@ -41983,7 +42271,7 @@
         <v>49</v>
       </c>
       <c r="C2354">
-        <v>4350</v>
+        <v>4690</v>
       </c>
       <c r="D2354" t="s">
         <v>2356</v>
@@ -41997,7 +42285,7 @@
         <v>50</v>
       </c>
       <c r="C2355">
-        <v>4330</v>
+        <v>4670</v>
       </c>
       <c r="D2355" t="s">
         <v>2357</v>
@@ -42011,7 +42299,7 @@
         <v>51</v>
       </c>
       <c r="C2356">
-        <v>4300</v>
+        <v>4660</v>
       </c>
       <c r="D2356" t="s">
         <v>2358</v>
@@ -42025,7 +42313,7 @@
         <v>52</v>
       </c>
       <c r="C2357">
-        <v>4280</v>
+        <v>4650</v>
       </c>
       <c r="D2357" t="s">
         <v>2359</v>
@@ -42039,7 +42327,7 @@
         <v>53</v>
       </c>
       <c r="C2358">
-        <v>4260</v>
+        <v>4630</v>
       </c>
       <c r="D2358" t="s">
         <v>2360</v>
@@ -42053,7 +42341,7 @@
         <v>54</v>
       </c>
       <c r="C2359">
-        <v>4240</v>
+        <v>4620</v>
       </c>
       <c r="D2359" t="s">
         <v>2361</v>
@@ -42067,7 +42355,7 @@
         <v>55</v>
       </c>
       <c r="C2360">
-        <v>4240</v>
+        <v>4610</v>
       </c>
       <c r="D2360" t="s">
         <v>2362</v>
@@ -42081,7 +42369,7 @@
         <v>56</v>
       </c>
       <c r="C2361">
-        <v>4240</v>
+        <v>4610</v>
       </c>
       <c r="D2361" t="s">
         <v>2363</v>
@@ -42095,7 +42383,7 @@
         <v>57</v>
       </c>
       <c r="C2362">
-        <v>4250</v>
+        <v>4610</v>
       </c>
       <c r="D2362" t="s">
         <v>2364</v>
@@ -42109,7 +42397,7 @@
         <v>58</v>
       </c>
       <c r="C2363">
-        <v>4260</v>
+        <v>4610</v>
       </c>
       <c r="D2363" t="s">
         <v>2365</v>
@@ -42123,7 +42411,7 @@
         <v>59</v>
       </c>
       <c r="C2364">
-        <v>4280</v>
+        <v>4620</v>
       </c>
       <c r="D2364" t="s">
         <v>2366</v>
@@ -42137,7 +42425,7 @@
         <v>60</v>
       </c>
       <c r="C2365">
-        <v>4290</v>
+        <v>4640</v>
       </c>
       <c r="D2365" t="s">
         <v>2367</v>
@@ -42151,7 +42439,7 @@
         <v>61</v>
       </c>
       <c r="C2366">
-        <v>4300</v>
+        <v>4650</v>
       </c>
       <c r="D2366" t="s">
         <v>2368</v>
@@ -42165,7 +42453,7 @@
         <v>62</v>
       </c>
       <c r="C2367">
-        <v>4300</v>
+        <v>4650</v>
       </c>
       <c r="D2367" t="s">
         <v>2369</v>
@@ -42179,7 +42467,7 @@
         <v>63</v>
       </c>
       <c r="C2368">
-        <v>4310</v>
+        <v>4650</v>
       </c>
       <c r="D2368" t="s">
         <v>2370</v>
@@ -42193,7 +42481,7 @@
         <v>64</v>
       </c>
       <c r="C2369">
-        <v>4320</v>
+        <v>4660</v>
       </c>
       <c r="D2369" t="s">
         <v>2371</v>
@@ -42207,7 +42495,7 @@
         <v>65</v>
       </c>
       <c r="C2370">
-        <v>4340</v>
+        <v>4670</v>
       </c>
       <c r="D2370" t="s">
         <v>2372</v>
@@ -42221,7 +42509,7 @@
         <v>66</v>
       </c>
       <c r="C2371">
-        <v>4380</v>
+        <v>4680</v>
       </c>
       <c r="D2371" t="s">
         <v>2373</v>
@@ -42235,7 +42523,7 @@
         <v>67</v>
       </c>
       <c r="C2372">
-        <v>4440</v>
+        <v>4700</v>
       </c>
       <c r="D2372" t="s">
         <v>2374</v>
@@ -42249,7 +42537,7 @@
         <v>68</v>
       </c>
       <c r="C2373">
-        <v>4510</v>
+        <v>4730</v>
       </c>
       <c r="D2373" t="s">
         <v>2375</v>
@@ -42263,7 +42551,7 @@
         <v>69</v>
       </c>
       <c r="C2374">
-        <v>4590</v>
+        <v>4770</v>
       </c>
       <c r="D2374" t="s">
         <v>2376</v>
@@ -42277,7 +42565,7 @@
         <v>70</v>
       </c>
       <c r="C2375">
-        <v>4680</v>
+        <v>4810</v>
       </c>
       <c r="D2375" t="s">
         <v>2377</v>
@@ -42291,7 +42579,7 @@
         <v>71</v>
       </c>
       <c r="C2376">
-        <v>4760</v>
+        <v>4850</v>
       </c>
       <c r="D2376" t="s">
         <v>2378</v>
@@ -42305,7 +42593,7 @@
         <v>72</v>
       </c>
       <c r="C2377">
-        <v>4840</v>
+        <v>4900</v>
       </c>
       <c r="D2377" t="s">
         <v>2379</v>
@@ -42319,7 +42607,7 @@
         <v>73</v>
       </c>
       <c r="C2378">
-        <v>4910</v>
+        <v>4990</v>
       </c>
       <c r="D2378" t="s">
         <v>2380</v>
@@ -42333,7 +42621,7 @@
         <v>74</v>
       </c>
       <c r="C2379">
-        <v>4990</v>
+        <v>5050</v>
       </c>
       <c r="D2379" t="s">
         <v>2381</v>
@@ -42347,7 +42635,7 @@
         <v>75</v>
       </c>
       <c r="C2380">
-        <v>5090</v>
+        <v>5130</v>
       </c>
       <c r="D2380" t="s">
         <v>2382</v>
@@ -42361,7 +42649,7 @@
         <v>76</v>
       </c>
       <c r="C2381">
-        <v>5200</v>
+        <v>5230</v>
       </c>
       <c r="D2381" t="s">
         <v>2383</v>
@@ -42389,7 +42677,7 @@
         <v>78</v>
       </c>
       <c r="C2383">
-        <v>5470</v>
+        <v>5450</v>
       </c>
       <c r="D2383" t="s">
         <v>2385</v>
@@ -42403,7 +42691,7 @@
         <v>79</v>
       </c>
       <c r="C2384">
-        <v>5590</v>
+        <v>5560</v>
       </c>
       <c r="D2384" t="s">
         <v>2386</v>
@@ -42417,7 +42705,7 @@
         <v>80</v>
       </c>
       <c r="C2385">
-        <v>5680</v>
+        <v>5660</v>
       </c>
       <c r="D2385" t="s">
         <v>2387</v>
@@ -42431,7 +42719,7 @@
         <v>81</v>
       </c>
       <c r="C2386">
-        <v>5770</v>
+        <v>5760</v>
       </c>
       <c r="D2386" t="s">
         <v>2388</v>
@@ -42445,7 +42733,7 @@
         <v>82</v>
       </c>
       <c r="C2387">
-        <v>5870</v>
+        <v>5860</v>
       </c>
       <c r="D2387" t="s">
         <v>2389</v>
@@ -42459,7 +42747,7 @@
         <v>83</v>
       </c>
       <c r="C2388">
-        <v>5950</v>
+        <v>5940</v>
       </c>
       <c r="D2388" t="s">
         <v>2390</v>
@@ -42473,7 +42761,7 @@
         <v>84</v>
       </c>
       <c r="C2389">
-        <v>6060</v>
+        <v>6040</v>
       </c>
       <c r="D2389" t="s">
         <v>2391</v>
@@ -42501,7 +42789,7 @@
         <v>86</v>
       </c>
       <c r="C2391">
-        <v>6140</v>
+        <v>6130</v>
       </c>
       <c r="D2391" t="s">
         <v>2393</v>
@@ -42515,7 +42803,7 @@
         <v>87</v>
       </c>
       <c r="C2392">
-        <v>6150</v>
+        <v>6140</v>
       </c>
       <c r="D2392" t="s">
         <v>2394</v>
@@ -42529,7 +42817,7 @@
         <v>88</v>
       </c>
       <c r="C2393">
-        <v>6090</v>
+        <v>6080</v>
       </c>
       <c r="D2393" t="s">
         <v>2395</v>
@@ -42557,7 +42845,7 @@
         <v>90</v>
       </c>
       <c r="C2395">
-        <v>5860</v>
+        <v>5820</v>
       </c>
       <c r="D2395" t="s">
         <v>2397</v>
@@ -42571,7 +42859,7 @@
         <v>91</v>
       </c>
       <c r="C2396">
-        <v>5740</v>
+        <v>5700</v>
       </c>
       <c r="D2396" t="s">
         <v>2398</v>
@@ -42585,7 +42873,7 @@
         <v>92</v>
       </c>
       <c r="C2397">
-        <v>5600</v>
+        <v>5560</v>
       </c>
       <c r="D2397" t="s">
         <v>2399</v>
@@ -42599,7 +42887,7 @@
         <v>93</v>
       </c>
       <c r="C2398">
-        <v>5400</v>
+        <v>5430</v>
       </c>
       <c r="D2398" t="s">
         <v>2400</v>
@@ -42613,7 +42901,7 @@
         <v>94</v>
       </c>
       <c r="C2399">
-        <v>5280</v>
+        <v>5310</v>
       </c>
       <c r="D2399" t="s">
         <v>2401</v>
@@ -42627,7 +42915,7 @@
         <v>95</v>
       </c>
       <c r="C2400">
-        <v>5170</v>
+        <v>5200</v>
       </c>
       <c r="D2400" t="s">
         <v>2402</v>
@@ -42641,7 +42929,7 @@
         <v>96</v>
       </c>
       <c r="C2401">
-        <v>5070</v>
+        <v>5090</v>
       </c>
       <c r="D2401" t="s">
         <v>2403</v>
@@ -42655,7 +42943,7 @@
         <v>1</v>
       </c>
       <c r="C2402">
-        <v>5040</v>
+        <v>4990</v>
       </c>
       <c r="D2402" t="s">
         <v>2404</v>
@@ -42669,7 +42957,7 @@
         <v>2</v>
       </c>
       <c r="C2403">
-        <v>5000</v>
+        <v>4930</v>
       </c>
       <c r="D2403" t="s">
         <v>2405</v>
@@ -42683,7 +42971,7 @@
         <v>3</v>
       </c>
       <c r="C2404">
-        <v>4930</v>
+        <v>4870</v>
       </c>
       <c r="D2404" t="s">
         <v>2406</v>
@@ -42697,7 +42985,7 @@
         <v>4</v>
       </c>
       <c r="C2405">
-        <v>4870</v>
+        <v>4820</v>
       </c>
       <c r="D2405" t="s">
         <v>2407</v>
@@ -42711,7 +42999,7 @@
         <v>5</v>
       </c>
       <c r="C2406">
-        <v>4830</v>
+        <v>4760</v>
       </c>
       <c r="D2406" t="s">
         <v>2408</v>
@@ -42725,7 +43013,7 @@
         <v>6</v>
       </c>
       <c r="C2407">
-        <v>4790</v>
+        <v>4710</v>
       </c>
       <c r="D2407" t="s">
         <v>2409</v>
@@ -42739,7 +43027,7 @@
         <v>7</v>
       </c>
       <c r="C2408">
-        <v>4750</v>
+        <v>4690</v>
       </c>
       <c r="D2408" t="s">
         <v>2410</v>
@@ -42753,7 +43041,7 @@
         <v>8</v>
       </c>
       <c r="C2409">
-        <v>4710</v>
+        <v>4650</v>
       </c>
       <c r="D2409" t="s">
         <v>2411</v>
@@ -42767,7 +43055,7 @@
         <v>9</v>
       </c>
       <c r="C2410">
-        <v>4670</v>
+        <v>4630</v>
       </c>
       <c r="D2410" t="s">
         <v>2412</v>
@@ -42781,7 +43069,7 @@
         <v>10</v>
       </c>
       <c r="C2411">
-        <v>4640</v>
+        <v>4600</v>
       </c>
       <c r="D2411" t="s">
         <v>2413</v>
@@ -42795,7 +43083,7 @@
         <v>11</v>
       </c>
       <c r="C2412">
-        <v>4620</v>
+        <v>4590</v>
       </c>
       <c r="D2412" t="s">
         <v>2414</v>
@@ -42809,7 +43097,7 @@
         <v>12</v>
       </c>
       <c r="C2413">
-        <v>4600</v>
+        <v>4580</v>
       </c>
       <c r="D2413" t="s">
         <v>2415</v>
@@ -42823,7 +43111,7 @@
         <v>13</v>
       </c>
       <c r="C2414">
-        <v>4600</v>
+        <v>4550</v>
       </c>
       <c r="D2414" t="s">
         <v>2416</v>
@@ -42837,7 +43125,7 @@
         <v>14</v>
       </c>
       <c r="C2415">
-        <v>4600</v>
+        <v>4550</v>
       </c>
       <c r="D2415" t="s">
         <v>2417</v>
@@ -42851,7 +43139,7 @@
         <v>15</v>
       </c>
       <c r="C2416">
-        <v>4610</v>
+        <v>4550</v>
       </c>
       <c r="D2416" t="s">
         <v>2418</v>
@@ -42865,7 +43153,7 @@
         <v>16</v>
       </c>
       <c r="C2417">
-        <v>4630</v>
+        <v>4550</v>
       </c>
       <c r="D2417" t="s">
         <v>2419</v>
@@ -42879,7 +43167,7 @@
         <v>17</v>
       </c>
       <c r="C2418">
-        <v>4640</v>
+        <v>4580</v>
       </c>
       <c r="D2418" t="s">
         <v>2420</v>
@@ -42893,7 +43181,7 @@
         <v>18</v>
       </c>
       <c r="C2419">
-        <v>4650</v>
+        <v>4590</v>
       </c>
       <c r="D2419" t="s">
         <v>2421</v>
@@ -42907,7 +43195,7 @@
         <v>19</v>
       </c>
       <c r="C2420">
-        <v>4670</v>
+        <v>4600</v>
       </c>
       <c r="D2420" t="s">
         <v>2422</v>
@@ -42921,7 +43209,7 @@
         <v>20</v>
       </c>
       <c r="C2421">
-        <v>4700</v>
+        <v>4630</v>
       </c>
       <c r="D2421" t="s">
         <v>2423</v>
@@ -42935,7 +43223,7 @@
         <v>21</v>
       </c>
       <c r="C2422">
-        <v>4740</v>
+        <v>4660</v>
       </c>
       <c r="D2422" t="s">
         <v>2424</v>
@@ -42949,7 +43237,7 @@
         <v>22</v>
       </c>
       <c r="C2423">
-        <v>4810</v>
+        <v>4720</v>
       </c>
       <c r="D2423" t="s">
         <v>2425</v>
@@ -42963,7 +43251,7 @@
         <v>23</v>
       </c>
       <c r="C2424">
-        <v>4900</v>
+        <v>4810</v>
       </c>
       <c r="D2424" t="s">
         <v>2426</v>
@@ -42977,7 +43265,7 @@
         <v>24</v>
       </c>
       <c r="C2425">
-        <v>5010</v>
+        <v>4920</v>
       </c>
       <c r="D2425" t="s">
         <v>2427</v>
@@ -42991,7 +43279,7 @@
         <v>25</v>
       </c>
       <c r="C2426">
-        <v>5130</v>
+        <v>5060</v>
       </c>
       <c r="D2426" t="s">
         <v>2428</v>
@@ -43005,7 +43293,7 @@
         <v>26</v>
       </c>
       <c r="C2427">
-        <v>5270</v>
+        <v>5200</v>
       </c>
       <c r="D2427" t="s">
         <v>2429</v>
@@ -43019,7 +43307,7 @@
         <v>27</v>
       </c>
       <c r="C2428">
-        <v>5420</v>
+        <v>5350</v>
       </c>
       <c r="D2428" t="s">
         <v>2430</v>
@@ -43033,7 +43321,7 @@
         <v>28</v>
       </c>
       <c r="C2429">
-        <v>5560</v>
+        <v>5500</v>
       </c>
       <c r="D2429" t="s">
         <v>2431</v>
@@ -43047,7 +43335,7 @@
         <v>29</v>
       </c>
       <c r="C2430">
-        <v>5710</v>
+        <v>5690</v>
       </c>
       <c r="D2430" t="s">
         <v>2432</v>
@@ -43061,7 +43349,7 @@
         <v>30</v>
       </c>
       <c r="C2431">
-        <v>5840</v>
+        <v>5830</v>
       </c>
       <c r="D2431" t="s">
         <v>2433</v>
@@ -43075,7 +43363,7 @@
         <v>31</v>
       </c>
       <c r="C2432">
-        <v>5960</v>
+        <v>5950</v>
       </c>
       <c r="D2432" t="s">
         <v>2434</v>
@@ -43089,7 +43377,7 @@
         <v>32</v>
       </c>
       <c r="C2433">
-        <v>6060</v>
+        <v>6050</v>
       </c>
       <c r="D2433" t="s">
         <v>2435</v>
@@ -43103,7 +43391,7 @@
         <v>33</v>
       </c>
       <c r="C2434">
-        <v>6140</v>
+        <v>6130</v>
       </c>
       <c r="D2434" t="s">
         <v>2436</v>
@@ -43131,7 +43419,7 @@
         <v>35</v>
       </c>
       <c r="C2436">
-        <v>6200</v>
+        <v>6220</v>
       </c>
       <c r="D2436" t="s">
         <v>2438</v>
@@ -43145,7 +43433,7 @@
         <v>36</v>
       </c>
       <c r="C2437">
-        <v>6200</v>
+        <v>6250</v>
       </c>
       <c r="D2437" t="s">
         <v>2439</v>
@@ -43159,7 +43447,7 @@
         <v>37</v>
       </c>
       <c r="C2438">
-        <v>6180</v>
+        <v>6250</v>
       </c>
       <c r="D2438" t="s">
         <v>2440</v>
@@ -43173,7 +43461,7 @@
         <v>38</v>
       </c>
       <c r="C2439">
-        <v>6130</v>
+        <v>6220</v>
       </c>
       <c r="D2439" t="s">
         <v>2441</v>
@@ -43187,7 +43475,7 @@
         <v>39</v>
       </c>
       <c r="C2440">
-        <v>6070</v>
+        <v>6190</v>
       </c>
       <c r="D2440" t="s">
         <v>2442</v>
@@ -43201,7 +43489,7 @@
         <v>40</v>
       </c>
       <c r="C2441">
-        <v>5990</v>
+        <v>6160</v>
       </c>
       <c r="D2441" t="s">
         <v>2443</v>
@@ -43215,7 +43503,7 @@
         <v>41</v>
       </c>
       <c r="C2442">
-        <v>5910</v>
+        <v>6120</v>
       </c>
       <c r="D2442" t="s">
         <v>2444</v>
@@ -43229,7 +43517,7 @@
         <v>42</v>
       </c>
       <c r="C2443">
-        <v>5830</v>
+        <v>6100</v>
       </c>
       <c r="D2443" t="s">
         <v>2445</v>
@@ -43243,7 +43531,7 @@
         <v>43</v>
       </c>
       <c r="C2444">
-        <v>5760</v>
+        <v>6070</v>
       </c>
       <c r="D2444" t="s">
         <v>2446</v>
@@ -43257,7 +43545,7 @@
         <v>44</v>
       </c>
       <c r="C2445">
-        <v>5690</v>
+        <v>6030</v>
       </c>
       <c r="D2445" t="s">
         <v>2447</v>
@@ -43271,7 +43559,7 @@
         <v>45</v>
       </c>
       <c r="C2446">
-        <v>5630</v>
+        <v>5970</v>
       </c>
       <c r="D2446" t="s">
         <v>2448</v>
@@ -43285,7 +43573,7 @@
         <v>46</v>
       </c>
       <c r="C2447">
-        <v>5580</v>
+        <v>5940</v>
       </c>
       <c r="D2447" t="s">
         <v>2449</v>
@@ -43299,7 +43587,7 @@
         <v>47</v>
       </c>
       <c r="C2448">
-        <v>5530</v>
+        <v>5920</v>
       </c>
       <c r="D2448" t="s">
         <v>2450</v>
@@ -43313,7 +43601,7 @@
         <v>48</v>
       </c>
       <c r="C2449">
-        <v>5490</v>
+        <v>5900</v>
       </c>
       <c r="D2449" t="s">
         <v>2451</v>
@@ -43327,7 +43615,7 @@
         <v>49</v>
       </c>
       <c r="C2450">
-        <v>5440</v>
+        <v>5860</v>
       </c>
       <c r="D2450" t="s">
         <v>2452</v>
@@ -43341,7 +43629,7 @@
         <v>50</v>
       </c>
       <c r="C2451">
-        <v>5400</v>
+        <v>5830</v>
       </c>
       <c r="D2451" t="s">
         <v>2453</v>
@@ -43355,7 +43643,7 @@
         <v>51</v>
       </c>
       <c r="C2452">
-        <v>5350</v>
+        <v>5810</v>
       </c>
       <c r="D2452" t="s">
         <v>2454</v>
@@ -43369,7 +43657,7 @@
         <v>52</v>
       </c>
       <c r="C2453">
-        <v>5310</v>
+        <v>5790</v>
       </c>
       <c r="D2453" t="s">
         <v>2455</v>
@@ -43383,7 +43671,7 @@
         <v>53</v>
       </c>
       <c r="C2454">
-        <v>5270</v>
+        <v>5770</v>
       </c>
       <c r="D2454" t="s">
         <v>2456</v>
@@ -43397,7 +43685,7 @@
         <v>54</v>
       </c>
       <c r="C2455">
-        <v>5240</v>
+        <v>5750</v>
       </c>
       <c r="D2455" t="s">
         <v>2457</v>
@@ -43411,7 +43699,7 @@
         <v>55</v>
       </c>
       <c r="C2456">
-        <v>5220</v>
+        <v>5740</v>
       </c>
       <c r="D2456" t="s">
         <v>2458</v>
@@ -43425,7 +43713,7 @@
         <v>56</v>
       </c>
       <c r="C2457">
-        <v>5210</v>
+        <v>5730</v>
       </c>
       <c r="D2457" t="s">
         <v>2459</v>
@@ -43439,7 +43727,7 @@
         <v>57</v>
       </c>
       <c r="C2458">
-        <v>5210</v>
+        <v>5700</v>
       </c>
       <c r="D2458" t="s">
         <v>2460</v>
@@ -43453,7 +43741,7 @@
         <v>58</v>
       </c>
       <c r="C2459">
-        <v>5220</v>
+        <v>5700</v>
       </c>
       <c r="D2459" t="s">
         <v>2461</v>
@@ -43467,7 +43755,7 @@
         <v>59</v>
       </c>
       <c r="C2460">
-        <v>5230</v>
+        <v>5700</v>
       </c>
       <c r="D2460" t="s">
         <v>2462</v>
@@ -43481,7 +43769,7 @@
         <v>60</v>
       </c>
       <c r="C2461">
-        <v>5240</v>
+        <v>5710</v>
       </c>
       <c r="D2461" t="s">
         <v>2463</v>
@@ -43495,7 +43783,7 @@
         <v>61</v>
       </c>
       <c r="C2462">
-        <v>5250</v>
+        <v>5720</v>
       </c>
       <c r="D2462" t="s">
         <v>2464</v>
@@ -43509,7 +43797,7 @@
         <v>62</v>
       </c>
       <c r="C2463">
-        <v>5260</v>
+        <v>5720</v>
       </c>
       <c r="D2463" t="s">
         <v>2465</v>
@@ -43523,7 +43811,7 @@
         <v>63</v>
       </c>
       <c r="C2464">
-        <v>5270</v>
+        <v>5720</v>
       </c>
       <c r="D2464" t="s">
         <v>2466</v>
@@ -43537,7 +43825,7 @@
         <v>64</v>
       </c>
       <c r="C2465">
-        <v>5290</v>
+        <v>5730</v>
       </c>
       <c r="D2465" t="s">
         <v>2467</v>
@@ -43551,7 +43839,7 @@
         <v>65</v>
       </c>
       <c r="C2466">
-        <v>5320</v>
+        <v>5760</v>
       </c>
       <c r="D2466" t="s">
         <v>2468</v>
@@ -43565,7 +43853,7 @@
         <v>66</v>
       </c>
       <c r="C2467">
-        <v>5360</v>
+        <v>5790</v>
       </c>
       <c r="D2467" t="s">
         <v>2469</v>
@@ -43579,7 +43867,7 @@
         <v>67</v>
       </c>
       <c r="C2468">
-        <v>5430</v>
+        <v>5810</v>
       </c>
       <c r="D2468" t="s">
         <v>2470</v>
@@ -43593,7 +43881,7 @@
         <v>68</v>
       </c>
       <c r="C2469">
-        <v>5510</v>
+        <v>5840</v>
       </c>
       <c r="D2469" t="s">
         <v>2471</v>
@@ -43607,7 +43895,7 @@
         <v>69</v>
       </c>
       <c r="C2470">
-        <v>5600</v>
+        <v>5890</v>
       </c>
       <c r="D2470" t="s">
         <v>2472</v>
@@ -43621,7 +43909,7 @@
         <v>70</v>
       </c>
       <c r="C2471">
-        <v>5690</v>
+        <v>5920</v>
       </c>
       <c r="D2471" t="s">
         <v>2473</v>
@@ -43635,7 +43923,7 @@
         <v>71</v>
       </c>
       <c r="C2472">
-        <v>5780</v>
+        <v>5970</v>
       </c>
       <c r="D2472" t="s">
         <v>2474</v>
@@ -43649,7 +43937,7 @@
         <v>72</v>
       </c>
       <c r="C2473">
-        <v>5870</v>
+        <v>6020</v>
       </c>
       <c r="D2473" t="s">
         <v>2475</v>
@@ -43663,7 +43951,7 @@
         <v>73</v>
       </c>
       <c r="C2474">
-        <v>5970</v>
+        <v>6110</v>
       </c>
       <c r="D2474" t="s">
         <v>2476</v>
@@ -43677,7 +43965,7 @@
         <v>74</v>
       </c>
       <c r="C2475">
-        <v>6070</v>
+        <v>6170</v>
       </c>
       <c r="D2475" t="s">
         <v>2477</v>
@@ -43691,7 +43979,7 @@
         <v>75</v>
       </c>
       <c r="C2476">
-        <v>6180</v>
+        <v>6250</v>
       </c>
       <c r="D2476" t="s">
         <v>2478</v>
@@ -43705,7 +43993,7 @@
         <v>76</v>
       </c>
       <c r="C2477">
-        <v>6310</v>
+        <v>6340</v>
       </c>
       <c r="D2477" t="s">
         <v>2479</v>
@@ -43719,7 +44007,7 @@
         <v>77</v>
       </c>
       <c r="C2478">
-        <v>6450</v>
+        <v>6410</v>
       </c>
       <c r="D2478" t="s">
         <v>2480</v>
@@ -43733,7 +44021,7 @@
         <v>78</v>
       </c>
       <c r="C2479">
-        <v>6580</v>
+        <v>6510</v>
       </c>
       <c r="D2479" t="s">
         <v>2481</v>
@@ -43747,7 +44035,7 @@
         <v>79</v>
       </c>
       <c r="C2480">
-        <v>6690</v>
+        <v>6600</v>
       </c>
       <c r="D2480" t="s">
         <v>2482</v>
@@ -43761,7 +44049,7 @@
         <v>80</v>
       </c>
       <c r="C2481">
-        <v>6760</v>
+        <v>6680</v>
       </c>
       <c r="D2481" t="s">
         <v>2483</v>
@@ -43775,7 +44063,7 @@
         <v>81</v>
       </c>
       <c r="C2482">
-        <v>6830</v>
+        <v>6770</v>
       </c>
       <c r="D2482" t="s">
         <v>2484</v>
@@ -43789,7 +44077,7 @@
         <v>82</v>
       </c>
       <c r="C2483">
-        <v>6910</v>
+        <v>6860</v>
       </c>
       <c r="D2483" t="s">
         <v>2485</v>
@@ -43803,7 +44091,7 @@
         <v>83</v>
       </c>
       <c r="C2484">
-        <v>6990</v>
+        <v>6940</v>
       </c>
       <c r="D2484" t="s">
         <v>2486</v>
@@ -43817,7 +44105,7 @@
         <v>84</v>
       </c>
       <c r="C2485">
-        <v>7100</v>
+        <v>7050</v>
       </c>
       <c r="D2485" t="s">
         <v>2487</v>
@@ -43859,7 +44147,7 @@
         <v>87</v>
       </c>
       <c r="C2488">
-        <v>7140</v>
+        <v>7120</v>
       </c>
       <c r="D2488" t="s">
         <v>2490</v>
@@ -43873,7 +44161,7 @@
         <v>88</v>
       </c>
       <c r="C2489">
-        <v>7010</v>
+        <v>6990</v>
       </c>
       <c r="D2489" t="s">
         <v>2491</v>
@@ -43887,7 +44175,7 @@
         <v>89</v>
       </c>
       <c r="C2490">
-        <v>6820</v>
+        <v>6760</v>
       </c>
       <c r="D2490" t="s">
         <v>2492</v>
@@ -43901,7 +44189,7 @@
         <v>90</v>
       </c>
       <c r="C2491">
-        <v>6690</v>
+        <v>6570</v>
       </c>
       <c r="D2491" t="s">
         <v>2493</v>
@@ -43915,7 +44203,7 @@
         <v>91</v>
       </c>
       <c r="C2492">
-        <v>6560</v>
+        <v>6430</v>
       </c>
       <c r="D2492" t="s">
         <v>2494</v>
@@ -43929,7 +44217,7 @@
         <v>92</v>
       </c>
       <c r="C2493">
-        <v>6380</v>
+        <v>6260</v>
       </c>
       <c r="D2493" t="s">
         <v>2495</v>
@@ -43943,7 +44231,7 @@
         <v>93</v>
       </c>
       <c r="C2494">
-        <v>6080</v>
+        <v>6030</v>
       </c>
       <c r="D2494" t="s">
         <v>2496</v>
@@ -43957,7 +44245,7 @@
         <v>94</v>
       </c>
       <c r="C2495">
-        <v>5890</v>
+        <v>5870</v>
       </c>
       <c r="D2495" t="s">
         <v>2497</v>
@@ -43971,7 +44259,7 @@
         <v>95</v>
       </c>
       <c r="C2496">
-        <v>5810</v>
+        <v>5740</v>
       </c>
       <c r="D2496" t="s">
         <v>2498</v>
@@ -43985,7 +44273,7 @@
         <v>96</v>
       </c>
       <c r="C2497">
-        <v>5700</v>
+        <v>5630</v>
       </c>
       <c r="D2497" t="s">
         <v>2499</v>
@@ -43999,7 +44287,7 @@
         <v>1</v>
       </c>
       <c r="C2498">
-        <v>5590</v>
+        <v>5640</v>
       </c>
       <c r="D2498" t="s">
         <v>2500</v>
@@ -44013,7 +44301,7 @@
         <v>2</v>
       </c>
       <c r="C2499">
-        <v>5550</v>
+        <v>5580</v>
       </c>
       <c r="D2499" t="s">
         <v>2501</v>
@@ -44027,7 +44315,7 @@
         <v>3</v>
       </c>
       <c r="C2500">
-        <v>5480</v>
+        <v>5520</v>
       </c>
       <c r="D2500" t="s">
         <v>2502</v>
@@ -44041,7 +44329,7 @@
         <v>4</v>
       </c>
       <c r="C2501">
-        <v>5420</v>
+        <v>5450</v>
       </c>
       <c r="D2501" t="s">
         <v>2503</v>
@@ -44069,7 +44357,7 @@
         <v>6</v>
       </c>
       <c r="C2503">
-        <v>5340</v>
+        <v>5330</v>
       </c>
       <c r="D2503" t="s">
         <v>2505</v>
@@ -44083,7 +44371,7 @@
         <v>7</v>
       </c>
       <c r="C2504">
-        <v>5300</v>
+        <v>5290</v>
       </c>
       <c r="D2504" t="s">
         <v>2506</v>
@@ -44111,7 +44399,7 @@
         <v>9</v>
       </c>
       <c r="C2506">
-        <v>5200</v>
+        <v>5220</v>
       </c>
       <c r="D2506" t="s">
         <v>2508</v>
@@ -44125,7 +44413,7 @@
         <v>10</v>
       </c>
       <c r="C2507">
-        <v>5160</v>
+        <v>5190</v>
       </c>
       <c r="D2507" t="s">
         <v>2509</v>
@@ -44139,7 +44427,7 @@
         <v>11</v>
       </c>
       <c r="C2508">
-        <v>5130</v>
+        <v>5180</v>
       </c>
       <c r="D2508" t="s">
         <v>2510</v>
@@ -44153,7 +44441,7 @@
         <v>12</v>
       </c>
       <c r="C2509">
-        <v>5100</v>
+        <v>5170</v>
       </c>
       <c r="D2509" t="s">
         <v>2511</v>
@@ -44167,7 +44455,7 @@
         <v>13</v>
       </c>
       <c r="C2510">
-        <v>5100</v>
+        <v>5170</v>
       </c>
       <c r="D2510" t="s">
         <v>2512</v>
@@ -44181,7 +44469,7 @@
         <v>14</v>
       </c>
       <c r="C2511">
-        <v>5100</v>
+        <v>5180</v>
       </c>
       <c r="D2511" t="s">
         <v>2513</v>
@@ -44195,7 +44483,7 @@
         <v>15</v>
       </c>
       <c r="C2512">
-        <v>5110</v>
+        <v>5180</v>
       </c>
       <c r="D2512" t="s">
         <v>2514</v>
@@ -44209,7 +44497,7 @@
         <v>16</v>
       </c>
       <c r="C2513">
-        <v>5110</v>
+        <v>5190</v>
       </c>
       <c r="D2513" t="s">
         <v>2515</v>
@@ -44223,7 +44511,7 @@
         <v>17</v>
       </c>
       <c r="C2514">
-        <v>5120</v>
+        <v>5190</v>
       </c>
       <c r="D2514" t="s">
         <v>2516</v>
@@ -44237,7 +44525,7 @@
         <v>18</v>
       </c>
       <c r="C2515">
-        <v>5140</v>
+        <v>5190</v>
       </c>
       <c r="D2515" t="s">
         <v>2517</v>
@@ -44251,7 +44539,7 @@
         <v>19</v>
       </c>
       <c r="C2516">
-        <v>5160</v>
+        <v>5200</v>
       </c>
       <c r="D2516" t="s">
         <v>2518</v>
@@ -44265,7 +44553,7 @@
         <v>20</v>
       </c>
       <c r="C2517">
-        <v>5180</v>
+        <v>5210</v>
       </c>
       <c r="D2517" t="s">
         <v>2519</v>
@@ -44279,7 +44567,7 @@
         <v>21</v>
       </c>
       <c r="C2518">
-        <v>5220</v>
+        <v>5240</v>
       </c>
       <c r="D2518" t="s">
         <v>2520</v>
@@ -44293,7 +44581,7 @@
         <v>22</v>
       </c>
       <c r="C2519">
-        <v>5270</v>
+        <v>5280</v>
       </c>
       <c r="D2519" t="s">
         <v>2521</v>
@@ -44307,7 +44595,7 @@
         <v>23</v>
       </c>
       <c r="C2520">
-        <v>5340</v>
+        <v>5330</v>
       </c>
       <c r="D2520" t="s">
         <v>2522</v>
@@ -44321,7 +44609,7 @@
         <v>24</v>
       </c>
       <c r="C2521">
-        <v>5420</v>
+        <v>5410</v>
       </c>
       <c r="D2521" t="s">
         <v>2523</v>
@@ -44335,7 +44623,7 @@
         <v>25</v>
       </c>
       <c r="C2522">
-        <v>5510</v>
+        <v>5490</v>
       </c>
       <c r="D2522" t="s">
         <v>2524</v>
@@ -44349,7 +44637,7 @@
         <v>26</v>
       </c>
       <c r="C2523">
-        <v>5610</v>
+        <v>5590</v>
       </c>
       <c r="D2523" t="s">
         <v>2525</v>
@@ -44363,7 +44651,7 @@
         <v>27</v>
       </c>
       <c r="C2524">
-        <v>5710</v>
+        <v>5700</v>
       </c>
       <c r="D2524" t="s">
         <v>2526</v>
@@ -44377,7 +44665,7 @@
         <v>28</v>
       </c>
       <c r="C2525">
-        <v>5810</v>
+        <v>5820</v>
       </c>
       <c r="D2525" t="s">
         <v>2527</v>
@@ -44391,7 +44679,7 @@
         <v>29</v>
       </c>
       <c r="C2526">
-        <v>5910</v>
+        <v>5940</v>
       </c>
       <c r="D2526" t="s">
         <v>2528</v>
@@ -44405,7 +44693,7 @@
         <v>30</v>
       </c>
       <c r="C2527">
-        <v>6000</v>
+        <v>6050</v>
       </c>
       <c r="D2527" t="s">
         <v>2529</v>
@@ -44419,7 +44707,7 @@
         <v>31</v>
       </c>
       <c r="C2528">
-        <v>6070</v>
+        <v>6160</v>
       </c>
       <c r="D2528" t="s">
         <v>2530</v>
@@ -44433,7 +44721,7 @@
         <v>32</v>
       </c>
       <c r="C2529">
-        <v>6130</v>
+        <v>6250</v>
       </c>
       <c r="D2529" t="s">
         <v>2531</v>
@@ -44447,7 +44735,7 @@
         <v>33</v>
       </c>
       <c r="C2530">
-        <v>6180</v>
+        <v>6330</v>
       </c>
       <c r="D2530" t="s">
         <v>2532</v>
@@ -44461,7 +44749,7 @@
         <v>34</v>
       </c>
       <c r="C2531">
-        <v>6200</v>
+        <v>6390</v>
       </c>
       <c r="D2531" t="s">
         <v>2533</v>
@@ -44475,7 +44763,7 @@
         <v>35</v>
       </c>
       <c r="C2532">
-        <v>6200</v>
+        <v>6430</v>
       </c>
       <c r="D2532" t="s">
         <v>2534</v>
@@ -44489,7 +44777,7 @@
         <v>36</v>
       </c>
       <c r="C2533">
-        <v>6190</v>
+        <v>6450</v>
       </c>
       <c r="D2533" t="s">
         <v>2535</v>
@@ -44503,7 +44791,7 @@
         <v>37</v>
       </c>
       <c r="C2534">
-        <v>6150</v>
+        <v>6440</v>
       </c>
       <c r="D2534" t="s">
         <v>2536</v>
@@ -44517,7 +44805,7 @@
         <v>38</v>
       </c>
       <c r="C2535">
-        <v>6100</v>
+        <v>6420</v>
       </c>
       <c r="D2535" t="s">
         <v>2537</v>
@@ -44531,7 +44819,7 @@
         <v>39</v>
       </c>
       <c r="C2536">
-        <v>6030</v>
+        <v>6380</v>
       </c>
       <c r="D2536" t="s">
         <v>2538</v>
@@ -44545,7 +44833,7 @@
         <v>40</v>
       </c>
       <c r="C2537">
-        <v>5960</v>
+        <v>6330</v>
       </c>
       <c r="D2537" t="s">
         <v>2539</v>
@@ -44559,7 +44847,7 @@
         <v>41</v>
       </c>
       <c r="C2538">
-        <v>5870</v>
+        <v>6280</v>
       </c>
       <c r="D2538" t="s">
         <v>2540</v>
@@ -44573,7 +44861,7 @@
         <v>42</v>
       </c>
       <c r="C2539">
-        <v>5790</v>
+        <v>6210</v>
       </c>
       <c r="D2539" t="s">
         <v>2541</v>
@@ -44587,7 +44875,7 @@
         <v>43</v>
       </c>
       <c r="C2540">
-        <v>5720</v>
+        <v>6150</v>
       </c>
       <c r="D2540" t="s">
         <v>2542</v>
@@ -44601,7 +44889,7 @@
         <v>44</v>
       </c>
       <c r="C2541">
-        <v>5640</v>
+        <v>6100</v>
       </c>
       <c r="D2541" t="s">
         <v>2543</v>
@@ -44615,7 +44903,7 @@
         <v>45</v>
       </c>
       <c r="C2542">
-        <v>5580</v>
+        <v>6050</v>
       </c>
       <c r="D2542" t="s">
         <v>2544</v>
@@ -44629,7 +44917,7 @@
         <v>46</v>
       </c>
       <c r="C2543">
-        <v>5530</v>
+        <v>6010</v>
       </c>
       <c r="D2543" t="s">
         <v>2545</v>
@@ -44643,7 +44931,7 @@
         <v>47</v>
       </c>
       <c r="C2544">
-        <v>5480</v>
+        <v>5970</v>
       </c>
       <c r="D2544" t="s">
         <v>2546</v>
@@ -44657,7 +44945,7 @@
         <v>48</v>
       </c>
       <c r="C2545">
-        <v>5430</v>
+        <v>5940</v>
       </c>
       <c r="D2545" t="s">
         <v>2547</v>
@@ -44671,7 +44959,7 @@
         <v>49</v>
       </c>
       <c r="C2546">
-        <v>5390</v>
+        <v>5910</v>
       </c>
       <c r="D2546" t="s">
         <v>2548</v>
@@ -44685,7 +44973,7 @@
         <v>50</v>
       </c>
       <c r="C2547">
-        <v>5350</v>
+        <v>5890</v>
       </c>
       <c r="D2547" t="s">
         <v>2549</v>
@@ -44699,7 +44987,7 @@
         <v>51</v>
       </c>
       <c r="C2548">
-        <v>5310</v>
+        <v>5880</v>
       </c>
       <c r="D2548" t="s">
         <v>2550</v>
@@ -44713,7 +45001,7 @@
         <v>52</v>
       </c>
       <c r="C2549">
-        <v>5270</v>
+        <v>5870</v>
       </c>
       <c r="D2549" t="s">
         <v>2551</v>
@@ -44727,7 +45015,7 @@
         <v>53</v>
       </c>
       <c r="C2550">
-        <v>5230</v>
+        <v>5870</v>
       </c>
       <c r="D2550" t="s">
         <v>2552</v>
@@ -44741,7 +45029,7 @@
         <v>54</v>
       </c>
       <c r="C2551">
-        <v>5200</v>
+        <v>5860</v>
       </c>
       <c r="D2551" t="s">
         <v>2553</v>
@@ -44755,7 +45043,7 @@
         <v>55</v>
       </c>
       <c r="C2552">
-        <v>5180</v>
+        <v>5870</v>
       </c>
       <c r="D2552" t="s">
         <v>2554</v>
@@ -44769,7 +45057,7 @@
         <v>56</v>
       </c>
       <c r="C2553">
-        <v>5160</v>
+        <v>5870</v>
       </c>
       <c r="D2553" t="s">
         <v>2555</v>
@@ -44783,7 +45071,7 @@
         <v>57</v>
       </c>
       <c r="C2554">
-        <v>5160</v>
+        <v>5880</v>
       </c>
       <c r="D2554" t="s">
         <v>2556</v>
@@ -44797,7 +45085,7 @@
         <v>58</v>
       </c>
       <c r="C2555">
-        <v>5160</v>
+        <v>5880</v>
       </c>
       <c r="D2555" t="s">
         <v>2557</v>
@@ -44811,7 +45099,7 @@
         <v>59</v>
       </c>
       <c r="C2556">
-        <v>5170</v>
+        <v>5880</v>
       </c>
       <c r="D2556" t="s">
         <v>2558</v>
@@ -44825,7 +45113,7 @@
         <v>60</v>
       </c>
       <c r="C2557">
-        <v>5180</v>
+        <v>5880</v>
       </c>
       <c r="D2557" t="s">
         <v>2559</v>
@@ -44839,7 +45127,7 @@
         <v>61</v>
       </c>
       <c r="C2558">
-        <v>5200</v>
+        <v>5870</v>
       </c>
       <c r="D2558" t="s">
         <v>2560</v>
@@ -44853,7 +45141,7 @@
         <v>62</v>
       </c>
       <c r="C2559">
-        <v>5210</v>
+        <v>5860</v>
       </c>
       <c r="D2559" t="s">
         <v>2561</v>
@@ -44867,7 +45155,7 @@
         <v>63</v>
       </c>
       <c r="C2560">
-        <v>5230</v>
+        <v>5850</v>
       </c>
       <c r="D2560" t="s">
         <v>2562</v>
@@ -44881,7 +45169,7 @@
         <v>64</v>
       </c>
       <c r="C2561">
-        <v>5260</v>
+        <v>5850</v>
       </c>
       <c r="D2561" t="s">
         <v>2563</v>
@@ -44895,7 +45183,7 @@
         <v>65</v>
       </c>
       <c r="C2562">
-        <v>5300</v>
+        <v>5860</v>
       </c>
       <c r="D2562" t="s">
         <v>2564</v>
@@ -44909,7 +45197,7 @@
         <v>66</v>
       </c>
       <c r="C2563">
-        <v>5350</v>
+        <v>5880</v>
       </c>
       <c r="D2563" t="s">
         <v>2565</v>
@@ -44923,7 +45211,7 @@
         <v>67</v>
       </c>
       <c r="C2564">
-        <v>5420</v>
+        <v>5910</v>
       </c>
       <c r="D2564" t="s">
         <v>2566</v>
@@ -44937,7 +45225,7 @@
         <v>68</v>
       </c>
       <c r="C2565">
-        <v>5510</v>
+        <v>5940</v>
       </c>
       <c r="D2565" t="s">
         <v>2567</v>
@@ -44951,7 +45239,7 @@
         <v>69</v>
       </c>
       <c r="C2566">
-        <v>5600</v>
+        <v>5980</v>
       </c>
       <c r="D2566" t="s">
         <v>2568</v>
@@ -44965,7 +45253,7 @@
         <v>70</v>
       </c>
       <c r="C2567">
-        <v>5700</v>
+        <v>6020</v>
       </c>
       <c r="D2567" t="s">
         <v>2569</v>
@@ -44979,7 +45267,7 @@
         <v>71</v>
       </c>
       <c r="C2568">
-        <v>5790</v>
+        <v>6080</v>
       </c>
       <c r="D2568" t="s">
         <v>2570</v>
@@ -44993,7 +45281,7 @@
         <v>72</v>
       </c>
       <c r="C2569">
-        <v>5880</v>
+        <v>6120</v>
       </c>
       <c r="D2569" t="s">
         <v>2571</v>
@@ -45007,7 +45295,7 @@
         <v>73</v>
       </c>
       <c r="C2570">
-        <v>5970</v>
+        <v>6170</v>
       </c>
       <c r="D2570" t="s">
         <v>2572</v>
@@ -45021,7 +45309,7 @@
         <v>74</v>
       </c>
       <c r="C2571">
-        <v>6070</v>
+        <v>6230</v>
       </c>
       <c r="D2571" t="s">
         <v>2573</v>
@@ -45035,7 +45323,7 @@
         <v>75</v>
       </c>
       <c r="C2572">
-        <v>6180</v>
+        <v>6310</v>
       </c>
       <c r="D2572" t="s">
         <v>2574</v>
@@ -45049,7 +45337,7 @@
         <v>76</v>
       </c>
       <c r="C2573">
-        <v>6310</v>
+        <v>6390</v>
       </c>
       <c r="D2573" t="s">
         <v>2575</v>
@@ -45063,7 +45351,7 @@
         <v>77</v>
       </c>
       <c r="C2574">
-        <v>6450</v>
+        <v>6470</v>
       </c>
       <c r="D2574" t="s">
         <v>2576</v>
@@ -45077,7 +45365,7 @@
         <v>78</v>
       </c>
       <c r="C2575">
-        <v>6580</v>
+        <v>6550</v>
       </c>
       <c r="D2575" t="s">
         <v>2577</v>
@@ -45091,7 +45379,7 @@
         <v>79</v>
       </c>
       <c r="C2576">
-        <v>6700</v>
+        <v>6640</v>
       </c>
       <c r="D2576" t="s">
         <v>2578</v>
@@ -45105,7 +45393,7 @@
         <v>80</v>
       </c>
       <c r="C2577">
-        <v>6790</v>
+        <v>6730</v>
       </c>
       <c r="D2577" t="s">
         <v>2579</v>
@@ -45119,7 +45407,7 @@
         <v>81</v>
       </c>
       <c r="C2578">
-        <v>6880</v>
+        <v>6820</v>
       </c>
       <c r="D2578" t="s">
         <v>2580</v>
@@ -45133,7 +45421,7 @@
         <v>82</v>
       </c>
       <c r="C2579">
-        <v>6970</v>
+        <v>6910</v>
       </c>
       <c r="D2579" t="s">
         <v>2581</v>
@@ -45147,7 +45435,7 @@
         <v>83</v>
       </c>
       <c r="C2580">
-        <v>7060</v>
+        <v>7010</v>
       </c>
       <c r="D2580" t="s">
         <v>2582</v>
@@ -45161,7 +45449,7 @@
         <v>84</v>
       </c>
       <c r="C2581">
-        <v>7170</v>
+        <v>7100</v>
       </c>
       <c r="D2581" t="s">
         <v>2583</v>
@@ -45175,7 +45463,7 @@
         <v>85</v>
       </c>
       <c r="C2582">
-        <v>7200</v>
+        <v>7150</v>
       </c>
       <c r="D2582" t="s">
         <v>2584</v>
@@ -45189,7 +45477,7 @@
         <v>86</v>
       </c>
       <c r="C2583">
-        <v>7200</v>
+        <v>7150</v>
       </c>
       <c r="D2583" t="s">
         <v>2585</v>
@@ -45203,7 +45491,7 @@
         <v>87</v>
       </c>
       <c r="C2584">
-        <v>7190</v>
+        <v>7080</v>
       </c>
       <c r="D2584" t="s">
         <v>2586</v>
@@ -45217,7 +45505,7 @@
         <v>88</v>
       </c>
       <c r="C2585">
-        <v>7050</v>
+        <v>6970</v>
       </c>
       <c r="D2585" t="s">
         <v>2587</v>
@@ -45231,7 +45519,7 @@
         <v>89</v>
       </c>
       <c r="C2586">
-        <v>6860</v>
+        <v>6820</v>
       </c>
       <c r="D2586" t="s">
         <v>2588</v>
@@ -45245,7 +45533,7 @@
         <v>90</v>
       </c>
       <c r="C2587">
-        <v>6730</v>
+        <v>6650</v>
       </c>
       <c r="D2587" t="s">
         <v>2589</v>
@@ -45259,7 +45547,7 @@
         <v>91</v>
       </c>
       <c r="C2588">
-        <v>6580</v>
+        <v>6480</v>
       </c>
       <c r="D2588" t="s">
         <v>2590</v>
@@ -45273,7 +45561,7 @@
         <v>92</v>
       </c>
       <c r="C2589">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="D2589" t="s">
         <v>2591</v>
@@ -45287,7 +45575,7 @@
         <v>93</v>
       </c>
       <c r="C2590">
-        <v>6110</v>
+        <v>6100</v>
       </c>
       <c r="D2590" t="s">
         <v>2592</v>
@@ -45301,7 +45589,7 @@
         <v>94</v>
       </c>
       <c r="C2591">
-        <v>5910</v>
+        <v>5940</v>
       </c>
       <c r="D2591" t="s">
         <v>2593</v>
@@ -45315,7 +45603,7 @@
         <v>95</v>
       </c>
       <c r="C2592">
-        <v>5830</v>
+        <v>5770</v>
       </c>
       <c r="D2592" t="s">
         <v>2594</v>
@@ -45329,7 +45617,7 @@
         <v>96</v>
       </c>
       <c r="C2593">
-        <v>5720</v>
+        <v>5640</v>
       </c>
       <c r="D2593" t="s">
         <v>2595</v>
@@ -45343,7 +45631,7 @@
         <v>1</v>
       </c>
       <c r="C2594">
-        <v>5540</v>
+        <v>5530</v>
       </c>
       <c r="D2594" t="s">
         <v>2596</v>
@@ -45357,7 +45645,7 @@
         <v>2</v>
       </c>
       <c r="C2595">
-        <v>5500</v>
+        <v>5490</v>
       </c>
       <c r="D2595" t="s">
         <v>2597</v>
@@ -45385,7 +45673,7 @@
         <v>4</v>
       </c>
       <c r="C2597">
-        <v>5370</v>
+        <v>5360</v>
       </c>
       <c r="D2597" t="s">
         <v>2599</v>
@@ -45399,7 +45687,7 @@
         <v>5</v>
       </c>
       <c r="C2598">
-        <v>5330</v>
+        <v>5300</v>
       </c>
       <c r="D2598" t="s">
         <v>2600</v>
@@ -45413,7 +45701,7 @@
         <v>6</v>
       </c>
       <c r="C2599">
-        <v>5290</v>
+        <v>5260</v>
       </c>
       <c r="D2599" t="s">
         <v>2601</v>
@@ -45427,7 +45715,7 @@
         <v>7</v>
       </c>
       <c r="C2600">
-        <v>5250</v>
+        <v>5220</v>
       </c>
       <c r="D2600" t="s">
         <v>2602</v>
@@ -45441,7 +45729,7 @@
         <v>8</v>
       </c>
       <c r="C2601">
-        <v>5200</v>
+        <v>5190</v>
       </c>
       <c r="D2601" t="s">
         <v>2603</v>
@@ -45469,7 +45757,7 @@
         <v>10</v>
       </c>
       <c r="C2603">
-        <v>5110</v>
+        <v>5120</v>
       </c>
       <c r="D2603" t="s">
         <v>2605</v>
@@ -45483,7 +45771,7 @@
         <v>11</v>
       </c>
       <c r="C2604">
-        <v>5080</v>
+        <v>5100</v>
       </c>
       <c r="D2604" t="s">
         <v>2606</v>
@@ -45497,7 +45785,7 @@
         <v>12</v>
       </c>
       <c r="C2605">
-        <v>5070</v>
+        <v>5090</v>
       </c>
       <c r="D2605" t="s">
         <v>2607</v>
@@ -45511,7 +45799,7 @@
         <v>13</v>
       </c>
       <c r="C2606">
-        <v>5070</v>
+        <v>5080</v>
       </c>
       <c r="D2606" t="s">
         <v>2608</v>
@@ -45539,7 +45827,7 @@
         <v>15</v>
       </c>
       <c r="C2608">
-        <v>5080</v>
+        <v>5070</v>
       </c>
       <c r="D2608" t="s">
         <v>2610</v>
@@ -45553,7 +45841,7 @@
         <v>16</v>
       </c>
       <c r="C2609">
-        <v>5080</v>
+        <v>5070</v>
       </c>
       <c r="D2609" t="s">
         <v>2611</v>
@@ -45567,7 +45855,7 @@
         <v>17</v>
       </c>
       <c r="C2610">
-        <v>5090</v>
+        <v>5080</v>
       </c>
       <c r="D2610" t="s">
         <v>2612</v>
@@ -45595,7 +45883,7 @@
         <v>19</v>
       </c>
       <c r="C2612">
-        <v>5110</v>
+        <v>5100</v>
       </c>
       <c r="D2612" t="s">
         <v>2614</v>
@@ -45609,7 +45897,7 @@
         <v>20</v>
       </c>
       <c r="C2613">
-        <v>5130</v>
+        <v>5120</v>
       </c>
       <c r="D2613" t="s">
         <v>2615</v>
@@ -45623,7 +45911,7 @@
         <v>21</v>
       </c>
       <c r="C2614">
-        <v>5170</v>
+        <v>5140</v>
       </c>
       <c r="D2614" t="s">
         <v>2616</v>
@@ -45637,7 +45925,7 @@
         <v>22</v>
       </c>
       <c r="C2615">
-        <v>5220</v>
+        <v>5180</v>
       </c>
       <c r="D2615" t="s">
         <v>2617</v>
@@ -45651,7 +45939,7 @@
         <v>23</v>
       </c>
       <c r="C2616">
-        <v>5290</v>
+        <v>5210</v>
       </c>
       <c r="D2616" t="s">
         <v>2618</v>
@@ -45665,7 +45953,7 @@
         <v>24</v>
       </c>
       <c r="C2617">
-        <v>5370</v>
+        <v>5240</v>
       </c>
       <c r="D2617" t="s">
         <v>2619</v>
@@ -45679,7 +45967,7 @@
         <v>25</v>
       </c>
       <c r="C2618">
-        <v>5460</v>
+        <v>5320</v>
       </c>
       <c r="D2618" t="s">
         <v>2620</v>
@@ -45693,7 +45981,7 @@
         <v>26</v>
       </c>
       <c r="C2619">
-        <v>5560</v>
+        <v>5400</v>
       </c>
       <c r="D2619" t="s">
         <v>2621</v>
@@ -45707,7 +45995,7 @@
         <v>27</v>
       </c>
       <c r="C2620">
-        <v>5660</v>
+        <v>5490</v>
       </c>
       <c r="D2620" t="s">
         <v>2622</v>
@@ -45721,7 +46009,7 @@
         <v>28</v>
       </c>
       <c r="C2621">
-        <v>5760</v>
+        <v>5620</v>
       </c>
       <c r="D2621" t="s">
         <v>2623</v>
@@ -45735,7 +46023,7 @@
         <v>29</v>
       </c>
       <c r="C2622">
-        <v>5860</v>
+        <v>5770</v>
       </c>
       <c r="D2622" t="s">
         <v>2624</v>
@@ -45763,7 +46051,7 @@
         <v>31</v>
       </c>
       <c r="C2624">
-        <v>6020</v>
+        <v>6070</v>
       </c>
       <c r="D2624" t="s">
         <v>2626</v>
@@ -45777,7 +46065,7 @@
         <v>32</v>
       </c>
       <c r="C2625">
-        <v>6080</v>
+        <v>6150</v>
       </c>
       <c r="D2625" t="s">
         <v>2627</v>
@@ -45791,7 +46079,7 @@
         <v>33</v>
       </c>
       <c r="C2626">
-        <v>6130</v>
+        <v>6220</v>
       </c>
       <c r="D2626" t="s">
         <v>2628</v>
@@ -45805,7 +46093,7 @@
         <v>34</v>
       </c>
       <c r="C2627">
-        <v>6150</v>
+        <v>6230</v>
       </c>
       <c r="D2627" t="s">
         <v>2629</v>
@@ -45819,7 +46107,7 @@
         <v>35</v>
       </c>
       <c r="C2628">
-        <v>6160</v>
+        <v>6240</v>
       </c>
       <c r="D2628" t="s">
         <v>2630</v>
@@ -45833,7 +46121,7 @@
         <v>36</v>
       </c>
       <c r="C2629">
-        <v>6140</v>
+        <v>6240</v>
       </c>
       <c r="D2629" t="s">
         <v>2631</v>
@@ -45847,7 +46135,7 @@
         <v>37</v>
       </c>
       <c r="C2630">
-        <v>6100</v>
+        <v>6230</v>
       </c>
       <c r="D2630" t="s">
         <v>2632</v>
@@ -45861,7 +46149,7 @@
         <v>38</v>
       </c>
       <c r="C2631">
-        <v>6050</v>
+        <v>6220</v>
       </c>
       <c r="D2631" t="s">
         <v>2633</v>
@@ -45875,7 +46163,7 @@
         <v>39</v>
       </c>
       <c r="C2632">
-        <v>5980</v>
+        <v>6210</v>
       </c>
       <c r="D2632" t="s">
         <v>2634</v>
@@ -45889,7 +46177,7 @@
         <v>40</v>
       </c>
       <c r="C2633">
-        <v>5910</v>
+        <v>6150</v>
       </c>
       <c r="D2633" t="s">
         <v>2635</v>
@@ -45903,7 +46191,7 @@
         <v>41</v>
       </c>
       <c r="C2634">
-        <v>5820</v>
+        <v>6090</v>
       </c>
       <c r="D2634" t="s">
         <v>2636</v>
@@ -45917,7 +46205,7 @@
         <v>42</v>
       </c>
       <c r="C2635">
-        <v>5740</v>
+        <v>6010</v>
       </c>
       <c r="D2635" t="s">
         <v>2637</v>
@@ -45931,7 +46219,7 @@
         <v>43</v>
       </c>
       <c r="C2636">
-        <v>5670</v>
+        <v>5940</v>
       </c>
       <c r="D2636" t="s">
         <v>2638</v>
@@ -45945,7 +46233,7 @@
         <v>44</v>
       </c>
       <c r="C2637">
-        <v>5590</v>
+        <v>5860</v>
       </c>
       <c r="D2637" t="s">
         <v>2639</v>
@@ -45959,7 +46247,7 @@
         <v>45</v>
       </c>
       <c r="C2638">
-        <v>5530</v>
+        <v>5760</v>
       </c>
       <c r="D2638" t="s">
         <v>2640</v>
@@ -45973,7 +46261,7 @@
         <v>46</v>
       </c>
       <c r="C2639">
-        <v>5480</v>
+        <v>5690</v>
       </c>
       <c r="D2639" t="s">
         <v>2641</v>
@@ -45987,7 +46275,7 @@
         <v>47</v>
       </c>
       <c r="C2640">
-        <v>5430</v>
+        <v>5620</v>
       </c>
       <c r="D2640" t="s">
         <v>2642</v>
@@ -46001,7 +46289,7 @@
         <v>48</v>
       </c>
       <c r="C2641">
-        <v>5380</v>
+        <v>5550</v>
       </c>
       <c r="D2641" t="s">
         <v>2643</v>
@@ -46015,7 +46303,7 @@
         <v>49</v>
       </c>
       <c r="C2642">
-        <v>5340</v>
+        <v>5480</v>
       </c>
       <c r="D2642" t="s">
         <v>2644</v>
@@ -46029,7 +46317,7 @@
         <v>50</v>
       </c>
       <c r="C2643">
-        <v>5300</v>
+        <v>5440</v>
       </c>
       <c r="D2643" t="s">
         <v>2645</v>
@@ -46043,7 +46331,7 @@
         <v>51</v>
       </c>
       <c r="C2644">
-        <v>5260</v>
+        <v>5420</v>
       </c>
       <c r="D2644" t="s">
         <v>2646</v>
@@ -46057,7 +46345,7 @@
         <v>52</v>
       </c>
       <c r="C2645">
-        <v>5220</v>
+        <v>5420</v>
       </c>
       <c r="D2645" t="s">
         <v>2647</v>
@@ -46071,7 +46359,7 @@
         <v>53</v>
       </c>
       <c r="C2646">
-        <v>5180</v>
+        <v>5420</v>
       </c>
       <c r="D2646" t="s">
         <v>2648</v>
@@ -46085,7 +46373,7 @@
         <v>54</v>
       </c>
       <c r="C2647">
-        <v>5150</v>
+        <v>5430</v>
       </c>
       <c r="D2647" t="s">
         <v>2649</v>
@@ -46099,7 +46387,7 @@
         <v>55</v>
       </c>
       <c r="C2648">
-        <v>5130</v>
+        <v>5440</v>
       </c>
       <c r="D2648" t="s">
         <v>2650</v>
@@ -46113,7 +46401,7 @@
         <v>56</v>
       </c>
       <c r="C2649">
-        <v>5110</v>
+        <v>5450</v>
       </c>
       <c r="D2649" t="s">
         <v>2651</v>
@@ -46127,7 +46415,7 @@
         <v>57</v>
       </c>
       <c r="C2650">
-        <v>5110</v>
+        <v>5460</v>
       </c>
       <c r="D2650" t="s">
         <v>2652</v>
@@ -46141,7 +46429,7 @@
         <v>58</v>
       </c>
       <c r="C2651">
-        <v>5110</v>
+        <v>5460</v>
       </c>
       <c r="D2651" t="s">
         <v>2653</v>
@@ -46155,7 +46443,7 @@
         <v>59</v>
       </c>
       <c r="C2652">
-        <v>5120</v>
+        <v>5470</v>
       </c>
       <c r="D2652" t="s">
         <v>2654</v>
@@ -46169,7 +46457,7 @@
         <v>60</v>
       </c>
       <c r="C2653">
-        <v>5130</v>
+        <v>5480</v>
       </c>
       <c r="D2653" t="s">
         <v>2655</v>
@@ -46183,7 +46471,7 @@
         <v>61</v>
       </c>
       <c r="C2654">
-        <v>5150</v>
+        <v>5500</v>
       </c>
       <c r="D2654" t="s">
         <v>2656</v>
@@ -46197,7 +46485,7 @@
         <v>62</v>
       </c>
       <c r="C2655">
-        <v>5160</v>
+        <v>5500</v>
       </c>
       <c r="D2655" t="s">
         <v>2657</v>
@@ -46211,7 +46499,7 @@
         <v>63</v>
       </c>
       <c r="C2656">
-        <v>5180</v>
+        <v>5510</v>
       </c>
       <c r="D2656" t="s">
         <v>2658</v>
@@ -46225,7 +46513,7 @@
         <v>64</v>
       </c>
       <c r="C2657">
-        <v>5210</v>
+        <v>5520</v>
       </c>
       <c r="D2657" t="s">
         <v>2659</v>
@@ -46239,7 +46527,7 @@
         <v>65</v>
       </c>
       <c r="C2658">
-        <v>5250</v>
+        <v>5550</v>
       </c>
       <c r="D2658" t="s">
         <v>2660</v>
@@ -46253,7 +46541,7 @@
         <v>66</v>
       </c>
       <c r="C2659">
-        <v>5300</v>
+        <v>5590</v>
       </c>
       <c r="D2659" t="s">
         <v>2661</v>
@@ -46267,7 +46555,7 @@
         <v>67</v>
       </c>
       <c r="C2660">
-        <v>5370</v>
+        <v>5640</v>
       </c>
       <c r="D2660" t="s">
         <v>2662</v>
@@ -46281,7 +46569,7 @@
         <v>68</v>
       </c>
       <c r="C2661">
-        <v>5460</v>
+        <v>5700</v>
       </c>
       <c r="D2661" t="s">
         <v>2663</v>
@@ -46295,7 +46583,7 @@
         <v>69</v>
       </c>
       <c r="C2662">
-        <v>5550</v>
+        <v>5760</v>
       </c>
       <c r="D2662" t="s">
         <v>2664</v>
@@ -46309,7 +46597,7 @@
         <v>70</v>
       </c>
       <c r="C2663">
-        <v>5650</v>
+        <v>5830</v>
       </c>
       <c r="D2663" t="s">
         <v>2665</v>
@@ -46323,7 +46611,7 @@
         <v>71</v>
       </c>
       <c r="C2664">
-        <v>5740</v>
+        <v>5880</v>
       </c>
       <c r="D2664" t="s">
         <v>2666</v>
@@ -46337,7 +46625,7 @@
         <v>72</v>
       </c>
       <c r="C2665">
-        <v>5830</v>
+        <v>5970</v>
       </c>
       <c r="D2665" t="s">
         <v>2667</v>
@@ -46351,7 +46639,7 @@
         <v>73</v>
       </c>
       <c r="C2666">
-        <v>5920</v>
+        <v>6060</v>
       </c>
       <c r="D2666" t="s">
         <v>2668</v>
@@ -46365,7 +46653,7 @@
         <v>74</v>
       </c>
       <c r="C2667">
-        <v>6020</v>
+        <v>6150</v>
       </c>
       <c r="D2667" t="s">
         <v>2669</v>
@@ -46379,7 +46667,7 @@
         <v>75</v>
       </c>
       <c r="C2668">
-        <v>6130</v>
+        <v>6240</v>
       </c>
       <c r="D2668" t="s">
         <v>2670</v>
@@ -46393,7 +46681,7 @@
         <v>76</v>
       </c>
       <c r="C2669">
-        <v>6260</v>
+        <v>6340</v>
       </c>
       <c r="D2669" t="s">
         <v>2671</v>
@@ -46407,7 +46695,7 @@
         <v>77</v>
       </c>
       <c r="C2670">
-        <v>6400</v>
+        <v>6430</v>
       </c>
       <c r="D2670" t="s">
         <v>2672</v>
@@ -46421,7 +46709,7 @@
         <v>78</v>
       </c>
       <c r="C2671">
-        <v>6530</v>
+        <v>6510</v>
       </c>
       <c r="D2671" t="s">
         <v>2673</v>
@@ -46435,7 +46723,7 @@
         <v>79</v>
       </c>
       <c r="C2672">
-        <v>6650</v>
+        <v>6600</v>
       </c>
       <c r="D2672" t="s">
         <v>2674</v>
@@ -46449,7 +46737,7 @@
         <v>80</v>
       </c>
       <c r="C2673">
-        <v>6740</v>
+        <v>6670</v>
       </c>
       <c r="D2673" t="s">
         <v>2675</v>
@@ -46463,7 +46751,7 @@
         <v>81</v>
       </c>
       <c r="C2674">
-        <v>6830</v>
+        <v>6760</v>
       </c>
       <c r="D2674" t="s">
         <v>2676</v>
@@ -46477,7 +46765,7 @@
         <v>82</v>
       </c>
       <c r="C2675">
-        <v>6920</v>
+        <v>6830</v>
       </c>
       <c r="D2675" t="s">
         <v>2677</v>
@@ -46491,7 +46779,7 @@
         <v>83</v>
       </c>
       <c r="C2676">
-        <v>7010</v>
+        <v>6900</v>
       </c>
       <c r="D2676" t="s">
         <v>2678</v>
@@ -46505,7 +46793,7 @@
         <v>84</v>
       </c>
       <c r="C2677">
-        <v>7120</v>
+        <v>6990</v>
       </c>
       <c r="D2677" t="s">
         <v>2679</v>
@@ -46519,7 +46807,7 @@
         <v>85</v>
       </c>
       <c r="C2678">
-        <v>7180</v>
+        <v>7030</v>
       </c>
       <c r="D2678" t="s">
         <v>2680</v>
@@ -46533,7 +46821,7 @@
         <v>86</v>
       </c>
       <c r="C2679">
-        <v>7170</v>
+        <v>7020</v>
       </c>
       <c r="D2679" t="s">
         <v>2681</v>
@@ -46547,7 +46835,7 @@
         <v>87</v>
       </c>
       <c r="C2680">
-        <v>7140</v>
+        <v>6990</v>
       </c>
       <c r="D2680" t="s">
         <v>2682</v>
@@ -46561,7 +46849,7 @@
         <v>88</v>
       </c>
       <c r="C2681">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="D2681" t="s">
         <v>2683</v>
@@ -46575,7 +46863,7 @@
         <v>89</v>
       </c>
       <c r="C2682">
-        <v>6810</v>
+        <v>6740</v>
       </c>
       <c r="D2682" t="s">
         <v>2684</v>
@@ -46589,7 +46877,7 @@
         <v>90</v>
       </c>
       <c r="C2683">
-        <v>6680</v>
+        <v>6530</v>
       </c>
       <c r="D2683" t="s">
         <v>2685</v>
@@ -46603,7 +46891,7 @@
         <v>91</v>
       </c>
       <c r="C2684">
-        <v>6530</v>
+        <v>6360</v>
       </c>
       <c r="D2684" t="s">
         <v>2686</v>
@@ -46617,7 +46905,7 @@
         <v>92</v>
       </c>
       <c r="C2685">
-        <v>6350</v>
+        <v>6200</v>
       </c>
       <c r="D2685" t="s">
         <v>2687</v>
@@ -46631,7 +46919,7 @@
         <v>93</v>
       </c>
       <c r="C2686">
-        <v>6060</v>
+        <v>6030</v>
       </c>
       <c r="D2686" t="s">
         <v>2688</v>
@@ -46645,7 +46933,7 @@
         <v>94</v>
       </c>
       <c r="C2687">
-        <v>5860</v>
+        <v>5900</v>
       </c>
       <c r="D2687" t="s">
         <v>2689</v>
@@ -46687,7 +46975,7 @@
         <v>1</v>
       </c>
       <c r="C2690">
-        <v>5490</v>
+        <v>5630</v>
       </c>
       <c r="D2690" t="s">
         <v>2692</v>
@@ -46701,7 +46989,7 @@
         <v>2</v>
       </c>
       <c r="C2691">
-        <v>5450</v>
+        <v>5560</v>
       </c>
       <c r="D2691" t="s">
         <v>2693</v>
@@ -46715,7 +47003,7 @@
         <v>3</v>
       </c>
       <c r="C2692">
-        <v>5390</v>
+        <v>5500</v>
       </c>
       <c r="D2692" t="s">
         <v>2694</v>
@@ -46729,7 +47017,7 @@
         <v>4</v>
       </c>
       <c r="C2693">
-        <v>5330</v>
+        <v>5440</v>
       </c>
       <c r="D2693" t="s">
         <v>2695</v>
@@ -46743,7 +47031,7 @@
         <v>5</v>
       </c>
       <c r="C2694">
-        <v>5290</v>
+        <v>5390</v>
       </c>
       <c r="D2694" t="s">
         <v>2696</v>
@@ -46757,7 +47045,7 @@
         <v>6</v>
       </c>
       <c r="C2695">
-        <v>5260</v>
+        <v>5340</v>
       </c>
       <c r="D2695" t="s">
         <v>2697</v>
@@ -46771,7 +47059,7 @@
         <v>7</v>
       </c>
       <c r="C2696">
-        <v>5220</v>
+        <v>5290</v>
       </c>
       <c r="D2696" t="s">
         <v>2698</v>
@@ -46785,7 +47073,7 @@
         <v>8</v>
       </c>
       <c r="C2697">
-        <v>5170</v>
+        <v>5240</v>
       </c>
       <c r="D2697" t="s">
         <v>2699</v>
@@ -46799,7 +47087,7 @@
         <v>9</v>
       </c>
       <c r="C2698">
-        <v>5130</v>
+        <v>5200</v>
       </c>
       <c r="D2698" t="s">
         <v>2700</v>
@@ -46813,7 +47101,7 @@
         <v>10</v>
       </c>
       <c r="C2699">
-        <v>5090</v>
+        <v>5170</v>
       </c>
       <c r="D2699" t="s">
         <v>2701</v>
@@ -46827,7 +47115,7 @@
         <v>11</v>
       </c>
       <c r="C2700">
-        <v>5060</v>
+        <v>5150</v>
       </c>
       <c r="D2700" t="s">
         <v>2702</v>
@@ -46841,7 +47129,7 @@
         <v>12</v>
       </c>
       <c r="C2701">
-        <v>5050</v>
+        <v>5140</v>
       </c>
       <c r="D2701" t="s">
         <v>2703</v>
@@ -46855,7 +47143,7 @@
         <v>13</v>
       </c>
       <c r="C2702">
-        <v>5050</v>
+        <v>5140</v>
       </c>
       <c r="D2702" t="s">
         <v>2704</v>
@@ -46869,7 +47157,7 @@
         <v>14</v>
       </c>
       <c r="C2703">
-        <v>5050</v>
+        <v>5140</v>
       </c>
       <c r="D2703" t="s">
         <v>2705</v>
@@ -46883,7 +47171,7 @@
         <v>15</v>
       </c>
       <c r="C2704">
-        <v>5060</v>
+        <v>5140</v>
       </c>
       <c r="D2704" t="s">
         <v>2706</v>
@@ -46897,7 +47185,7 @@
         <v>16</v>
       </c>
       <c r="C2705">
-        <v>5060</v>
+        <v>5140</v>
       </c>
       <c r="D2705" t="s">
         <v>2707</v>
@@ -46911,7 +47199,7 @@
         <v>17</v>
       </c>
       <c r="C2706">
-        <v>5070</v>
+        <v>5130</v>
       </c>
       <c r="D2706" t="s">
         <v>2708</v>
@@ -46925,7 +47213,7 @@
         <v>18</v>
       </c>
       <c r="C2707">
-        <v>5080</v>
+        <v>5130</v>
       </c>
       <c r="D2707" t="s">
         <v>2709</v>
@@ -46939,7 +47227,7 @@
         <v>19</v>
       </c>
       <c r="C2708">
-        <v>5080</v>
+        <v>5130</v>
       </c>
       <c r="D2708" t="s">
         <v>2710</v>
@@ -46953,7 +47241,7 @@
         <v>20</v>
       </c>
       <c r="C2709">
-        <v>5090</v>
+        <v>5140</v>
       </c>
       <c r="D2709" t="s">
         <v>2711</v>
@@ -46967,7 +47255,7 @@
         <v>21</v>
       </c>
       <c r="C2710">
-        <v>5110</v>
+        <v>5160</v>
       </c>
       <c r="D2710" t="s">
         <v>2712</v>
@@ -46981,7 +47269,7 @@
         <v>22</v>
       </c>
       <c r="C2711">
-        <v>5140</v>
+        <v>5190</v>
       </c>
       <c r="D2711" t="s">
         <v>2713</v>
@@ -46995,7 +47283,7 @@
         <v>23</v>
       </c>
       <c r="C2712">
-        <v>5180</v>
+        <v>5240</v>
       </c>
       <c r="D2712" t="s">
         <v>2714</v>
@@ -47009,7 +47297,7 @@
         <v>24</v>
       </c>
       <c r="C2713">
-        <v>5230</v>
+        <v>5310</v>
       </c>
       <c r="D2713" t="s">
         <v>2715</v>
@@ -47023,7 +47311,7 @@
         <v>25</v>
       </c>
       <c r="C2714">
-        <v>5300</v>
+        <v>5390</v>
       </c>
       <c r="D2714" t="s">
         <v>2716</v>
@@ -47037,7 +47325,7 @@
         <v>26</v>
       </c>
       <c r="C2715">
-        <v>5390</v>
+        <v>5480</v>
       </c>
       <c r="D2715" t="s">
         <v>2717</v>
@@ -47051,7 +47339,7 @@
         <v>27</v>
       </c>
       <c r="C2716">
-        <v>5480</v>
+        <v>5570</v>
       </c>
       <c r="D2716" t="s">
         <v>2718</v>
@@ -47065,7 +47353,7 @@
         <v>28</v>
       </c>
       <c r="C2717">
-        <v>5580</v>
+        <v>5670</v>
       </c>
       <c r="D2717" t="s">
         <v>2719</v>
@@ -47079,7 +47367,7 @@
         <v>29</v>
       </c>
       <c r="C2718">
-        <v>5680</v>
+        <v>5770</v>
       </c>
       <c r="D2718" t="s">
         <v>2720</v>
@@ -47093,7 +47381,7 @@
         <v>30</v>
       </c>
       <c r="C2719">
-        <v>5780</v>
+        <v>5870</v>
       </c>
       <c r="D2719" t="s">
         <v>2721</v>
@@ -47107,7 +47395,7 @@
         <v>31</v>
       </c>
       <c r="C2720">
-        <v>5870</v>
+        <v>5950</v>
       </c>
       <c r="D2720" t="s">
         <v>2722</v>
@@ -47121,7 +47409,7 @@
         <v>32</v>
       </c>
       <c r="C2721">
-        <v>5940</v>
+        <v>6010</v>
       </c>
       <c r="D2721" t="s">
         <v>2723</v>
@@ -47135,7 +47423,7 @@
         <v>33</v>
       </c>
       <c r="C2722">
-        <v>5990</v>
+        <v>6060</v>
       </c>
       <c r="D2722" t="s">
         <v>2724</v>
@@ -47149,7 +47437,7 @@
         <v>34</v>
       </c>
       <c r="C2723">
-        <v>6020</v>
+        <v>6090</v>
       </c>
       <c r="D2723" t="s">
         <v>2725</v>
@@ -47163,7 +47451,7 @@
         <v>35</v>
       </c>
       <c r="C2724">
-        <v>6020</v>
+        <v>6100</v>
       </c>
       <c r="D2724" t="s">
         <v>2726</v>
@@ -47177,7 +47465,7 @@
         <v>36</v>
       </c>
       <c r="C2725">
-        <v>6000</v>
+        <v>6090</v>
       </c>
       <c r="D2725" t="s">
         <v>2727</v>
@@ -47191,7 +47479,7 @@
         <v>37</v>
       </c>
       <c r="C2726">
-        <v>5960</v>
+        <v>6050</v>
       </c>
       <c r="D2726" t="s">
         <v>2728</v>
@@ -47205,7 +47493,7 @@
         <v>38</v>
       </c>
       <c r="C2727">
-        <v>5900</v>
+        <v>6010</v>
       </c>
       <c r="D2727" t="s">
         <v>2729</v>
@@ -47219,7 +47507,7 @@
         <v>39</v>
       </c>
       <c r="C2728">
-        <v>5840</v>
+        <v>5950</v>
       </c>
       <c r="D2728" t="s">
         <v>2730</v>
@@ -47233,7 +47521,7 @@
         <v>40</v>
       </c>
       <c r="C2729">
-        <v>5760</v>
+        <v>5880</v>
       </c>
       <c r="D2729" t="s">
         <v>2731</v>
@@ -47247,7 +47535,7 @@
         <v>41</v>
       </c>
       <c r="C2730">
-        <v>5690</v>
+        <v>5800</v>
       </c>
       <c r="D2730" t="s">
         <v>2732</v>
@@ -47261,7 +47549,7 @@
         <v>42</v>
       </c>
       <c r="C2731">
-        <v>5620</v>
+        <v>5730</v>
       </c>
       <c r="D2731" t="s">
         <v>2733</v>
@@ -47275,7 +47563,7 @@
         <v>43</v>
       </c>
       <c r="C2732">
-        <v>5560</v>
+        <v>5670</v>
       </c>
       <c r="D2732" t="s">
         <v>2734</v>
@@ -47289,7 +47577,7 @@
         <v>44</v>
       </c>
       <c r="C2733">
-        <v>5510</v>
+        <v>5610</v>
       </c>
       <c r="D2733" t="s">
         <v>2735</v>
@@ -47303,7 +47591,7 @@
         <v>45</v>
       </c>
       <c r="C2734">
-        <v>5460</v>
+        <v>5560</v>
       </c>
       <c r="D2734" t="s">
         <v>2736</v>
@@ -47317,7 +47605,7 @@
         <v>46</v>
       </c>
       <c r="C2735">
-        <v>5430</v>
+        <v>5520</v>
       </c>
       <c r="D2735" t="s">
         <v>2737</v>
@@ -47331,7 +47619,7 @@
         <v>47</v>
       </c>
       <c r="C2736">
-        <v>5400</v>
+        <v>5490</v>
       </c>
       <c r="D2736" t="s">
         <v>2738</v>
@@ -47345,7 +47633,7 @@
         <v>48</v>
       </c>
       <c r="C2737">
-        <v>5380</v>
+        <v>5470</v>
       </c>
       <c r="D2737" t="s">
         <v>2739</v>
@@ -47359,7 +47647,7 @@
         <v>49</v>
       </c>
       <c r="C2738">
-        <v>5360</v>
+        <v>5460</v>
       </c>
       <c r="D2738" t="s">
         <v>2740</v>
@@ -47373,7 +47661,7 @@
         <v>50</v>
       </c>
       <c r="C2739">
-        <v>5330</v>
+        <v>5450</v>
       </c>
       <c r="D2739" t="s">
         <v>2741</v>
@@ -47387,7 +47675,7 @@
         <v>51</v>
       </c>
       <c r="C2740">
-        <v>5300</v>
+        <v>5450</v>
       </c>
       <c r="D2740" t="s">
         <v>2742</v>
@@ -47401,7 +47689,7 @@
         <v>52</v>
       </c>
       <c r="C2741">
-        <v>5280</v>
+        <v>5440</v>
       </c>
       <c r="D2741" t="s">
         <v>2743</v>
@@ -47415,7 +47703,7 @@
         <v>53</v>
       </c>
       <c r="C2742">
-        <v>5260</v>
+        <v>5440</v>
       </c>
       <c r="D2742" t="s">
         <v>2744</v>
@@ -47429,7 +47717,7 @@
         <v>54</v>
       </c>
       <c r="C2743">
-        <v>5240</v>
+        <v>5440</v>
       </c>
       <c r="D2743" t="s">
         <v>2745</v>
@@ -47443,7 +47731,7 @@
         <v>55</v>
       </c>
       <c r="C2744">
-        <v>5240</v>
+        <v>5440</v>
       </c>
       <c r="D2744" t="s">
         <v>2746</v>
@@ -47457,7 +47745,7 @@
         <v>56</v>
       </c>
       <c r="C2745">
-        <v>5240</v>
+        <v>5440</v>
       </c>
       <c r="D2745" t="s">
         <v>2747</v>
@@ -47471,7 +47759,7 @@
         <v>57</v>
       </c>
       <c r="C2746">
-        <v>5250</v>
+        <v>5440</v>
       </c>
       <c r="D2746" t="s">
         <v>2748</v>
@@ -47485,7 +47773,7 @@
         <v>58</v>
       </c>
       <c r="C2747">
-        <v>5260</v>
+        <v>5440</v>
       </c>
       <c r="D2747" t="s">
         <v>2749</v>
@@ -47499,7 +47787,7 @@
         <v>59</v>
       </c>
       <c r="C2748">
-        <v>5280</v>
+        <v>5440</v>
       </c>
       <c r="D2748" t="s">
         <v>2750</v>
@@ -47513,7 +47801,7 @@
         <v>60</v>
       </c>
       <c r="C2749">
-        <v>5290</v>
+        <v>5440</v>
       </c>
       <c r="D2749" t="s">
         <v>2751</v>
@@ -47527,7 +47815,7 @@
         <v>61</v>
       </c>
       <c r="C2750">
-        <v>5300</v>
+        <v>5440</v>
       </c>
       <c r="D2750" t="s">
         <v>2752</v>
@@ -47541,7 +47829,7 @@
         <v>62</v>
       </c>
       <c r="C2751">
-        <v>5310</v>
+        <v>5440</v>
       </c>
       <c r="D2751" t="s">
         <v>2753</v>
@@ -47555,7 +47843,7 @@
         <v>63</v>
       </c>
       <c r="C2752">
-        <v>5310</v>
+        <v>5440</v>
       </c>
       <c r="D2752" t="s">
         <v>2754</v>
@@ -47569,7 +47857,7 @@
         <v>64</v>
       </c>
       <c r="C2753">
-        <v>5330</v>
+        <v>5450</v>
       </c>
       <c r="D2753" t="s">
         <v>2755</v>
@@ -47583,7 +47871,7 @@
         <v>65</v>
       </c>
       <c r="C2754">
-        <v>5350</v>
+        <v>5480</v>
       </c>
       <c r="D2754" t="s">
         <v>2756</v>
@@ -47597,7 +47885,7 @@
         <v>66</v>
       </c>
       <c r="C2755">
-        <v>5390</v>
+        <v>5510</v>
       </c>
       <c r="D2755" t="s">
         <v>2757</v>
@@ -47611,7 +47899,7 @@
         <v>67</v>
       </c>
       <c r="C2756">
-        <v>5450</v>
+        <v>5560</v>
       </c>
       <c r="D2756" t="s">
         <v>2758</v>
@@ -47625,7 +47913,7 @@
         <v>68</v>
       </c>
       <c r="C2757">
-        <v>5520</v>
+        <v>5610</v>
       </c>
       <c r="D2757" t="s">
         <v>2759</v>
@@ -47639,7 +47927,7 @@
         <v>69</v>
       </c>
       <c r="C2758">
-        <v>5600</v>
+        <v>5670</v>
       </c>
       <c r="D2758" t="s">
         <v>2760</v>
@@ -47653,7 +47941,7 @@
         <v>70</v>
       </c>
       <c r="C2759">
-        <v>5690</v>
+        <v>5740</v>
       </c>
       <c r="D2759" t="s">
         <v>2761</v>
@@ -47667,7 +47955,7 @@
         <v>71</v>
       </c>
       <c r="C2760">
-        <v>5770</v>
+        <v>5800</v>
       </c>
       <c r="D2760" t="s">
         <v>2762</v>
@@ -47681,7 +47969,7 @@
         <v>72</v>
       </c>
       <c r="C2761">
-        <v>5850</v>
+        <v>5870</v>
       </c>
       <c r="D2761" t="s">
         <v>2763</v>
@@ -47695,7 +47983,7 @@
         <v>73</v>
       </c>
       <c r="C2762">
-        <v>5920</v>
+        <v>5930</v>
       </c>
       <c r="D2762" t="s">
         <v>2764</v>
@@ -47709,7 +47997,7 @@
         <v>74</v>
       </c>
       <c r="C2763">
-        <v>5990</v>
+        <v>6010</v>
       </c>
       <c r="D2763" t="s">
         <v>2765</v>
@@ -47723,7 +48011,7 @@
         <v>75</v>
       </c>
       <c r="C2764">
-        <v>6070</v>
+        <v>6090</v>
       </c>
       <c r="D2764" t="s">
         <v>2766</v>
@@ -47751,7 +48039,7 @@
         <v>77</v>
       </c>
       <c r="C2766">
-        <v>6280</v>
+        <v>6260</v>
       </c>
       <c r="D2766" t="s">
         <v>2768</v>
@@ -47765,7 +48053,7 @@
         <v>78</v>
       </c>
       <c r="C2767">
-        <v>6390</v>
+        <v>6350</v>
       </c>
       <c r="D2767" t="s">
         <v>2769</v>
@@ -47779,7 +48067,7 @@
         <v>79</v>
       </c>
       <c r="C2768">
-        <v>6490</v>
+        <v>6430</v>
       </c>
       <c r="D2768" t="s">
         <v>2770</v>
@@ -47793,7 +48081,7 @@
         <v>80</v>
       </c>
       <c r="C2769">
-        <v>6580</v>
+        <v>6500</v>
       </c>
       <c r="D2769" t="s">
         <v>2771</v>
@@ -47807,7 +48095,7 @@
         <v>81</v>
       </c>
       <c r="C2770">
-        <v>6670</v>
+        <v>6580</v>
       </c>
       <c r="D2770" t="s">
         <v>2772</v>
@@ -47821,7 +48109,7 @@
         <v>82</v>
       </c>
       <c r="C2771">
-        <v>6760</v>
+        <v>6660</v>
       </c>
       <c r="D2771" t="s">
         <v>2773</v>
@@ -47835,7 +48123,7 @@
         <v>83</v>
       </c>
       <c r="C2772">
-        <v>6840</v>
+        <v>6740</v>
       </c>
       <c r="D2772" t="s">
         <v>2774</v>
@@ -47849,7 +48137,7 @@
         <v>84</v>
       </c>
       <c r="C2773">
-        <v>6940</v>
+        <v>6800</v>
       </c>
       <c r="D2773" t="s">
         <v>2775</v>
@@ -47863,7 +48151,7 @@
         <v>85</v>
       </c>
       <c r="C2774">
-        <v>6980</v>
+        <v>6830</v>
       </c>
       <c r="D2774" t="s">
         <v>2776</v>
@@ -47877,7 +48165,7 @@
         <v>86</v>
       </c>
       <c r="C2775">
-        <v>6960</v>
+        <v>6810</v>
       </c>
       <c r="D2775" t="s">
         <v>2777</v>
@@ -47891,7 +48179,7 @@
         <v>87</v>
       </c>
       <c r="C2776">
-        <v>6930</v>
+        <v>6750</v>
       </c>
       <c r="D2776" t="s">
         <v>2778</v>
@@ -47905,7 +48193,7 @@
         <v>88</v>
       </c>
       <c r="C2777">
-        <v>6840</v>
+        <v>6670</v>
       </c>
       <c r="D2777" t="s">
         <v>2779</v>
@@ -47919,7 +48207,7 @@
         <v>89</v>
       </c>
       <c r="C2778">
-        <v>6680</v>
+        <v>6560</v>
       </c>
       <c r="D2778" t="s">
         <v>2780</v>
@@ -47933,7 +48221,7 @@
         <v>90</v>
       </c>
       <c r="C2779">
-        <v>6580</v>
+        <v>6440</v>
       </c>
       <c r="D2779" t="s">
         <v>2781</v>
@@ -47947,7 +48235,7 @@
         <v>91</v>
       </c>
       <c r="C2780">
-        <v>6440</v>
+        <v>6300</v>
       </c>
       <c r="D2780" t="s">
         <v>2782</v>
@@ -47961,7 +48249,7 @@
         <v>92</v>
       </c>
       <c r="C2781">
-        <v>6250</v>
+        <v>6150</v>
       </c>
       <c r="D2781" t="s">
         <v>2783</v>
@@ -47975,7 +48263,7 @@
         <v>93</v>
       </c>
       <c r="C2782">
-        <v>5980</v>
+        <v>5990</v>
       </c>
       <c r="D2782" t="s">
         <v>2784</v>
@@ -47989,7 +48277,7 @@
         <v>94</v>
       </c>
       <c r="C2783">
-        <v>5790</v>
+        <v>5860</v>
       </c>
       <c r="D2783" t="s">
         <v>2785</v>
@@ -48003,7 +48291,7 @@
         <v>95</v>
       </c>
       <c r="C2784">
-        <v>5710</v>
+        <v>5740</v>
       </c>
       <c r="D2784" t="s">
         <v>2786</v>
@@ -48017,7 +48305,7 @@
         <v>96</v>
       </c>
       <c r="C2785">
-        <v>5600</v>
+        <v>5630</v>
       </c>
       <c r="D2785" t="s">
         <v>2787</v>
@@ -48031,7 +48319,7 @@
         <v>1</v>
       </c>
       <c r="C2786">
-        <v>5520</v>
+        <v>5490</v>
       </c>
       <c r="D2786" t="s">
         <v>2788</v>
@@ -48045,7 +48333,7 @@
         <v>2</v>
       </c>
       <c r="C2787">
-        <v>5480</v>
+        <v>5450</v>
       </c>
       <c r="D2787" t="s">
         <v>2789</v>
@@ -48059,7 +48347,7 @@
         <v>3</v>
       </c>
       <c r="C2788">
-        <v>5410</v>
+        <v>5390</v>
       </c>
       <c r="D2788" t="s">
         <v>2790</v>
@@ -48073,7 +48361,7 @@
         <v>4</v>
       </c>
       <c r="C2789">
-        <v>5350</v>
+        <v>5310</v>
       </c>
       <c r="D2789" t="s">
         <v>2791</v>
@@ -48087,7 +48375,7 @@
         <v>5</v>
       </c>
       <c r="C2790">
-        <v>5310</v>
+        <v>5250</v>
       </c>
       <c r="D2790" t="s">
         <v>2792</v>
@@ -48101,7 +48389,7 @@
         <v>6</v>
       </c>
       <c r="C2791">
-        <v>5270</v>
+        <v>5210</v>
       </c>
       <c r="D2791" t="s">
         <v>2793</v>
@@ -48115,7 +48403,7 @@
         <v>7</v>
       </c>
       <c r="C2792">
-        <v>5230</v>
+        <v>5170</v>
       </c>
       <c r="D2792" t="s">
         <v>2794</v>
@@ -48129,7 +48417,7 @@
         <v>8</v>
       </c>
       <c r="C2793">
-        <v>5180</v>
+        <v>5130</v>
       </c>
       <c r="D2793" t="s">
         <v>2795</v>
@@ -48143,7 +48431,7 @@
         <v>9</v>
       </c>
       <c r="C2794">
-        <v>5130</v>
+        <v>5100</v>
       </c>
       <c r="D2794" t="s">
         <v>2796</v>
@@ -48157,7 +48445,7 @@
         <v>10</v>
       </c>
       <c r="C2795">
-        <v>5090</v>
+        <v>5080</v>
       </c>
       <c r="D2795" t="s">
         <v>2797</v>
@@ -48171,7 +48459,7 @@
         <v>11</v>
       </c>
       <c r="C2796">
-        <v>5060</v>
+        <v>5070</v>
       </c>
       <c r="D2796" t="s">
         <v>2798</v>
@@ -48199,7 +48487,7 @@
         <v>13</v>
       </c>
       <c r="C2798">
-        <v>5050</v>
+        <v>5070</v>
       </c>
       <c r="D2798" t="s">
         <v>2800</v>
@@ -48213,7 +48501,7 @@
         <v>14</v>
       </c>
       <c r="C2799">
-        <v>5050</v>
+        <v>5070</v>
       </c>
       <c r="D2799" t="s">
         <v>2801</v>
@@ -48227,7 +48515,7 @@
         <v>15</v>
       </c>
       <c r="C2800">
-        <v>5060</v>
+        <v>5070</v>
       </c>
       <c r="D2800" t="s">
         <v>2802</v>
@@ -48241,7 +48529,7 @@
         <v>16</v>
       </c>
       <c r="C2801">
-        <v>5060</v>
+        <v>5080</v>
       </c>
       <c r="D2801" t="s">
         <v>2803</v>
@@ -48255,7 +48543,7 @@
         <v>17</v>
       </c>
       <c r="C2802">
-        <v>5070</v>
+        <v>5080</v>
       </c>
       <c r="D2802" t="s">
         <v>2804</v>
@@ -48283,7 +48571,7 @@
         <v>19</v>
       </c>
       <c r="C2804">
-        <v>5090</v>
+        <v>5080</v>
       </c>
       <c r="D2804" t="s">
         <v>2806</v>
@@ -48297,7 +48585,7 @@
         <v>20</v>
       </c>
       <c r="C2805">
-        <v>5110</v>
+        <v>5100</v>
       </c>
       <c r="D2805" t="s">
         <v>2807</v>
@@ -48311,7 +48599,7 @@
         <v>21</v>
       </c>
       <c r="C2806">
-        <v>5150</v>
+        <v>5120</v>
       </c>
       <c r="D2806" t="s">
         <v>2808</v>
@@ -48325,7 +48613,7 @@
         <v>22</v>
       </c>
       <c r="C2807">
-        <v>5200</v>
+        <v>5160</v>
       </c>
       <c r="D2807" t="s">
         <v>2809</v>
@@ -48339,7 +48627,7 @@
         <v>23</v>
       </c>
       <c r="C2808">
-        <v>5260</v>
+        <v>5220</v>
       </c>
       <c r="D2808" t="s">
         <v>2810</v>
@@ -48353,7 +48641,7 @@
         <v>24</v>
       </c>
       <c r="C2809">
-        <v>5350</v>
+        <v>5290</v>
       </c>
       <c r="D2809" t="s">
         <v>2811</v>
@@ -48367,7 +48655,7 @@
         <v>25</v>
       </c>
       <c r="C2810">
-        <v>5440</v>
+        <v>5380</v>
       </c>
       <c r="D2810" t="s">
         <v>2812</v>
@@ -48381,7 +48669,7 @@
         <v>26</v>
       </c>
       <c r="C2811">
-        <v>5550</v>
+        <v>5480</v>
       </c>
       <c r="D2811" t="s">
         <v>2813</v>
@@ -48395,7 +48683,7 @@
         <v>27</v>
       </c>
       <c r="C2812">
-        <v>5660</v>
+        <v>5590</v>
       </c>
       <c r="D2812" t="s">
         <v>2814</v>
@@ -48409,7 +48697,7 @@
         <v>28</v>
       </c>
       <c r="C2813">
-        <v>5780</v>
+        <v>5710</v>
       </c>
       <c r="D2813" t="s">
         <v>2815</v>
@@ -48423,7 +48711,7 @@
         <v>29</v>
       </c>
       <c r="C2814">
-        <v>5890</v>
+        <v>5820</v>
       </c>
       <c r="D2814" t="s">
         <v>2816</v>
@@ -48437,7 +48725,7 @@
         <v>30</v>
       </c>
       <c r="C2815">
-        <v>5990</v>
+        <v>5920</v>
       </c>
       <c r="D2815" t="s">
         <v>2817</v>
@@ -48451,7 +48739,7 @@
         <v>31</v>
       </c>
       <c r="C2816">
-        <v>6070</v>
+        <v>6000</v>
       </c>
       <c r="D2816" t="s">
         <v>2818</v>
@@ -48465,7 +48753,7 @@
         <v>32</v>
       </c>
       <c r="C2817">
-        <v>6140</v>
+        <v>6060</v>
       </c>
       <c r="D2817" t="s">
         <v>2819</v>
@@ -48479,7 +48767,7 @@
         <v>33</v>
       </c>
       <c r="C2818">
-        <v>6190</v>
+        <v>6100</v>
       </c>
       <c r="D2818" t="s">
         <v>2820</v>
@@ -48493,7 +48781,7 @@
         <v>34</v>
       </c>
       <c r="C2819">
-        <v>6220</v>
+        <v>6100</v>
       </c>
       <c r="D2819" t="s">
         <v>2821</v>
@@ -48507,7 +48795,7 @@
         <v>35</v>
       </c>
       <c r="C2820">
-        <v>6220</v>
+        <v>6090</v>
       </c>
       <c r="D2820" t="s">
         <v>2822</v>
@@ -48521,7 +48809,7 @@
         <v>36</v>
       </c>
       <c r="C2821">
-        <v>6210</v>
+        <v>6060</v>
       </c>
       <c r="D2821" t="s">
         <v>2823</v>
@@ -48535,7 +48823,7 @@
         <v>37</v>
       </c>
       <c r="C2822">
-        <v>6170</v>
+        <v>6000</v>
       </c>
       <c r="D2822" t="s">
         <v>2824</v>
@@ -48549,7 +48837,7 @@
         <v>38</v>
       </c>
       <c r="C2823">
-        <v>6110</v>
+        <v>5930</v>
       </c>
       <c r="D2823" t="s">
         <v>2825</v>
@@ -48563,7 +48851,7 @@
         <v>39</v>
       </c>
       <c r="C2824">
-        <v>6040</v>
+        <v>5850</v>
       </c>
       <c r="D2824" t="s">
         <v>2826</v>
@@ -48577,7 +48865,7 @@
         <v>40</v>
       </c>
       <c r="C2825">
-        <v>5960</v>
+        <v>5770</v>
       </c>
       <c r="D2825" t="s">
         <v>2827</v>
@@ -48591,7 +48879,7 @@
         <v>41</v>
       </c>
       <c r="C2826">
-        <v>5880</v>
+        <v>5690</v>
       </c>
       <c r="D2826" t="s">
         <v>2828</v>
@@ -48605,7 +48893,7 @@
         <v>42</v>
       </c>
       <c r="C2827">
-        <v>5800</v>
+        <v>5620</v>
       </c>
       <c r="D2827" t="s">
         <v>2829</v>
@@ -48619,7 +48907,7 @@
         <v>43</v>
       </c>
       <c r="C2828">
-        <v>5720</v>
+        <v>5560</v>
       </c>
       <c r="D2828" t="s">
         <v>2830</v>
@@ -48633,7 +48921,7 @@
         <v>44</v>
       </c>
       <c r="C2829">
-        <v>5650</v>
+        <v>5510</v>
       </c>
       <c r="D2829" t="s">
         <v>2831</v>
@@ -48647,7 +48935,7 @@
         <v>45</v>
       </c>
       <c r="C2830">
-        <v>5590</v>
+        <v>5470</v>
       </c>
       <c r="D2830" t="s">
         <v>2832</v>
@@ -48661,7 +48949,7 @@
         <v>46</v>
       </c>
       <c r="C2831">
-        <v>5540</v>
+        <v>5440</v>
       </c>
       <c r="D2831" t="s">
         <v>2833</v>
@@ -48675,7 +48963,7 @@
         <v>47</v>
       </c>
       <c r="C2832">
-        <v>5490</v>
+        <v>5410</v>
       </c>
       <c r="D2832" t="s">
         <v>2834</v>
@@ -48689,7 +48977,7 @@
         <v>48</v>
       </c>
       <c r="C2833">
-        <v>5440</v>
+        <v>5390</v>
       </c>
       <c r="D2833" t="s">
         <v>2835</v>
@@ -48703,7 +48991,7 @@
         <v>49</v>
       </c>
       <c r="C2834">
-        <v>5400</v>
+        <v>5370</v>
       </c>
       <c r="D2834" t="s">
         <v>2836</v>
@@ -48717,7 +49005,7 @@
         <v>50</v>
       </c>
       <c r="C2835">
-        <v>5360</v>
+        <v>5350</v>
       </c>
       <c r="D2835" t="s">
         <v>2837</v>
@@ -48731,7 +49019,7 @@
         <v>51</v>
       </c>
       <c r="C2836">
-        <v>5320</v>
+        <v>5330</v>
       </c>
       <c r="D2836" t="s">
         <v>2838</v>
@@ -48745,7 +49033,7 @@
         <v>52</v>
       </c>
       <c r="C2837">
-        <v>5280</v>
+        <v>5310</v>
       </c>
       <c r="D2837" t="s">
         <v>2839</v>
@@ -48759,7 +49047,7 @@
         <v>53</v>
       </c>
       <c r="C2838">
-        <v>5240</v>
+        <v>5300</v>
       </c>
       <c r="D2838" t="s">
         <v>2840</v>
@@ -48773,7 +49061,7 @@
         <v>54</v>
       </c>
       <c r="C2839">
-        <v>5210</v>
+        <v>5290</v>
       </c>
       <c r="D2839" t="s">
         <v>2841</v>
@@ -48787,7 +49075,7 @@
         <v>55</v>
       </c>
       <c r="C2840">
-        <v>5190</v>
+        <v>5300</v>
       </c>
       <c r="D2840" t="s">
         <v>2842</v>
@@ -48801,7 +49089,7 @@
         <v>56</v>
       </c>
       <c r="C2841">
-        <v>5170</v>
+        <v>5300</v>
       </c>
       <c r="D2841" t="s">
         <v>2843</v>
@@ -48815,7 +49103,7 @@
         <v>57</v>
       </c>
       <c r="C2842">
-        <v>5170</v>
+        <v>5320</v>
       </c>
       <c r="D2842" t="s">
         <v>2844</v>
@@ -48829,7 +49117,7 @@
         <v>58</v>
       </c>
       <c r="C2843">
-        <v>5170</v>
+        <v>5340</v>
       </c>
       <c r="D2843" t="s">
         <v>2845</v>
@@ -48843,7 +49131,7 @@
         <v>59</v>
       </c>
       <c r="C2844">
-        <v>5180</v>
+        <v>5360</v>
       </c>
       <c r="D2844" t="s">
         <v>2846</v>
@@ -48857,7 +49145,7 @@
         <v>60</v>
       </c>
       <c r="C2845">
-        <v>5190</v>
+        <v>5380</v>
       </c>
       <c r="D2845" t="s">
         <v>2847</v>
@@ -48871,7 +49159,7 @@
         <v>61</v>
       </c>
       <c r="C2846">
-        <v>5210</v>
+        <v>5400</v>
       </c>
       <c r="D2846" t="s">
         <v>2848</v>
@@ -48885,7 +49173,7 @@
         <v>62</v>
       </c>
       <c r="C2847">
-        <v>5220</v>
+        <v>5420</v>
       </c>
       <c r="D2847" t="s">
         <v>2849</v>
@@ -48899,7 +49187,7 @@
         <v>63</v>
       </c>
       <c r="C2848">
-        <v>5240</v>
+        <v>5440</v>
       </c>
       <c r="D2848" t="s">
         <v>2850</v>
@@ -48913,7 +49201,7 @@
         <v>64</v>
       </c>
       <c r="C2849">
-        <v>5270</v>
+        <v>5460</v>
       </c>
       <c r="D2849" t="s">
         <v>2851</v>
@@ -48927,7 +49215,7 @@
         <v>65</v>
       </c>
       <c r="C2850">
-        <v>5310</v>
+        <v>5490</v>
       </c>
       <c r="D2850" t="s">
         <v>2852</v>
@@ -48941,7 +49229,7 @@
         <v>66</v>
       </c>
       <c r="C2851">
-        <v>5360</v>
+        <v>5520</v>
       </c>
       <c r="D2851" t="s">
         <v>2853</v>
@@ -48955,7 +49243,7 @@
         <v>67</v>
       </c>
       <c r="C2852">
-        <v>5430</v>
+        <v>5570</v>
       </c>
       <c r="D2852" t="s">
         <v>2854</v>
@@ -48969,7 +49257,7 @@
         <v>68</v>
       </c>
       <c r="C2853">
-        <v>5520</v>
+        <v>5630</v>
       </c>
       <c r="D2853" t="s">
         <v>2855</v>
@@ -48983,7 +49271,7 @@
         <v>69</v>
       </c>
       <c r="C2854">
-        <v>5610</v>
+        <v>5690</v>
       </c>
       <c r="D2854" t="s">
         <v>2856</v>
@@ -48997,7 +49285,7 @@
         <v>70</v>
       </c>
       <c r="C2855">
-        <v>5710</v>
+        <v>5750</v>
       </c>
       <c r="D2855" t="s">
         <v>2857</v>
@@ -49011,7 +49299,7 @@
         <v>71</v>
       </c>
       <c r="C2856">
-        <v>5800</v>
+        <v>5810</v>
       </c>
       <c r="D2856" t="s">
         <v>2858</v>
@@ -49025,7 +49313,7 @@
         <v>72</v>
       </c>
       <c r="C2857">
-        <v>5890</v>
+        <v>5870</v>
       </c>
       <c r="D2857" t="s">
         <v>2859</v>
@@ -49039,7 +49327,7 @@
         <v>73</v>
       </c>
       <c r="C2858">
-        <v>5980</v>
+        <v>5930</v>
       </c>
       <c r="D2858" t="s">
         <v>2860</v>
@@ -49053,7 +49341,7 @@
         <v>74</v>
       </c>
       <c r="C2859">
-        <v>6070</v>
+        <v>6000</v>
       </c>
       <c r="D2859" t="s">
         <v>2861</v>
@@ -49067,7 +49355,7 @@
         <v>75</v>
       </c>
       <c r="C2860">
-        <v>6180</v>
+        <v>6070</v>
       </c>
       <c r="D2860" t="s">
         <v>2862</v>
@@ -49081,7 +49369,7 @@
         <v>76</v>
       </c>
       <c r="C2861">
-        <v>6290</v>
+        <v>6170</v>
       </c>
       <c r="D2861" t="s">
         <v>2863</v>
@@ -49095,7 +49383,7 @@
         <v>77</v>
       </c>
       <c r="C2862">
-        <v>6410</v>
+        <v>6270</v>
       </c>
       <c r="D2862" t="s">
         <v>2864</v>
@@ -49109,7 +49397,7 @@
         <v>78</v>
       </c>
       <c r="C2863">
-        <v>6530</v>
+        <v>6380</v>
       </c>
       <c r="D2863" t="s">
         <v>2865</v>
@@ -49123,7 +49411,7 @@
         <v>79</v>
       </c>
       <c r="C2864">
-        <v>6630</v>
+        <v>6480</v>
       </c>
       <c r="D2864" t="s">
         <v>2866</v>
@@ -49137,7 +49425,7 @@
         <v>80</v>
       </c>
       <c r="C2865">
-        <v>6710</v>
+        <v>6570</v>
       </c>
       <c r="D2865" t="s">
         <v>2867</v>
@@ -49151,7 +49439,7 @@
         <v>81</v>
       </c>
       <c r="C2866">
-        <v>6800</v>
+        <v>6650</v>
       </c>
       <c r="D2866" t="s">
         <v>2868</v>
@@ -49165,7 +49453,7 @@
         <v>82</v>
       </c>
       <c r="C2867">
-        <v>6900</v>
+        <v>6740</v>
       </c>
       <c r="D2867" t="s">
         <v>2869</v>
@@ -49179,7 +49467,7 @@
         <v>83</v>
       </c>
       <c r="C2868">
-        <v>6990</v>
+        <v>6800</v>
       </c>
       <c r="D2868" t="s">
         <v>2870</v>
@@ -49193,7 +49481,7 @@
         <v>84</v>
       </c>
       <c r="C2869">
-        <v>7110</v>
+        <v>6850</v>
       </c>
       <c r="D2869" t="s">
         <v>2871</v>
@@ -49207,7 +49495,7 @@
         <v>85</v>
       </c>
       <c r="C2870">
-        <v>7160</v>
+        <v>6850</v>
       </c>
       <c r="D2870" t="s">
         <v>2872</v>
@@ -49221,7 +49509,7 @@
         <v>86</v>
       </c>
       <c r="C2871">
-        <v>7150</v>
+        <v>6850</v>
       </c>
       <c r="D2871" t="s">
         <v>2873</v>
@@ -49235,7 +49523,7 @@
         <v>87</v>
       </c>
       <c r="C2872">
-        <v>7110</v>
+        <v>6830</v>
       </c>
       <c r="D2872" t="s">
         <v>2874</v>
@@ -49249,7 +49537,7 @@
         <v>88</v>
       </c>
       <c r="C2873">
-        <v>6980</v>
+        <v>6750</v>
       </c>
       <c r="D2873" t="s">
         <v>2875</v>
@@ -49263,7 +49551,7 @@
         <v>89</v>
       </c>
       <c r="C2874">
-        <v>6790</v>
+        <v>6620</v>
       </c>
       <c r="D2874" t="s">
         <v>2876</v>
@@ -49277,7 +49565,7 @@
         <v>90</v>
       </c>
       <c r="C2875">
-        <v>6660</v>
+        <v>6530</v>
       </c>
       <c r="D2875" t="s">
         <v>2877</v>
@@ -49291,7 +49579,7 @@
         <v>91</v>
       </c>
       <c r="C2876">
-        <v>6510</v>
+        <v>6380</v>
       </c>
       <c r="D2876" t="s">
         <v>2878</v>
@@ -49305,7 +49593,7 @@
         <v>92</v>
       </c>
       <c r="C2877">
-        <v>6330</v>
+        <v>6230</v>
       </c>
       <c r="D2877" t="s">
         <v>2879</v>
@@ -49319,7 +49607,7 @@
         <v>93</v>
       </c>
       <c r="C2878">
-        <v>6050</v>
+        <v>6030</v>
       </c>
       <c r="D2878" t="s">
         <v>2880</v>
@@ -49333,7 +49621,7 @@
         <v>94</v>
       </c>
       <c r="C2879">
-        <v>5830</v>
+        <v>5870</v>
       </c>
       <c r="D2879" t="s">
         <v>2881</v>
@@ -49347,7 +49635,7 @@
         <v>95</v>
       </c>
       <c r="C2880">
-        <v>5760</v>
+        <v>5780</v>
       </c>
       <c r="D2880" t="s">
         <v>2882</v>
@@ -49361,10 +49649,1354 @@
         <v>96</v>
       </c>
       <c r="C2881">
-        <v>5650</v>
+        <v>5670</v>
       </c>
       <c r="D2881" t="s">
         <v>2883</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:4">
+      <c r="A2882" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2882">
+        <v>1</v>
+      </c>
+      <c r="C2882">
+        <v>5510</v>
+      </c>
+      <c r="D2882" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:4">
+      <c r="A2883" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2883">
+        <v>2</v>
+      </c>
+      <c r="C2883">
+        <v>5470</v>
+      </c>
+      <c r="D2883" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:4">
+      <c r="A2884" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2884">
+        <v>3</v>
+      </c>
+      <c r="C2884">
+        <v>5410</v>
+      </c>
+      <c r="D2884" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:4">
+      <c r="A2885" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2885">
+        <v>4</v>
+      </c>
+      <c r="C2885">
+        <v>5320</v>
+      </c>
+      <c r="D2885" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:4">
+      <c r="A2886" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2886">
+        <v>5</v>
+      </c>
+      <c r="C2886">
+        <v>5230</v>
+      </c>
+      <c r="D2886" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:4">
+      <c r="A2887" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2887">
+        <v>6</v>
+      </c>
+      <c r="C2887">
+        <v>5160</v>
+      </c>
+      <c r="D2887" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:4">
+      <c r="A2888" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2888">
+        <v>7</v>
+      </c>
+      <c r="C2888">
+        <v>5100</v>
+      </c>
+      <c r="D2888" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:4">
+      <c r="A2889" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2889">
+        <v>8</v>
+      </c>
+      <c r="C2889">
+        <v>5060</v>
+      </c>
+      <c r="D2889" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:4">
+      <c r="A2890" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2890">
+        <v>9</v>
+      </c>
+      <c r="C2890">
+        <v>5020</v>
+      </c>
+      <c r="D2890" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:4">
+      <c r="A2891" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2891">
+        <v>10</v>
+      </c>
+      <c r="C2891">
+        <v>4990</v>
+      </c>
+      <c r="D2891" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:4">
+      <c r="A2892" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2892">
+        <v>11</v>
+      </c>
+      <c r="C2892">
+        <v>4980</v>
+      </c>
+      <c r="D2892" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:4">
+      <c r="A2893" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2893">
+        <v>12</v>
+      </c>
+      <c r="C2893">
+        <v>4950</v>
+      </c>
+      <c r="D2893" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:4">
+      <c r="A2894" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2894">
+        <v>13</v>
+      </c>
+      <c r="C2894">
+        <v>4970</v>
+      </c>
+      <c r="D2894" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:4">
+      <c r="A2895" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2895">
+        <v>14</v>
+      </c>
+      <c r="C2895">
+        <v>4970</v>
+      </c>
+      <c r="D2895" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:4">
+      <c r="A2896" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2896">
+        <v>15</v>
+      </c>
+      <c r="C2896">
+        <v>4970</v>
+      </c>
+      <c r="D2896" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:4">
+      <c r="A2897" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2897">
+        <v>16</v>
+      </c>
+      <c r="C2897">
+        <v>4970</v>
+      </c>
+      <c r="D2897" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:4">
+      <c r="A2898" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2898">
+        <v>17</v>
+      </c>
+      <c r="C2898">
+        <v>4970</v>
+      </c>
+      <c r="D2898" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:4">
+      <c r="A2899" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2899">
+        <v>18</v>
+      </c>
+      <c r="C2899">
+        <v>4970</v>
+      </c>
+      <c r="D2899" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:4">
+      <c r="A2900" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2900">
+        <v>19</v>
+      </c>
+      <c r="C2900">
+        <v>4970</v>
+      </c>
+      <c r="D2900" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:4">
+      <c r="A2901" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2901">
+        <v>20</v>
+      </c>
+      <c r="C2901">
+        <v>4970</v>
+      </c>
+      <c r="D2901" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:4">
+      <c r="A2902" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2902">
+        <v>21</v>
+      </c>
+      <c r="C2902">
+        <v>4980</v>
+      </c>
+      <c r="D2902" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:4">
+      <c r="A2903" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2903">
+        <v>22</v>
+      </c>
+      <c r="C2903">
+        <v>5000</v>
+      </c>
+      <c r="D2903" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:4">
+      <c r="A2904" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2904">
+        <v>23</v>
+      </c>
+      <c r="C2904">
+        <v>5020</v>
+      </c>
+      <c r="D2904" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:4">
+      <c r="A2905" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2905">
+        <v>24</v>
+      </c>
+      <c r="C2905">
+        <v>5040</v>
+      </c>
+      <c r="D2905" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:4">
+      <c r="A2906" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2906">
+        <v>25</v>
+      </c>
+      <c r="C2906">
+        <v>5070</v>
+      </c>
+      <c r="D2906" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:4">
+      <c r="A2907" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2907">
+        <v>26</v>
+      </c>
+      <c r="C2907">
+        <v>5100</v>
+      </c>
+      <c r="D2907" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:4">
+      <c r="A2908" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2908">
+        <v>27</v>
+      </c>
+      <c r="C2908">
+        <v>5130</v>
+      </c>
+      <c r="D2908" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:4">
+      <c r="A2909" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2909">
+        <v>28</v>
+      </c>
+      <c r="C2909">
+        <v>5160</v>
+      </c>
+      <c r="D2909" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:4">
+      <c r="A2910" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2910">
+        <v>29</v>
+      </c>
+      <c r="C2910">
+        <v>5170</v>
+      </c>
+      <c r="D2910" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:4">
+      <c r="A2911" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2911">
+        <v>30</v>
+      </c>
+      <c r="C2911">
+        <v>5200</v>
+      </c>
+      <c r="D2911" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:4">
+      <c r="A2912" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2912">
+        <v>31</v>
+      </c>
+      <c r="C2912">
+        <v>5170</v>
+      </c>
+      <c r="D2912" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:4">
+      <c r="A2913" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2913">
+        <v>32</v>
+      </c>
+      <c r="C2913">
+        <v>5160</v>
+      </c>
+      <c r="D2913" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:4">
+      <c r="A2914" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2914">
+        <v>33</v>
+      </c>
+      <c r="C2914">
+        <v>5130</v>
+      </c>
+      <c r="D2914" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:4">
+      <c r="A2915" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2915">
+        <v>34</v>
+      </c>
+      <c r="C2915">
+        <v>5090</v>
+      </c>
+      <c r="D2915" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:4">
+      <c r="A2916" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2916">
+        <v>35</v>
+      </c>
+      <c r="C2916">
+        <v>5030</v>
+      </c>
+      <c r="D2916" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:4">
+      <c r="A2917" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2917">
+        <v>36</v>
+      </c>
+      <c r="C2917">
+        <v>4970</v>
+      </c>
+      <c r="D2917" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:4">
+      <c r="A2918" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2918">
+        <v>37</v>
+      </c>
+      <c r="C2918">
+        <v>4910</v>
+      </c>
+      <c r="D2918" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:4">
+      <c r="A2919" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2919">
+        <v>38</v>
+      </c>
+      <c r="C2919">
+        <v>4840</v>
+      </c>
+      <c r="D2919" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:4">
+      <c r="A2920" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2920">
+        <v>39</v>
+      </c>
+      <c r="C2920">
+        <v>4780</v>
+      </c>
+      <c r="D2920" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:4">
+      <c r="A2921" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2921">
+        <v>40</v>
+      </c>
+      <c r="C2921">
+        <v>4720</v>
+      </c>
+      <c r="D2921" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:4">
+      <c r="A2922" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2922">
+        <v>41</v>
+      </c>
+      <c r="C2922">
+        <v>4670</v>
+      </c>
+      <c r="D2922" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:4">
+      <c r="A2923" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2923">
+        <v>42</v>
+      </c>
+      <c r="C2923">
+        <v>4620</v>
+      </c>
+      <c r="D2923" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:4">
+      <c r="A2924" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2924">
+        <v>43</v>
+      </c>
+      <c r="C2924">
+        <v>4580</v>
+      </c>
+      <c r="D2924" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:4">
+      <c r="A2925" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2925">
+        <v>44</v>
+      </c>
+      <c r="C2925">
+        <v>4560</v>
+      </c>
+      <c r="D2925" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:4">
+      <c r="A2926" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2926">
+        <v>45</v>
+      </c>
+      <c r="C2926">
+        <v>4530</v>
+      </c>
+      <c r="D2926" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:4">
+      <c r="A2927" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2927">
+        <v>46</v>
+      </c>
+      <c r="C2927">
+        <v>4520</v>
+      </c>
+      <c r="D2927" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:4">
+      <c r="A2928" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2928">
+        <v>47</v>
+      </c>
+      <c r="C2928">
+        <v>4500</v>
+      </c>
+      <c r="D2928" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:4">
+      <c r="A2929" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2929">
+        <v>48</v>
+      </c>
+      <c r="C2929">
+        <v>4490</v>
+      </c>
+      <c r="D2929" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:4">
+      <c r="A2930" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2930">
+        <v>49</v>
+      </c>
+      <c r="C2930">
+        <v>4470</v>
+      </c>
+      <c r="D2930" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:4">
+      <c r="A2931" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2931">
+        <v>50</v>
+      </c>
+      <c r="C2931">
+        <v>4460</v>
+      </c>
+      <c r="D2931" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:4">
+      <c r="A2932" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2932">
+        <v>51</v>
+      </c>
+      <c r="C2932">
+        <v>4450</v>
+      </c>
+      <c r="D2932" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:4">
+      <c r="A2933" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2933">
+        <v>52</v>
+      </c>
+      <c r="C2933">
+        <v>4430</v>
+      </c>
+      <c r="D2933" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:4">
+      <c r="A2934" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2934">
+        <v>53</v>
+      </c>
+      <c r="C2934">
+        <v>4420</v>
+      </c>
+      <c r="D2934" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:4">
+      <c r="A2935" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2935">
+        <v>54</v>
+      </c>
+      <c r="C2935">
+        <v>4420</v>
+      </c>
+      <c r="D2935" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:4">
+      <c r="A2936" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2936">
+        <v>55</v>
+      </c>
+      <c r="C2936">
+        <v>4420</v>
+      </c>
+      <c r="D2936" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:4">
+      <c r="A2937" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2937">
+        <v>56</v>
+      </c>
+      <c r="C2937">
+        <v>4420</v>
+      </c>
+      <c r="D2937" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:4">
+      <c r="A2938" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2938">
+        <v>57</v>
+      </c>
+      <c r="C2938">
+        <v>4430</v>
+      </c>
+      <c r="D2938" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:4">
+      <c r="A2939" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2939">
+        <v>58</v>
+      </c>
+      <c r="C2939">
+        <v>4450</v>
+      </c>
+      <c r="D2939" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:4">
+      <c r="A2940" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2940">
+        <v>59</v>
+      </c>
+      <c r="C2940">
+        <v>4460</v>
+      </c>
+      <c r="D2940" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:4">
+      <c r="A2941" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2941">
+        <v>60</v>
+      </c>
+      <c r="C2941">
+        <v>4480</v>
+      </c>
+      <c r="D2941" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:4">
+      <c r="A2942" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2942">
+        <v>61</v>
+      </c>
+      <c r="C2942">
+        <v>4500</v>
+      </c>
+      <c r="D2942" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:4">
+      <c r="A2943" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2943">
+        <v>62</v>
+      </c>
+      <c r="C2943">
+        <v>4520</v>
+      </c>
+      <c r="D2943" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:4">
+      <c r="A2944" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2944">
+        <v>63</v>
+      </c>
+      <c r="C2944">
+        <v>4550</v>
+      </c>
+      <c r="D2944" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:4">
+      <c r="A2945" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2945">
+        <v>64</v>
+      </c>
+      <c r="C2945">
+        <v>4580</v>
+      </c>
+      <c r="D2945" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:4">
+      <c r="A2946" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2946">
+        <v>65</v>
+      </c>
+      <c r="C2946">
+        <v>4630</v>
+      </c>
+      <c r="D2946" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:4">
+      <c r="A2947" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2947">
+        <v>66</v>
+      </c>
+      <c r="C2947">
+        <v>4680</v>
+      </c>
+      <c r="D2947" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:4">
+      <c r="A2948" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2948">
+        <v>67</v>
+      </c>
+      <c r="C2948">
+        <v>4750</v>
+      </c>
+      <c r="D2948" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:4">
+      <c r="A2949" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2949">
+        <v>68</v>
+      </c>
+      <c r="C2949">
+        <v>4830</v>
+      </c>
+      <c r="D2949" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:4">
+      <c r="A2950" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2950">
+        <v>69</v>
+      </c>
+      <c r="C2950">
+        <v>4910</v>
+      </c>
+      <c r="D2950" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:4">
+      <c r="A2951" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2951">
+        <v>70</v>
+      </c>
+      <c r="C2951">
+        <v>4990</v>
+      </c>
+      <c r="D2951" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:4">
+      <c r="A2952" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2952">
+        <v>71</v>
+      </c>
+      <c r="C2952">
+        <v>5060</v>
+      </c>
+      <c r="D2952" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:4">
+      <c r="A2953" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2953">
+        <v>72</v>
+      </c>
+      <c r="C2953">
+        <v>5140</v>
+      </c>
+      <c r="D2953" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:4">
+      <c r="A2954" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2954">
+        <v>73</v>
+      </c>
+      <c r="C2954">
+        <v>5210</v>
+      </c>
+      <c r="D2954" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:4">
+      <c r="A2955" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2955">
+        <v>74</v>
+      </c>
+      <c r="C2955">
+        <v>5290</v>
+      </c>
+      <c r="D2955" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:4">
+      <c r="A2956" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2956">
+        <v>75</v>
+      </c>
+      <c r="C2956">
+        <v>5390</v>
+      </c>
+      <c r="D2956" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:4">
+      <c r="A2957" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2957">
+        <v>76</v>
+      </c>
+      <c r="C2957">
+        <v>5490</v>
+      </c>
+      <c r="D2957" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:4">
+      <c r="A2958" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2958">
+        <v>77</v>
+      </c>
+      <c r="C2958">
+        <v>5610</v>
+      </c>
+      <c r="D2958" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:4">
+      <c r="A2959" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2959">
+        <v>78</v>
+      </c>
+      <c r="C2959">
+        <v>5720</v>
+      </c>
+      <c r="D2959" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:4">
+      <c r="A2960" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2960">
+        <v>79</v>
+      </c>
+      <c r="C2960">
+        <v>5830</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:4">
+      <c r="A2961" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2961">
+        <v>80</v>
+      </c>
+      <c r="C2961">
+        <v>5910</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:4">
+      <c r="A2962" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2962">
+        <v>81</v>
+      </c>
+      <c r="C2962">
+        <v>5990</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:4">
+      <c r="A2963" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2963">
+        <v>82</v>
+      </c>
+      <c r="C2963">
+        <v>6080</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:4">
+      <c r="A2964" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2964">
+        <v>83</v>
+      </c>
+      <c r="C2964">
+        <v>6150</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:4">
+      <c r="A2965" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2965">
+        <v>84</v>
+      </c>
+      <c r="C2965">
+        <v>6230</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:4">
+      <c r="A2966" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2966">
+        <v>85</v>
+      </c>
+      <c r="C2966">
+        <v>6250</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:4">
+      <c r="A2967" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2967">
+        <v>86</v>
+      </c>
+      <c r="C2967">
+        <v>6240</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:4">
+      <c r="A2968" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2968">
+        <v>87</v>
+      </c>
+      <c r="C2968">
+        <v>6240</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:4">
+      <c r="A2969" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2969">
+        <v>88</v>
+      </c>
+      <c r="C2969">
+        <v>6210</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:4">
+      <c r="A2970" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2970">
+        <v>89</v>
+      </c>
+      <c r="C2970">
+        <v>6120</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:4">
+      <c r="A2971" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2971">
+        <v>90</v>
+      </c>
+      <c r="C2971">
+        <v>6060</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:4">
+      <c r="A2972" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2972">
+        <v>91</v>
+      </c>
+      <c r="C2972">
+        <v>5940</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:4">
+      <c r="A2973" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2973">
+        <v>92</v>
+      </c>
+      <c r="C2973">
+        <v>5800</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:4">
+      <c r="A2974" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2974">
+        <v>93</v>
+      </c>
+      <c r="C2974">
+        <v>5650</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:4">
+      <c r="A2975" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2975">
+        <v>94</v>
+      </c>
+      <c r="C2975">
+        <v>5530</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:4">
+      <c r="A2976" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2976">
+        <v>95</v>
+      </c>
+      <c r="C2976">
+        <v>5420</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:4">
+      <c r="A2977" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2977">
+        <v>96</v>
+      </c>
+      <c r="C2977">
+        <v>5320</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>2979</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2025.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2025.xlsx
@@ -42943,7 +42943,7 @@
         <v>1</v>
       </c>
       <c r="C2402">
-        <v>6500</v>
+        <v>6480</v>
       </c>
       <c r="D2402" t="s">
         <v>2404</v>
@@ -42957,7 +42957,7 @@
         <v>2</v>
       </c>
       <c r="C2403">
-        <v>6450</v>
+        <v>6400</v>
       </c>
       <c r="D2403" t="s">
         <v>2405</v>
@@ -42971,7 +42971,7 @@
         <v>3</v>
       </c>
       <c r="C2404">
-        <v>6390</v>
+        <v>6330</v>
       </c>
       <c r="D2404" t="s">
         <v>2406</v>
@@ -42985,7 +42985,7 @@
         <v>4</v>
       </c>
       <c r="C2405">
-        <v>6290</v>
+        <v>6250</v>
       </c>
       <c r="D2405" t="s">
         <v>2407</v>
@@ -42999,7 +42999,7 @@
         <v>5</v>
       </c>
       <c r="C2406">
-        <v>6190</v>
+        <v>6170</v>
       </c>
       <c r="D2406" t="s">
         <v>2408</v>
@@ -43013,7 +43013,7 @@
         <v>6</v>
       </c>
       <c r="C2407">
-        <v>6090</v>
+        <v>6100</v>
       </c>
       <c r="D2407" t="s">
         <v>2409</v>
@@ -43041,7 +43041,7 @@
         <v>8</v>
       </c>
       <c r="C2409">
-        <v>5960</v>
+        <v>5970</v>
       </c>
       <c r="D2409" t="s">
         <v>2411</v>
@@ -43055,7 +43055,7 @@
         <v>9</v>
       </c>
       <c r="C2410">
-        <v>5910</v>
+        <v>5930</v>
       </c>
       <c r="D2410" t="s">
         <v>2412</v>
@@ -43069,7 +43069,7 @@
         <v>10</v>
       </c>
       <c r="C2411">
-        <v>5880</v>
+        <v>5900</v>
       </c>
       <c r="D2411" t="s">
         <v>2413</v>
@@ -43111,7 +43111,7 @@
         <v>13</v>
       </c>
       <c r="C2414">
-        <v>5820</v>
+        <v>5810</v>
       </c>
       <c r="D2414" t="s">
         <v>2416</v>
@@ -43125,7 +43125,7 @@
         <v>14</v>
       </c>
       <c r="C2415">
-        <v>5810</v>
+        <v>5790</v>
       </c>
       <c r="D2415" t="s">
         <v>2417</v>
@@ -43139,7 +43139,7 @@
         <v>15</v>
       </c>
       <c r="C2416">
-        <v>5790</v>
+        <v>5770</v>
       </c>
       <c r="D2416" t="s">
         <v>2418</v>
@@ -43153,7 +43153,7 @@
         <v>16</v>
       </c>
       <c r="C2417">
-        <v>5780</v>
+        <v>5750</v>
       </c>
       <c r="D2417" t="s">
         <v>2419</v>
@@ -43167,7 +43167,7 @@
         <v>17</v>
       </c>
       <c r="C2418">
-        <v>5770</v>
+        <v>5740</v>
       </c>
       <c r="D2418" t="s">
         <v>2420</v>
@@ -43181,7 +43181,7 @@
         <v>18</v>
       </c>
       <c r="C2419">
-        <v>5740</v>
+        <v>5730</v>
       </c>
       <c r="D2419" t="s">
         <v>2421</v>
@@ -43195,7 +43195,7 @@
         <v>19</v>
       </c>
       <c r="C2420">
-        <v>5700</v>
+        <v>5720</v>
       </c>
       <c r="D2420" t="s">
         <v>2422</v>
@@ -43209,7 +43209,7 @@
         <v>20</v>
       </c>
       <c r="C2421">
-        <v>5720</v>
+        <v>5710</v>
       </c>
       <c r="D2421" t="s">
         <v>2423</v>
@@ -43223,7 +43223,7 @@
         <v>21</v>
       </c>
       <c r="C2422">
-        <v>5720</v>
+        <v>5710</v>
       </c>
       <c r="D2422" t="s">
         <v>2424</v>
@@ -43237,7 +43237,7 @@
         <v>22</v>
       </c>
       <c r="C2423">
-        <v>5740</v>
+        <v>5700</v>
       </c>
       <c r="D2423" t="s">
         <v>2425</v>
@@ -43251,7 +43251,7 @@
         <v>23</v>
       </c>
       <c r="C2424">
-        <v>5740</v>
+        <v>5680</v>
       </c>
       <c r="D2424" t="s">
         <v>2426</v>
@@ -43265,7 +43265,7 @@
         <v>24</v>
       </c>
       <c r="C2425">
-        <v>5730</v>
+        <v>5670</v>
       </c>
       <c r="D2425" t="s">
         <v>2427</v>
@@ -43279,7 +43279,7 @@
         <v>25</v>
       </c>
       <c r="C2426">
-        <v>5730</v>
+        <v>5660</v>
       </c>
       <c r="D2426" t="s">
         <v>2428</v>
@@ -43293,7 +43293,7 @@
         <v>26</v>
       </c>
       <c r="C2427">
-        <v>5720</v>
+        <v>5660</v>
       </c>
       <c r="D2427" t="s">
         <v>2429</v>
@@ -43307,7 +43307,7 @@
         <v>27</v>
       </c>
       <c r="C2428">
-        <v>5730</v>
+        <v>5660</v>
       </c>
       <c r="D2428" t="s">
         <v>2430</v>
@@ -43321,7 +43321,7 @@
         <v>28</v>
       </c>
       <c r="C2429">
-        <v>5730</v>
+        <v>5670</v>
       </c>
       <c r="D2429" t="s">
         <v>2431</v>
@@ -43335,7 +43335,7 @@
         <v>29</v>
       </c>
       <c r="C2430">
-        <v>5740</v>
+        <v>5690</v>
       </c>
       <c r="D2430" t="s">
         <v>2432</v>
@@ -43349,7 +43349,7 @@
         <v>30</v>
       </c>
       <c r="C2431">
-        <v>5760</v>
+        <v>5710</v>
       </c>
       <c r="D2431" t="s">
         <v>2433</v>
@@ -43363,7 +43363,7 @@
         <v>31</v>
       </c>
       <c r="C2432">
-        <v>5770</v>
+        <v>5730</v>
       </c>
       <c r="D2432" t="s">
         <v>2434</v>
@@ -43377,7 +43377,7 @@
         <v>32</v>
       </c>
       <c r="C2433">
-        <v>5790</v>
+        <v>5750</v>
       </c>
       <c r="D2433" t="s">
         <v>2435</v>
@@ -43391,7 +43391,7 @@
         <v>33</v>
       </c>
       <c r="C2434">
-        <v>5800</v>
+        <v>5780</v>
       </c>
       <c r="D2434" t="s">
         <v>2436</v>
@@ -43419,7 +43419,7 @@
         <v>35</v>
       </c>
       <c r="C2436">
-        <v>5800</v>
+        <v>5810</v>
       </c>
       <c r="D2436" t="s">
         <v>2438</v>
@@ -43433,7 +43433,7 @@
         <v>36</v>
       </c>
       <c r="C2437">
-        <v>5780</v>
+        <v>5800</v>
       </c>
       <c r="D2437" t="s">
         <v>2439</v>
@@ -43447,7 +43447,7 @@
         <v>37</v>
       </c>
       <c r="C2438">
-        <v>5760</v>
+        <v>5780</v>
       </c>
       <c r="D2438" t="s">
         <v>2440</v>
@@ -43461,7 +43461,7 @@
         <v>38</v>
       </c>
       <c r="C2439">
-        <v>5730</v>
+        <v>5760</v>
       </c>
       <c r="D2439" t="s">
         <v>2441</v>
@@ -43475,7 +43475,7 @@
         <v>39</v>
       </c>
       <c r="C2440">
-        <v>5700</v>
+        <v>5750</v>
       </c>
       <c r="D2440" t="s">
         <v>2442</v>
@@ -43489,7 +43489,7 @@
         <v>40</v>
       </c>
       <c r="C2441">
-        <v>5660</v>
+        <v>5730</v>
       </c>
       <c r="D2441" t="s">
         <v>2443</v>
@@ -43503,7 +43503,7 @@
         <v>41</v>
       </c>
       <c r="C2442">
-        <v>5630</v>
+        <v>5720</v>
       </c>
       <c r="D2442" t="s">
         <v>2444</v>
@@ -43517,7 +43517,7 @@
         <v>42</v>
       </c>
       <c r="C2443">
-        <v>5610</v>
+        <v>5720</v>
       </c>
       <c r="D2443" t="s">
         <v>2445</v>
@@ -43531,7 +43531,7 @@
         <v>43</v>
       </c>
       <c r="C2444">
-        <v>5590</v>
+        <v>5720</v>
       </c>
       <c r="D2444" t="s">
         <v>2446</v>
@@ -43545,7 +43545,7 @@
         <v>44</v>
       </c>
       <c r="C2445">
-        <v>5590</v>
+        <v>5730</v>
       </c>
       <c r="D2445" t="s">
         <v>2447</v>
@@ -43559,7 +43559,7 @@
         <v>45</v>
       </c>
       <c r="C2446">
-        <v>5590</v>
+        <v>5750</v>
       </c>
       <c r="D2446" t="s">
         <v>2448</v>
@@ -43573,7 +43573,7 @@
         <v>46</v>
       </c>
       <c r="C2447">
-        <v>5600</v>
+        <v>5760</v>
       </c>
       <c r="D2447" t="s">
         <v>2449</v>
@@ -43587,7 +43587,7 @@
         <v>47</v>
       </c>
       <c r="C2448">
-        <v>5610</v>
+        <v>5780</v>
       </c>
       <c r="D2448" t="s">
         <v>2450</v>
@@ -43601,7 +43601,7 @@
         <v>48</v>
       </c>
       <c r="C2449">
-        <v>5630</v>
+        <v>5800</v>
       </c>
       <c r="D2449" t="s">
         <v>2451</v>
@@ -43615,7 +43615,7 @@
         <v>49</v>
       </c>
       <c r="C2450">
-        <v>5640</v>
+        <v>5810</v>
       </c>
       <c r="D2450" t="s">
         <v>2452</v>
@@ -43629,7 +43629,7 @@
         <v>50</v>
       </c>
       <c r="C2451">
-        <v>5660</v>
+        <v>5820</v>
       </c>
       <c r="D2451" t="s">
         <v>2453</v>
@@ -43643,7 +43643,7 @@
         <v>51</v>
       </c>
       <c r="C2452">
-        <v>5670</v>
+        <v>5820</v>
       </c>
       <c r="D2452" t="s">
         <v>2454</v>
@@ -43657,7 +43657,7 @@
         <v>52</v>
       </c>
       <c r="C2453">
-        <v>5690</v>
+        <v>5820</v>
       </c>
       <c r="D2453" t="s">
         <v>2455</v>
@@ -43671,7 +43671,7 @@
         <v>53</v>
       </c>
       <c r="C2454">
-        <v>5710</v>
+        <v>5820</v>
       </c>
       <c r="D2454" t="s">
         <v>2456</v>
@@ -43685,7 +43685,7 @@
         <v>54</v>
       </c>
       <c r="C2455">
-        <v>5730</v>
+        <v>5820</v>
       </c>
       <c r="D2455" t="s">
         <v>2457</v>
@@ -43699,7 +43699,7 @@
         <v>55</v>
       </c>
       <c r="C2456">
-        <v>5760</v>
+        <v>5830</v>
       </c>
       <c r="D2456" t="s">
         <v>2458</v>
@@ -43713,7 +43713,7 @@
         <v>56</v>
       </c>
       <c r="C2457">
-        <v>5800</v>
+        <v>5840</v>
       </c>
       <c r="D2457" t="s">
         <v>2459</v>
@@ -43727,7 +43727,7 @@
         <v>57</v>
       </c>
       <c r="C2458">
-        <v>5840</v>
+        <v>5860</v>
       </c>
       <c r="D2458" t="s">
         <v>2460</v>
@@ -43741,7 +43741,7 @@
         <v>58</v>
       </c>
       <c r="C2459">
-        <v>5890</v>
+        <v>5880</v>
       </c>
       <c r="D2459" t="s">
         <v>2461</v>
@@ -43755,7 +43755,7 @@
         <v>59</v>
       </c>
       <c r="C2460">
-        <v>5930</v>
+        <v>5910</v>
       </c>
       <c r="D2460" t="s">
         <v>2462</v>
@@ -43769,7 +43769,7 @@
         <v>60</v>
       </c>
       <c r="C2461">
-        <v>5970</v>
+        <v>5930</v>
       </c>
       <c r="D2461" t="s">
         <v>2463</v>
@@ -43783,7 +43783,7 @@
         <v>61</v>
       </c>
       <c r="C2462">
-        <v>6010</v>
+        <v>5960</v>
       </c>
       <c r="D2462" t="s">
         <v>2464</v>
@@ -43797,7 +43797,7 @@
         <v>62</v>
       </c>
       <c r="C2463">
-        <v>6050</v>
+        <v>6000</v>
       </c>
       <c r="D2463" t="s">
         <v>2465</v>
@@ -43811,7 +43811,7 @@
         <v>63</v>
       </c>
       <c r="C2464">
-        <v>6090</v>
+        <v>6040</v>
       </c>
       <c r="D2464" t="s">
         <v>2466</v>
@@ -43825,7 +43825,7 @@
         <v>64</v>
       </c>
       <c r="C2465">
-        <v>6130</v>
+        <v>6090</v>
       </c>
       <c r="D2465" t="s">
         <v>2467</v>
@@ -43839,7 +43839,7 @@
         <v>65</v>
       </c>
       <c r="C2466">
-        <v>6190</v>
+        <v>6160</v>
       </c>
       <c r="D2466" t="s">
         <v>2468</v>
@@ -43881,7 +43881,7 @@
         <v>68</v>
       </c>
       <c r="C2469">
-        <v>6420</v>
+        <v>6440</v>
       </c>
       <c r="D2469" t="s">
         <v>2471</v>
@@ -43895,7 +43895,7 @@
         <v>69</v>
       </c>
       <c r="C2470">
-        <v>6500</v>
+        <v>6540</v>
       </c>
       <c r="D2470" t="s">
         <v>2472</v>
@@ -43909,7 +43909,7 @@
         <v>70</v>
       </c>
       <c r="C2471">
-        <v>6590</v>
+        <v>6640</v>
       </c>
       <c r="D2471" t="s">
         <v>2473</v>
@@ -43923,7 +43923,7 @@
         <v>71</v>
       </c>
       <c r="C2472">
-        <v>6670</v>
+        <v>6730</v>
       </c>
       <c r="D2472" t="s">
         <v>2474</v>
@@ -43937,7 +43937,7 @@
         <v>72</v>
       </c>
       <c r="C2473">
-        <v>6750</v>
+        <v>6830</v>
       </c>
       <c r="D2473" t="s">
         <v>2475</v>
@@ -43951,7 +43951,7 @@
         <v>73</v>
       </c>
       <c r="C2474">
-        <v>6830</v>
+        <v>6920</v>
       </c>
       <c r="D2474" t="s">
         <v>2476</v>
@@ -43965,7 +43965,7 @@
         <v>74</v>
       </c>
       <c r="C2475">
-        <v>6930</v>
+        <v>7000</v>
       </c>
       <c r="D2475" t="s">
         <v>2477</v>
@@ -43979,7 +43979,7 @@
         <v>75</v>
       </c>
       <c r="C2476">
-        <v>7050</v>
+        <v>7100</v>
       </c>
       <c r="D2476" t="s">
         <v>2478</v>
@@ -43993,7 +43993,7 @@
         <v>76</v>
       </c>
       <c r="C2477">
-        <v>7190</v>
+        <v>7200</v>
       </c>
       <c r="D2477" t="s">
         <v>2479</v>
@@ -44007,7 +44007,7 @@
         <v>77</v>
       </c>
       <c r="C2478">
-        <v>7340</v>
+        <v>7300</v>
       </c>
       <c r="D2478" t="s">
         <v>2480</v>
@@ -44021,7 +44021,7 @@
         <v>78</v>
       </c>
       <c r="C2479">
-        <v>7470</v>
+        <v>7390</v>
       </c>
       <c r="D2479" t="s">
         <v>2481</v>
@@ -44035,7 +44035,7 @@
         <v>79</v>
       </c>
       <c r="C2480">
-        <v>7560</v>
+        <v>7460</v>
       </c>
       <c r="D2480" t="s">
         <v>2482</v>
@@ -44049,7 +44049,7 @@
         <v>80</v>
       </c>
       <c r="C2481">
-        <v>7610</v>
+        <v>7520</v>
       </c>
       <c r="D2481" t="s">
         <v>2483</v>
@@ -44063,7 +44063,7 @@
         <v>81</v>
       </c>
       <c r="C2482">
-        <v>7640</v>
+        <v>7550</v>
       </c>
       <c r="D2482" t="s">
         <v>2484</v>
@@ -44077,7 +44077,7 @@
         <v>82</v>
       </c>
       <c r="C2483">
-        <v>7660</v>
+        <v>7600</v>
       </c>
       <c r="D2483" t="s">
         <v>2485</v>
@@ -44091,7 +44091,7 @@
         <v>83</v>
       </c>
       <c r="C2484">
-        <v>7680</v>
+        <v>7630</v>
       </c>
       <c r="D2484" t="s">
         <v>2486</v>
@@ -44105,7 +44105,7 @@
         <v>84</v>
       </c>
       <c r="C2485">
-        <v>7700</v>
+        <v>7690</v>
       </c>
       <c r="D2485" t="s">
         <v>2487</v>
@@ -44119,7 +44119,7 @@
         <v>85</v>
       </c>
       <c r="C2486">
-        <v>7700</v>
+        <v>7710</v>
       </c>
       <c r="D2486" t="s">
         <v>2488</v>
@@ -44147,7 +44147,7 @@
         <v>87</v>
       </c>
       <c r="C2488">
-        <v>7700</v>
+        <v>7670</v>
       </c>
       <c r="D2488" t="s">
         <v>2490</v>
@@ -44161,7 +44161,7 @@
         <v>88</v>
       </c>
       <c r="C2489">
-        <v>7620</v>
+        <v>7610</v>
       </c>
       <c r="D2489" t="s">
         <v>2491</v>
@@ -44175,7 +44175,7 @@
         <v>89</v>
       </c>
       <c r="C2490">
-        <v>7490</v>
+        <v>7530</v>
       </c>
       <c r="D2490" t="s">
         <v>2492</v>
@@ -44189,7 +44189,7 @@
         <v>90</v>
       </c>
       <c r="C2491">
-        <v>7420</v>
+        <v>7450</v>
       </c>
       <c r="D2491" t="s">
         <v>2493</v>
@@ -44203,7 +44203,7 @@
         <v>91</v>
       </c>
       <c r="C2492">
-        <v>7300</v>
+        <v>7322</v>
       </c>
       <c r="D2492" t="s">
         <v>2494</v>
@@ -44217,7 +44217,7 @@
         <v>92</v>
       </c>
       <c r="C2493">
-        <v>7130</v>
+        <v>7160</v>
       </c>
       <c r="D2493" t="s">
         <v>2495</v>
@@ -44231,7 +44231,7 @@
         <v>93</v>
       </c>
       <c r="C2494">
-        <v>6870</v>
+        <v>6970</v>
       </c>
       <c r="D2494" t="s">
         <v>2496</v>
@@ -44245,7 +44245,7 @@
         <v>94</v>
       </c>
       <c r="C2495">
-        <v>6730</v>
+        <v>6800</v>
       </c>
       <c r="D2495" t="s">
         <v>2497</v>
@@ -44259,7 +44259,7 @@
         <v>95</v>
       </c>
       <c r="C2496">
-        <v>6630</v>
+        <v>6680</v>
       </c>
       <c r="D2496" t="s">
         <v>2498</v>
@@ -44273,7 +44273,7 @@
         <v>96</v>
       </c>
       <c r="C2497">
-        <v>6520</v>
+        <v>6560</v>
       </c>
       <c r="D2497" t="s">
         <v>2499</v>
@@ -44287,7 +44287,7 @@
         <v>1</v>
       </c>
       <c r="C2498">
-        <v>6140</v>
+        <v>6250</v>
       </c>
       <c r="D2498" t="s">
         <v>2500</v>
@@ -44301,7 +44301,7 @@
         <v>2</v>
       </c>
       <c r="C2499">
-        <v>6100</v>
+        <v>6160</v>
       </c>
       <c r="D2499" t="s">
         <v>2501</v>
@@ -44315,7 +44315,7 @@
         <v>3</v>
       </c>
       <c r="C2500">
-        <v>6040</v>
+        <v>6080</v>
       </c>
       <c r="D2500" t="s">
         <v>2502</v>
@@ -44329,7 +44329,7 @@
         <v>4</v>
       </c>
       <c r="C2501">
-        <v>5950</v>
+        <v>5990</v>
       </c>
       <c r="D2501" t="s">
         <v>2503</v>
@@ -44343,7 +44343,7 @@
         <v>5</v>
       </c>
       <c r="C2502">
-        <v>5870</v>
+        <v>5900</v>
       </c>
       <c r="D2502" t="s">
         <v>2504</v>
@@ -44357,7 +44357,7 @@
         <v>6</v>
       </c>
       <c r="C2503">
-        <v>5790</v>
+        <v>5810</v>
       </c>
       <c r="D2503" t="s">
         <v>2505</v>
@@ -44371,7 +44371,7 @@
         <v>7</v>
       </c>
       <c r="C2504">
-        <v>5730</v>
+        <v>5740</v>
       </c>
       <c r="D2504" t="s">
         <v>2506</v>
@@ -44385,7 +44385,7 @@
         <v>8</v>
       </c>
       <c r="C2505">
-        <v>5670</v>
+        <v>5680</v>
       </c>
       <c r="D2505" t="s">
         <v>2507</v>
@@ -44399,7 +44399,7 @@
         <v>9</v>
       </c>
       <c r="C2506">
-        <v>5610</v>
+        <v>5620</v>
       </c>
       <c r="D2506" t="s">
         <v>2508</v>
@@ -44441,7 +44441,7 @@
         <v>12</v>
       </c>
       <c r="C2509">
-        <v>5520</v>
+        <v>5500</v>
       </c>
       <c r="D2509" t="s">
         <v>2511</v>
@@ -44455,7 +44455,7 @@
         <v>13</v>
       </c>
       <c r="C2510">
-        <v>5500</v>
+        <v>5480</v>
       </c>
       <c r="D2510" t="s">
         <v>2512</v>
@@ -44469,7 +44469,7 @@
         <v>14</v>
       </c>
       <c r="C2511">
-        <v>5480</v>
+        <v>5460</v>
       </c>
       <c r="D2511" t="s">
         <v>2513</v>
@@ -44483,7 +44483,7 @@
         <v>15</v>
       </c>
       <c r="C2512">
-        <v>5460</v>
+        <v>5430</v>
       </c>
       <c r="D2512" t="s">
         <v>2514</v>
@@ -44497,7 +44497,7 @@
         <v>16</v>
       </c>
       <c r="C2513">
-        <v>5450</v>
+        <v>5410</v>
       </c>
       <c r="D2513" t="s">
         <v>2515</v>
@@ -44511,7 +44511,7 @@
         <v>17</v>
       </c>
       <c r="C2514">
-        <v>5430</v>
+        <v>5390</v>
       </c>
       <c r="D2514" t="s">
         <v>2516</v>
@@ -44525,7 +44525,7 @@
         <v>18</v>
       </c>
       <c r="C2515">
-        <v>5410</v>
+        <v>5370</v>
       </c>
       <c r="D2515" t="s">
         <v>2517</v>
@@ -44539,7 +44539,7 @@
         <v>19</v>
       </c>
       <c r="C2516">
-        <v>5390</v>
+        <v>5350</v>
       </c>
       <c r="D2516" t="s">
         <v>2518</v>
@@ -44553,7 +44553,7 @@
         <v>20</v>
       </c>
       <c r="C2517">
-        <v>5350</v>
+        <v>5340</v>
       </c>
       <c r="D2517" t="s">
         <v>2519</v>
@@ -44567,7 +44567,7 @@
         <v>21</v>
       </c>
       <c r="C2518">
-        <v>5370</v>
+        <v>5320</v>
       </c>
       <c r="D2518" t="s">
         <v>2520</v>
@@ -44581,7 +44581,7 @@
         <v>22</v>
       </c>
       <c r="C2519">
-        <v>5360</v>
+        <v>5300</v>
       </c>
       <c r="D2519" t="s">
         <v>2521</v>
@@ -44595,7 +44595,7 @@
         <v>23</v>
       </c>
       <c r="C2520">
-        <v>5360</v>
+        <v>5280</v>
       </c>
       <c r="D2520" t="s">
         <v>2522</v>
@@ -44609,7 +44609,7 @@
         <v>24</v>
       </c>
       <c r="C2521">
-        <v>5360</v>
+        <v>5270</v>
       </c>
       <c r="D2521" t="s">
         <v>2523</v>
@@ -44623,7 +44623,7 @@
         <v>25</v>
       </c>
       <c r="C2522">
-        <v>5360</v>
+        <v>5260</v>
       </c>
       <c r="D2522" t="s">
         <v>2524</v>
@@ -44637,7 +44637,7 @@
         <v>26</v>
       </c>
       <c r="C2523">
-        <v>5360</v>
+        <v>5250</v>
       </c>
       <c r="D2523" t="s">
         <v>2525</v>
@@ -44651,7 +44651,7 @@
         <v>27</v>
       </c>
       <c r="C2524">
-        <v>5350</v>
+        <v>5240</v>
       </c>
       <c r="D2524" t="s">
         <v>2526</v>
@@ -44665,7 +44665,7 @@
         <v>28</v>
       </c>
       <c r="C2525">
-        <v>5340</v>
+        <v>5240</v>
       </c>
       <c r="D2525" t="s">
         <v>2527</v>
@@ -44679,7 +44679,7 @@
         <v>29</v>
       </c>
       <c r="C2526">
-        <v>5320</v>
+        <v>5240</v>
       </c>
       <c r="D2526" t="s">
         <v>2528</v>
@@ -44693,7 +44693,7 @@
         <v>30</v>
       </c>
       <c r="C2527">
-        <v>5290</v>
+        <v>5240</v>
       </c>
       <c r="D2527" t="s">
         <v>2529</v>
@@ -44721,7 +44721,7 @@
         <v>32</v>
       </c>
       <c r="C2529">
-        <v>5220</v>
+        <v>5260</v>
       </c>
       <c r="D2529" t="s">
         <v>2531</v>
@@ -44735,7 +44735,7 @@
         <v>33</v>
       </c>
       <c r="C2530">
-        <v>5180</v>
+        <v>5270</v>
       </c>
       <c r="D2530" t="s">
         <v>2532</v>
@@ -44749,7 +44749,7 @@
         <v>34</v>
       </c>
       <c r="C2531">
-        <v>5140</v>
+        <v>5280</v>
       </c>
       <c r="D2531" t="s">
         <v>2533</v>
@@ -44763,7 +44763,7 @@
         <v>35</v>
       </c>
       <c r="C2532">
-        <v>5100</v>
+        <v>5270</v>
       </c>
       <c r="D2532" t="s">
         <v>2534</v>
@@ -44777,7 +44777,7 @@
         <v>36</v>
       </c>
       <c r="C2533">
-        <v>5060</v>
+        <v>5270</v>
       </c>
       <c r="D2533" t="s">
         <v>2535</v>
@@ -44791,7 +44791,7 @@
         <v>37</v>
       </c>
       <c r="C2534">
-        <v>5030</v>
+        <v>5250</v>
       </c>
       <c r="D2534" t="s">
         <v>2536</v>
@@ -44805,7 +44805,7 @@
         <v>38</v>
       </c>
       <c r="C2535">
-        <v>5000</v>
+        <v>5230</v>
       </c>
       <c r="D2535" t="s">
         <v>2537</v>
@@ -44819,7 +44819,7 @@
         <v>39</v>
       </c>
       <c r="C2536">
-        <v>4970</v>
+        <v>5210</v>
       </c>
       <c r="D2536" t="s">
         <v>2538</v>
@@ -44833,7 +44833,7 @@
         <v>40</v>
       </c>
       <c r="C2537">
-        <v>4950</v>
+        <v>5180</v>
       </c>
       <c r="D2537" t="s">
         <v>2539</v>
@@ -44847,7 +44847,7 @@
         <v>41</v>
       </c>
       <c r="C2538">
-        <v>4930</v>
+        <v>5160</v>
       </c>
       <c r="D2538" t="s">
         <v>2540</v>
@@ -44861,7 +44861,7 @@
         <v>42</v>
       </c>
       <c r="C2539">
-        <v>4920</v>
+        <v>5140</v>
       </c>
       <c r="D2539" t="s">
         <v>2541</v>
@@ -44875,7 +44875,7 @@
         <v>43</v>
       </c>
       <c r="C2540">
-        <v>4910</v>
+        <v>5120</v>
       </c>
       <c r="D2540" t="s">
         <v>2542</v>
@@ -44889,7 +44889,7 @@
         <v>44</v>
       </c>
       <c r="C2541">
-        <v>4900</v>
+        <v>5120</v>
       </c>
       <c r="D2541" t="s">
         <v>2543</v>
@@ -44903,7 +44903,7 @@
         <v>45</v>
       </c>
       <c r="C2542">
-        <v>4900</v>
+        <v>5120</v>
       </c>
       <c r="D2542" t="s">
         <v>2544</v>
@@ -44917,7 +44917,7 @@
         <v>46</v>
       </c>
       <c r="C2543">
-        <v>4900</v>
+        <v>5130</v>
       </c>
       <c r="D2543" t="s">
         <v>2545</v>
@@ -44931,7 +44931,7 @@
         <v>47</v>
       </c>
       <c r="C2544">
-        <v>4900</v>
+        <v>5140</v>
       </c>
       <c r="D2544" t="s">
         <v>2546</v>
@@ -44945,7 +44945,7 @@
         <v>48</v>
       </c>
       <c r="C2545">
-        <v>4900</v>
+        <v>5160</v>
       </c>
       <c r="D2545" t="s">
         <v>2547</v>
@@ -44959,7 +44959,7 @@
         <v>49</v>
       </c>
       <c r="C2546">
-        <v>4910</v>
+        <v>5170</v>
       </c>
       <c r="D2546" t="s">
         <v>2548</v>
@@ -44973,7 +44973,7 @@
         <v>50</v>
       </c>
       <c r="C2547">
-        <v>4920</v>
+        <v>5180</v>
       </c>
       <c r="D2547" t="s">
         <v>2549</v>
@@ -44987,7 +44987,7 @@
         <v>51</v>
       </c>
       <c r="C2548">
-        <v>4920</v>
+        <v>5200</v>
       </c>
       <c r="D2548" t="s">
         <v>2550</v>
@@ -45001,7 +45001,7 @@
         <v>52</v>
       </c>
       <c r="C2549">
-        <v>4930</v>
+        <v>5210</v>
       </c>
       <c r="D2549" t="s">
         <v>2551</v>
@@ -45015,7 +45015,7 @@
         <v>53</v>
       </c>
       <c r="C2550">
-        <v>4950</v>
+        <v>5220</v>
       </c>
       <c r="D2550" t="s">
         <v>2552</v>
@@ -45029,7 +45029,7 @@
         <v>54</v>
       </c>
       <c r="C2551">
-        <v>4960</v>
+        <v>5240</v>
       </c>
       <c r="D2551" t="s">
         <v>2553</v>
@@ -45043,7 +45043,7 @@
         <v>55</v>
       </c>
       <c r="C2552">
-        <v>4990</v>
+        <v>5260</v>
       </c>
       <c r="D2552" t="s">
         <v>2554</v>
@@ -45057,7 +45057,7 @@
         <v>56</v>
       </c>
       <c r="C2553">
-        <v>5010</v>
+        <v>5290</v>
       </c>
       <c r="D2553" t="s">
         <v>2555</v>
@@ -45071,7 +45071,7 @@
         <v>57</v>
       </c>
       <c r="C2554">
-        <v>5040</v>
+        <v>5320</v>
       </c>
       <c r="D2554" t="s">
         <v>2556</v>
@@ -45085,7 +45085,7 @@
         <v>58</v>
       </c>
       <c r="C2555">
-        <v>5070</v>
+        <v>5360</v>
       </c>
       <c r="D2555" t="s">
         <v>2557</v>
@@ -45099,7 +45099,7 @@
         <v>59</v>
       </c>
       <c r="C2556">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="D2556" t="s">
         <v>2558</v>
@@ -45113,7 +45113,7 @@
         <v>60</v>
       </c>
       <c r="C2557">
-        <v>5130</v>
+        <v>5440</v>
       </c>
       <c r="D2557" t="s">
         <v>2559</v>
@@ -45127,7 +45127,7 @@
         <v>61</v>
       </c>
       <c r="C2558">
-        <v>5160</v>
+        <v>5490</v>
       </c>
       <c r="D2558" t="s">
         <v>2560</v>
@@ -45141,7 +45141,7 @@
         <v>62</v>
       </c>
       <c r="C2559">
-        <v>5190</v>
+        <v>5530</v>
       </c>
       <c r="D2559" t="s">
         <v>2561</v>
@@ -45155,7 +45155,7 @@
         <v>63</v>
       </c>
       <c r="C2560">
-        <v>5230</v>
+        <v>5570</v>
       </c>
       <c r="D2560" t="s">
         <v>2562</v>
@@ -45169,7 +45169,7 @@
         <v>64</v>
       </c>
       <c r="C2561">
-        <v>5270</v>
+        <v>5620</v>
       </c>
       <c r="D2561" t="s">
         <v>2563</v>
@@ -45183,7 +45183,7 @@
         <v>65</v>
       </c>
       <c r="C2562">
-        <v>5310</v>
+        <v>5670</v>
       </c>
       <c r="D2562" t="s">
         <v>2564</v>
@@ -45197,7 +45197,7 @@
         <v>66</v>
       </c>
       <c r="C2563">
-        <v>5370</v>
+        <v>5730</v>
       </c>
       <c r="D2563" t="s">
         <v>2565</v>
@@ -45211,7 +45211,7 @@
         <v>67</v>
       </c>
       <c r="C2564">
-        <v>5430</v>
+        <v>5800</v>
       </c>
       <c r="D2564" t="s">
         <v>2566</v>
@@ -45225,7 +45225,7 @@
         <v>68</v>
       </c>
       <c r="C2565">
-        <v>5510</v>
+        <v>5880</v>
       </c>
       <c r="D2565" t="s">
         <v>2567</v>
@@ -45239,7 +45239,7 @@
         <v>69</v>
       </c>
       <c r="C2566">
-        <v>5590</v>
+        <v>5960</v>
       </c>
       <c r="D2566" t="s">
         <v>2568</v>
@@ -45253,7 +45253,7 @@
         <v>70</v>
       </c>
       <c r="C2567">
-        <v>5680</v>
+        <v>6050</v>
       </c>
       <c r="D2567" t="s">
         <v>2569</v>
@@ -45267,7 +45267,7 @@
         <v>71</v>
       </c>
       <c r="C2568">
-        <v>5770</v>
+        <v>6140</v>
       </c>
       <c r="D2568" t="s">
         <v>2570</v>
@@ -45281,7 +45281,7 @@
         <v>72</v>
       </c>
       <c r="C2569">
-        <v>5870</v>
+        <v>6230</v>
       </c>
       <c r="D2569" t="s">
         <v>2571</v>
@@ -45295,7 +45295,7 @@
         <v>73</v>
       </c>
       <c r="C2570">
-        <v>5980</v>
+        <v>6310</v>
       </c>
       <c r="D2570" t="s">
         <v>2572</v>
@@ -45309,7 +45309,7 @@
         <v>74</v>
       </c>
       <c r="C2571">
-        <v>6080</v>
+        <v>6400</v>
       </c>
       <c r="D2571" t="s">
         <v>2573</v>
@@ -45323,7 +45323,7 @@
         <v>75</v>
       </c>
       <c r="C2572">
-        <v>6190</v>
+        <v>6480</v>
       </c>
       <c r="D2572" t="s">
         <v>2574</v>
@@ -45337,7 +45337,7 @@
         <v>76</v>
       </c>
       <c r="C2573">
-        <v>6310</v>
+        <v>6560</v>
       </c>
       <c r="D2573" t="s">
         <v>2575</v>
@@ -45351,7 +45351,7 @@
         <v>77</v>
       </c>
       <c r="C2574">
-        <v>6420</v>
+        <v>6640</v>
       </c>
       <c r="D2574" t="s">
         <v>2576</v>
@@ -45365,7 +45365,7 @@
         <v>78</v>
       </c>
       <c r="C2575">
-        <v>6520</v>
+        <v>6700</v>
       </c>
       <c r="D2575" t="s">
         <v>2577</v>
@@ -45379,7 +45379,7 @@
         <v>79</v>
       </c>
       <c r="C2576">
-        <v>6610</v>
+        <v>6760</v>
       </c>
       <c r="D2576" t="s">
         <v>2578</v>
@@ -45393,7 +45393,7 @@
         <v>80</v>
       </c>
       <c r="C2577">
-        <v>6670</v>
+        <v>6810</v>
       </c>
       <c r="D2577" t="s">
         <v>2579</v>
@@ -45407,7 +45407,7 @@
         <v>81</v>
       </c>
       <c r="C2578">
-        <v>6740</v>
+        <v>6850</v>
       </c>
       <c r="D2578" t="s">
         <v>2580</v>
@@ -45421,7 +45421,7 @@
         <v>82</v>
       </c>
       <c r="C2579">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="D2579" t="s">
         <v>2581</v>
@@ -45435,7 +45435,7 @@
         <v>83</v>
       </c>
       <c r="C2580">
-        <v>6800</v>
+        <v>6930</v>
       </c>
       <c r="D2580" t="s">
         <v>2582</v>
@@ -45449,7 +45449,7 @@
         <v>84</v>
       </c>
       <c r="C2581">
-        <v>6800</v>
+        <v>6960</v>
       </c>
       <c r="D2581" t="s">
         <v>2583</v>
@@ -45463,7 +45463,7 @@
         <v>85</v>
       </c>
       <c r="C2582">
-        <v>6800</v>
+        <v>6950</v>
       </c>
       <c r="D2582" t="s">
         <v>2584</v>
@@ -45477,7 +45477,7 @@
         <v>86</v>
       </c>
       <c r="C2583">
-        <v>6780</v>
+        <v>6940</v>
       </c>
       <c r="D2583" t="s">
         <v>2585</v>
@@ -45491,7 +45491,7 @@
         <v>87</v>
       </c>
       <c r="C2584">
-        <v>6790</v>
+        <v>6910</v>
       </c>
       <c r="D2584" t="s">
         <v>2586</v>
@@ -45505,7 +45505,7 @@
         <v>88</v>
       </c>
       <c r="C2585">
-        <v>6790</v>
+        <v>6880</v>
       </c>
       <c r="D2585" t="s">
         <v>2587</v>
@@ -45519,7 +45519,7 @@
         <v>89</v>
       </c>
       <c r="C2586">
-        <v>6750</v>
+        <v>6820</v>
       </c>
       <c r="D2586" t="s">
         <v>2588</v>
@@ -45533,7 +45533,7 @@
         <v>90</v>
       </c>
       <c r="C2587">
-        <v>6720</v>
+        <v>6750</v>
       </c>
       <c r="D2587" t="s">
         <v>2589</v>
@@ -45547,7 +45547,7 @@
         <v>91</v>
       </c>
       <c r="C2588">
-        <v>6590</v>
+        <v>6650</v>
       </c>
       <c r="D2588" t="s">
         <v>2590</v>
@@ -45561,7 +45561,7 @@
         <v>92</v>
       </c>
       <c r="C2589">
-        <v>6460</v>
+        <v>6540</v>
       </c>
       <c r="D2589" t="s">
         <v>2591</v>
@@ -45575,7 +45575,7 @@
         <v>93</v>
       </c>
       <c r="C2590">
-        <v>6340</v>
+        <v>6420</v>
       </c>
       <c r="D2590" t="s">
         <v>2592</v>
@@ -45589,7 +45589,7 @@
         <v>94</v>
       </c>
       <c r="C2591">
-        <v>6240</v>
+        <v>6320</v>
       </c>
       <c r="D2591" t="s">
         <v>2593</v>
@@ -45603,7 +45603,7 @@
         <v>95</v>
       </c>
       <c r="C2592">
-        <v>6120</v>
+        <v>6200</v>
       </c>
       <c r="D2592" t="s">
         <v>2594</v>
@@ -45617,7 +45617,7 @@
         <v>96</v>
       </c>
       <c r="C2593">
-        <v>6020</v>
+        <v>6100</v>
       </c>
       <c r="D2593" t="s">
         <v>2595</v>
@@ -45631,7 +45631,7 @@
         <v>1</v>
       </c>
       <c r="C2594">
-        <v>5800</v>
+        <v>5750</v>
       </c>
       <c r="D2594" t="s">
         <v>2596</v>
@@ -45645,7 +45645,7 @@
         <v>2</v>
       </c>
       <c r="C2595">
-        <v>5760</v>
+        <v>5670</v>
       </c>
       <c r="D2595" t="s">
         <v>2597</v>
@@ -45659,7 +45659,7 @@
         <v>3</v>
       </c>
       <c r="C2596">
-        <v>5680</v>
+        <v>5610</v>
       </c>
       <c r="D2596" t="s">
         <v>2598</v>
@@ -45673,7 +45673,7 @@
         <v>4</v>
       </c>
       <c r="C2597">
-        <v>5590</v>
+        <v>5540</v>
       </c>
       <c r="D2597" t="s">
         <v>2599</v>
@@ -45687,7 +45687,7 @@
         <v>5</v>
       </c>
       <c r="C2598">
-        <v>5510</v>
+        <v>5460</v>
       </c>
       <c r="D2598" t="s">
         <v>2600</v>
@@ -45701,7 +45701,7 @@
         <v>6</v>
       </c>
       <c r="C2599">
-        <v>5450</v>
+        <v>5400</v>
       </c>
       <c r="D2599" t="s">
         <v>2601</v>
@@ -45715,7 +45715,7 @@
         <v>7</v>
       </c>
       <c r="C2600">
-        <v>5380</v>
+        <v>5350</v>
       </c>
       <c r="D2600" t="s">
         <v>2602</v>
@@ -45729,7 +45729,7 @@
         <v>8</v>
       </c>
       <c r="C2601">
-        <v>5320</v>
+        <v>5300</v>
       </c>
       <c r="D2601" t="s">
         <v>2603</v>
@@ -45757,7 +45757,7 @@
         <v>10</v>
       </c>
       <c r="C2603">
-        <v>5200</v>
+        <v>5220</v>
       </c>
       <c r="D2603" t="s">
         <v>2605</v>
@@ -45771,7 +45771,7 @@
         <v>11</v>
       </c>
       <c r="C2604">
-        <v>5160</v>
+        <v>5200</v>
       </c>
       <c r="D2604" t="s">
         <v>2606</v>
@@ -45785,7 +45785,7 @@
         <v>12</v>
       </c>
       <c r="C2605">
-        <v>5140</v>
+        <v>5190</v>
       </c>
       <c r="D2605" t="s">
         <v>2607</v>
@@ -45799,7 +45799,7 @@
         <v>13</v>
       </c>
       <c r="C2606">
-        <v>5120</v>
+        <v>5180</v>
       </c>
       <c r="D2606" t="s">
         <v>2608</v>
@@ -45813,7 +45813,7 @@
         <v>14</v>
       </c>
       <c r="C2607">
-        <v>5120</v>
+        <v>5170</v>
       </c>
       <c r="D2607" t="s">
         <v>2609</v>
@@ -45827,7 +45827,7 @@
         <v>15</v>
       </c>
       <c r="C2608">
-        <v>5120</v>
+        <v>5170</v>
       </c>
       <c r="D2608" t="s">
         <v>2610</v>
@@ -45841,7 +45841,7 @@
         <v>16</v>
       </c>
       <c r="C2609">
-        <v>5120</v>
+        <v>5160</v>
       </c>
       <c r="D2609" t="s">
         <v>2611</v>
@@ -45855,7 +45855,7 @@
         <v>17</v>
       </c>
       <c r="C2610">
-        <v>5100</v>
+        <v>5150</v>
       </c>
       <c r="D2610" t="s">
         <v>2612</v>
@@ -45869,7 +45869,7 @@
         <v>18</v>
       </c>
       <c r="C2611">
-        <v>5130</v>
+        <v>5150</v>
       </c>
       <c r="D2611" t="s">
         <v>2613</v>
@@ -45883,7 +45883,7 @@
         <v>19</v>
       </c>
       <c r="C2612">
-        <v>5130</v>
+        <v>5150</v>
       </c>
       <c r="D2612" t="s">
         <v>2614</v>
@@ -45897,7 +45897,7 @@
         <v>20</v>
       </c>
       <c r="C2613">
-        <v>5150</v>
+        <v>5170</v>
       </c>
       <c r="D2613" t="s">
         <v>2615</v>
@@ -45911,7 +45911,7 @@
         <v>21</v>
       </c>
       <c r="C2614">
-        <v>5170</v>
+        <v>5210</v>
       </c>
       <c r="D2614" t="s">
         <v>2616</v>
@@ -45925,7 +45925,7 @@
         <v>22</v>
       </c>
       <c r="C2615">
-        <v>5220</v>
+        <v>5270</v>
       </c>
       <c r="D2615" t="s">
         <v>2617</v>
@@ -45939,7 +45939,7 @@
         <v>23</v>
       </c>
       <c r="C2616">
-        <v>5280</v>
+        <v>5360</v>
       </c>
       <c r="D2616" t="s">
         <v>2618</v>
@@ -45953,7 +45953,7 @@
         <v>24</v>
       </c>
       <c r="C2617">
-        <v>5360</v>
+        <v>5450</v>
       </c>
       <c r="D2617" t="s">
         <v>2619</v>
@@ -45967,7 +45967,7 @@
         <v>25</v>
       </c>
       <c r="C2618">
-        <v>5470</v>
+        <v>5560</v>
       </c>
       <c r="D2618" t="s">
         <v>2620</v>
@@ -45981,7 +45981,7 @@
         <v>26</v>
       </c>
       <c r="C2619">
-        <v>5590</v>
+        <v>5680</v>
       </c>
       <c r="D2619" t="s">
         <v>2621</v>
@@ -45995,7 +45995,7 @@
         <v>27</v>
       </c>
       <c r="C2620">
-        <v>5730</v>
+        <v>5810</v>
       </c>
       <c r="D2620" t="s">
         <v>2622</v>
@@ -46009,7 +46009,7 @@
         <v>28</v>
       </c>
       <c r="C2621">
-        <v>5880</v>
+        <v>5930</v>
       </c>
       <c r="D2621" t="s">
         <v>2623</v>
@@ -46023,7 +46023,7 @@
         <v>29</v>
       </c>
       <c r="C2622">
-        <v>6030</v>
+        <v>6050</v>
       </c>
       <c r="D2622" t="s">
         <v>2624</v>
@@ -46037,7 +46037,7 @@
         <v>30</v>
       </c>
       <c r="C2623">
-        <v>6180</v>
+        <v>6160</v>
       </c>
       <c r="D2623" t="s">
         <v>2625</v>
@@ -46051,7 +46051,7 @@
         <v>31</v>
       </c>
       <c r="C2624">
-        <v>6310</v>
+        <v>6270</v>
       </c>
       <c r="D2624" t="s">
         <v>2626</v>
@@ -46065,7 +46065,7 @@
         <v>32</v>
       </c>
       <c r="C2625">
-        <v>6430</v>
+        <v>6360</v>
       </c>
       <c r="D2625" t="s">
         <v>2627</v>
@@ -46079,7 +46079,7 @@
         <v>33</v>
       </c>
       <c r="C2626">
-        <v>6530</v>
+        <v>6440</v>
       </c>
       <c r="D2626" t="s">
         <v>2628</v>
@@ -46093,7 +46093,7 @@
         <v>34</v>
       </c>
       <c r="C2627">
-        <v>6610</v>
+        <v>6510</v>
       </c>
       <c r="D2627" t="s">
         <v>2629</v>
@@ -46107,7 +46107,7 @@
         <v>35</v>
       </c>
       <c r="C2628">
-        <v>6660</v>
+        <v>6560</v>
       </c>
       <c r="D2628" t="s">
         <v>2630</v>
@@ -46121,7 +46121,7 @@
         <v>36</v>
       </c>
       <c r="C2629">
-        <v>6700</v>
+        <v>6590</v>
       </c>
       <c r="D2629" t="s">
         <v>2631</v>
@@ -46135,7 +46135,7 @@
         <v>37</v>
       </c>
       <c r="C2630">
-        <v>6700</v>
+        <v>6610</v>
       </c>
       <c r="D2630" t="s">
         <v>2632</v>
@@ -46149,7 +46149,7 @@
         <v>38</v>
       </c>
       <c r="C2631">
-        <v>6710</v>
+        <v>6610</v>
       </c>
       <c r="D2631" t="s">
         <v>2633</v>
@@ -46163,7 +46163,7 @@
         <v>39</v>
       </c>
       <c r="C2632">
-        <v>6690</v>
+        <v>6590</v>
       </c>
       <c r="D2632" t="s">
         <v>2634</v>
@@ -46177,7 +46177,7 @@
         <v>40</v>
       </c>
       <c r="C2633">
-        <v>6670</v>
+        <v>6560</v>
       </c>
       <c r="D2633" t="s">
         <v>2635</v>
@@ -46191,7 +46191,7 @@
         <v>41</v>
       </c>
       <c r="C2634">
-        <v>6650</v>
+        <v>6530</v>
       </c>
       <c r="D2634" t="s">
         <v>2636</v>
@@ -46205,7 +46205,7 @@
         <v>42</v>
       </c>
       <c r="C2635">
-        <v>6620</v>
+        <v>6500</v>
       </c>
       <c r="D2635" t="s">
         <v>2637</v>
@@ -46219,7 +46219,7 @@
         <v>43</v>
       </c>
       <c r="C2636">
-        <v>6600</v>
+        <v>6470</v>
       </c>
       <c r="D2636" t="s">
         <v>2638</v>
@@ -46233,7 +46233,7 @@
         <v>44</v>
       </c>
       <c r="C2637">
-        <v>6580</v>
+        <v>6440</v>
       </c>
       <c r="D2637" t="s">
         <v>2639</v>
@@ -46247,7 +46247,7 @@
         <v>45</v>
       </c>
       <c r="C2638">
-        <v>6570</v>
+        <v>6430</v>
       </c>
       <c r="D2638" t="s">
         <v>2640</v>
@@ -46261,7 +46261,7 @@
         <v>46</v>
       </c>
       <c r="C2639">
-        <v>6570</v>
+        <v>6420</v>
       </c>
       <c r="D2639" t="s">
         <v>2641</v>
@@ -46275,7 +46275,7 @@
         <v>47</v>
       </c>
       <c r="C2640">
-        <v>6560</v>
+        <v>6420</v>
       </c>
       <c r="D2640" t="s">
         <v>2642</v>
@@ -46289,7 +46289,7 @@
         <v>48</v>
       </c>
       <c r="C2641">
-        <v>6560</v>
+        <v>6440</v>
       </c>
       <c r="D2641" t="s">
         <v>2643</v>
@@ -46303,7 +46303,7 @@
         <v>49</v>
       </c>
       <c r="C2642">
-        <v>6570</v>
+        <v>6450</v>
       </c>
       <c r="D2642" t="s">
         <v>2644</v>
@@ -46317,7 +46317,7 @@
         <v>50</v>
       </c>
       <c r="C2643">
-        <v>6570</v>
+        <v>6480</v>
       </c>
       <c r="D2643" t="s">
         <v>2645</v>
@@ -46331,7 +46331,7 @@
         <v>51</v>
       </c>
       <c r="C2644">
-        <v>6570</v>
+        <v>6500</v>
       </c>
       <c r="D2644" t="s">
         <v>2646</v>
@@ -46345,7 +46345,7 @@
         <v>52</v>
       </c>
       <c r="C2645">
-        <v>6570</v>
+        <v>6520</v>
       </c>
       <c r="D2645" t="s">
         <v>2647</v>
@@ -46359,7 +46359,7 @@
         <v>53</v>
       </c>
       <c r="C2646">
-        <v>6570</v>
+        <v>6540</v>
       </c>
       <c r="D2646" t="s">
         <v>2648</v>
@@ -46373,7 +46373,7 @@
         <v>54</v>
       </c>
       <c r="C2647">
-        <v>6580</v>
+        <v>6550</v>
       </c>
       <c r="D2647" t="s">
         <v>2649</v>
@@ -46387,7 +46387,7 @@
         <v>55</v>
       </c>
       <c r="C2648">
-        <v>6580</v>
+        <v>6570</v>
       </c>
       <c r="D2648" t="s">
         <v>2650</v>
@@ -46415,7 +46415,7 @@
         <v>57</v>
       </c>
       <c r="C2650">
-        <v>6580</v>
+        <v>6600</v>
       </c>
       <c r="D2650" t="s">
         <v>2652</v>
@@ -46429,7 +46429,7 @@
         <v>58</v>
       </c>
       <c r="C2651">
-        <v>6580</v>
+        <v>6620</v>
       </c>
       <c r="D2651" t="s">
         <v>2653</v>
@@ -46443,7 +46443,7 @@
         <v>59</v>
       </c>
       <c r="C2652">
-        <v>6580</v>
+        <v>6640</v>
       </c>
       <c r="D2652" t="s">
         <v>2654</v>
@@ -46457,7 +46457,7 @@
         <v>60</v>
       </c>
       <c r="C2653">
-        <v>6580</v>
+        <v>6660</v>
       </c>
       <c r="D2653" t="s">
         <v>2655</v>
@@ -46471,7 +46471,7 @@
         <v>61</v>
       </c>
       <c r="C2654">
-        <v>6590</v>
+        <v>6680</v>
       </c>
       <c r="D2654" t="s">
         <v>2656</v>
@@ -46485,7 +46485,7 @@
         <v>62</v>
       </c>
       <c r="C2655">
-        <v>6600</v>
+        <v>6710</v>
       </c>
       <c r="D2655" t="s">
         <v>2657</v>
@@ -46499,7 +46499,7 @@
         <v>63</v>
       </c>
       <c r="C2656">
-        <v>6610</v>
+        <v>6740</v>
       </c>
       <c r="D2656" t="s">
         <v>2658</v>
@@ -46513,7 +46513,7 @@
         <v>64</v>
       </c>
       <c r="C2657">
-        <v>6640</v>
+        <v>6780</v>
       </c>
       <c r="D2657" t="s">
         <v>2659</v>
@@ -46527,7 +46527,7 @@
         <v>65</v>
       </c>
       <c r="C2658">
-        <v>6670</v>
+        <v>6820</v>
       </c>
       <c r="D2658" t="s">
         <v>2660</v>
@@ -46541,7 +46541,7 @@
         <v>66</v>
       </c>
       <c r="C2659">
-        <v>6720</v>
+        <v>6860</v>
       </c>
       <c r="D2659" t="s">
         <v>2661</v>
@@ -46555,7 +46555,7 @@
         <v>67</v>
       </c>
       <c r="C2660">
-        <v>6780</v>
+        <v>6920</v>
       </c>
       <c r="D2660" t="s">
         <v>2662</v>
@@ -46569,7 +46569,7 @@
         <v>68</v>
       </c>
       <c r="C2661">
-        <v>6840</v>
+        <v>6970</v>
       </c>
       <c r="D2661" t="s">
         <v>2663</v>
@@ -46583,7 +46583,7 @@
         <v>69</v>
       </c>
       <c r="C2662">
-        <v>6910</v>
+        <v>7040</v>
       </c>
       <c r="D2662" t="s">
         <v>2664</v>
@@ -46597,7 +46597,7 @@
         <v>70</v>
       </c>
       <c r="C2663">
-        <v>6970</v>
+        <v>7100</v>
       </c>
       <c r="D2663" t="s">
         <v>2665</v>
@@ -46611,7 +46611,7 @@
         <v>71</v>
       </c>
       <c r="C2664">
-        <v>7040</v>
+        <v>7160</v>
       </c>
       <c r="D2664" t="s">
         <v>2666</v>
@@ -46625,7 +46625,7 @@
         <v>72</v>
       </c>
       <c r="C2665">
-        <v>7100</v>
+        <v>7210</v>
       </c>
       <c r="D2665" t="s">
         <v>2667</v>
@@ -46639,7 +46639,7 @@
         <v>73</v>
       </c>
       <c r="C2666">
-        <v>7170</v>
+        <v>7260</v>
       </c>
       <c r="D2666" t="s">
         <v>2668</v>
@@ -46653,7 +46653,7 @@
         <v>74</v>
       </c>
       <c r="C2667">
-        <v>7240</v>
+        <v>7320</v>
       </c>
       <c r="D2667" t="s">
         <v>2669</v>
@@ -46667,7 +46667,7 @@
         <v>75</v>
       </c>
       <c r="C2668">
-        <v>7320</v>
+        <v>7380</v>
       </c>
       <c r="D2668" t="s">
         <v>2670</v>
@@ -46681,7 +46681,7 @@
         <v>76</v>
       </c>
       <c r="C2669">
-        <v>7420</v>
+        <v>7440</v>
       </c>
       <c r="D2669" t="s">
         <v>2671</v>
@@ -46695,7 +46695,7 @@
         <v>77</v>
       </c>
       <c r="C2670">
-        <v>7510</v>
+        <v>7500</v>
       </c>
       <c r="D2670" t="s">
         <v>2672</v>
@@ -46709,7 +46709,7 @@
         <v>78</v>
       </c>
       <c r="C2671">
-        <v>7590</v>
+        <v>7550</v>
       </c>
       <c r="D2671" t="s">
         <v>2673</v>
@@ -46723,7 +46723,7 @@
         <v>79</v>
       </c>
       <c r="C2672">
-        <v>7660</v>
+        <v>7600</v>
       </c>
       <c r="D2672" t="s">
         <v>2674</v>
@@ -46737,7 +46737,7 @@
         <v>80</v>
       </c>
       <c r="C2673">
-        <v>7700</v>
+        <v>7630</v>
       </c>
       <c r="D2673" t="s">
         <v>2675</v>
@@ -46751,7 +46751,7 @@
         <v>81</v>
       </c>
       <c r="C2674">
-        <v>7750</v>
+        <v>7650</v>
       </c>
       <c r="D2674" t="s">
         <v>2676</v>
@@ -46765,7 +46765,7 @@
         <v>82</v>
       </c>
       <c r="C2675">
-        <v>7800</v>
+        <v>7660</v>
       </c>
       <c r="D2675" t="s">
         <v>2677</v>
@@ -46779,7 +46779,7 @@
         <v>83</v>
       </c>
       <c r="C2676">
-        <v>7800</v>
+        <v>7680</v>
       </c>
       <c r="D2676" t="s">
         <v>2678</v>
@@ -46793,7 +46793,7 @@
         <v>84</v>
       </c>
       <c r="C2677">
-        <v>7800</v>
+        <v>7680</v>
       </c>
       <c r="D2677" t="s">
         <v>2679</v>
@@ -46807,7 +46807,7 @@
         <v>85</v>
       </c>
       <c r="C2678">
-        <v>7800</v>
+        <v>7660</v>
       </c>
       <c r="D2678" t="s">
         <v>2680</v>
@@ -46821,7 +46821,7 @@
         <v>86</v>
       </c>
       <c r="C2679">
-        <v>7770</v>
+        <v>7630</v>
       </c>
       <c r="D2679" t="s">
         <v>2681</v>
@@ -46835,7 +46835,7 @@
         <v>87</v>
       </c>
       <c r="C2680">
-        <v>7740</v>
+        <v>7590</v>
       </c>
       <c r="D2680" t="s">
         <v>2682</v>
@@ -46849,7 +46849,7 @@
         <v>88</v>
       </c>
       <c r="C2681">
-        <v>7700</v>
+        <v>7510</v>
       </c>
       <c r="D2681" t="s">
         <v>2683</v>
@@ -46863,7 +46863,7 @@
         <v>89</v>
       </c>
       <c r="C2682">
-        <v>7630</v>
+        <v>7420</v>
       </c>
       <c r="D2682" t="s">
         <v>2684</v>
@@ -46877,7 +46877,7 @@
         <v>90</v>
       </c>
       <c r="C2683">
-        <v>7590</v>
+        <v>7330</v>
       </c>
       <c r="D2683" t="s">
         <v>2685</v>
@@ -46891,7 +46891,7 @@
         <v>91</v>
       </c>
       <c r="C2684">
-        <v>7450</v>
+        <v>7190</v>
       </c>
       <c r="D2684" t="s">
         <v>2686</v>
@@ -46905,7 +46905,7 @@
         <v>92</v>
       </c>
       <c r="C2685">
-        <v>7240</v>
+        <v>7000</v>
       </c>
       <c r="D2685" t="s">
         <v>2687</v>
@@ -46919,7 +46919,7 @@
         <v>93</v>
       </c>
       <c r="C2686">
-        <v>6960</v>
+        <v>6790</v>
       </c>
       <c r="D2686" t="s">
         <v>2688</v>
@@ -46933,7 +46933,7 @@
         <v>94</v>
       </c>
       <c r="C2687">
-        <v>6760</v>
+        <v>6610</v>
       </c>
       <c r="D2687" t="s">
         <v>2689</v>
@@ -46947,7 +46947,7 @@
         <v>95</v>
       </c>
       <c r="C2688">
-        <v>6680</v>
+        <v>6470</v>
       </c>
       <c r="D2688" t="s">
         <v>2690</v>
@@ -46961,7 +46961,7 @@
         <v>96</v>
       </c>
       <c r="C2689">
-        <v>6570</v>
+        <v>6330</v>
       </c>
       <c r="D2689" t="s">
         <v>2691</v>
@@ -46975,7 +46975,7 @@
         <v>1</v>
       </c>
       <c r="C2690">
-        <v>6300</v>
+        <v>6190</v>
       </c>
       <c r="D2690" t="s">
         <v>2692</v>
@@ -46989,7 +46989,7 @@
         <v>2</v>
       </c>
       <c r="C2691">
-        <v>6250</v>
+        <v>6150</v>
       </c>
       <c r="D2691" t="s">
         <v>2693</v>
@@ -47003,7 +47003,7 @@
         <v>3</v>
       </c>
       <c r="C2692">
-        <v>6190</v>
+        <v>6080</v>
       </c>
       <c r="D2692" t="s">
         <v>2694</v>
@@ -47017,7 +47017,7 @@
         <v>4</v>
       </c>
       <c r="C2693">
-        <v>6110</v>
+        <v>5980</v>
       </c>
       <c r="D2693" t="s">
         <v>2695</v>
@@ -47031,7 +47031,7 @@
         <v>5</v>
       </c>
       <c r="C2694">
-        <v>6030</v>
+        <v>5890</v>
       </c>
       <c r="D2694" t="s">
         <v>2696</v>
@@ -47045,7 +47045,7 @@
         <v>6</v>
       </c>
       <c r="C2695">
-        <v>5970</v>
+        <v>5820</v>
       </c>
       <c r="D2695" t="s">
         <v>2697</v>
@@ -47059,7 +47059,7 @@
         <v>7</v>
       </c>
       <c r="C2696">
-        <v>5910</v>
+        <v>5770</v>
       </c>
       <c r="D2696" t="s">
         <v>2698</v>
@@ -47073,7 +47073,7 @@
         <v>8</v>
       </c>
       <c r="C2697">
-        <v>5860</v>
+        <v>5720</v>
       </c>
       <c r="D2697" t="s">
         <v>2699</v>
@@ -47087,7 +47087,7 @@
         <v>9</v>
       </c>
       <c r="C2698">
-        <v>5800</v>
+        <v>5690</v>
       </c>
       <c r="D2698" t="s">
         <v>2700</v>
@@ -47101,7 +47101,7 @@
         <v>10</v>
       </c>
       <c r="C2699">
-        <v>5750</v>
+        <v>5650</v>
       </c>
       <c r="D2699" t="s">
         <v>2701</v>
@@ -47115,7 +47115,7 @@
         <v>11</v>
       </c>
       <c r="C2700">
-        <v>5710</v>
+        <v>5630</v>
       </c>
       <c r="D2700" t="s">
         <v>2702</v>
@@ -47129,7 +47129,7 @@
         <v>12</v>
       </c>
       <c r="C2701">
-        <v>5670</v>
+        <v>5620</v>
       </c>
       <c r="D2701" t="s">
         <v>2703</v>
@@ -47143,7 +47143,7 @@
         <v>13</v>
       </c>
       <c r="C2702">
-        <v>5650</v>
+        <v>5570</v>
       </c>
       <c r="D2702" t="s">
         <v>2704</v>
@@ -47157,7 +47157,7 @@
         <v>14</v>
       </c>
       <c r="C2703">
-        <v>5630</v>
+        <v>5560</v>
       </c>
       <c r="D2703" t="s">
         <v>2705</v>
@@ -47171,7 +47171,7 @@
         <v>15</v>
       </c>
       <c r="C2704">
-        <v>5620</v>
+        <v>5560</v>
       </c>
       <c r="D2704" t="s">
         <v>2706</v>
@@ -47185,7 +47185,7 @@
         <v>16</v>
       </c>
       <c r="C2705">
-        <v>5600</v>
+        <v>5570</v>
       </c>
       <c r="D2705" t="s">
         <v>2707</v>
@@ -47199,7 +47199,7 @@
         <v>17</v>
       </c>
       <c r="C2706">
-        <v>5610</v>
+        <v>5590</v>
       </c>
       <c r="D2706" t="s">
         <v>2708</v>
@@ -47213,7 +47213,7 @@
         <v>18</v>
       </c>
       <c r="C2707">
-        <v>5610</v>
+        <v>5600</v>
       </c>
       <c r="D2707" t="s">
         <v>2709</v>
@@ -47227,7 +47227,7 @@
         <v>19</v>
       </c>
       <c r="C2708">
-        <v>5620</v>
+        <v>5600</v>
       </c>
       <c r="D2708" t="s">
         <v>2710</v>
@@ -47241,7 +47241,7 @@
         <v>20</v>
       </c>
       <c r="C2709">
-        <v>5640</v>
+        <v>5600</v>
       </c>
       <c r="D2709" t="s">
         <v>2711</v>
@@ -47255,7 +47255,7 @@
         <v>21</v>
       </c>
       <c r="C2710">
-        <v>5660</v>
+        <v>5600</v>
       </c>
       <c r="D2710" t="s">
         <v>2712</v>
@@ -47269,7 +47269,7 @@
         <v>22</v>
       </c>
       <c r="C2711">
-        <v>5690</v>
+        <v>5600</v>
       </c>
       <c r="D2711" t="s">
         <v>2713</v>
@@ -47283,7 +47283,7 @@
         <v>23</v>
       </c>
       <c r="C2712">
-        <v>5730</v>
+        <v>5610</v>
       </c>
       <c r="D2712" t="s">
         <v>2714</v>
@@ -47297,7 +47297,7 @@
         <v>24</v>
       </c>
       <c r="C2713">
-        <v>5790</v>
+        <v>5650</v>
       </c>
       <c r="D2713" t="s">
         <v>2715</v>
@@ -47311,7 +47311,7 @@
         <v>25</v>
       </c>
       <c r="C2714">
-        <v>5860</v>
+        <v>5770</v>
       </c>
       <c r="D2714" t="s">
         <v>2716</v>
@@ -47325,7 +47325,7 @@
         <v>26</v>
       </c>
       <c r="C2715">
-        <v>5940</v>
+        <v>5870</v>
       </c>
       <c r="D2715" t="s">
         <v>2717</v>
@@ -47339,7 +47339,7 @@
         <v>27</v>
       </c>
       <c r="C2716">
-        <v>6030</v>
+        <v>5970</v>
       </c>
       <c r="D2716" t="s">
         <v>2718</v>
@@ -47353,7 +47353,7 @@
         <v>28</v>
       </c>
       <c r="C2717">
-        <v>6130</v>
+        <v>6070</v>
       </c>
       <c r="D2717" t="s">
         <v>2719</v>
@@ -47367,7 +47367,7 @@
         <v>29</v>
       </c>
       <c r="C2718">
-        <v>6230</v>
+        <v>6180</v>
       </c>
       <c r="D2718" t="s">
         <v>2720</v>
@@ -47381,7 +47381,7 @@
         <v>30</v>
       </c>
       <c r="C2719">
-        <v>6330</v>
+        <v>6280</v>
       </c>
       <c r="D2719" t="s">
         <v>2721</v>
@@ -47395,7 +47395,7 @@
         <v>31</v>
       </c>
       <c r="C2720">
-        <v>6420</v>
+        <v>6370</v>
       </c>
       <c r="D2720" t="s">
         <v>2722</v>
@@ -47409,7 +47409,7 @@
         <v>32</v>
       </c>
       <c r="C2721">
-        <v>6500</v>
+        <v>6450</v>
       </c>
       <c r="D2721" t="s">
         <v>2723</v>
@@ -47423,7 +47423,7 @@
         <v>33</v>
       </c>
       <c r="C2722">
-        <v>6560</v>
+        <v>6530</v>
       </c>
       <c r="D2722" t="s">
         <v>2724</v>
@@ -47437,7 +47437,7 @@
         <v>34</v>
       </c>
       <c r="C2723">
-        <v>6600</v>
+        <v>6590</v>
       </c>
       <c r="D2723" t="s">
         <v>2725</v>
@@ -47451,7 +47451,7 @@
         <v>35</v>
       </c>
       <c r="C2724">
-        <v>6600</v>
+        <v>6630</v>
       </c>
       <c r="D2724" t="s">
         <v>2726</v>
@@ -47465,7 +47465,7 @@
         <v>36</v>
       </c>
       <c r="C2725">
-        <v>6600</v>
+        <v>6650</v>
       </c>
       <c r="D2725" t="s">
         <v>2727</v>
@@ -47479,7 +47479,7 @@
         <v>37</v>
       </c>
       <c r="C2726">
-        <v>6600</v>
+        <v>6650</v>
       </c>
       <c r="D2726" t="s">
         <v>2728</v>
@@ -47493,7 +47493,7 @@
         <v>38</v>
       </c>
       <c r="C2727">
-        <v>6570</v>
+        <v>6650</v>
       </c>
       <c r="D2727" t="s">
         <v>2729</v>
@@ -47507,7 +47507,7 @@
         <v>39</v>
       </c>
       <c r="C2728">
-        <v>6530</v>
+        <v>6650</v>
       </c>
       <c r="D2728" t="s">
         <v>2730</v>
@@ -47521,7 +47521,7 @@
         <v>40</v>
       </c>
       <c r="C2729">
-        <v>6490</v>
+        <v>6650</v>
       </c>
       <c r="D2729" t="s">
         <v>2731</v>
@@ -47535,7 +47535,7 @@
         <v>41</v>
       </c>
       <c r="C2730">
-        <v>6450</v>
+        <v>6640</v>
       </c>
       <c r="D2730" t="s">
         <v>2732</v>
@@ -47549,7 +47549,7 @@
         <v>42</v>
       </c>
       <c r="C2731">
-        <v>6420</v>
+        <v>6620</v>
       </c>
       <c r="D2731" t="s">
         <v>2733</v>
@@ -47563,7 +47563,7 @@
         <v>43</v>
       </c>
       <c r="C2732">
-        <v>6400</v>
+        <v>6590</v>
       </c>
       <c r="D2732" t="s">
         <v>2734</v>
@@ -47577,7 +47577,7 @@
         <v>44</v>
       </c>
       <c r="C2733">
-        <v>6390</v>
+        <v>6550</v>
       </c>
       <c r="D2733" t="s">
         <v>2735</v>
@@ -47591,7 +47591,7 @@
         <v>45</v>
       </c>
       <c r="C2734">
-        <v>6390</v>
+        <v>6510</v>
       </c>
       <c r="D2734" t="s">
         <v>2736</v>
@@ -47605,7 +47605,7 @@
         <v>46</v>
       </c>
       <c r="C2735">
-        <v>6400</v>
+        <v>6490</v>
       </c>
       <c r="D2735" t="s">
         <v>2737</v>
@@ -47619,7 +47619,7 @@
         <v>47</v>
       </c>
       <c r="C2736">
-        <v>6410</v>
+        <v>6470</v>
       </c>
       <c r="D2736" t="s">
         <v>2738</v>
@@ -47633,7 +47633,7 @@
         <v>48</v>
       </c>
       <c r="C2737">
-        <v>6420</v>
+        <v>6460</v>
       </c>
       <c r="D2737" t="s">
         <v>2739</v>
@@ -47647,7 +47647,7 @@
         <v>49</v>
       </c>
       <c r="C2738">
-        <v>6420</v>
+        <v>6430</v>
       </c>
       <c r="D2738" t="s">
         <v>2740</v>
@@ -47661,7 +47661,7 @@
         <v>50</v>
       </c>
       <c r="C2739">
-        <v>6420</v>
+        <v>6430</v>
       </c>
       <c r="D2739" t="s">
         <v>2741</v>
@@ -47675,7 +47675,7 @@
         <v>51</v>
       </c>
       <c r="C2740">
-        <v>6410</v>
+        <v>6430</v>
       </c>
       <c r="D2740" t="s">
         <v>2742</v>
@@ -47689,7 +47689,7 @@
         <v>52</v>
       </c>
       <c r="C2741">
-        <v>6400</v>
+        <v>6440</v>
       </c>
       <c r="D2741" t="s">
         <v>2743</v>
@@ -47703,7 +47703,7 @@
         <v>53</v>
       </c>
       <c r="C2742">
-        <v>6390</v>
+        <v>6480</v>
       </c>
       <c r="D2742" t="s">
         <v>2744</v>
@@ -47717,7 +47717,7 @@
         <v>54</v>
       </c>
       <c r="C2743">
-        <v>6380</v>
+        <v>6520</v>
       </c>
       <c r="D2743" t="s">
         <v>2745</v>
@@ -47731,7 +47731,7 @@
         <v>55</v>
       </c>
       <c r="C2744">
-        <v>6370</v>
+        <v>6520</v>
       </c>
       <c r="D2744" t="s">
         <v>2746</v>
@@ -47745,7 +47745,7 @@
         <v>56</v>
       </c>
       <c r="C2745">
-        <v>6370</v>
+        <v>6530</v>
       </c>
       <c r="D2745" t="s">
         <v>2747</v>
@@ -47759,7 +47759,7 @@
         <v>57</v>
       </c>
       <c r="C2746">
-        <v>6380</v>
+        <v>6530</v>
       </c>
       <c r="D2746" t="s">
         <v>2748</v>
@@ -47773,7 +47773,7 @@
         <v>58</v>
       </c>
       <c r="C2747">
-        <v>6390</v>
+        <v>6530</v>
       </c>
       <c r="D2747" t="s">
         <v>2749</v>
@@ -47787,7 +47787,7 @@
         <v>59</v>
       </c>
       <c r="C2748">
-        <v>6410</v>
+        <v>6530</v>
       </c>
       <c r="D2748" t="s">
         <v>2750</v>
@@ -47801,7 +47801,7 @@
         <v>60</v>
       </c>
       <c r="C2749">
-        <v>6440</v>
+        <v>6530</v>
       </c>
       <c r="D2749" t="s">
         <v>2751</v>
@@ -47815,7 +47815,7 @@
         <v>61</v>
       </c>
       <c r="C2750">
-        <v>6460</v>
+        <v>6570</v>
       </c>
       <c r="D2750" t="s">
         <v>2752</v>
@@ -47829,7 +47829,7 @@
         <v>62</v>
       </c>
       <c r="C2751">
-        <v>6490</v>
+        <v>6590</v>
       </c>
       <c r="D2751" t="s">
         <v>2753</v>
@@ -47843,7 +47843,7 @@
         <v>63</v>
       </c>
       <c r="C2752">
-        <v>6530</v>
+        <v>6600</v>
       </c>
       <c r="D2752" t="s">
         <v>2754</v>
@@ -47857,7 +47857,7 @@
         <v>64</v>
       </c>
       <c r="C2753">
-        <v>6560</v>
+        <v>6620</v>
       </c>
       <c r="D2753" t="s">
         <v>2755</v>
@@ -47871,7 +47871,7 @@
         <v>65</v>
       </c>
       <c r="C2754">
-        <v>6610</v>
+        <v>6650</v>
       </c>
       <c r="D2754" t="s">
         <v>2756</v>
@@ -47885,7 +47885,7 @@
         <v>66</v>
       </c>
       <c r="C2755">
-        <v>6660</v>
+        <v>6680</v>
       </c>
       <c r="D2755" t="s">
         <v>2757</v>
@@ -47913,7 +47913,7 @@
         <v>68</v>
       </c>
       <c r="C2757">
-        <v>6780</v>
+        <v>6760</v>
       </c>
       <c r="D2757" t="s">
         <v>2759</v>
@@ -47927,7 +47927,7 @@
         <v>69</v>
       </c>
       <c r="C2758">
-        <v>6840</v>
+        <v>6820</v>
       </c>
       <c r="D2758" t="s">
         <v>2760</v>
@@ -47941,7 +47941,7 @@
         <v>70</v>
       </c>
       <c r="C2759">
-        <v>6900</v>
+        <v>6880</v>
       </c>
       <c r="D2759" t="s">
         <v>2761</v>
@@ -47955,7 +47955,7 @@
         <v>71</v>
       </c>
       <c r="C2760">
-        <v>6950</v>
+        <v>6920</v>
       </c>
       <c r="D2760" t="s">
         <v>2762</v>
@@ -47969,7 +47969,7 @@
         <v>72</v>
       </c>
       <c r="C2761">
-        <v>7000</v>
+        <v>6970</v>
       </c>
       <c r="D2761" t="s">
         <v>2763</v>
@@ -47983,7 +47983,7 @@
         <v>73</v>
       </c>
       <c r="C2762">
-        <v>7050</v>
+        <v>7030</v>
       </c>
       <c r="D2762" t="s">
         <v>2764</v>
@@ -47997,7 +47997,7 @@
         <v>74</v>
       </c>
       <c r="C2763">
-        <v>7100</v>
+        <v>7080</v>
       </c>
       <c r="D2763" t="s">
         <v>2765</v>
@@ -48011,7 +48011,7 @@
         <v>75</v>
       </c>
       <c r="C2764">
-        <v>7170</v>
+        <v>7120</v>
       </c>
       <c r="D2764" t="s">
         <v>2766</v>
@@ -48025,7 +48025,7 @@
         <v>76</v>
       </c>
       <c r="C2765">
-        <v>7250</v>
+        <v>7160</v>
       </c>
       <c r="D2765" t="s">
         <v>2767</v>
@@ -48039,7 +48039,7 @@
         <v>77</v>
       </c>
       <c r="C2766">
-        <v>7330</v>
+        <v>7200</v>
       </c>
       <c r="D2766" t="s">
         <v>2768</v>
@@ -48053,7 +48053,7 @@
         <v>78</v>
       </c>
       <c r="C2767">
-        <v>7390</v>
+        <v>7260</v>
       </c>
       <c r="D2767" t="s">
         <v>2769</v>
@@ -48067,7 +48067,7 @@
         <v>79</v>
       </c>
       <c r="C2768">
-        <v>7440</v>
+        <v>7300</v>
       </c>
       <c r="D2768" t="s">
         <v>2770</v>
@@ -48081,7 +48081,7 @@
         <v>80</v>
       </c>
       <c r="C2769">
-        <v>7470</v>
+        <v>7330</v>
       </c>
       <c r="D2769" t="s">
         <v>2771</v>
@@ -48095,7 +48095,7 @@
         <v>81</v>
       </c>
       <c r="C2770">
-        <v>7490</v>
+        <v>7370</v>
       </c>
       <c r="D2770" t="s">
         <v>2772</v>
@@ -48109,7 +48109,7 @@
         <v>82</v>
       </c>
       <c r="C2771">
-        <v>7500</v>
+        <v>7410</v>
       </c>
       <c r="D2771" t="s">
         <v>2773</v>
@@ -48123,7 +48123,7 @@
         <v>83</v>
       </c>
       <c r="C2772">
-        <v>7500</v>
+        <v>7430</v>
       </c>
       <c r="D2772" t="s">
         <v>2774</v>
@@ -48137,7 +48137,7 @@
         <v>84</v>
       </c>
       <c r="C2773">
-        <v>7500</v>
+        <v>7470</v>
       </c>
       <c r="D2773" t="s">
         <v>2775</v>
@@ -48151,7 +48151,7 @@
         <v>85</v>
       </c>
       <c r="C2774">
-        <v>7500</v>
+        <v>7470</v>
       </c>
       <c r="D2774" t="s">
         <v>2776</v>
@@ -48165,7 +48165,7 @@
         <v>86</v>
       </c>
       <c r="C2775">
-        <v>7500</v>
+        <v>7460</v>
       </c>
       <c r="D2775" t="s">
         <v>2777</v>
@@ -48179,7 +48179,7 @@
         <v>87</v>
       </c>
       <c r="C2776">
-        <v>7490</v>
+        <v>7430</v>
       </c>
       <c r="D2776" t="s">
         <v>2778</v>
@@ -48193,7 +48193,7 @@
         <v>88</v>
       </c>
       <c r="C2777">
-        <v>7450</v>
+        <v>7320</v>
       </c>
       <c r="D2777" t="s">
         <v>2779</v>
@@ -48207,7 +48207,7 @@
         <v>89</v>
       </c>
       <c r="C2778">
-        <v>7370</v>
+        <v>7150</v>
       </c>
       <c r="D2778" t="s">
         <v>2780</v>
@@ -48221,7 +48221,7 @@
         <v>90</v>
       </c>
       <c r="C2779">
-        <v>7320</v>
+        <v>6980</v>
       </c>
       <c r="D2779" t="s">
         <v>2781</v>
@@ -48235,7 +48235,7 @@
         <v>91</v>
       </c>
       <c r="C2780">
-        <v>7200</v>
+        <v>6830</v>
       </c>
       <c r="D2780" t="s">
         <v>2782</v>
@@ -48249,7 +48249,7 @@
         <v>92</v>
       </c>
       <c r="C2781">
-        <v>7030</v>
+        <v>6670</v>
       </c>
       <c r="D2781" t="s">
         <v>2783</v>
@@ -48263,7 +48263,7 @@
         <v>93</v>
       </c>
       <c r="C2782">
-        <v>6820</v>
+        <v>6490</v>
       </c>
       <c r="D2782" t="s">
         <v>2784</v>
@@ -48277,7 +48277,7 @@
         <v>94</v>
       </c>
       <c r="C2783">
-        <v>6680</v>
+        <v>6340</v>
       </c>
       <c r="D2783" t="s">
         <v>2785</v>
@@ -48291,7 +48291,7 @@
         <v>95</v>
       </c>
       <c r="C2784">
-        <v>6580</v>
+        <v>6230</v>
       </c>
       <c r="D2784" t="s">
         <v>2786</v>
@@ -48305,7 +48305,7 @@
         <v>96</v>
       </c>
       <c r="C2785">
-        <v>6470</v>
+        <v>6120</v>
       </c>
       <c r="D2785" t="s">
         <v>2787</v>
@@ -48319,7 +48319,7 @@
         <v>1</v>
       </c>
       <c r="C2786">
-        <v>6240</v>
+        <v>5950</v>
       </c>
       <c r="D2786" t="s">
         <v>2788</v>
@@ -48333,7 +48333,7 @@
         <v>2</v>
       </c>
       <c r="C2787">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="D2787" t="s">
         <v>2789</v>
@@ -48347,7 +48347,7 @@
         <v>3</v>
       </c>
       <c r="C2788">
-        <v>6140</v>
+        <v>5850</v>
       </c>
       <c r="D2788" t="s">
         <v>2790</v>
@@ -48361,7 +48361,7 @@
         <v>4</v>
       </c>
       <c r="C2789">
-        <v>6050</v>
+        <v>5800</v>
       </c>
       <c r="D2789" t="s">
         <v>2791</v>
@@ -48375,7 +48375,7 @@
         <v>5</v>
       </c>
       <c r="C2790">
-        <v>5970</v>
+        <v>5750</v>
       </c>
       <c r="D2790" t="s">
         <v>2792</v>
@@ -48389,7 +48389,7 @@
         <v>6</v>
       </c>
       <c r="C2791">
-        <v>5890</v>
+        <v>5700</v>
       </c>
       <c r="D2791" t="s">
         <v>2793</v>
@@ -48403,7 +48403,7 @@
         <v>7</v>
       </c>
       <c r="C2792">
-        <v>5830</v>
+        <v>5660</v>
       </c>
       <c r="D2792" t="s">
         <v>2794</v>
@@ -48417,7 +48417,7 @@
         <v>8</v>
       </c>
       <c r="C2793">
-        <v>5770</v>
+        <v>5610</v>
       </c>
       <c r="D2793" t="s">
         <v>2795</v>
@@ -48431,7 +48431,7 @@
         <v>9</v>
       </c>
       <c r="C2794">
-        <v>5710</v>
+        <v>5570</v>
       </c>
       <c r="D2794" t="s">
         <v>2796</v>
@@ -48445,7 +48445,7 @@
         <v>10</v>
       </c>
       <c r="C2795">
-        <v>5670</v>
+        <v>5520</v>
       </c>
       <c r="D2795" t="s">
         <v>2797</v>
@@ -48459,7 +48459,7 @@
         <v>11</v>
       </c>
       <c r="C2796">
-        <v>5640</v>
+        <v>5480</v>
       </c>
       <c r="D2796" t="s">
         <v>2798</v>
@@ -48473,7 +48473,7 @@
         <v>12</v>
       </c>
       <c r="C2797">
-        <v>5620</v>
+        <v>5440</v>
       </c>
       <c r="D2797" t="s">
         <v>2799</v>
@@ -48487,7 +48487,7 @@
         <v>13</v>
       </c>
       <c r="C2798">
-        <v>5620</v>
+        <v>5400</v>
       </c>
       <c r="D2798" t="s">
         <v>2800</v>
@@ -48501,7 +48501,7 @@
         <v>14</v>
       </c>
       <c r="C2799">
-        <v>5610</v>
+        <v>5370</v>
       </c>
       <c r="D2799" t="s">
         <v>2801</v>
@@ -48515,7 +48515,7 @@
         <v>15</v>
       </c>
       <c r="C2800">
-        <v>5610</v>
+        <v>5370</v>
       </c>
       <c r="D2800" t="s">
         <v>2802</v>
@@ -48529,7 +48529,7 @@
         <v>16</v>
       </c>
       <c r="C2801">
-        <v>5610</v>
+        <v>5360</v>
       </c>
       <c r="D2801" t="s">
         <v>2803</v>
@@ -48543,7 +48543,7 @@
         <v>17</v>
       </c>
       <c r="C2802">
-        <v>5610</v>
+        <v>5360</v>
       </c>
       <c r="D2802" t="s">
         <v>2804</v>
@@ -48557,7 +48557,7 @@
         <v>18</v>
       </c>
       <c r="C2803">
-        <v>5610</v>
+        <v>5350</v>
       </c>
       <c r="D2803" t="s">
         <v>2805</v>
@@ -48571,7 +48571,7 @@
         <v>19</v>
       </c>
       <c r="C2804">
-        <v>5600</v>
+        <v>5350</v>
       </c>
       <c r="D2804" t="s">
         <v>2806</v>
@@ -48585,7 +48585,7 @@
         <v>20</v>
       </c>
       <c r="C2805">
-        <v>5610</v>
+        <v>5360</v>
       </c>
       <c r="D2805" t="s">
         <v>2807</v>
@@ -48599,7 +48599,7 @@
         <v>21</v>
       </c>
       <c r="C2806">
-        <v>5620</v>
+        <v>5360</v>
       </c>
       <c r="D2806" t="s">
         <v>2808</v>
@@ -48613,7 +48613,7 @@
         <v>22</v>
       </c>
       <c r="C2807">
-        <v>5640</v>
+        <v>5390</v>
       </c>
       <c r="D2807" t="s">
         <v>2809</v>
@@ -48627,7 +48627,7 @@
         <v>23</v>
       </c>
       <c r="C2808">
-        <v>5680</v>
+        <v>5440</v>
       </c>
       <c r="D2808" t="s">
         <v>2810</v>
@@ -48641,7 +48641,7 @@
         <v>24</v>
       </c>
       <c r="C2809">
-        <v>5730</v>
+        <v>5500</v>
       </c>
       <c r="D2809" t="s">
         <v>2811</v>
@@ -48655,7 +48655,7 @@
         <v>25</v>
       </c>
       <c r="C2810">
-        <v>5800</v>
+        <v>5570</v>
       </c>
       <c r="D2810" t="s">
         <v>2812</v>
@@ -48669,7 +48669,7 @@
         <v>26</v>
       </c>
       <c r="C2811">
-        <v>5880</v>
+        <v>5650</v>
       </c>
       <c r="D2811" t="s">
         <v>2813</v>
@@ -48683,7 +48683,7 @@
         <v>27</v>
       </c>
       <c r="C2812">
-        <v>5980</v>
+        <v>5740</v>
       </c>
       <c r="D2812" t="s">
         <v>2814</v>
@@ -48697,7 +48697,7 @@
         <v>28</v>
       </c>
       <c r="C2813">
-        <v>6090</v>
+        <v>5850</v>
       </c>
       <c r="D2813" t="s">
         <v>2815</v>
@@ -48711,7 +48711,7 @@
         <v>29</v>
       </c>
       <c r="C2814">
-        <v>6190</v>
+        <v>5980</v>
       </c>
       <c r="D2814" t="s">
         <v>2816</v>
@@ -48725,7 +48725,7 @@
         <v>30</v>
       </c>
       <c r="C2815">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="D2815" t="s">
         <v>2817</v>
@@ -48739,7 +48739,7 @@
         <v>31</v>
       </c>
       <c r="C2816">
-        <v>6400</v>
+        <v>6210</v>
       </c>
       <c r="D2816" t="s">
         <v>2818</v>
@@ -48753,7 +48753,7 @@
         <v>32</v>
       </c>
       <c r="C2817">
-        <v>6490</v>
+        <v>6300</v>
       </c>
       <c r="D2817" t="s">
         <v>2819</v>
@@ -48767,7 +48767,7 @@
         <v>33</v>
       </c>
       <c r="C2818">
-        <v>6560</v>
+        <v>6410</v>
       </c>
       <c r="D2818" t="s">
         <v>2820</v>
@@ -48781,7 +48781,7 @@
         <v>34</v>
       </c>
       <c r="C2819">
-        <v>6620</v>
+        <v>6490</v>
       </c>
       <c r="D2819" t="s">
         <v>2821</v>
@@ -48795,7 +48795,7 @@
         <v>35</v>
       </c>
       <c r="C2820">
-        <v>6660</v>
+        <v>6530</v>
       </c>
       <c r="D2820" t="s">
         <v>2822</v>
@@ -48809,7 +48809,7 @@
         <v>36</v>
       </c>
       <c r="C2821">
-        <v>6680</v>
+        <v>6560</v>
       </c>
       <c r="D2821" t="s">
         <v>2823</v>
@@ -48823,7 +48823,7 @@
         <v>37</v>
       </c>
       <c r="C2822">
-        <v>6680</v>
+        <v>6560</v>
       </c>
       <c r="D2822" t="s">
         <v>2824</v>
@@ -48837,7 +48837,7 @@
         <v>38</v>
       </c>
       <c r="C2823">
-        <v>6680</v>
+        <v>6540</v>
       </c>
       <c r="D2823" t="s">
         <v>2825</v>
@@ -48851,7 +48851,7 @@
         <v>39</v>
       </c>
       <c r="C2824">
-        <v>6660</v>
+        <v>6510</v>
       </c>
       <c r="D2824" t="s">
         <v>2826</v>
@@ -48865,7 +48865,7 @@
         <v>40</v>
       </c>
       <c r="C2825">
-        <v>6640</v>
+        <v>6480</v>
       </c>
       <c r="D2825" t="s">
         <v>2827</v>
@@ -48879,7 +48879,7 @@
         <v>41</v>
       </c>
       <c r="C2826">
-        <v>6620</v>
+        <v>6450</v>
       </c>
       <c r="D2826" t="s">
         <v>2828</v>
@@ -48893,7 +48893,7 @@
         <v>42</v>
       </c>
       <c r="C2827">
-        <v>6600</v>
+        <v>6420</v>
       </c>
       <c r="D2827" t="s">
         <v>2829</v>
@@ -48907,7 +48907,7 @@
         <v>43</v>
       </c>
       <c r="C2828">
-        <v>6580</v>
+        <v>6380</v>
       </c>
       <c r="D2828" t="s">
         <v>2830</v>
@@ -48921,7 +48921,7 @@
         <v>44</v>
       </c>
       <c r="C2829">
-        <v>6570</v>
+        <v>6350</v>
       </c>
       <c r="D2829" t="s">
         <v>2831</v>
@@ -48935,7 +48935,7 @@
         <v>45</v>
       </c>
       <c r="C2830">
-        <v>6560</v>
+        <v>6310</v>
       </c>
       <c r="D2830" t="s">
         <v>2832</v>
@@ -48949,7 +48949,7 @@
         <v>46</v>
       </c>
       <c r="C2831">
-        <v>6560</v>
+        <v>6290</v>
       </c>
       <c r="D2831" t="s">
         <v>2833</v>
@@ -48963,7 +48963,7 @@
         <v>47</v>
       </c>
       <c r="C2832">
-        <v>6560</v>
+        <v>6280</v>
       </c>
       <c r="D2832" t="s">
         <v>2834</v>
@@ -48977,7 +48977,7 @@
         <v>48</v>
       </c>
       <c r="C2833">
-        <v>6560</v>
+        <v>6260</v>
       </c>
       <c r="D2833" t="s">
         <v>2835</v>
@@ -48991,7 +48991,7 @@
         <v>49</v>
       </c>
       <c r="C2834">
-        <v>6570</v>
+        <v>6230</v>
       </c>
       <c r="D2834" t="s">
         <v>2836</v>
@@ -49005,7 +49005,7 @@
         <v>50</v>
       </c>
       <c r="C2835">
-        <v>6570</v>
+        <v>6210</v>
       </c>
       <c r="D2835" t="s">
         <v>2837</v>
@@ -49019,7 +49019,7 @@
         <v>51</v>
       </c>
       <c r="C2836">
-        <v>6570</v>
+        <v>6190</v>
       </c>
       <c r="D2836" t="s">
         <v>2838</v>
@@ -49033,7 +49033,7 @@
         <v>52</v>
       </c>
       <c r="C2837">
-        <v>6580</v>
+        <v>6180</v>
       </c>
       <c r="D2837" t="s">
         <v>2839</v>
@@ -49047,7 +49047,7 @@
         <v>53</v>
       </c>
       <c r="C2838">
-        <v>6590</v>
+        <v>6180</v>
       </c>
       <c r="D2838" t="s">
         <v>2840</v>
@@ -49061,7 +49061,7 @@
         <v>54</v>
       </c>
       <c r="C2839">
-        <v>6610</v>
+        <v>6180</v>
       </c>
       <c r="D2839" t="s">
         <v>2841</v>
@@ -49075,7 +49075,7 @@
         <v>55</v>
       </c>
       <c r="C2840">
-        <v>6620</v>
+        <v>6180</v>
       </c>
       <c r="D2840" t="s">
         <v>2842</v>
@@ -49089,7 +49089,7 @@
         <v>56</v>
       </c>
       <c r="C2841">
-        <v>6650</v>
+        <v>6180</v>
       </c>
       <c r="D2841" t="s">
         <v>2843</v>
@@ -49103,7 +49103,7 @@
         <v>57</v>
       </c>
       <c r="C2842">
-        <v>6670</v>
+        <v>6180</v>
       </c>
       <c r="D2842" t="s">
         <v>2844</v>
@@ -49117,7 +49117,7 @@
         <v>58</v>
       </c>
       <c r="C2843">
-        <v>6700</v>
+        <v>6180</v>
       </c>
       <c r="D2843" t="s">
         <v>2845</v>
@@ -49131,7 +49131,7 @@
         <v>59</v>
       </c>
       <c r="C2844">
-        <v>6720</v>
+        <v>6180</v>
       </c>
       <c r="D2844" t="s">
         <v>2846</v>
@@ -49145,7 +49145,7 @@
         <v>60</v>
       </c>
       <c r="C2845">
-        <v>6740</v>
+        <v>6190</v>
       </c>
       <c r="D2845" t="s">
         <v>2847</v>
@@ -49159,7 +49159,7 @@
         <v>61</v>
       </c>
       <c r="C2846">
-        <v>6760</v>
+        <v>6240</v>
       </c>
       <c r="D2846" t="s">
         <v>2848</v>
@@ -49173,7 +49173,7 @@
         <v>62</v>
       </c>
       <c r="C2847">
-        <v>6770</v>
+        <v>6260</v>
       </c>
       <c r="D2847" t="s">
         <v>2849</v>
@@ -49187,7 +49187,7 @@
         <v>63</v>
       </c>
       <c r="C2848">
-        <v>6790</v>
+        <v>6280</v>
       </c>
       <c r="D2848" t="s">
         <v>2850</v>
@@ -49201,7 +49201,7 @@
         <v>64</v>
       </c>
       <c r="C2849">
-        <v>6810</v>
+        <v>6300</v>
       </c>
       <c r="D2849" t="s">
         <v>2851</v>
@@ -49215,7 +49215,7 @@
         <v>65</v>
       </c>
       <c r="C2850">
-        <v>6840</v>
+        <v>6330</v>
       </c>
       <c r="D2850" t="s">
         <v>2852</v>
@@ -49229,7 +49229,7 @@
         <v>66</v>
       </c>
       <c r="C2851">
-        <v>6870</v>
+        <v>6370</v>
       </c>
       <c r="D2851" t="s">
         <v>2853</v>
@@ -49243,7 +49243,7 @@
         <v>67</v>
       </c>
       <c r="C2852">
-        <v>6910</v>
+        <v>6420</v>
       </c>
       <c r="D2852" t="s">
         <v>2854</v>
@@ -49257,7 +49257,7 @@
         <v>68</v>
       </c>
       <c r="C2853">
-        <v>6950</v>
+        <v>6460</v>
       </c>
       <c r="D2853" t="s">
         <v>2855</v>
@@ -49271,7 +49271,7 @@
         <v>69</v>
       </c>
       <c r="C2854">
-        <v>6990</v>
+        <v>6520</v>
       </c>
       <c r="D2854" t="s">
         <v>2856</v>
@@ -49285,7 +49285,7 @@
         <v>70</v>
       </c>
       <c r="C2855">
-        <v>7020</v>
+        <v>6580</v>
       </c>
       <c r="D2855" t="s">
         <v>2857</v>
@@ -49299,7 +49299,7 @@
         <v>71</v>
       </c>
       <c r="C2856">
-        <v>7040</v>
+        <v>6630</v>
       </c>
       <c r="D2856" t="s">
         <v>2858</v>
@@ -49313,7 +49313,7 @@
         <v>72</v>
       </c>
       <c r="C2857">
-        <v>7060</v>
+        <v>6680</v>
       </c>
       <c r="D2857" t="s">
         <v>2859</v>
@@ -49327,7 +49327,7 @@
         <v>73</v>
       </c>
       <c r="C2858">
-        <v>7090</v>
+        <v>6760</v>
       </c>
       <c r="D2858" t="s">
         <v>2860</v>
@@ -49341,7 +49341,7 @@
         <v>74</v>
       </c>
       <c r="C2859">
-        <v>7110</v>
+        <v>6810</v>
       </c>
       <c r="D2859" t="s">
         <v>2861</v>
@@ -49355,7 +49355,7 @@
         <v>75</v>
       </c>
       <c r="C2860">
-        <v>7130</v>
+        <v>6880</v>
       </c>
       <c r="D2860" t="s">
         <v>2862</v>
@@ -49369,7 +49369,7 @@
         <v>76</v>
       </c>
       <c r="C2861">
-        <v>7160</v>
+        <v>6950</v>
       </c>
       <c r="D2861" t="s">
         <v>2863</v>
@@ -49383,7 +49383,7 @@
         <v>77</v>
       </c>
       <c r="C2862">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="D2862" t="s">
         <v>2864</v>
@@ -49397,7 +49397,7 @@
         <v>78</v>
       </c>
       <c r="C2863">
-        <v>7230</v>
+        <v>7080</v>
       </c>
       <c r="D2863" t="s">
         <v>2865</v>
@@ -49411,7 +49411,7 @@
         <v>79</v>
       </c>
       <c r="C2864">
-        <v>7250</v>
+        <v>7140</v>
       </c>
       <c r="D2864" t="s">
         <v>2866</v>
@@ -49425,7 +49425,7 @@
         <v>80</v>
       </c>
       <c r="C2865">
-        <v>7290</v>
+        <v>7180</v>
       </c>
       <c r="D2865" t="s">
         <v>2867</v>
@@ -49439,7 +49439,7 @@
         <v>81</v>
       </c>
       <c r="C2866">
-        <v>7310</v>
+        <v>7210</v>
       </c>
       <c r="D2866" t="s">
         <v>2868</v>
@@ -49453,7 +49453,7 @@
         <v>82</v>
       </c>
       <c r="C2867">
-        <v>7340</v>
+        <v>7240</v>
       </c>
       <c r="D2867" t="s">
         <v>2869</v>
@@ -49467,7 +49467,7 @@
         <v>83</v>
       </c>
       <c r="C2868">
-        <v>7370</v>
+        <v>7260</v>
       </c>
       <c r="D2868" t="s">
         <v>2870</v>
@@ -49481,7 +49481,7 @@
         <v>84</v>
       </c>
       <c r="C2869">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="D2869" t="s">
         <v>2871</v>
@@ -49495,7 +49495,7 @@
         <v>85</v>
       </c>
       <c r="C2870">
-        <v>7400</v>
+        <v>7310</v>
       </c>
       <c r="D2870" t="s">
         <v>2872</v>
@@ -49509,7 +49509,7 @@
         <v>86</v>
       </c>
       <c r="C2871">
-        <v>7370</v>
+        <v>7270</v>
       </c>
       <c r="D2871" t="s">
         <v>2873</v>
@@ -49523,7 +49523,7 @@
         <v>87</v>
       </c>
       <c r="C2872">
-        <v>7340</v>
+        <v>7220</v>
       </c>
       <c r="D2872" t="s">
         <v>2874</v>
@@ -49537,7 +49537,7 @@
         <v>88</v>
       </c>
       <c r="C2873">
-        <v>7280</v>
+        <v>7110</v>
       </c>
       <c r="D2873" t="s">
         <v>2875</v>
@@ -49551,7 +49551,7 @@
         <v>89</v>
       </c>
       <c r="C2874">
-        <v>7190</v>
+        <v>6940</v>
       </c>
       <c r="D2874" t="s">
         <v>2876</v>
@@ -49565,7 +49565,7 @@
         <v>90</v>
       </c>
       <c r="C2875">
-        <v>7100</v>
+        <v>6780</v>
       </c>
       <c r="D2875" t="s">
         <v>2877</v>
@@ -49579,7 +49579,7 @@
         <v>91</v>
       </c>
       <c r="C2876">
-        <v>6980</v>
+        <v>6630</v>
       </c>
       <c r="D2876" t="s">
         <v>2878</v>
@@ -49593,7 +49593,7 @@
         <v>92</v>
       </c>
       <c r="C2877">
-        <v>6810</v>
+        <v>6470</v>
       </c>
       <c r="D2877" t="s">
         <v>2879</v>
@@ -49607,7 +49607,7 @@
         <v>93</v>
       </c>
       <c r="C2878">
-        <v>6560</v>
+        <v>6290</v>
       </c>
       <c r="D2878" t="s">
         <v>2880</v>
@@ -49621,7 +49621,7 @@
         <v>94</v>
       </c>
       <c r="C2879">
-        <v>6390</v>
+        <v>6140</v>
       </c>
       <c r="D2879" t="s">
         <v>2881</v>
@@ -49635,7 +49635,7 @@
         <v>95</v>
       </c>
       <c r="C2880">
-        <v>6300</v>
+        <v>6030</v>
       </c>
       <c r="D2880" t="s">
         <v>2882</v>
@@ -49649,7 +49649,7 @@
         <v>96</v>
       </c>
       <c r="C2881">
-        <v>6190</v>
+        <v>5920</v>
       </c>
       <c r="D2881" t="s">
         <v>2883</v>
@@ -49663,7 +49663,7 @@
         <v>1</v>
       </c>
       <c r="C2882">
-        <v>6140</v>
+        <v>5890</v>
       </c>
       <c r="D2882" t="s">
         <v>2884</v>
@@ -49677,7 +49677,7 @@
         <v>2</v>
       </c>
       <c r="C2883">
-        <v>6100</v>
+        <v>5860</v>
       </c>
       <c r="D2883" t="s">
         <v>2885</v>
@@ -49691,7 +49691,7 @@
         <v>3</v>
       </c>
       <c r="C2884">
-        <v>6040</v>
+        <v>5780</v>
       </c>
       <c r="D2884" t="s">
         <v>2886</v>
@@ -49705,7 +49705,7 @@
         <v>4</v>
       </c>
       <c r="C2885">
-        <v>5970</v>
+        <v>5700</v>
       </c>
       <c r="D2885" t="s">
         <v>2887</v>
@@ -49719,7 +49719,7 @@
         <v>5</v>
       </c>
       <c r="C2886">
-        <v>5910</v>
+        <v>5630</v>
       </c>
       <c r="D2886" t="s">
         <v>2888</v>
@@ -49733,7 +49733,7 @@
         <v>6</v>
       </c>
       <c r="C2887">
-        <v>5860</v>
+        <v>5570</v>
       </c>
       <c r="D2887" t="s">
         <v>2889</v>
@@ -49747,7 +49747,7 @@
         <v>7</v>
       </c>
       <c r="C2888">
-        <v>5810</v>
+        <v>5510</v>
       </c>
       <c r="D2888" t="s">
         <v>2890</v>
@@ -49761,7 +49761,7 @@
         <v>8</v>
       </c>
       <c r="C2889">
-        <v>5750</v>
+        <v>5460</v>
       </c>
       <c r="D2889" t="s">
         <v>2891</v>
@@ -49775,7 +49775,7 @@
         <v>9</v>
       </c>
       <c r="C2890">
-        <v>5690</v>
+        <v>5410</v>
       </c>
       <c r="D2890" t="s">
         <v>2892</v>
@@ -49789,7 +49789,7 @@
         <v>10</v>
       </c>
       <c r="C2891">
-        <v>5640</v>
+        <v>5370</v>
       </c>
       <c r="D2891" t="s">
         <v>2893</v>
@@ -49803,7 +49803,7 @@
         <v>11</v>
       </c>
       <c r="C2892">
-        <v>5600</v>
+        <v>5340</v>
       </c>
       <c r="D2892" t="s">
         <v>2894</v>
@@ -49817,7 +49817,7 @@
         <v>12</v>
       </c>
       <c r="C2893">
-        <v>5560</v>
+        <v>5330</v>
       </c>
       <c r="D2893" t="s">
         <v>2895</v>
@@ -49831,7 +49831,7 @@
         <v>13</v>
       </c>
       <c r="C2894">
-        <v>5540</v>
+        <v>5330</v>
       </c>
       <c r="D2894" t="s">
         <v>2896</v>
@@ -49845,7 +49845,7 @@
         <v>14</v>
       </c>
       <c r="C2895">
-        <v>5530</v>
+        <v>5330</v>
       </c>
       <c r="D2895" t="s">
         <v>2897</v>
@@ -49859,7 +49859,7 @@
         <v>15</v>
       </c>
       <c r="C2896">
-        <v>5520</v>
+        <v>5330</v>
       </c>
       <c r="D2896" t="s">
         <v>2898</v>
@@ -49873,7 +49873,7 @@
         <v>16</v>
       </c>
       <c r="C2897">
-        <v>5510</v>
+        <v>5320</v>
       </c>
       <c r="D2897" t="s">
         <v>2899</v>
@@ -49887,7 +49887,7 @@
         <v>17</v>
       </c>
       <c r="C2898">
-        <v>5510</v>
+        <v>5320</v>
       </c>
       <c r="D2898" t="s">
         <v>2900</v>
@@ -49901,7 +49901,7 @@
         <v>18</v>
       </c>
       <c r="C2899">
-        <v>5510</v>
+        <v>5300</v>
       </c>
       <c r="D2899" t="s">
         <v>2901</v>
@@ -49915,7 +49915,7 @@
         <v>19</v>
       </c>
       <c r="C2900">
-        <v>5510</v>
+        <v>5300</v>
       </c>
       <c r="D2900" t="s">
         <v>2902</v>
@@ -49929,7 +49929,7 @@
         <v>20</v>
       </c>
       <c r="C2901">
-        <v>5510</v>
+        <v>5300</v>
       </c>
       <c r="D2901" t="s">
         <v>2903</v>
@@ -49943,7 +49943,7 @@
         <v>21</v>
       </c>
       <c r="C2902">
-        <v>5530</v>
+        <v>5310</v>
       </c>
       <c r="D2902" t="s">
         <v>2904</v>
@@ -49957,7 +49957,7 @@
         <v>22</v>
       </c>
       <c r="C2903">
-        <v>5560</v>
+        <v>5350</v>
       </c>
       <c r="D2903" t="s">
         <v>2905</v>
@@ -49971,7 +49971,7 @@
         <v>23</v>
       </c>
       <c r="C2904">
-        <v>5610</v>
+        <v>5390</v>
       </c>
       <c r="D2904" t="s">
         <v>2906</v>
@@ -49985,7 +49985,7 @@
         <v>24</v>
       </c>
       <c r="C2905">
-        <v>5670</v>
+        <v>5450</v>
       </c>
       <c r="D2905" t="s">
         <v>2907</v>
@@ -49999,7 +49999,7 @@
         <v>25</v>
       </c>
       <c r="C2906">
-        <v>5740</v>
+        <v>5530</v>
       </c>
       <c r="D2906" t="s">
         <v>2908</v>
@@ -50013,7 +50013,7 @@
         <v>26</v>
       </c>
       <c r="C2907">
-        <v>5830</v>
+        <v>5630</v>
       </c>
       <c r="D2907" t="s">
         <v>2909</v>
@@ -50027,7 +50027,7 @@
         <v>27</v>
       </c>
       <c r="C2908">
-        <v>5930</v>
+        <v>5730</v>
       </c>
       <c r="D2908" t="s">
         <v>2910</v>
@@ -50041,7 +50041,7 @@
         <v>28</v>
       </c>
       <c r="C2909">
-        <v>6040</v>
+        <v>5850</v>
       </c>
       <c r="D2909" t="s">
         <v>2911</v>
@@ -50055,7 +50055,7 @@
         <v>29</v>
       </c>
       <c r="C2910">
-        <v>6160</v>
+        <v>5960</v>
       </c>
       <c r="D2910" t="s">
         <v>2912</v>
@@ -50069,7 +50069,7 @@
         <v>30</v>
       </c>
       <c r="C2911">
-        <v>6270</v>
+        <v>6070</v>
       </c>
       <c r="D2911" t="s">
         <v>2913</v>
@@ -50083,7 +50083,7 @@
         <v>31</v>
       </c>
       <c r="C2912">
-        <v>6380</v>
+        <v>6170</v>
       </c>
       <c r="D2912" t="s">
         <v>2914</v>
@@ -50097,7 +50097,7 @@
         <v>32</v>
       </c>
       <c r="C2913">
-        <v>6470</v>
+        <v>6260</v>
       </c>
       <c r="D2913" t="s">
         <v>2915</v>
@@ -50111,7 +50111,7 @@
         <v>33</v>
       </c>
       <c r="C2914">
-        <v>6550</v>
+        <v>6330</v>
       </c>
       <c r="D2914" t="s">
         <v>2916</v>
@@ -50125,7 +50125,7 @@
         <v>34</v>
       </c>
       <c r="C2915">
-        <v>6610</v>
+        <v>6380</v>
       </c>
       <c r="D2915" t="s">
         <v>2917</v>
@@ -50139,7 +50139,7 @@
         <v>35</v>
       </c>
       <c r="C2916">
-        <v>6650</v>
+        <v>6400</v>
       </c>
       <c r="D2916" t="s">
         <v>2918</v>
@@ -50153,7 +50153,7 @@
         <v>36</v>
       </c>
       <c r="C2917">
-        <v>6680</v>
+        <v>6400</v>
       </c>
       <c r="D2917" t="s">
         <v>2919</v>
@@ -50167,7 +50167,7 @@
         <v>37</v>
       </c>
       <c r="C2918">
-        <v>6690</v>
+        <v>6400</v>
       </c>
       <c r="D2918" t="s">
         <v>2920</v>
@@ -50181,7 +50181,7 @@
         <v>38</v>
       </c>
       <c r="C2919">
-        <v>6680</v>
+        <v>6400</v>
       </c>
       <c r="D2919" t="s">
         <v>2921</v>
@@ -50195,7 +50195,7 @@
         <v>39</v>
       </c>
       <c r="C2920">
-        <v>6670</v>
+        <v>6370</v>
       </c>
       <c r="D2920" t="s">
         <v>2922</v>
@@ -50209,7 +50209,7 @@
         <v>40</v>
       </c>
       <c r="C2921">
-        <v>6650</v>
+        <v>6340</v>
       </c>
       <c r="D2921" t="s">
         <v>2923</v>
@@ -50223,7 +50223,7 @@
         <v>41</v>
       </c>
       <c r="C2922">
-        <v>6630</v>
+        <v>6310</v>
       </c>
       <c r="D2922" t="s">
         <v>2924</v>
@@ -50237,7 +50237,7 @@
         <v>42</v>
       </c>
       <c r="C2923">
-        <v>6620</v>
+        <v>6280</v>
       </c>
       <c r="D2923" t="s">
         <v>2925</v>
@@ -50251,7 +50251,7 @@
         <v>43</v>
       </c>
       <c r="C2924">
-        <v>6610</v>
+        <v>6260</v>
       </c>
       <c r="D2924" t="s">
         <v>2926</v>
@@ -50265,7 +50265,7 @@
         <v>44</v>
       </c>
       <c r="C2925">
-        <v>6610</v>
+        <v>6250</v>
       </c>
       <c r="D2925" t="s">
         <v>2927</v>
@@ -50279,7 +50279,7 @@
         <v>45</v>
       </c>
       <c r="C2926">
-        <v>6620</v>
+        <v>6240</v>
       </c>
       <c r="D2926" t="s">
         <v>2928</v>
@@ -50293,7 +50293,7 @@
         <v>46</v>
       </c>
       <c r="C2927">
-        <v>6630</v>
+        <v>6240</v>
       </c>
       <c r="D2927" t="s">
         <v>2929</v>
@@ -50307,7 +50307,7 @@
         <v>47</v>
       </c>
       <c r="C2928">
-        <v>6640</v>
+        <v>6240</v>
       </c>
       <c r="D2928" t="s">
         <v>2930</v>
@@ -50321,7 +50321,7 @@
         <v>48</v>
       </c>
       <c r="C2929">
-        <v>6650</v>
+        <v>6240</v>
       </c>
       <c r="D2929" t="s">
         <v>2931</v>
@@ -50335,7 +50335,7 @@
         <v>49</v>
       </c>
       <c r="C2930">
-        <v>6660</v>
+        <v>6240</v>
       </c>
       <c r="D2930" t="s">
         <v>2932</v>
@@ -50349,7 +50349,7 @@
         <v>50</v>
       </c>
       <c r="C2931">
-        <v>6660</v>
+        <v>6240</v>
       </c>
       <c r="D2931" t="s">
         <v>2933</v>
@@ -50363,7 +50363,7 @@
         <v>51</v>
       </c>
       <c r="C2932">
-        <v>6660</v>
+        <v>6230</v>
       </c>
       <c r="D2932" t="s">
         <v>2934</v>
@@ -50377,7 +50377,7 @@
         <v>52</v>
       </c>
       <c r="C2933">
-        <v>6660</v>
+        <v>6220</v>
       </c>
       <c r="D2933" t="s">
         <v>2935</v>
@@ -50391,7 +50391,7 @@
         <v>53</v>
       </c>
       <c r="C2934">
-        <v>6670</v>
+        <v>6210</v>
       </c>
       <c r="D2934" t="s">
         <v>2936</v>
@@ -50405,7 +50405,7 @@
         <v>54</v>
       </c>
       <c r="C2935">
-        <v>6680</v>
+        <v>6210</v>
       </c>
       <c r="D2935" t="s">
         <v>2937</v>
@@ -50419,7 +50419,7 @@
         <v>55</v>
       </c>
       <c r="C2936">
-        <v>6700</v>
+        <v>6210</v>
       </c>
       <c r="D2936" t="s">
         <v>2938</v>
@@ -50433,7 +50433,7 @@
         <v>56</v>
       </c>
       <c r="C2937">
-        <v>6720</v>
+        <v>6220</v>
       </c>
       <c r="D2937" t="s">
         <v>2939</v>
@@ -50447,7 +50447,7 @@
         <v>57</v>
       </c>
       <c r="C2938">
-        <v>6750</v>
+        <v>6240</v>
       </c>
       <c r="D2938" t="s">
         <v>2940</v>
@@ -50461,7 +50461,7 @@
         <v>58</v>
       </c>
       <c r="C2939">
-        <v>6780</v>
+        <v>6260</v>
       </c>
       <c r="D2939" t="s">
         <v>2941</v>
@@ -50475,7 +50475,7 @@
         <v>59</v>
       </c>
       <c r="C2940">
-        <v>6800</v>
+        <v>6280</v>
       </c>
       <c r="D2940" t="s">
         <v>2942</v>
@@ -50489,7 +50489,7 @@
         <v>60</v>
       </c>
       <c r="C2941">
-        <v>6830</v>
+        <v>6300</v>
       </c>
       <c r="D2941" t="s">
         <v>2943</v>
@@ -50503,7 +50503,7 @@
         <v>61</v>
       </c>
       <c r="C2942">
-        <v>6840</v>
+        <v>6330</v>
       </c>
       <c r="D2942" t="s">
         <v>2944</v>
@@ -50517,7 +50517,7 @@
         <v>62</v>
       </c>
       <c r="C2943">
-        <v>6860</v>
+        <v>6350</v>
       </c>
       <c r="D2943" t="s">
         <v>2945</v>
@@ -50531,7 +50531,7 @@
         <v>63</v>
       </c>
       <c r="C2944">
-        <v>6890</v>
+        <v>6370</v>
       </c>
       <c r="D2944" t="s">
         <v>2946</v>
@@ -50545,7 +50545,7 @@
         <v>64</v>
       </c>
       <c r="C2945">
-        <v>6900</v>
+        <v>6400</v>
       </c>
       <c r="D2945" t="s">
         <v>2947</v>
@@ -50559,7 +50559,7 @@
         <v>65</v>
       </c>
       <c r="C2946">
-        <v>6930</v>
+        <v>6430</v>
       </c>
       <c r="D2946" t="s">
         <v>2948</v>
@@ -50573,7 +50573,7 @@
         <v>66</v>
       </c>
       <c r="C2947">
-        <v>6950</v>
+        <v>6470</v>
       </c>
       <c r="D2947" t="s">
         <v>2949</v>
@@ -50587,7 +50587,7 @@
         <v>67</v>
       </c>
       <c r="C2948">
-        <v>6970</v>
+        <v>6520</v>
       </c>
       <c r="D2948" t="s">
         <v>2950</v>
@@ -50601,7 +50601,7 @@
         <v>68</v>
       </c>
       <c r="C2949">
-        <v>7010</v>
+        <v>6570</v>
       </c>
       <c r="D2949" t="s">
         <v>2951</v>
@@ -50615,7 +50615,7 @@
         <v>69</v>
       </c>
       <c r="C2950">
-        <v>7060</v>
+        <v>6630</v>
       </c>
       <c r="D2950" t="s">
         <v>2952</v>
@@ -50629,7 +50629,7 @@
         <v>70</v>
       </c>
       <c r="C2951">
-        <v>7110</v>
+        <v>6680</v>
       </c>
       <c r="D2951" t="s">
         <v>2953</v>
@@ -50643,7 +50643,7 @@
         <v>71</v>
       </c>
       <c r="C2952">
-        <v>7140</v>
+        <v>6730</v>
       </c>
       <c r="D2952" t="s">
         <v>2954</v>
@@ -50657,7 +50657,7 @@
         <v>72</v>
       </c>
       <c r="C2953">
-        <v>7150</v>
+        <v>6770</v>
       </c>
       <c r="D2953" t="s">
         <v>2955</v>
@@ -50671,7 +50671,7 @@
         <v>73</v>
       </c>
       <c r="C2954">
-        <v>7160</v>
+        <v>6810</v>
       </c>
       <c r="D2954" t="s">
         <v>2956</v>
@@ -50685,7 +50685,7 @@
         <v>74</v>
       </c>
       <c r="C2955">
-        <v>7170</v>
+        <v>6850</v>
       </c>
       <c r="D2955" t="s">
         <v>2957</v>
@@ -50699,7 +50699,7 @@
         <v>75</v>
       </c>
       <c r="C2956">
-        <v>7190</v>
+        <v>6910</v>
       </c>
       <c r="D2956" t="s">
         <v>2958</v>
@@ -50713,7 +50713,7 @@
         <v>76</v>
       </c>
       <c r="C2957">
-        <v>7230</v>
+        <v>6990</v>
       </c>
       <c r="D2957" t="s">
         <v>2959</v>
@@ -50727,7 +50727,7 @@
         <v>77</v>
       </c>
       <c r="C2958">
-        <v>7270</v>
+        <v>7070</v>
       </c>
       <c r="D2958" t="s">
         <v>2960</v>
@@ -50741,7 +50741,7 @@
         <v>78</v>
       </c>
       <c r="C2959">
-        <v>7320</v>
+        <v>7150</v>
       </c>
       <c r="D2959" t="s">
         <v>2961</v>
@@ -50755,7 +50755,7 @@
         <v>79</v>
       </c>
       <c r="C2960">
-        <v>7350</v>
+        <v>7210</v>
       </c>
       <c r="D2960" t="s">
         <v>2962</v>
@@ -50769,7 +50769,7 @@
         <v>80</v>
       </c>
       <c r="C2961">
-        <v>7360</v>
+        <v>7240</v>
       </c>
       <c r="D2961" t="s">
         <v>2963</v>
@@ -50783,7 +50783,7 @@
         <v>81</v>
       </c>
       <c r="C2962">
-        <v>7380</v>
+        <v>7270</v>
       </c>
       <c r="D2962" t="s">
         <v>2964</v>
@@ -50797,7 +50797,7 @@
         <v>82</v>
       </c>
       <c r="C2963">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="D2963" t="s">
         <v>2965</v>
@@ -50811,7 +50811,7 @@
         <v>83</v>
       </c>
       <c r="C2964">
-        <v>7430</v>
+        <v>7300</v>
       </c>
       <c r="D2964" t="s">
         <v>2966</v>
@@ -50825,7 +50825,7 @@
         <v>84</v>
       </c>
       <c r="C2965">
-        <v>7480</v>
+        <v>7300</v>
       </c>
       <c r="D2965" t="s">
         <v>2967</v>
@@ -50839,7 +50839,7 @@
         <v>85</v>
       </c>
       <c r="C2966">
-        <v>7490</v>
+        <v>7300</v>
       </c>
       <c r="D2966" t="s">
         <v>2968</v>
@@ -50853,7 +50853,7 @@
         <v>86</v>
       </c>
       <c r="C2967">
-        <v>7460</v>
+        <v>7300</v>
       </c>
       <c r="D2967" t="s">
         <v>2969</v>
@@ -50867,7 +50867,7 @@
         <v>87</v>
       </c>
       <c r="C2968">
-        <v>7440</v>
+        <v>7280</v>
       </c>
       <c r="D2968" t="s">
         <v>2970</v>
@@ -50881,7 +50881,7 @@
         <v>88</v>
       </c>
       <c r="C2969">
-        <v>7370</v>
+        <v>7200</v>
       </c>
       <c r="D2969" t="s">
         <v>2971</v>
@@ -50895,7 +50895,7 @@
         <v>89</v>
       </c>
       <c r="C2970">
-        <v>7260</v>
+        <v>7060</v>
       </c>
       <c r="D2970" t="s">
         <v>2972</v>
@@ -50909,7 +50909,7 @@
         <v>90</v>
       </c>
       <c r="C2971">
-        <v>7160</v>
+        <v>6980</v>
       </c>
       <c r="D2971" t="s">
         <v>2973</v>
@@ -50923,7 +50923,7 @@
         <v>91</v>
       </c>
       <c r="C2972">
-        <v>7030</v>
+        <v>6840</v>
       </c>
       <c r="D2972" t="s">
         <v>2974</v>
@@ -50937,7 +50937,7 @@
         <v>92</v>
       </c>
       <c r="C2973">
-        <v>6820</v>
+        <v>6660</v>
       </c>
       <c r="D2973" t="s">
         <v>2975</v>
@@ -50951,7 +50951,7 @@
         <v>93</v>
       </c>
       <c r="C2974">
-        <v>6590</v>
+        <v>6390</v>
       </c>
       <c r="D2974" t="s">
         <v>2976</v>
@@ -50965,7 +50965,7 @@
         <v>94</v>
       </c>
       <c r="C2975">
-        <v>6420</v>
+        <v>6210</v>
       </c>
       <c r="D2975" t="s">
         <v>2977</v>
@@ -50979,7 +50979,7 @@
         <v>95</v>
       </c>
       <c r="C2976">
-        <v>6330</v>
+        <v>6130</v>
       </c>
       <c r="D2976" t="s">
         <v>2978</v>
@@ -50993,7 +50993,7 @@
         <v>96</v>
       </c>
       <c r="C2977">
-        <v>6220</v>
+        <v>6020</v>
       </c>
       <c r="D2977" t="s">
         <v>2979</v>

--- a/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2025.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2025.xlsx
@@ -35071,7 +35071,7 @@
         <v>1</v>
       </c>
       <c r="C1922">
-        <v>5650</v>
+        <v>5610</v>
       </c>
       <c r="D1922" t="s">
         <v>1924</v>
@@ -35085,7 +35085,7 @@
         <v>2</v>
       </c>
       <c r="C1923">
-        <v>5590</v>
+        <v>5550</v>
       </c>
       <c r="D1923" t="s">
         <v>1925</v>
@@ -35099,7 +35099,7 @@
         <v>3</v>
       </c>
       <c r="C1924">
-        <v>5540</v>
+        <v>5490</v>
       </c>
       <c r="D1924" t="s">
         <v>1926</v>
@@ -35113,7 +35113,7 @@
         <v>4</v>
       </c>
       <c r="C1925">
-        <v>5470</v>
+        <v>5430</v>
       </c>
       <c r="D1925" t="s">
         <v>1927</v>
@@ -35127,7 +35127,7 @@
         <v>5</v>
       </c>
       <c r="C1926">
-        <v>5410</v>
+        <v>5360</v>
       </c>
       <c r="D1926" t="s">
         <v>1928</v>
@@ -35141,7 +35141,7 @@
         <v>6</v>
       </c>
       <c r="C1927">
-        <v>5350</v>
+        <v>5300</v>
       </c>
       <c r="D1927" t="s">
         <v>1929</v>
@@ -35155,7 +35155,7 @@
         <v>7</v>
       </c>
       <c r="C1928">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="D1928" t="s">
         <v>1930</v>
@@ -35169,7 +35169,7 @@
         <v>8</v>
       </c>
       <c r="C1929">
-        <v>5250</v>
+        <v>5220</v>
       </c>
       <c r="D1929" t="s">
         <v>1931</v>
@@ -35183,7 +35183,7 @@
         <v>9</v>
       </c>
       <c r="C1930">
-        <v>5210</v>
+        <v>5180</v>
       </c>
       <c r="D1930" t="s">
         <v>1932</v>
@@ -35197,7 +35197,7 @@
         <v>10</v>
       </c>
       <c r="C1931">
-        <v>5170</v>
+        <v>5150</v>
       </c>
       <c r="D1931" t="s">
         <v>1933</v>
@@ -35211,7 +35211,7 @@
         <v>11</v>
       </c>
       <c r="C1932">
-        <v>5150</v>
+        <v>5140</v>
       </c>
       <c r="D1932" t="s">
         <v>1934</v>
@@ -35267,7 +35267,7 @@
         <v>15</v>
       </c>
       <c r="C1936">
-        <v>5110</v>
+        <v>5100</v>
       </c>
       <c r="D1936" t="s">
         <v>1938</v>
@@ -35281,7 +35281,7 @@
         <v>16</v>
       </c>
       <c r="C1937">
-        <v>5110</v>
+        <v>5100</v>
       </c>
       <c r="D1937" t="s">
         <v>1939</v>
@@ -35295,7 +35295,7 @@
         <v>17</v>
       </c>
       <c r="C1938">
-        <v>5120</v>
+        <v>5100</v>
       </c>
       <c r="D1938" t="s">
         <v>1940</v>
@@ -35309,7 +35309,7 @@
         <v>18</v>
       </c>
       <c r="C1939">
-        <v>5130</v>
+        <v>5100</v>
       </c>
       <c r="D1939" t="s">
         <v>1941</v>
@@ -35323,7 +35323,7 @@
         <v>19</v>
       </c>
       <c r="C1940">
-        <v>5140</v>
+        <v>5100</v>
       </c>
       <c r="D1940" t="s">
         <v>1942</v>
@@ -35337,7 +35337,7 @@
         <v>20</v>
       </c>
       <c r="C1941">
-        <v>5160</v>
+        <v>5110</v>
       </c>
       <c r="D1941" t="s">
         <v>1943</v>
@@ -35351,7 +35351,7 @@
         <v>21</v>
       </c>
       <c r="C1942">
-        <v>5190</v>
+        <v>5150</v>
       </c>
       <c r="D1942" t="s">
         <v>1944</v>
@@ -35365,7 +35365,7 @@
         <v>22</v>
       </c>
       <c r="C1943">
-        <v>5230</v>
+        <v>5190</v>
       </c>
       <c r="D1943" t="s">
         <v>1945</v>
@@ -35379,7 +35379,7 @@
         <v>23</v>
       </c>
       <c r="C1944">
-        <v>5280</v>
+        <v>5240</v>
       </c>
       <c r="D1944" t="s">
         <v>1946</v>
@@ -35393,7 +35393,7 @@
         <v>24</v>
       </c>
       <c r="C1945">
-        <v>5340</v>
+        <v>5280</v>
       </c>
       <c r="D1945" t="s">
         <v>1947</v>
@@ -35407,7 +35407,7 @@
         <v>25</v>
       </c>
       <c r="C1946">
-        <v>5410</v>
+        <v>5340</v>
       </c>
       <c r="D1946" t="s">
         <v>1948</v>
@@ -35421,7 +35421,7 @@
         <v>26</v>
       </c>
       <c r="C1947">
-        <v>5490</v>
+        <v>5400</v>
       </c>
       <c r="D1947" t="s">
         <v>1949</v>
@@ -35435,7 +35435,7 @@
         <v>27</v>
       </c>
       <c r="C1948">
-        <v>5580</v>
+        <v>5490</v>
       </c>
       <c r="D1948" t="s">
         <v>1950</v>
@@ -35449,7 +35449,7 @@
         <v>28</v>
       </c>
       <c r="C1949">
-        <v>5670</v>
+        <v>5580</v>
       </c>
       <c r="D1949" t="s">
         <v>1951</v>
@@ -35463,7 +35463,7 @@
         <v>29</v>
       </c>
       <c r="C1950">
-        <v>5760</v>
+        <v>5750</v>
       </c>
       <c r="D1950" t="s">
         <v>1952</v>
@@ -35477,7 +35477,7 @@
         <v>30</v>
       </c>
       <c r="C1951">
-        <v>5840</v>
+        <v>5870</v>
       </c>
       <c r="D1951" t="s">
         <v>1953</v>
@@ -35491,7 +35491,7 @@
         <v>31</v>
       </c>
       <c r="C1952">
-        <v>5910</v>
+        <v>5930</v>
       </c>
       <c r="D1952" t="s">
         <v>1954</v>
@@ -35519,7 +35519,7 @@
         <v>33</v>
       </c>
       <c r="C1954">
-        <v>5990</v>
+        <v>5980</v>
       </c>
       <c r="D1954" t="s">
         <v>1956</v>
@@ -35533,7 +35533,7 @@
         <v>34</v>
       </c>
       <c r="C1955">
-        <v>6000</v>
+        <v>5980</v>
       </c>
       <c r="D1955" t="s">
         <v>1957</v>
@@ -35547,7 +35547,7 @@
         <v>35</v>
       </c>
       <c r="C1956">
-        <v>5980</v>
+        <v>5970</v>
       </c>
       <c r="D1956" t="s">
         <v>1958</v>
@@ -35561,7 +35561,7 @@
         <v>36</v>
       </c>
       <c r="C1957">
-        <v>5940</v>
+        <v>5930</v>
       </c>
       <c r="D1957" t="s">
         <v>1959</v>
@@ -35575,7 +35575,7 @@
         <v>37</v>
       </c>
       <c r="C1958">
-        <v>5880</v>
+        <v>5820</v>
       </c>
       <c r="D1958" t="s">
         <v>1960</v>
@@ -35589,7 +35589,7 @@
         <v>38</v>
       </c>
       <c r="C1959">
-        <v>5800</v>
+        <v>5730</v>
       </c>
       <c r="D1959" t="s">
         <v>1961</v>
@@ -35603,7 +35603,7 @@
         <v>39</v>
       </c>
       <c r="C1960">
-        <v>5710</v>
+        <v>5660</v>
       </c>
       <c r="D1960" t="s">
         <v>1962</v>
@@ -35617,7 +35617,7 @@
         <v>40</v>
       </c>
       <c r="C1961">
-        <v>5620</v>
+        <v>5580</v>
       </c>
       <c r="D1961" t="s">
         <v>1963</v>
@@ -35631,7 +35631,7 @@
         <v>41</v>
       </c>
       <c r="C1962">
-        <v>5530</v>
+        <v>5500</v>
       </c>
       <c r="D1962" t="s">
         <v>1964</v>
@@ -35645,7 +35645,7 @@
         <v>42</v>
       </c>
       <c r="C1963">
-        <v>5450</v>
+        <v>5420</v>
       </c>
       <c r="D1963" t="s">
         <v>1965</v>
@@ -35659,7 +35659,7 @@
         <v>43</v>
       </c>
       <c r="C1964">
-        <v>5380</v>
+        <v>5350</v>
       </c>
       <c r="D1964" t="s">
         <v>1966</v>
@@ -35673,7 +35673,7 @@
         <v>44</v>
       </c>
       <c r="C1965">
-        <v>5330</v>
+        <v>5300</v>
       </c>
       <c r="D1965" t="s">
         <v>1967</v>
@@ -35687,7 +35687,7 @@
         <v>45</v>
       </c>
       <c r="C1966">
-        <v>5280</v>
+        <v>5230</v>
       </c>
       <c r="D1966" t="s">
         <v>1968</v>
@@ -35701,7 +35701,7 @@
         <v>46</v>
       </c>
       <c r="C1967">
-        <v>5250</v>
+        <v>5200</v>
       </c>
       <c r="D1967" t="s">
         <v>1969</v>
@@ -35715,7 +35715,7 @@
         <v>47</v>
       </c>
       <c r="C1968">
-        <v>5220</v>
+        <v>5190</v>
       </c>
       <c r="D1968" t="s">
         <v>1970</v>
@@ -35729,7 +35729,7 @@
         <v>48</v>
       </c>
       <c r="C1969">
-        <v>5200</v>
+        <v>5180</v>
       </c>
       <c r="D1969" t="s">
         <v>1971</v>
@@ -35743,7 +35743,7 @@
         <v>49</v>
       </c>
       <c r="C1970">
-        <v>5190</v>
+        <v>5170</v>
       </c>
       <c r="D1970" t="s">
         <v>1972</v>
@@ -35771,7 +35771,7 @@
         <v>51</v>
       </c>
       <c r="C1972">
-        <v>5160</v>
+        <v>5170</v>
       </c>
       <c r="D1972" t="s">
         <v>1974</v>
@@ -35785,7 +35785,7 @@
         <v>52</v>
       </c>
       <c r="C1973">
-        <v>5160</v>
+        <v>5170</v>
       </c>
       <c r="D1973" t="s">
         <v>1975</v>
@@ -35799,7 +35799,7 @@
         <v>53</v>
       </c>
       <c r="C1974">
-        <v>5160</v>
+        <v>5190</v>
       </c>
       <c r="D1974" t="s">
         <v>1976</v>
@@ -35813,7 +35813,7 @@
         <v>54</v>
       </c>
       <c r="C1975">
-        <v>5160</v>
+        <v>5210</v>
       </c>
       <c r="D1975" t="s">
         <v>1977</v>
@@ -35827,7 +35827,7 @@
         <v>55</v>
       </c>
       <c r="C1976">
-        <v>5180</v>
+        <v>5230</v>
       </c>
       <c r="D1976" t="s">
         <v>1978</v>
@@ -35841,7 +35841,7 @@
         <v>56</v>
       </c>
       <c r="C1977">
-        <v>5210</v>
+        <v>5260</v>
       </c>
       <c r="D1977" t="s">
         <v>1979</v>
@@ -35855,7 +35855,7 @@
         <v>57</v>
       </c>
       <c r="C1978">
-        <v>5250</v>
+        <v>5310</v>
       </c>
       <c r="D1978" t="s">
         <v>1980</v>
@@ -35869,7 +35869,7 @@
         <v>58</v>
       </c>
       <c r="C1979">
-        <v>5300</v>
+        <v>5360</v>
       </c>
       <c r="D1979" t="s">
         <v>1981</v>
@@ -35883,7 +35883,7 @@
         <v>59</v>
       </c>
       <c r="C1980">
-        <v>5350</v>
+        <v>5400</v>
       </c>
       <c r="D1980" t="s">
         <v>1982</v>
@@ -35897,7 +35897,7 @@
         <v>60</v>
       </c>
       <c r="C1981">
-        <v>5410</v>
+        <v>5450</v>
       </c>
       <c r="D1981" t="s">
         <v>1983</v>
@@ -35911,7 +35911,7 @@
         <v>61</v>
       </c>
       <c r="C1982">
-        <v>5470</v>
+        <v>5510</v>
       </c>
       <c r="D1982" t="s">
         <v>1984</v>
@@ -35925,7 +35925,7 @@
         <v>62</v>
       </c>
       <c r="C1983">
-        <v>5530</v>
+        <v>5570</v>
       </c>
       <c r="D1983" t="s">
         <v>1985</v>
@@ -35939,7 +35939,7 @@
         <v>63</v>
       </c>
       <c r="C1984">
-        <v>5590</v>
+        <v>5630</v>
       </c>
       <c r="D1984" t="s">
         <v>1986</v>
@@ -35953,7 +35953,7 @@
         <v>64</v>
       </c>
       <c r="C1985">
-        <v>5650</v>
+        <v>5690</v>
       </c>
       <c r="D1985" t="s">
         <v>1987</v>
@@ -35967,7 +35967,7 @@
         <v>65</v>
       </c>
       <c r="C1986">
-        <v>5720</v>
+        <v>5780</v>
       </c>
       <c r="D1986" t="s">
         <v>1988</v>
@@ -35981,7 +35981,7 @@
         <v>66</v>
       </c>
       <c r="C1987">
-        <v>5800</v>
+        <v>5860</v>
       </c>
       <c r="D1987" t="s">
         <v>1989</v>
@@ -35995,7 +35995,7 @@
         <v>67</v>
       </c>
       <c r="C1988">
-        <v>5890</v>
+        <v>5960</v>
       </c>
       <c r="D1988" t="s">
         <v>1990</v>
@@ -36009,7 +36009,7 @@
         <v>68</v>
       </c>
       <c r="C1989">
-        <v>5990</v>
+        <v>6060</v>
       </c>
       <c r="D1989" t="s">
         <v>1991</v>
@@ -36023,7 +36023,7 @@
         <v>69</v>
       </c>
       <c r="C1990">
-        <v>6080</v>
+        <v>6160</v>
       </c>
       <c r="D1990" t="s">
         <v>1992</v>
@@ -36037,7 +36037,7 @@
         <v>70</v>
       </c>
       <c r="C1991">
-        <v>6180</v>
+        <v>6250</v>
       </c>
       <c r="D1991" t="s">
         <v>1993</v>
@@ -36051,7 +36051,7 @@
         <v>71</v>
       </c>
       <c r="C1992">
-        <v>6270</v>
+        <v>6350</v>
       </c>
       <c r="D1992" t="s">
         <v>1994</v>
@@ -36065,7 +36065,7 @@
         <v>72</v>
       </c>
       <c r="C1993">
-        <v>6360</v>
+        <v>6440</v>
       </c>
       <c r="D1993" t="s">
         <v>1995</v>
@@ -36079,7 +36079,7 @@
         <v>73</v>
       </c>
       <c r="C1994">
-        <v>6450</v>
+        <v>6570</v>
       </c>
       <c r="D1994" t="s">
         <v>1996</v>
@@ -36093,7 +36093,7 @@
         <v>74</v>
       </c>
       <c r="C1995">
-        <v>6540</v>
+        <v>6670</v>
       </c>
       <c r="D1995" t="s">
         <v>1997</v>
@@ -36107,7 +36107,7 @@
         <v>75</v>
       </c>
       <c r="C1996">
-        <v>6630</v>
+        <v>6780</v>
       </c>
       <c r="D1996" t="s">
         <v>1998</v>
@@ -36121,7 +36121,7 @@
         <v>76</v>
       </c>
       <c r="C1997">
-        <v>6740</v>
+        <v>6880</v>
       </c>
       <c r="D1997" t="s">
         <v>1999</v>
@@ -36135,7 +36135,7 @@
         <v>77</v>
       </c>
       <c r="C1998">
-        <v>6840</v>
+        <v>6960</v>
       </c>
       <c r="D1998" t="s">
         <v>2000</v>
@@ -36149,7 +36149,7 @@
         <v>78</v>
       </c>
       <c r="C1999">
-        <v>6930</v>
+        <v>7060</v>
       </c>
       <c r="D1999" t="s">
         <v>2001</v>
@@ -36163,7 +36163,7 @@
         <v>79</v>
       </c>
       <c r="C2000">
-        <v>7000</v>
+        <v>7120</v>
       </c>
       <c r="D2000" t="s">
         <v>2002</v>
@@ -36177,7 +36177,7 @@
         <v>80</v>
       </c>
       <c r="C2001">
-        <v>7040</v>
+        <v>7170</v>
       </c>
       <c r="D2001" t="s">
         <v>2003</v>
@@ -36191,7 +36191,7 @@
         <v>81</v>
       </c>
       <c r="C2002">
-        <v>7080</v>
+        <v>7200</v>
       </c>
       <c r="D2002" t="s">
         <v>2004</v>
@@ -36205,7 +36205,7 @@
         <v>82</v>
       </c>
       <c r="C2003">
-        <v>7100</v>
+        <v>7230</v>
       </c>
       <c r="D2003" t="s">
         <v>2005</v>
@@ -36219,7 +36219,7 @@
         <v>83</v>
       </c>
       <c r="C2004">
-        <v>7100</v>
+        <v>7260</v>
       </c>
       <c r="D2004" t="s">
         <v>2006</v>
@@ -36233,7 +36233,7 @@
         <v>84</v>
       </c>
       <c r="C2005">
-        <v>7100</v>
+        <v>7310</v>
       </c>
       <c r="D2005" t="s">
         <v>2007</v>
@@ -36247,7 +36247,7 @@
         <v>85</v>
       </c>
       <c r="C2006">
-        <v>7100</v>
+        <v>7320</v>
       </c>
       <c r="D2006" t="s">
         <v>2008</v>
@@ -36261,7 +36261,7 @@
         <v>86</v>
       </c>
       <c r="C2007">
-        <v>7060</v>
+        <v>7290</v>
       </c>
       <c r="D2007" t="s">
         <v>2009</v>
@@ -36275,7 +36275,7 @@
         <v>87</v>
       </c>
       <c r="C2008">
-        <v>7030</v>
+        <v>7240</v>
       </c>
       <c r="D2008" t="s">
         <v>2010</v>
@@ -36289,7 +36289,7 @@
         <v>88</v>
       </c>
       <c r="C2009">
-        <v>6970</v>
+        <v>7130</v>
       </c>
       <c r="D2009" t="s">
         <v>2011</v>
@@ -36303,7 +36303,7 @@
         <v>89</v>
       </c>
       <c r="C2010">
-        <v>6860</v>
+        <v>6940</v>
       </c>
       <c r="D2010" t="s">
         <v>2012</v>
@@ -36331,7 +36331,7 @@
         <v>91</v>
       </c>
       <c r="C2012">
-        <v>6650</v>
+        <v>6630</v>
       </c>
       <c r="D2012" t="s">
         <v>2014</v>
@@ -36345,7 +36345,7 @@
         <v>92</v>
       </c>
       <c r="C2013">
-        <v>6500</v>
+        <v>6470</v>
       </c>
       <c r="D2013" t="s">
         <v>2015</v>
@@ -36359,7 +36359,7 @@
         <v>93</v>
       </c>
       <c r="C2014">
-        <v>6320</v>
+        <v>6290</v>
       </c>
       <c r="D2014" t="s">
         <v>2016</v>
@@ -36373,7 +36373,7 @@
         <v>94</v>
       </c>
       <c r="C2015">
-        <v>6180</v>
+        <v>6140</v>
       </c>
       <c r="D2015" t="s">
         <v>2017</v>
@@ -36387,7 +36387,7 @@
         <v>95</v>
       </c>
       <c r="C2016">
-        <v>6080</v>
+        <v>6030</v>
       </c>
       <c r="D2016" t="s">
         <v>2018</v>
@@ -36401,7 +36401,7 @@
         <v>96</v>
       </c>
       <c r="C2017">
-        <v>5970</v>
+        <v>5920</v>
       </c>
       <c r="D2017" t="s">
         <v>2019</v>
@@ -36415,7 +36415,7 @@
         <v>1</v>
       </c>
       <c r="C2018">
-        <v>5600</v>
+        <v>5740</v>
       </c>
       <c r="D2018" t="s">
         <v>2020</v>
@@ -36429,7 +36429,7 @@
         <v>2</v>
       </c>
       <c r="C2019">
-        <v>5550</v>
+        <v>5680</v>
       </c>
       <c r="D2019" t="s">
         <v>2021</v>
@@ -36443,7 +36443,7 @@
         <v>3</v>
       </c>
       <c r="C2020">
-        <v>5490</v>
+        <v>5630</v>
       </c>
       <c r="D2020" t="s">
         <v>2022</v>
@@ -36457,7 +36457,7 @@
         <v>4</v>
       </c>
       <c r="C2021">
-        <v>5400</v>
+        <v>5570</v>
       </c>
       <c r="D2021" t="s">
         <v>2023</v>
@@ -36471,7 +36471,7 @@
         <v>5</v>
       </c>
       <c r="C2022">
-        <v>5320</v>
+        <v>5510</v>
       </c>
       <c r="D2022" t="s">
         <v>2024</v>
@@ -36485,7 +36485,7 @@
         <v>6</v>
       </c>
       <c r="C2023">
-        <v>5240</v>
+        <v>5450</v>
       </c>
       <c r="D2023" t="s">
         <v>2025</v>
@@ -36499,7 +36499,7 @@
         <v>7</v>
       </c>
       <c r="C2024">
-        <v>5170</v>
+        <v>5400</v>
       </c>
       <c r="D2024" t="s">
         <v>2026</v>
@@ -36513,7 +36513,7 @@
         <v>8</v>
       </c>
       <c r="C2025">
-        <v>5120</v>
+        <v>5350</v>
       </c>
       <c r="D2025" t="s">
         <v>2027</v>
@@ -36527,7 +36527,7 @@
         <v>9</v>
       </c>
       <c r="C2026">
-        <v>5070</v>
+        <v>5310</v>
       </c>
       <c r="D2026" t="s">
         <v>2028</v>
@@ -36541,7 +36541,7 @@
         <v>10</v>
       </c>
       <c r="C2027">
-        <v>5040</v>
+        <v>5270</v>
       </c>
       <c r="D2027" t="s">
         <v>2029</v>
@@ -36555,7 +36555,7 @@
         <v>11</v>
       </c>
       <c r="C2028">
-        <v>5020</v>
+        <v>5250</v>
       </c>
       <c r="D2028" t="s">
         <v>2030</v>
@@ -36569,7 +36569,7 @@
         <v>12</v>
       </c>
       <c r="C2029">
-        <v>5010</v>
+        <v>5240</v>
       </c>
       <c r="D2029" t="s">
         <v>2031</v>
@@ -36583,7 +36583,7 @@
         <v>13</v>
       </c>
       <c r="C2030">
-        <v>5010</v>
+        <v>5230</v>
       </c>
       <c r="D2030" t="s">
         <v>2032</v>
@@ -36597,7 +36597,7 @@
         <v>14</v>
       </c>
       <c r="C2031">
-        <v>5010</v>
+        <v>5220</v>
       </c>
       <c r="D2031" t="s">
         <v>2033</v>
@@ -36611,7 +36611,7 @@
         <v>15</v>
       </c>
       <c r="C2032">
-        <v>5000</v>
+        <v>5210</v>
       </c>
       <c r="D2032" t="s">
         <v>2034</v>
@@ -36625,7 +36625,7 @@
         <v>16</v>
       </c>
       <c r="C2033">
-        <v>5010</v>
+        <v>5200</v>
       </c>
       <c r="D2033" t="s">
         <v>2035</v>
@@ -36639,7 +36639,7 @@
         <v>17</v>
       </c>
       <c r="C2034">
-        <v>5020</v>
+        <v>5200</v>
       </c>
       <c r="D2034" t="s">
         <v>2036</v>
@@ -36653,7 +36653,7 @@
         <v>18</v>
       </c>
       <c r="C2035">
-        <v>5020</v>
+        <v>5200</v>
       </c>
       <c r="D2035" t="s">
         <v>2037</v>
@@ -36667,7 +36667,7 @@
         <v>19</v>
       </c>
       <c r="C2036">
-        <v>5040</v>
+        <v>5210</v>
       </c>
       <c r="D2036" t="s">
         <v>2038</v>
@@ -36681,7 +36681,7 @@
         <v>20</v>
       </c>
       <c r="C2037">
-        <v>5060</v>
+        <v>5220</v>
       </c>
       <c r="D2037" t="s">
         <v>2039</v>
@@ -36695,7 +36695,7 @@
         <v>21</v>
       </c>
       <c r="C2038">
-        <v>5090</v>
+        <v>5240</v>
       </c>
       <c r="D2038" t="s">
         <v>2040</v>
@@ -36709,7 +36709,7 @@
         <v>22</v>
       </c>
       <c r="C2039">
-        <v>5130</v>
+        <v>5270</v>
       </c>
       <c r="D2039" t="s">
         <v>2041</v>
@@ -36723,7 +36723,7 @@
         <v>23</v>
       </c>
       <c r="C2040">
-        <v>5190</v>
+        <v>5300</v>
       </c>
       <c r="D2040" t="s">
         <v>2042</v>
@@ -36737,7 +36737,7 @@
         <v>24</v>
       </c>
       <c r="C2041">
-        <v>5260</v>
+        <v>5370</v>
       </c>
       <c r="D2041" t="s">
         <v>2043</v>
@@ -36751,7 +36751,7 @@
         <v>25</v>
       </c>
       <c r="C2042">
-        <v>5340</v>
+        <v>5440</v>
       </c>
       <c r="D2042" t="s">
         <v>2044</v>
@@ -36765,7 +36765,7 @@
         <v>26</v>
       </c>
       <c r="C2043">
-        <v>5430</v>
+        <v>5520</v>
       </c>
       <c r="D2043" t="s">
         <v>2045</v>
@@ -36779,7 +36779,7 @@
         <v>27</v>
       </c>
       <c r="C2044">
-        <v>5530</v>
+        <v>5620</v>
       </c>
       <c r="D2044" t="s">
         <v>2046</v>
@@ -36793,7 +36793,7 @@
         <v>28</v>
       </c>
       <c r="C2045">
-        <v>5630</v>
+        <v>5720</v>
       </c>
       <c r="D2045" t="s">
         <v>2047</v>
@@ -36807,7 +36807,7 @@
         <v>29</v>
       </c>
       <c r="C2046">
-        <v>5730</v>
+        <v>5830</v>
       </c>
       <c r="D2046" t="s">
         <v>2048</v>
@@ -36821,7 +36821,7 @@
         <v>30</v>
       </c>
       <c r="C2047">
-        <v>5830</v>
+        <v>5940</v>
       </c>
       <c r="D2047" t="s">
         <v>2049</v>
@@ -36835,7 +36835,7 @@
         <v>31</v>
       </c>
       <c r="C2048">
-        <v>5920</v>
+        <v>6040</v>
       </c>
       <c r="D2048" t="s">
         <v>2050</v>
@@ -36849,7 +36849,7 @@
         <v>32</v>
       </c>
       <c r="C2049">
-        <v>5990</v>
+        <v>6130</v>
       </c>
       <c r="D2049" t="s">
         <v>2051</v>
@@ -36863,7 +36863,7 @@
         <v>33</v>
       </c>
       <c r="C2050">
-        <v>6040</v>
+        <v>6200</v>
       </c>
       <c r="D2050" t="s">
         <v>2052</v>
@@ -36877,7 +36877,7 @@
         <v>34</v>
       </c>
       <c r="C2051">
-        <v>6070</v>
+        <v>6260</v>
       </c>
       <c r="D2051" t="s">
         <v>2053</v>
@@ -36891,7 +36891,7 @@
         <v>35</v>
       </c>
       <c r="C2052">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="D2052" t="s">
         <v>2054</v>
@@ -36905,7 +36905,7 @@
         <v>36</v>
       </c>
       <c r="C2053">
-        <v>6050</v>
+        <v>6300</v>
       </c>
       <c r="D2053" t="s">
         <v>2055</v>
@@ -36919,7 +36919,7 @@
         <v>37</v>
       </c>
       <c r="C2054">
-        <v>6010</v>
+        <v>6300</v>
       </c>
       <c r="D2054" t="s">
         <v>2056</v>
@@ -36933,7 +36933,7 @@
         <v>38</v>
       </c>
       <c r="C2055">
-        <v>5960</v>
+        <v>6270</v>
       </c>
       <c r="D2055" t="s">
         <v>2057</v>
@@ -36947,7 +36947,7 @@
         <v>39</v>
       </c>
       <c r="C2056">
-        <v>5890</v>
+        <v>6230</v>
       </c>
       <c r="D2056" t="s">
         <v>2058</v>
@@ -36961,7 +36961,7 @@
         <v>40</v>
       </c>
       <c r="C2057">
-        <v>5820</v>
+        <v>6180</v>
       </c>
       <c r="D2057" t="s">
         <v>2059</v>
@@ -36975,7 +36975,7 @@
         <v>41</v>
       </c>
       <c r="C2058">
-        <v>5750</v>
+        <v>6120</v>
       </c>
       <c r="D2058" t="s">
         <v>2060</v>
@@ -36989,7 +36989,7 @@
         <v>42</v>
       </c>
       <c r="C2059">
-        <v>5680</v>
+        <v>6070</v>
       </c>
       <c r="D2059" t="s">
         <v>2061</v>
@@ -37003,7 +37003,7 @@
         <v>43</v>
       </c>
       <c r="C2060">
-        <v>5630</v>
+        <v>6010</v>
       </c>
       <c r="D2060" t="s">
         <v>2062</v>
@@ -37017,7 +37017,7 @@
         <v>44</v>
       </c>
       <c r="C2061">
-        <v>5590</v>
+        <v>5970</v>
       </c>
       <c r="D2061" t="s">
         <v>2063</v>
@@ -37031,7 +37031,7 @@
         <v>45</v>
       </c>
       <c r="C2062">
-        <v>5570</v>
+        <v>5940</v>
       </c>
       <c r="D2062" t="s">
         <v>2064</v>
@@ -37045,7 +37045,7 @@
         <v>46</v>
       </c>
       <c r="C2063">
-        <v>5570</v>
+        <v>5910</v>
       </c>
       <c r="D2063" t="s">
         <v>2065</v>
@@ -37059,7 +37059,7 @@
         <v>47</v>
       </c>
       <c r="C2064">
-        <v>5570</v>
+        <v>5890</v>
       </c>
       <c r="D2064" t="s">
         <v>2066</v>
@@ -37073,7 +37073,7 @@
         <v>48</v>
       </c>
       <c r="C2065">
-        <v>5590</v>
+        <v>5870</v>
       </c>
       <c r="D2065" t="s">
         <v>2067</v>
@@ -37087,7 +37087,7 @@
         <v>49</v>
       </c>
       <c r="C2066">
-        <v>5610</v>
+        <v>5860</v>
       </c>
       <c r="D2066" t="s">
         <v>2068</v>
@@ -37101,7 +37101,7 @@
         <v>50</v>
       </c>
       <c r="C2067">
-        <v>5630</v>
+        <v>5850</v>
       </c>
       <c r="D2067" t="s">
         <v>2069</v>
@@ -37115,7 +37115,7 @@
         <v>51</v>
       </c>
       <c r="C2068">
-        <v>5660</v>
+        <v>5840</v>
       </c>
       <c r="D2068" t="s">
         <v>2070</v>
@@ -37129,7 +37129,7 @@
         <v>52</v>
       </c>
       <c r="C2069">
-        <v>5680</v>
+        <v>5840</v>
       </c>
       <c r="D2069" t="s">
         <v>2071</v>
@@ -37143,7 +37143,7 @@
         <v>53</v>
       </c>
       <c r="C2070">
-        <v>5700</v>
+        <v>5840</v>
       </c>
       <c r="D2070" t="s">
         <v>2072</v>
@@ -37157,7 +37157,7 @@
         <v>54</v>
       </c>
       <c r="C2071">
-        <v>5720</v>
+        <v>5840</v>
       </c>
       <c r="D2071" t="s">
         <v>2073</v>
@@ -37171,7 +37171,7 @@
         <v>55</v>
       </c>
       <c r="C2072">
-        <v>5730</v>
+        <v>5840</v>
       </c>
       <c r="D2072" t="s">
         <v>2074</v>
@@ -37185,7 +37185,7 @@
         <v>56</v>
       </c>
       <c r="C2073">
-        <v>5750</v>
+        <v>5850</v>
       </c>
       <c r="D2073" t="s">
         <v>2075</v>
@@ -37199,7 +37199,7 @@
         <v>57</v>
       </c>
       <c r="C2074">
-        <v>5770</v>
+        <v>5870</v>
       </c>
       <c r="D2074" t="s">
         <v>2076</v>
@@ -37213,7 +37213,7 @@
         <v>58</v>
       </c>
       <c r="C2075">
-        <v>5790</v>
+        <v>5890</v>
       </c>
       <c r="D2075" t="s">
         <v>2077</v>
@@ -37227,7 +37227,7 @@
         <v>59</v>
       </c>
       <c r="C2076">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="D2076" t="s">
         <v>2078</v>
@@ -37241,7 +37241,7 @@
         <v>60</v>
       </c>
       <c r="C2077">
-        <v>5820</v>
+        <v>5920</v>
       </c>
       <c r="D2077" t="s">
         <v>2079</v>
@@ -37255,7 +37255,7 @@
         <v>61</v>
       </c>
       <c r="C2078">
-        <v>5830</v>
+        <v>5940</v>
       </c>
       <c r="D2078" t="s">
         <v>2080</v>
@@ -37269,7 +37269,7 @@
         <v>62</v>
       </c>
       <c r="C2079">
-        <v>5850</v>
+        <v>5950</v>
       </c>
       <c r="D2079" t="s">
         <v>2081</v>
@@ -37283,7 +37283,7 @@
         <v>63</v>
       </c>
       <c r="C2080">
-        <v>5860</v>
+        <v>5970</v>
       </c>
       <c r="D2080" t="s">
         <v>2082</v>
@@ -37297,7 +37297,7 @@
         <v>64</v>
       </c>
       <c r="C2081">
-        <v>5890</v>
+        <v>6000</v>
       </c>
       <c r="D2081" t="s">
         <v>2083</v>
@@ -37311,7 +37311,7 @@
         <v>65</v>
       </c>
       <c r="C2082">
-        <v>5930</v>
+        <v>6030</v>
       </c>
       <c r="D2082" t="s">
         <v>2084</v>
@@ -37325,7 +37325,7 @@
         <v>66</v>
       </c>
       <c r="C2083">
-        <v>5970</v>
+        <v>6070</v>
       </c>
       <c r="D2083" t="s">
         <v>2085</v>
@@ -37339,7 +37339,7 @@
         <v>67</v>
       </c>
       <c r="C2084">
-        <v>6030</v>
+        <v>6120</v>
       </c>
       <c r="D2084" t="s">
         <v>2086</v>
@@ -37353,7 +37353,7 @@
         <v>68</v>
       </c>
       <c r="C2085">
-        <v>6100</v>
+        <v>6170</v>
       </c>
       <c r="D2085" t="s">
         <v>2087</v>
@@ -37367,7 +37367,7 @@
         <v>69</v>
       </c>
       <c r="C2086">
-        <v>6170</v>
+        <v>6230</v>
       </c>
       <c r="D2086" t="s">
         <v>2088</v>
@@ -37381,7 +37381,7 @@
         <v>70</v>
       </c>
       <c r="C2087">
-        <v>6240</v>
+        <v>6280</v>
       </c>
       <c r="D2087" t="s">
         <v>2089</v>
@@ -37395,7 +37395,7 @@
         <v>71</v>
       </c>
       <c r="C2088">
-        <v>6300</v>
+        <v>6330</v>
       </c>
       <c r="D2088" t="s">
         <v>2090</v>
@@ -37409,7 +37409,7 @@
         <v>72</v>
       </c>
       <c r="C2089">
-        <v>6350</v>
+        <v>6380</v>
       </c>
       <c r="D2089" t="s">
         <v>2091</v>
@@ -37423,7 +37423,7 @@
         <v>73</v>
       </c>
       <c r="C2090">
-        <v>6400</v>
+        <v>6420</v>
       </c>
       <c r="D2090" t="s">
         <v>2092</v>
@@ -37437,7 +37437,7 @@
         <v>74</v>
       </c>
       <c r="C2091">
-        <v>6460</v>
+        <v>6470</v>
       </c>
       <c r="D2091" t="s">
         <v>2093</v>
@@ -37465,7 +37465,7 @@
         <v>76</v>
       </c>
       <c r="C2093">
-        <v>6640</v>
+        <v>6600</v>
       </c>
       <c r="D2093" t="s">
         <v>2095</v>
@@ -37479,7 +37479,7 @@
         <v>77</v>
       </c>
       <c r="C2094">
-        <v>6750</v>
+        <v>6690</v>
       </c>
       <c r="D2094" t="s">
         <v>2096</v>
@@ -37493,7 +37493,7 @@
         <v>78</v>
       </c>
       <c r="C2095">
-        <v>6860</v>
+        <v>6750</v>
       </c>
       <c r="D2095" t="s">
         <v>2097</v>
@@ -37507,7 +37507,7 @@
         <v>79</v>
       </c>
       <c r="C2096">
-        <v>6960</v>
+        <v>6800</v>
       </c>
       <c r="D2096" t="s">
         <v>2098</v>
@@ -37521,7 +37521,7 @@
         <v>80</v>
       </c>
       <c r="C2097">
-        <v>7050</v>
+        <v>6870</v>
       </c>
       <c r="D2097" t="s">
         <v>2099</v>
@@ -37535,7 +37535,7 @@
         <v>81</v>
       </c>
       <c r="C2098">
-        <v>7130</v>
+        <v>6940</v>
       </c>
       <c r="D2098" t="s">
         <v>2100</v>
@@ -37549,7 +37549,7 @@
         <v>82</v>
       </c>
       <c r="C2099">
-        <v>7210</v>
+        <v>6980</v>
       </c>
       <c r="D2099" t="s">
         <v>2101</v>
@@ -37563,7 +37563,7 @@
         <v>83</v>
       </c>
       <c r="C2100">
-        <v>7260</v>
+        <v>7000</v>
       </c>
       <c r="D2100" t="s">
         <v>2102</v>
@@ -37577,7 +37577,7 @@
         <v>84</v>
       </c>
       <c r="C2101">
-        <v>7280</v>
+        <v>7000</v>
       </c>
       <c r="D2101" t="s">
         <v>2103</v>
@@ -37591,7 +37591,7 @@
         <v>85</v>
       </c>
       <c r="C2102">
-        <v>7280</v>
+        <v>6990</v>
       </c>
       <c r="D2102" t="s">
         <v>2104</v>
@@ -37605,7 +37605,7 @@
         <v>86</v>
       </c>
       <c r="C2103">
-        <v>7240</v>
+        <v>6980</v>
       </c>
       <c r="D2103" t="s">
         <v>2105</v>
@@ -37619,7 +37619,7 @@
         <v>87</v>
       </c>
       <c r="C2104">
-        <v>7210</v>
+        <v>6950</v>
       </c>
       <c r="D2104" t="s">
         <v>2106</v>
@@ -37633,7 +37633,7 @@
         <v>88</v>
       </c>
       <c r="C2105">
-        <v>7130</v>
+        <v>6900</v>
       </c>
       <c r="D2105" t="s">
         <v>2107</v>
@@ -37647,7 +37647,7 @@
         <v>89</v>
       </c>
       <c r="C2106">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="D2106" t="s">
         <v>2108</v>
@@ -37661,7 +37661,7 @@
         <v>90</v>
       </c>
       <c r="C2107">
-        <v>6900</v>
+        <v>6680</v>
       </c>
       <c r="D2107" t="s">
         <v>2109</v>
@@ -37675,7 +37675,7 @@
         <v>91</v>
       </c>
       <c r="C2108">
-        <v>6760</v>
+        <v>6540</v>
       </c>
       <c r="D2108" t="s">
         <v>2110</v>
@@ -37689,7 +37689,7 @@
         <v>92</v>
       </c>
       <c r="C2109">
-        <v>6620</v>
+        <v>6370</v>
       </c>
       <c r="D2109" t="s">
         <v>2111</v>
@@ -37703,7 +37703,7 @@
         <v>93</v>
       </c>
       <c r="C2110">
-        <v>6460</v>
+        <v>6180</v>
       </c>
       <c r="D2110" t="s">
         <v>2112</v>
@@ -37717,7 +37717,7 @@
         <v>94</v>
       </c>
       <c r="C2111">
-        <v>6310</v>
+        <v>6020</v>
       </c>
       <c r="D2111" t="s">
         <v>2113</v>
@@ -37731,7 +37731,7 @@
         <v>95</v>
       </c>
       <c r="C2112">
-        <v>6220</v>
+        <v>5900</v>
       </c>
       <c r="D2112" t="s">
         <v>2114</v>
@@ -37745,7 +37745,7 @@
         <v>96</v>
       </c>
       <c r="C2113">
-        <v>6110</v>
+        <v>5770</v>
       </c>
       <c r="D2113" t="s">
         <v>2115</v>

--- a/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2025.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="1636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="1732">
   <si>
     <t>Date</t>
   </si>
@@ -4922,6 +4922,294 @@
   </si>
   <si>
     <t>18.11.202596.0</t>
+  </si>
+  <si>
+    <t>19.11.20251.0</t>
+  </si>
+  <si>
+    <t>19.11.20252.0</t>
+  </si>
+  <si>
+    <t>19.11.20253.0</t>
+  </si>
+  <si>
+    <t>19.11.20254.0</t>
+  </si>
+  <si>
+    <t>19.11.20255.0</t>
+  </si>
+  <si>
+    <t>19.11.20256.0</t>
+  </si>
+  <si>
+    <t>19.11.20257.0</t>
+  </si>
+  <si>
+    <t>19.11.20258.0</t>
+  </si>
+  <si>
+    <t>19.11.20259.0</t>
+  </si>
+  <si>
+    <t>19.11.202510.0</t>
+  </si>
+  <si>
+    <t>19.11.202511.0</t>
+  </si>
+  <si>
+    <t>19.11.202512.0</t>
+  </si>
+  <si>
+    <t>19.11.202513.0</t>
+  </si>
+  <si>
+    <t>19.11.202514.0</t>
+  </si>
+  <si>
+    <t>19.11.202515.0</t>
+  </si>
+  <si>
+    <t>19.11.202516.0</t>
+  </si>
+  <si>
+    <t>19.11.202517.0</t>
+  </si>
+  <si>
+    <t>19.11.202518.0</t>
+  </si>
+  <si>
+    <t>19.11.202519.0</t>
+  </si>
+  <si>
+    <t>19.11.202520.0</t>
+  </si>
+  <si>
+    <t>19.11.202521.0</t>
+  </si>
+  <si>
+    <t>19.11.202522.0</t>
+  </si>
+  <si>
+    <t>19.11.202523.0</t>
+  </si>
+  <si>
+    <t>19.11.202524.0</t>
+  </si>
+  <si>
+    <t>19.11.202525.0</t>
+  </si>
+  <si>
+    <t>19.11.202526.0</t>
+  </si>
+  <si>
+    <t>19.11.202527.0</t>
+  </si>
+  <si>
+    <t>19.11.202528.0</t>
+  </si>
+  <si>
+    <t>19.11.202529.0</t>
+  </si>
+  <si>
+    <t>19.11.202530.0</t>
+  </si>
+  <si>
+    <t>19.11.202531.0</t>
+  </si>
+  <si>
+    <t>19.11.202532.0</t>
+  </si>
+  <si>
+    <t>19.11.202533.0</t>
+  </si>
+  <si>
+    <t>19.11.202534.0</t>
+  </si>
+  <si>
+    <t>19.11.202535.0</t>
+  </si>
+  <si>
+    <t>19.11.202536.0</t>
+  </si>
+  <si>
+    <t>19.11.202537.0</t>
+  </si>
+  <si>
+    <t>19.11.202538.0</t>
+  </si>
+  <si>
+    <t>19.11.202539.0</t>
+  </si>
+  <si>
+    <t>19.11.202540.0</t>
+  </si>
+  <si>
+    <t>19.11.202541.0</t>
+  </si>
+  <si>
+    <t>19.11.202542.0</t>
+  </si>
+  <si>
+    <t>19.11.202543.0</t>
+  </si>
+  <si>
+    <t>19.11.202544.0</t>
+  </si>
+  <si>
+    <t>19.11.202545.0</t>
+  </si>
+  <si>
+    <t>19.11.202546.0</t>
+  </si>
+  <si>
+    <t>19.11.202547.0</t>
+  </si>
+  <si>
+    <t>19.11.202548.0</t>
+  </si>
+  <si>
+    <t>19.11.202549.0</t>
+  </si>
+  <si>
+    <t>19.11.202550.0</t>
+  </si>
+  <si>
+    <t>19.11.202551.0</t>
+  </si>
+  <si>
+    <t>19.11.202552.0</t>
+  </si>
+  <si>
+    <t>19.11.202553.0</t>
+  </si>
+  <si>
+    <t>19.11.202554.0</t>
+  </si>
+  <si>
+    <t>19.11.202555.0</t>
+  </si>
+  <si>
+    <t>19.11.202556.0</t>
+  </si>
+  <si>
+    <t>19.11.202557.0</t>
+  </si>
+  <si>
+    <t>19.11.202558.0</t>
+  </si>
+  <si>
+    <t>19.11.202559.0</t>
+  </si>
+  <si>
+    <t>19.11.202560.0</t>
+  </si>
+  <si>
+    <t>19.11.202561.0</t>
+  </si>
+  <si>
+    <t>19.11.202562.0</t>
+  </si>
+  <si>
+    <t>19.11.202563.0</t>
+  </si>
+  <si>
+    <t>19.11.202564.0</t>
+  </si>
+  <si>
+    <t>19.11.202565.0</t>
+  </si>
+  <si>
+    <t>19.11.202566.0</t>
+  </si>
+  <si>
+    <t>19.11.202567.0</t>
+  </si>
+  <si>
+    <t>19.11.202568.0</t>
+  </si>
+  <si>
+    <t>19.11.202569.0</t>
+  </si>
+  <si>
+    <t>19.11.202570.0</t>
+  </si>
+  <si>
+    <t>19.11.202571.0</t>
+  </si>
+  <si>
+    <t>19.11.202572.0</t>
+  </si>
+  <si>
+    <t>19.11.202573.0</t>
+  </si>
+  <si>
+    <t>19.11.202574.0</t>
+  </si>
+  <si>
+    <t>19.11.202575.0</t>
+  </si>
+  <si>
+    <t>19.11.202576.0</t>
+  </si>
+  <si>
+    <t>19.11.202577.0</t>
+  </si>
+  <si>
+    <t>19.11.202578.0</t>
+  </si>
+  <si>
+    <t>19.11.202579.0</t>
+  </si>
+  <si>
+    <t>19.11.202580.0</t>
+  </si>
+  <si>
+    <t>19.11.202581.0</t>
+  </si>
+  <si>
+    <t>19.11.202582.0</t>
+  </si>
+  <si>
+    <t>19.11.202583.0</t>
+  </si>
+  <si>
+    <t>19.11.202584.0</t>
+  </si>
+  <si>
+    <t>19.11.202585.0</t>
+  </si>
+  <si>
+    <t>19.11.202586.0</t>
+  </si>
+  <si>
+    <t>19.11.202587.0</t>
+  </si>
+  <si>
+    <t>19.11.202588.0</t>
+  </si>
+  <si>
+    <t>19.11.202589.0</t>
+  </si>
+  <si>
+    <t>19.11.202590.0</t>
+  </si>
+  <si>
+    <t>19.11.202591.0</t>
+  </si>
+  <si>
+    <t>19.11.202592.0</t>
+  </si>
+  <si>
+    <t>19.11.202593.0</t>
+  </si>
+  <si>
+    <t>19.11.202594.0</t>
+  </si>
+  <si>
+    <t>19.11.202595.0</t>
+  </si>
+  <si>
+    <t>19.11.202596.0</t>
   </si>
 </sst>
 </file>
@@ -5283,7 +5571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1633"/>
+  <dimension ref="A1:D1729"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14719,7 +15007,7 @@
         <v>1</v>
       </c>
       <c r="C674">
-        <v>5390</v>
+        <v>5410</v>
       </c>
       <c r="D674" t="s">
         <v>676</v>
@@ -14733,7 +15021,7 @@
         <v>2</v>
       </c>
       <c r="C675">
-        <v>5350</v>
+        <v>5340</v>
       </c>
       <c r="D675" t="s">
         <v>677</v>
@@ -14747,7 +15035,7 @@
         <v>3</v>
       </c>
       <c r="C676">
-        <v>5280</v>
+        <v>5290</v>
       </c>
       <c r="D676" t="s">
         <v>678</v>
@@ -14761,7 +15049,7 @@
         <v>4</v>
       </c>
       <c r="C677">
-        <v>5220</v>
+        <v>5240</v>
       </c>
       <c r="D677" t="s">
         <v>679</v>
@@ -14775,7 +15063,7 @@
         <v>5</v>
       </c>
       <c r="C678">
-        <v>5170</v>
+        <v>5200</v>
       </c>
       <c r="D678" t="s">
         <v>680</v>
@@ -14789,7 +15077,7 @@
         <v>6</v>
       </c>
       <c r="C679">
-        <v>5120</v>
+        <v>5150</v>
       </c>
       <c r="D679" t="s">
         <v>681</v>
@@ -14803,7 +15091,7 @@
         <v>7</v>
       </c>
       <c r="C680">
-        <v>5070</v>
+        <v>5110</v>
       </c>
       <c r="D680" t="s">
         <v>682</v>
@@ -14817,7 +15105,7 @@
         <v>8</v>
       </c>
       <c r="C681">
-        <v>5030</v>
+        <v>5070</v>
       </c>
       <c r="D681" t="s">
         <v>683</v>
@@ -14831,7 +15119,7 @@
         <v>9</v>
       </c>
       <c r="C682">
-        <v>4990</v>
+        <v>5030</v>
       </c>
       <c r="D682" t="s">
         <v>684</v>
@@ -14845,7 +15133,7 @@
         <v>10</v>
       </c>
       <c r="C683">
-        <v>4960</v>
+        <v>5010</v>
       </c>
       <c r="D683" t="s">
         <v>685</v>
@@ -14859,7 +15147,7 @@
         <v>11</v>
       </c>
       <c r="C684">
-        <v>4940</v>
+        <v>4990</v>
       </c>
       <c r="D684" t="s">
         <v>686</v>
@@ -14873,7 +15161,7 @@
         <v>12</v>
       </c>
       <c r="C685">
-        <v>4930</v>
+        <v>4970</v>
       </c>
       <c r="D685" t="s">
         <v>687</v>
@@ -14887,7 +15175,7 @@
         <v>13</v>
       </c>
       <c r="C686">
-        <v>4930</v>
+        <v>4960</v>
       </c>
       <c r="D686" t="s">
         <v>688</v>
@@ -14901,7 +15189,7 @@
         <v>14</v>
       </c>
       <c r="C687">
-        <v>4920</v>
+        <v>4950</v>
       </c>
       <c r="D687" t="s">
         <v>689</v>
@@ -14915,7 +15203,7 @@
         <v>15</v>
       </c>
       <c r="C688">
-        <v>4910</v>
+        <v>4950</v>
       </c>
       <c r="D688" t="s">
         <v>690</v>
@@ -14929,7 +15217,7 @@
         <v>16</v>
       </c>
       <c r="C689">
-        <v>4900</v>
+        <v>4950</v>
       </c>
       <c r="D689" t="s">
         <v>691</v>
@@ -14943,7 +15231,7 @@
         <v>17</v>
       </c>
       <c r="C690">
-        <v>4910</v>
+        <v>4950</v>
       </c>
       <c r="D690" t="s">
         <v>692</v>
@@ -14957,7 +15245,7 @@
         <v>18</v>
       </c>
       <c r="C691">
-        <v>4910</v>
+        <v>4950</v>
       </c>
       <c r="D691" t="s">
         <v>693</v>
@@ -14971,7 +15259,7 @@
         <v>19</v>
       </c>
       <c r="C692">
-        <v>4910</v>
+        <v>4950</v>
       </c>
       <c r="D692" t="s">
         <v>694</v>
@@ -14985,7 +15273,7 @@
         <v>20</v>
       </c>
       <c r="C693">
-        <v>4920</v>
+        <v>4960</v>
       </c>
       <c r="D693" t="s">
         <v>695</v>
@@ -14999,7 +15287,7 @@
         <v>21</v>
       </c>
       <c r="C694">
-        <v>4930</v>
+        <v>4990</v>
       </c>
       <c r="D694" t="s">
         <v>696</v>
@@ -15013,7 +15301,7 @@
         <v>22</v>
       </c>
       <c r="C695">
-        <v>4950</v>
+        <v>5010</v>
       </c>
       <c r="D695" t="s">
         <v>697</v>
@@ -15027,7 +15315,7 @@
         <v>23</v>
       </c>
       <c r="C696">
-        <v>4980</v>
+        <v>5030</v>
       </c>
       <c r="D696" t="s">
         <v>698</v>
@@ -15041,7 +15329,7 @@
         <v>24</v>
       </c>
       <c r="C697">
-        <v>5010</v>
+        <v>5060</v>
       </c>
       <c r="D697" t="s">
         <v>699</v>
@@ -15055,7 +15343,7 @@
         <v>25</v>
       </c>
       <c r="C698">
-        <v>5040</v>
+        <v>5100</v>
       </c>
       <c r="D698" t="s">
         <v>700</v>
@@ -15069,7 +15357,7 @@
         <v>26</v>
       </c>
       <c r="C699">
-        <v>5080</v>
+        <v>5120</v>
       </c>
       <c r="D699" t="s">
         <v>701</v>
@@ -15083,7 +15371,7 @@
         <v>27</v>
       </c>
       <c r="C700">
-        <v>5110</v>
+        <v>5140</v>
       </c>
       <c r="D700" t="s">
         <v>702</v>
@@ -15097,7 +15385,7 @@
         <v>28</v>
       </c>
       <c r="C701">
-        <v>5130</v>
+        <v>5180</v>
       </c>
       <c r="D701" t="s">
         <v>703</v>
@@ -15111,7 +15399,7 @@
         <v>29</v>
       </c>
       <c r="C702">
-        <v>5160</v>
+        <v>5230</v>
       </c>
       <c r="D702" t="s">
         <v>704</v>
@@ -15125,7 +15413,7 @@
         <v>30</v>
       </c>
       <c r="C703">
-        <v>5190</v>
+        <v>5260</v>
       </c>
       <c r="D703" t="s">
         <v>705</v>
@@ -15139,7 +15427,7 @@
         <v>31</v>
       </c>
       <c r="C704">
-        <v>5220</v>
+        <v>5290</v>
       </c>
       <c r="D704" t="s">
         <v>706</v>
@@ -15153,7 +15441,7 @@
         <v>32</v>
       </c>
       <c r="C705">
-        <v>5260</v>
+        <v>5330</v>
       </c>
       <c r="D705" t="s">
         <v>707</v>
@@ -15167,7 +15455,7 @@
         <v>33</v>
       </c>
       <c r="C706">
-        <v>5290</v>
+        <v>5360</v>
       </c>
       <c r="D706" t="s">
         <v>708</v>
@@ -15181,7 +15469,7 @@
         <v>34</v>
       </c>
       <c r="C707">
-        <v>5330</v>
+        <v>5380</v>
       </c>
       <c r="D707" t="s">
         <v>709</v>
@@ -15195,7 +15483,7 @@
         <v>35</v>
       </c>
       <c r="C708">
-        <v>5370</v>
+        <v>5390</v>
       </c>
       <c r="D708" t="s">
         <v>710</v>
@@ -15209,7 +15497,7 @@
         <v>36</v>
       </c>
       <c r="C709">
-        <v>5380</v>
+        <v>5390</v>
       </c>
       <c r="D709" t="s">
         <v>711</v>
@@ -15223,7 +15511,7 @@
         <v>37</v>
       </c>
       <c r="C710">
-        <v>5400</v>
+        <v>5380</v>
       </c>
       <c r="D710" t="s">
         <v>712</v>
@@ -15237,7 +15525,7 @@
         <v>38</v>
       </c>
       <c r="C711">
-        <v>5400</v>
+        <v>5370</v>
       </c>
       <c r="D711" t="s">
         <v>713</v>
@@ -15251,7 +15539,7 @@
         <v>39</v>
       </c>
       <c r="C712">
-        <v>5390</v>
+        <v>5340</v>
       </c>
       <c r="D712" t="s">
         <v>714</v>
@@ -15265,7 +15553,7 @@
         <v>40</v>
       </c>
       <c r="C713">
-        <v>5370</v>
+        <v>5310</v>
       </c>
       <c r="D713" t="s">
         <v>715</v>
@@ -15279,7 +15567,7 @@
         <v>41</v>
       </c>
       <c r="C714">
-        <v>5350</v>
+        <v>5260</v>
       </c>
       <c r="D714" t="s">
         <v>716</v>
@@ -15293,7 +15581,7 @@
         <v>42</v>
       </c>
       <c r="C715">
-        <v>5300</v>
+        <v>5220</v>
       </c>
       <c r="D715" t="s">
         <v>717</v>
@@ -15307,7 +15595,7 @@
         <v>43</v>
       </c>
       <c r="C716">
-        <v>5250</v>
+        <v>5180</v>
       </c>
       <c r="D716" t="s">
         <v>718</v>
@@ -15321,7 +15609,7 @@
         <v>44</v>
       </c>
       <c r="C717">
-        <v>5200</v>
+        <v>5140</v>
       </c>
       <c r="D717" t="s">
         <v>719</v>
@@ -15335,7 +15623,7 @@
         <v>45</v>
       </c>
       <c r="C718">
-        <v>5150</v>
+        <v>5090</v>
       </c>
       <c r="D718" t="s">
         <v>720</v>
@@ -15349,7 +15637,7 @@
         <v>46</v>
       </c>
       <c r="C719">
-        <v>5110</v>
+        <v>5060</v>
       </c>
       <c r="D719" t="s">
         <v>721</v>
@@ -15363,7 +15651,7 @@
         <v>47</v>
       </c>
       <c r="C720">
-        <v>5080</v>
+        <v>5040</v>
       </c>
       <c r="D720" t="s">
         <v>722</v>
@@ -15377,7 +15665,7 @@
         <v>48</v>
       </c>
       <c r="C721">
-        <v>5060</v>
+        <v>5020</v>
       </c>
       <c r="D721" t="s">
         <v>723</v>
@@ -15391,7 +15679,7 @@
         <v>49</v>
       </c>
       <c r="C722">
-        <v>5060</v>
+        <v>5000</v>
       </c>
       <c r="D722" t="s">
         <v>724</v>
@@ -15405,7 +15693,7 @@
         <v>50</v>
       </c>
       <c r="C723">
-        <v>5060</v>
+        <v>5000</v>
       </c>
       <c r="D723" t="s">
         <v>725</v>
@@ -15419,7 +15707,7 @@
         <v>51</v>
       </c>
       <c r="C724">
-        <v>5070</v>
+        <v>5000</v>
       </c>
       <c r="D724" t="s">
         <v>726</v>
@@ -15433,7 +15721,7 @@
         <v>52</v>
       </c>
       <c r="C725">
-        <v>5080</v>
+        <v>5010</v>
       </c>
       <c r="D725" t="s">
         <v>727</v>
@@ -15447,7 +15735,7 @@
         <v>53</v>
       </c>
       <c r="C726">
-        <v>5090</v>
+        <v>5040</v>
       </c>
       <c r="D726" t="s">
         <v>728</v>
@@ -15461,7 +15749,7 @@
         <v>54</v>
       </c>
       <c r="C727">
-        <v>5110</v>
+        <v>5060</v>
       </c>
       <c r="D727" t="s">
         <v>729</v>
@@ -15475,7 +15763,7 @@
         <v>55</v>
       </c>
       <c r="C728">
-        <v>5130</v>
+        <v>5080</v>
       </c>
       <c r="D728" t="s">
         <v>730</v>
@@ -15489,7 +15777,7 @@
         <v>56</v>
       </c>
       <c r="C729">
-        <v>5150</v>
+        <v>5100</v>
       </c>
       <c r="D729" t="s">
         <v>731</v>
@@ -15503,7 +15791,7 @@
         <v>57</v>
       </c>
       <c r="C730">
-        <v>5170</v>
+        <v>5140</v>
       </c>
       <c r="D730" t="s">
         <v>732</v>
@@ -15517,7 +15805,7 @@
         <v>58</v>
       </c>
       <c r="C731">
-        <v>5200</v>
+        <v>5190</v>
       </c>
       <c r="D731" t="s">
         <v>733</v>
@@ -15531,7 +15819,7 @@
         <v>59</v>
       </c>
       <c r="C732">
-        <v>5240</v>
+        <v>5250</v>
       </c>
       <c r="D732" t="s">
         <v>734</v>
@@ -15545,7 +15833,7 @@
         <v>60</v>
       </c>
       <c r="C733">
-        <v>5290</v>
+        <v>5320</v>
       </c>
       <c r="D733" t="s">
         <v>735</v>
@@ -15559,7 +15847,7 @@
         <v>61</v>
       </c>
       <c r="C734">
-        <v>5350</v>
+        <v>5400</v>
       </c>
       <c r="D734" t="s">
         <v>736</v>
@@ -15573,7 +15861,7 @@
         <v>62</v>
       </c>
       <c r="C735">
-        <v>5420</v>
+        <v>5480</v>
       </c>
       <c r="D735" t="s">
         <v>737</v>
@@ -15587,7 +15875,7 @@
         <v>63</v>
       </c>
       <c r="C736">
-        <v>5490</v>
+        <v>5560</v>
       </c>
       <c r="D736" t="s">
         <v>738</v>
@@ -15601,7 +15889,7 @@
         <v>64</v>
       </c>
       <c r="C737">
-        <v>5580</v>
+        <v>5660</v>
       </c>
       <c r="D737" t="s">
         <v>739</v>
@@ -15615,7 +15903,7 @@
         <v>65</v>
       </c>
       <c r="C738">
-        <v>5680</v>
+        <v>5770</v>
       </c>
       <c r="D738" t="s">
         <v>740</v>
@@ -15629,7 +15917,7 @@
         <v>66</v>
       </c>
       <c r="C739">
-        <v>5790</v>
+        <v>5890</v>
       </c>
       <c r="D739" t="s">
         <v>741</v>
@@ -15643,7 +15931,7 @@
         <v>67</v>
       </c>
       <c r="C740">
-        <v>5910</v>
+        <v>6020</v>
       </c>
       <c r="D740" t="s">
         <v>742</v>
@@ -15657,7 +15945,7 @@
         <v>68</v>
       </c>
       <c r="C741">
-        <v>6040</v>
+        <v>6140</v>
       </c>
       <c r="D741" t="s">
         <v>743</v>
@@ -15671,7 +15959,7 @@
         <v>69</v>
       </c>
       <c r="C742">
-        <v>6180</v>
+        <v>6290</v>
       </c>
       <c r="D742" t="s">
         <v>744</v>
@@ -15685,7 +15973,7 @@
         <v>70</v>
       </c>
       <c r="C743">
-        <v>6300</v>
+        <v>6410</v>
       </c>
       <c r="D743" t="s">
         <v>745</v>
@@ -15699,7 +15987,7 @@
         <v>71</v>
       </c>
       <c r="C744">
-        <v>6420</v>
+        <v>6510</v>
       </c>
       <c r="D744" t="s">
         <v>746</v>
@@ -15713,7 +16001,7 @@
         <v>72</v>
       </c>
       <c r="C745">
-        <v>6510</v>
+        <v>6590</v>
       </c>
       <c r="D745" t="s">
         <v>747</v>
@@ -15727,7 +16015,7 @@
         <v>73</v>
       </c>
       <c r="C746">
-        <v>6580</v>
+        <v>6660</v>
       </c>
       <c r="D746" t="s">
         <v>748</v>
@@ -15741,7 +16029,7 @@
         <v>74</v>
       </c>
       <c r="C747">
-        <v>6630</v>
+        <v>6700</v>
       </c>
       <c r="D747" t="s">
         <v>749</v>
@@ -15755,7 +16043,7 @@
         <v>75</v>
       </c>
       <c r="C748">
-        <v>6650</v>
+        <v>6710</v>
       </c>
       <c r="D748" t="s">
         <v>750</v>
@@ -15769,7 +16057,7 @@
         <v>76</v>
       </c>
       <c r="C749">
-        <v>6640</v>
+        <v>6710</v>
       </c>
       <c r="D749" t="s">
         <v>751</v>
@@ -15783,7 +16071,7 @@
         <v>77</v>
       </c>
       <c r="C750">
-        <v>6630</v>
+        <v>6700</v>
       </c>
       <c r="D750" t="s">
         <v>752</v>
@@ -15797,7 +16085,7 @@
         <v>78</v>
       </c>
       <c r="C751">
-        <v>6620</v>
+        <v>6690</v>
       </c>
       <c r="D751" t="s">
         <v>753</v>
@@ -15811,7 +16099,7 @@
         <v>79</v>
       </c>
       <c r="C752">
-        <v>6590</v>
+        <v>6670</v>
       </c>
       <c r="D752" t="s">
         <v>754</v>
@@ -15825,7 +16113,7 @@
         <v>80</v>
       </c>
       <c r="C753">
-        <v>6550</v>
+        <v>6640</v>
       </c>
       <c r="D753" t="s">
         <v>755</v>
@@ -15839,7 +16127,7 @@
         <v>81</v>
       </c>
       <c r="C754">
-        <v>6510</v>
+        <v>6590</v>
       </c>
       <c r="D754" t="s">
         <v>756</v>
@@ -15853,7 +16141,7 @@
         <v>82</v>
       </c>
       <c r="C755">
-        <v>6480</v>
+        <v>6530</v>
       </c>
       <c r="D755" t="s">
         <v>757</v>
@@ -15867,7 +16155,7 @@
         <v>83</v>
       </c>
       <c r="C756">
-        <v>6420</v>
+        <v>6490</v>
       </c>
       <c r="D756" t="s">
         <v>758</v>
@@ -15881,7 +16169,7 @@
         <v>84</v>
       </c>
       <c r="C757">
-        <v>6380</v>
+        <v>6420</v>
       </c>
       <c r="D757" t="s">
         <v>759</v>
@@ -15895,7 +16183,7 @@
         <v>85</v>
       </c>
       <c r="C758">
-        <v>6280</v>
+        <v>6330</v>
       </c>
       <c r="D758" t="s">
         <v>760</v>
@@ -15909,7 +16197,7 @@
         <v>86</v>
       </c>
       <c r="C759">
-        <v>6170</v>
+        <v>6240</v>
       </c>
       <c r="D759" t="s">
         <v>761</v>
@@ -15923,7 +16211,7 @@
         <v>87</v>
       </c>
       <c r="C760">
-        <v>6120</v>
+        <v>6170</v>
       </c>
       <c r="D760" t="s">
         <v>762</v>
@@ -15937,7 +16225,7 @@
         <v>88</v>
       </c>
       <c r="C761">
-        <v>6050</v>
+        <v>6070</v>
       </c>
       <c r="D761" t="s">
         <v>763</v>
@@ -15951,7 +16239,7 @@
         <v>89</v>
       </c>
       <c r="C762">
-        <v>5930</v>
+        <v>5940</v>
       </c>
       <c r="D762" t="s">
         <v>764</v>
@@ -15965,7 +16253,7 @@
         <v>90</v>
       </c>
       <c r="C763">
-        <v>5830</v>
+        <v>5810</v>
       </c>
       <c r="D763" t="s">
         <v>765</v>
@@ -15979,7 +16267,7 @@
         <v>91</v>
       </c>
       <c r="C764">
-        <v>5680</v>
+        <v>5670</v>
       </c>
       <c r="D764" t="s">
         <v>766</v>
@@ -15993,7 +16281,7 @@
         <v>92</v>
       </c>
       <c r="C765">
-        <v>5580</v>
+        <v>5550</v>
       </c>
       <c r="D765" t="s">
         <v>767</v>
@@ -16007,7 +16295,7 @@
         <v>93</v>
       </c>
       <c r="C766">
-        <v>5500</v>
+        <v>5460</v>
       </c>
       <c r="D766" t="s">
         <v>768</v>
@@ -16021,7 +16309,7 @@
         <v>94</v>
       </c>
       <c r="C767">
-        <v>5380</v>
+        <v>5350</v>
       </c>
       <c r="D767" t="s">
         <v>769</v>
@@ -16035,7 +16323,7 @@
         <v>95</v>
       </c>
       <c r="C768">
-        <v>5270</v>
+        <v>5230</v>
       </c>
       <c r="D768" t="s">
         <v>770</v>
@@ -16049,7 +16337,7 @@
         <v>96</v>
       </c>
       <c r="C769">
-        <v>5170</v>
+        <v>5120</v>
       </c>
       <c r="D769" t="s">
         <v>771</v>
@@ -16063,7 +16351,7 @@
         <v>1</v>
       </c>
       <c r="C770">
-        <v>5110</v>
+        <v>5160</v>
       </c>
       <c r="D770" t="s">
         <v>772</v>
@@ -16077,7 +16365,7 @@
         <v>2</v>
       </c>
       <c r="C771">
-        <v>5060</v>
+        <v>5100</v>
       </c>
       <c r="D771" t="s">
         <v>773</v>
@@ -16091,7 +16379,7 @@
         <v>3</v>
       </c>
       <c r="C772">
-        <v>5010</v>
+        <v>5050</v>
       </c>
       <c r="D772" t="s">
         <v>774</v>
@@ -16105,7 +16393,7 @@
         <v>4</v>
       </c>
       <c r="C773">
-        <v>4960</v>
+        <v>5010</v>
       </c>
       <c r="D773" t="s">
         <v>775</v>
@@ -16119,7 +16407,7 @@
         <v>5</v>
       </c>
       <c r="C774">
-        <v>4920</v>
+        <v>4970</v>
       </c>
       <c r="D774" t="s">
         <v>776</v>
@@ -16133,7 +16421,7 @@
         <v>6</v>
       </c>
       <c r="C775">
-        <v>4900</v>
+        <v>4940</v>
       </c>
       <c r="D775" t="s">
         <v>777</v>
@@ -16147,7 +16435,7 @@
         <v>7</v>
       </c>
       <c r="C776">
-        <v>4880</v>
+        <v>4910</v>
       </c>
       <c r="D776" t="s">
         <v>778</v>
@@ -16161,7 +16449,7 @@
         <v>8</v>
       </c>
       <c r="C777">
-        <v>4870</v>
+        <v>4900</v>
       </c>
       <c r="D777" t="s">
         <v>779</v>
@@ -16203,7 +16491,7 @@
         <v>11</v>
       </c>
       <c r="C780">
-        <v>4860</v>
+        <v>4850</v>
       </c>
       <c r="D780" t="s">
         <v>782</v>
@@ -16217,7 +16505,7 @@
         <v>12</v>
       </c>
       <c r="C781">
-        <v>4870</v>
+        <v>4850</v>
       </c>
       <c r="D781" t="s">
         <v>783</v>
@@ -16231,7 +16519,7 @@
         <v>13</v>
       </c>
       <c r="C782">
-        <v>4880</v>
+        <v>4850</v>
       </c>
       <c r="D782" t="s">
         <v>784</v>
@@ -16245,7 +16533,7 @@
         <v>14</v>
       </c>
       <c r="C783">
-        <v>4900</v>
+        <v>4850</v>
       </c>
       <c r="D783" t="s">
         <v>785</v>
@@ -16259,7 +16547,7 @@
         <v>15</v>
       </c>
       <c r="C784">
-        <v>4920</v>
+        <v>4850</v>
       </c>
       <c r="D784" t="s">
         <v>786</v>
@@ -16273,7 +16561,7 @@
         <v>16</v>
       </c>
       <c r="C785">
-        <v>4950</v>
+        <v>4870</v>
       </c>
       <c r="D785" t="s">
         <v>787</v>
@@ -16287,7 +16575,7 @@
         <v>17</v>
       </c>
       <c r="C786">
-        <v>4970</v>
+        <v>4880</v>
       </c>
       <c r="D786" t="s">
         <v>788</v>
@@ -16301,7 +16589,7 @@
         <v>18</v>
       </c>
       <c r="C787">
-        <v>4990</v>
+        <v>4890</v>
       </c>
       <c r="D787" t="s">
         <v>789</v>
@@ -16315,7 +16603,7 @@
         <v>19</v>
       </c>
       <c r="C788">
-        <v>5020</v>
+        <v>4930</v>
       </c>
       <c r="D788" t="s">
         <v>790</v>
@@ -16329,7 +16617,7 @@
         <v>20</v>
       </c>
       <c r="C789">
-        <v>5060</v>
+        <v>4990</v>
       </c>
       <c r="D789" t="s">
         <v>791</v>
@@ -16343,7 +16631,7 @@
         <v>21</v>
       </c>
       <c r="C790">
-        <v>5120</v>
+        <v>5080</v>
       </c>
       <c r="D790" t="s">
         <v>792</v>
@@ -16357,7 +16645,7 @@
         <v>22</v>
       </c>
       <c r="C791">
-        <v>5200</v>
+        <v>5190</v>
       </c>
       <c r="D791" t="s">
         <v>793</v>
@@ -16371,7 +16659,7 @@
         <v>23</v>
       </c>
       <c r="C792">
-        <v>5310</v>
+        <v>5320</v>
       </c>
       <c r="D792" t="s">
         <v>794</v>
@@ -16385,7 +16673,7 @@
         <v>24</v>
       </c>
       <c r="C793">
-        <v>5440</v>
+        <v>5470</v>
       </c>
       <c r="D793" t="s">
         <v>795</v>
@@ -16399,7 +16687,7 @@
         <v>25</v>
       </c>
       <c r="C794">
-        <v>5600</v>
+        <v>5620</v>
       </c>
       <c r="D794" t="s">
         <v>796</v>
@@ -16413,7 +16701,7 @@
         <v>26</v>
       </c>
       <c r="C795">
-        <v>5780</v>
+        <v>5800</v>
       </c>
       <c r="D795" t="s">
         <v>797</v>
@@ -16427,7 +16715,7 @@
         <v>27</v>
       </c>
       <c r="C796">
-        <v>5980</v>
+        <v>6000</v>
       </c>
       <c r="D796" t="s">
         <v>798</v>
@@ -16441,7 +16729,7 @@
         <v>28</v>
       </c>
       <c r="C797">
-        <v>6180</v>
+        <v>6210</v>
       </c>
       <c r="D797" t="s">
         <v>799</v>
@@ -16455,7 +16743,7 @@
         <v>29</v>
       </c>
       <c r="C798">
-        <v>6380</v>
+        <v>6500</v>
       </c>
       <c r="D798" t="s">
         <v>800</v>
@@ -16469,7 +16757,7 @@
         <v>30</v>
       </c>
       <c r="C799">
-        <v>6570</v>
+        <v>6720</v>
       </c>
       <c r="D799" t="s">
         <v>801</v>
@@ -16483,7 +16771,7 @@
         <v>31</v>
       </c>
       <c r="C800">
-        <v>6730</v>
+        <v>6880</v>
       </c>
       <c r="D800" t="s">
         <v>802</v>
@@ -16497,7 +16785,7 @@
         <v>32</v>
       </c>
       <c r="C801">
-        <v>6880</v>
+        <v>7020</v>
       </c>
       <c r="D801" t="s">
         <v>803</v>
@@ -16511,7 +16799,7 @@
         <v>33</v>
       </c>
       <c r="C802">
-        <v>6990</v>
+        <v>7130</v>
       </c>
       <c r="D802" t="s">
         <v>804</v>
@@ -16525,7 +16813,7 @@
         <v>34</v>
       </c>
       <c r="C803">
-        <v>7080</v>
+        <v>7240</v>
       </c>
       <c r="D803" t="s">
         <v>805</v>
@@ -16539,7 +16827,7 @@
         <v>35</v>
       </c>
       <c r="C804">
-        <v>7110</v>
+        <v>7300</v>
       </c>
       <c r="D804" t="s">
         <v>806</v>
@@ -16553,7 +16841,7 @@
         <v>36</v>
       </c>
       <c r="C805">
-        <v>7130</v>
+        <v>7350</v>
       </c>
       <c r="D805" t="s">
         <v>807</v>
@@ -16567,7 +16855,7 @@
         <v>37</v>
       </c>
       <c r="C806">
-        <v>7150</v>
+        <v>7380</v>
       </c>
       <c r="D806" t="s">
         <v>808</v>
@@ -16581,7 +16869,7 @@
         <v>38</v>
       </c>
       <c r="C807">
-        <v>7140</v>
+        <v>7390</v>
       </c>
       <c r="D807" t="s">
         <v>809</v>
@@ -16595,7 +16883,7 @@
         <v>39</v>
       </c>
       <c r="C808">
-        <v>7110</v>
+        <v>7380</v>
       </c>
       <c r="D808" t="s">
         <v>810</v>
@@ -16609,7 +16897,7 @@
         <v>40</v>
       </c>
       <c r="C809">
-        <v>7080</v>
+        <v>7370</v>
       </c>
       <c r="D809" t="s">
         <v>811</v>
@@ -16623,7 +16911,7 @@
         <v>41</v>
       </c>
       <c r="C810">
-        <v>7040</v>
+        <v>7350</v>
       </c>
       <c r="D810" t="s">
         <v>812</v>
@@ -16637,7 +16925,7 @@
         <v>42</v>
       </c>
       <c r="C811">
-        <v>7020</v>
+        <v>7340</v>
       </c>
       <c r="D811" t="s">
         <v>813</v>
@@ -16651,7 +16939,7 @@
         <v>43</v>
       </c>
       <c r="C812">
-        <v>6990</v>
+        <v>7320</v>
       </c>
       <c r="D812" t="s">
         <v>814</v>
@@ -16665,7 +16953,7 @@
         <v>44</v>
       </c>
       <c r="C813">
-        <v>6960</v>
+        <v>7300</v>
       </c>
       <c r="D813" t="s">
         <v>815</v>
@@ -16679,7 +16967,7 @@
         <v>45</v>
       </c>
       <c r="C814">
-        <v>6940</v>
+        <v>7260</v>
       </c>
       <c r="D814" t="s">
         <v>816</v>
@@ -16693,7 +16981,7 @@
         <v>46</v>
       </c>
       <c r="C815">
-        <v>6920</v>
+        <v>7250</v>
       </c>
       <c r="D815" t="s">
         <v>817</v>
@@ -16707,7 +16995,7 @@
         <v>47</v>
       </c>
       <c r="C816">
-        <v>6900</v>
+        <v>7250</v>
       </c>
       <c r="D816" t="s">
         <v>818</v>
@@ -16721,7 +17009,7 @@
         <v>48</v>
       </c>
       <c r="C817">
-        <v>6870</v>
+        <v>7250</v>
       </c>
       <c r="D817" t="s">
         <v>819</v>
@@ -16735,7 +17023,7 @@
         <v>49</v>
       </c>
       <c r="C818">
-        <v>6850</v>
+        <v>7250</v>
       </c>
       <c r="D818" t="s">
         <v>820</v>
@@ -16749,7 +17037,7 @@
         <v>50</v>
       </c>
       <c r="C819">
-        <v>6830</v>
+        <v>7250</v>
       </c>
       <c r="D819" t="s">
         <v>821</v>
@@ -16763,7 +17051,7 @@
         <v>51</v>
       </c>
       <c r="C820">
-        <v>6810</v>
+        <v>7250</v>
       </c>
       <c r="D820" t="s">
         <v>822</v>
@@ -16777,7 +17065,7 @@
         <v>52</v>
       </c>
       <c r="C821">
-        <v>6790</v>
+        <v>7260</v>
       </c>
       <c r="D821" t="s">
         <v>823</v>
@@ -16791,7 +17079,7 @@
         <v>53</v>
       </c>
       <c r="C822">
-        <v>6780</v>
+        <v>7290</v>
       </c>
       <c r="D822" t="s">
         <v>824</v>
@@ -16805,7 +17093,7 @@
         <v>54</v>
       </c>
       <c r="C823">
-        <v>6780</v>
+        <v>7300</v>
       </c>
       <c r="D823" t="s">
         <v>825</v>
@@ -16819,7 +17107,7 @@
         <v>55</v>
       </c>
       <c r="C824">
-        <v>6790</v>
+        <v>7300</v>
       </c>
       <c r="D824" t="s">
         <v>826</v>
@@ -16833,7 +17121,7 @@
         <v>56</v>
       </c>
       <c r="C825">
-        <v>6800</v>
+        <v>7300</v>
       </c>
       <c r="D825" t="s">
         <v>827</v>
@@ -16847,7 +17135,7 @@
         <v>57</v>
       </c>
       <c r="C826">
-        <v>6820</v>
+        <v>7300</v>
       </c>
       <c r="D826" t="s">
         <v>828</v>
@@ -16861,7 +17149,7 @@
         <v>58</v>
       </c>
       <c r="C827">
-        <v>6850</v>
+        <v>7300</v>
       </c>
       <c r="D827" t="s">
         <v>829</v>
@@ -16875,7 +17163,7 @@
         <v>59</v>
       </c>
       <c r="C828">
-        <v>6890</v>
+        <v>7300</v>
       </c>
       <c r="D828" t="s">
         <v>830</v>
@@ -16889,7 +17177,7 @@
         <v>60</v>
       </c>
       <c r="C829">
-        <v>6920</v>
+        <v>7310</v>
       </c>
       <c r="D829" t="s">
         <v>831</v>
@@ -16903,7 +17191,7 @@
         <v>61</v>
       </c>
       <c r="C830">
-        <v>6950</v>
+        <v>7320</v>
       </c>
       <c r="D830" t="s">
         <v>832</v>
@@ -16917,7 +17205,7 @@
         <v>62</v>
       </c>
       <c r="C831">
-        <v>6990</v>
+        <v>7320</v>
       </c>
       <c r="D831" t="s">
         <v>833</v>
@@ -16931,7 +17219,7 @@
         <v>63</v>
       </c>
       <c r="C832">
-        <v>7030</v>
+        <v>7330</v>
       </c>
       <c r="D832" t="s">
         <v>834</v>
@@ -16945,7 +17233,7 @@
         <v>64</v>
       </c>
       <c r="C833">
-        <v>7070</v>
+        <v>7350</v>
       </c>
       <c r="D833" t="s">
         <v>835</v>
@@ -16959,7 +17247,7 @@
         <v>65</v>
       </c>
       <c r="C834">
-        <v>7130</v>
+        <v>7390</v>
       </c>
       <c r="D834" t="s">
         <v>836</v>
@@ -16973,7 +17261,7 @@
         <v>66</v>
       </c>
       <c r="C835">
-        <v>7190</v>
+        <v>7440</v>
       </c>
       <c r="D835" t="s">
         <v>837</v>
@@ -16987,7 +17275,7 @@
         <v>67</v>
       </c>
       <c r="C836">
-        <v>7260</v>
+        <v>7510</v>
       </c>
       <c r="D836" t="s">
         <v>838</v>
@@ -17001,7 +17289,7 @@
         <v>68</v>
       </c>
       <c r="C837">
-        <v>7340</v>
+        <v>7590</v>
       </c>
       <c r="D837" t="s">
         <v>839</v>
@@ -17015,7 +17303,7 @@
         <v>69</v>
       </c>
       <c r="C838">
-        <v>7420</v>
+        <v>7680</v>
       </c>
       <c r="D838" t="s">
         <v>840</v>
@@ -17029,7 +17317,7 @@
         <v>70</v>
       </c>
       <c r="C839">
-        <v>7490</v>
+        <v>7750</v>
       </c>
       <c r="D839" t="s">
         <v>841</v>
@@ -17043,7 +17331,7 @@
         <v>71</v>
       </c>
       <c r="C840">
-        <v>7560</v>
+        <v>7800</v>
       </c>
       <c r="D840" t="s">
         <v>842</v>
@@ -17057,7 +17345,7 @@
         <v>72</v>
       </c>
       <c r="C841">
-        <v>7620</v>
+        <v>7830</v>
       </c>
       <c r="D841" t="s">
         <v>843</v>
@@ -17071,7 +17359,7 @@
         <v>73</v>
       </c>
       <c r="C842">
-        <v>7640</v>
+        <v>7860</v>
       </c>
       <c r="D842" t="s">
         <v>844</v>
@@ -17085,7 +17373,7 @@
         <v>74</v>
       </c>
       <c r="C843">
-        <v>7650</v>
+        <v>7860</v>
       </c>
       <c r="D843" t="s">
         <v>845</v>
@@ -17099,7 +17387,7 @@
         <v>75</v>
       </c>
       <c r="C844">
-        <v>7650</v>
+        <v>7850</v>
       </c>
       <c r="D844" t="s">
         <v>846</v>
@@ -17113,7 +17401,7 @@
         <v>76</v>
       </c>
       <c r="C845">
-        <v>7640</v>
+        <v>7840</v>
       </c>
       <c r="D845" t="s">
         <v>847</v>
@@ -17127,7 +17415,7 @@
         <v>77</v>
       </c>
       <c r="C846">
-        <v>7620</v>
+        <v>7810</v>
       </c>
       <c r="D846" t="s">
         <v>848</v>
@@ -17141,7 +17429,7 @@
         <v>78</v>
       </c>
       <c r="C847">
-        <v>7590</v>
+        <v>7770</v>
       </c>
       <c r="D847" t="s">
         <v>849</v>
@@ -17155,7 +17443,7 @@
         <v>79</v>
       </c>
       <c r="C848">
-        <v>7560</v>
+        <v>7740</v>
       </c>
       <c r="D848" t="s">
         <v>850</v>
@@ -17169,7 +17457,7 @@
         <v>80</v>
       </c>
       <c r="C849">
-        <v>7520</v>
+        <v>7700</v>
       </c>
       <c r="D849" t="s">
         <v>851</v>
@@ -17183,7 +17471,7 @@
         <v>81</v>
       </c>
       <c r="C850">
-        <v>7480</v>
+        <v>7640</v>
       </c>
       <c r="D850" t="s">
         <v>852</v>
@@ -17197,7 +17485,7 @@
         <v>82</v>
       </c>
       <c r="C851">
-        <v>7450</v>
+        <v>7570</v>
       </c>
       <c r="D851" t="s">
         <v>853</v>
@@ -17211,7 +17499,7 @@
         <v>83</v>
       </c>
       <c r="C852">
-        <v>7390</v>
+        <v>7500</v>
       </c>
       <c r="D852" t="s">
         <v>854</v>
@@ -17225,7 +17513,7 @@
         <v>84</v>
       </c>
       <c r="C853">
-        <v>7340</v>
+        <v>7430</v>
       </c>
       <c r="D853" t="s">
         <v>855</v>
@@ -17239,7 +17527,7 @@
         <v>85</v>
       </c>
       <c r="C854">
-        <v>7230</v>
+        <v>7320</v>
       </c>
       <c r="D854" t="s">
         <v>856</v>
@@ -17253,7 +17541,7 @@
         <v>86</v>
       </c>
       <c r="C855">
-        <v>7100</v>
+        <v>7190</v>
       </c>
       <c r="D855" t="s">
         <v>857</v>
@@ -17267,7 +17555,7 @@
         <v>87</v>
       </c>
       <c r="C856">
-        <v>7000</v>
+        <v>7090</v>
       </c>
       <c r="D856" t="s">
         <v>858</v>
@@ -17281,7 +17569,7 @@
         <v>88</v>
       </c>
       <c r="C857">
-        <v>6880</v>
+        <v>6960</v>
       </c>
       <c r="D857" t="s">
         <v>859</v>
@@ -17295,7 +17583,7 @@
         <v>89</v>
       </c>
       <c r="C858">
-        <v>6700</v>
+        <v>6770</v>
       </c>
       <c r="D858" t="s">
         <v>860</v>
@@ -17309,7 +17597,7 @@
         <v>90</v>
       </c>
       <c r="C859">
-        <v>6560</v>
+        <v>6610</v>
       </c>
       <c r="D859" t="s">
         <v>861</v>
@@ -17323,7 +17611,7 @@
         <v>91</v>
       </c>
       <c r="C860">
-        <v>6380</v>
+        <v>6450</v>
       </c>
       <c r="D860" t="s">
         <v>862</v>
@@ -17337,7 +17625,7 @@
         <v>92</v>
       </c>
       <c r="C861">
-        <v>6250</v>
+        <v>6320</v>
       </c>
       <c r="D861" t="s">
         <v>863</v>
@@ -17351,7 +17639,7 @@
         <v>93</v>
       </c>
       <c r="C862">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="D862" t="s">
         <v>864</v>
@@ -17365,7 +17653,7 @@
         <v>94</v>
       </c>
       <c r="C863">
-        <v>5920</v>
+        <v>6070</v>
       </c>
       <c r="D863" t="s">
         <v>865</v>
@@ -17379,7 +17667,7 @@
         <v>95</v>
       </c>
       <c r="C864">
-        <v>5840</v>
+        <v>5950</v>
       </c>
       <c r="D864" t="s">
         <v>866</v>
@@ -17393,7 +17681,7 @@
         <v>96</v>
       </c>
       <c r="C865">
-        <v>5730</v>
+        <v>5840</v>
       </c>
       <c r="D865" t="s">
         <v>867</v>
@@ -17407,7 +17695,7 @@
         <v>1</v>
       </c>
       <c r="C866">
-        <v>5690</v>
+        <v>5660</v>
       </c>
       <c r="D866" t="s">
         <v>868</v>
@@ -17421,7 +17709,7 @@
         <v>2</v>
       </c>
       <c r="C867">
-        <v>5650</v>
+        <v>5620</v>
       </c>
       <c r="D867" t="s">
         <v>869</v>
@@ -17435,7 +17723,7 @@
         <v>3</v>
       </c>
       <c r="C868">
-        <v>5590</v>
+        <v>5570</v>
       </c>
       <c r="D868" t="s">
         <v>870</v>
@@ -17449,7 +17737,7 @@
         <v>4</v>
       </c>
       <c r="C869">
-        <v>5560</v>
+        <v>5540</v>
       </c>
       <c r="D869" t="s">
         <v>871</v>
@@ -17463,7 +17751,7 @@
         <v>5</v>
       </c>
       <c r="C870">
-        <v>5520</v>
+        <v>5490</v>
       </c>
       <c r="D870" t="s">
         <v>872</v>
@@ -17477,7 +17765,7 @@
         <v>6</v>
       </c>
       <c r="C871">
-        <v>5500</v>
+        <v>5460</v>
       </c>
       <c r="D871" t="s">
         <v>873</v>
@@ -17491,7 +17779,7 @@
         <v>7</v>
       </c>
       <c r="C872">
-        <v>5480</v>
+        <v>5430</v>
       </c>
       <c r="D872" t="s">
         <v>874</v>
@@ -17505,7 +17793,7 @@
         <v>8</v>
       </c>
       <c r="C873">
-        <v>5450</v>
+        <v>5400</v>
       </c>
       <c r="D873" t="s">
         <v>875</v>
@@ -17519,7 +17807,7 @@
         <v>9</v>
       </c>
       <c r="C874">
-        <v>5430</v>
+        <v>5380</v>
       </c>
       <c r="D874" t="s">
         <v>876</v>
@@ -17533,7 +17821,7 @@
         <v>10</v>
       </c>
       <c r="C875">
-        <v>5410</v>
+        <v>5350</v>
       </c>
       <c r="D875" t="s">
         <v>877</v>
@@ -17547,7 +17835,7 @@
         <v>11</v>
       </c>
       <c r="C876">
-        <v>5400</v>
+        <v>5340</v>
       </c>
       <c r="D876" t="s">
         <v>878</v>
@@ -17561,7 +17849,7 @@
         <v>12</v>
       </c>
       <c r="C877">
-        <v>5400</v>
+        <v>5340</v>
       </c>
       <c r="D877" t="s">
         <v>879</v>
@@ -17575,7 +17863,7 @@
         <v>13</v>
       </c>
       <c r="C878">
-        <v>5410</v>
+        <v>5340</v>
       </c>
       <c r="D878" t="s">
         <v>880</v>
@@ -17589,7 +17877,7 @@
         <v>14</v>
       </c>
       <c r="C879">
-        <v>5430</v>
+        <v>5350</v>
       </c>
       <c r="D879" t="s">
         <v>881</v>
@@ -17603,7 +17891,7 @@
         <v>15</v>
       </c>
       <c r="C880">
-        <v>5440</v>
+        <v>5360</v>
       </c>
       <c r="D880" t="s">
         <v>882</v>
@@ -17617,7 +17905,7 @@
         <v>16</v>
       </c>
       <c r="C881">
-        <v>5450</v>
+        <v>5370</v>
       </c>
       <c r="D881" t="s">
         <v>883</v>
@@ -17631,7 +17919,7 @@
         <v>17</v>
       </c>
       <c r="C882">
-        <v>5470</v>
+        <v>5380</v>
       </c>
       <c r="D882" t="s">
         <v>884</v>
@@ -17645,7 +17933,7 @@
         <v>18</v>
       </c>
       <c r="C883">
-        <v>5480</v>
+        <v>5400</v>
       </c>
       <c r="D883" t="s">
         <v>885</v>
@@ -17659,7 +17947,7 @@
         <v>19</v>
       </c>
       <c r="C884">
-        <v>5500</v>
+        <v>5420</v>
       </c>
       <c r="D884" t="s">
         <v>886</v>
@@ -17673,7 +17961,7 @@
         <v>20</v>
       </c>
       <c r="C885">
-        <v>5530</v>
+        <v>5460</v>
       </c>
       <c r="D885" t="s">
         <v>887</v>
@@ -17687,7 +17975,7 @@
         <v>21</v>
       </c>
       <c r="C886">
-        <v>5580</v>
+        <v>5520</v>
       </c>
       <c r="D886" t="s">
         <v>888</v>
@@ -17701,7 +17989,7 @@
         <v>22</v>
       </c>
       <c r="C887">
-        <v>5640</v>
+        <v>5610</v>
       </c>
       <c r="D887" t="s">
         <v>889</v>
@@ -17715,7 +18003,7 @@
         <v>23</v>
       </c>
       <c r="C888">
-        <v>5730</v>
+        <v>5720</v>
       </c>
       <c r="D888" t="s">
         <v>890</v>
@@ -17729,7 +18017,7 @@
         <v>24</v>
       </c>
       <c r="C889">
-        <v>5830</v>
+        <v>5860</v>
       </c>
       <c r="D889" t="s">
         <v>891</v>
@@ -17743,7 +18031,7 @@
         <v>25</v>
       </c>
       <c r="C890">
-        <v>5960</v>
+        <v>6020</v>
       </c>
       <c r="D890" t="s">
         <v>892</v>
@@ -17757,7 +18045,7 @@
         <v>26</v>
       </c>
       <c r="C891">
-        <v>6100</v>
+        <v>6190</v>
       </c>
       <c r="D891" t="s">
         <v>893</v>
@@ -17771,7 +18059,7 @@
         <v>27</v>
       </c>
       <c r="C892">
-        <v>6250</v>
+        <v>6370</v>
       </c>
       <c r="D892" t="s">
         <v>894</v>
@@ -17785,7 +18073,7 @@
         <v>28</v>
       </c>
       <c r="C893">
-        <v>6400</v>
+        <v>6550</v>
       </c>
       <c r="D893" t="s">
         <v>895</v>
@@ -17799,7 +18087,7 @@
         <v>29</v>
       </c>
       <c r="C894">
-        <v>6550</v>
+        <v>6740</v>
       </c>
       <c r="D894" t="s">
         <v>896</v>
@@ -17813,7 +18101,7 @@
         <v>30</v>
       </c>
       <c r="C895">
-        <v>6700</v>
+        <v>6910</v>
       </c>
       <c r="D895" t="s">
         <v>897</v>
@@ -17827,7 +18115,7 @@
         <v>31</v>
       </c>
       <c r="C896">
-        <v>6840</v>
+        <v>7080</v>
       </c>
       <c r="D896" t="s">
         <v>898</v>
@@ -17841,7 +18129,7 @@
         <v>32</v>
       </c>
       <c r="C897">
-        <v>6960</v>
+        <v>7220</v>
       </c>
       <c r="D897" t="s">
         <v>899</v>
@@ -17855,7 +18143,7 @@
         <v>33</v>
       </c>
       <c r="C898">
-        <v>7070</v>
+        <v>7350</v>
       </c>
       <c r="D898" t="s">
         <v>900</v>
@@ -17869,7 +18157,7 @@
         <v>34</v>
       </c>
       <c r="C899">
-        <v>7160</v>
+        <v>7450</v>
       </c>
       <c r="D899" t="s">
         <v>901</v>
@@ -17883,7 +18171,7 @@
         <v>35</v>
       </c>
       <c r="C900">
-        <v>7220</v>
+        <v>7530</v>
       </c>
       <c r="D900" t="s">
         <v>902</v>
@@ -17897,7 +18185,7 @@
         <v>36</v>
       </c>
       <c r="C901">
-        <v>7270</v>
+        <v>7590</v>
       </c>
       <c r="D901" t="s">
         <v>903</v>
@@ -17911,7 +18199,7 @@
         <v>37</v>
       </c>
       <c r="C902">
-        <v>7290</v>
+        <v>7620</v>
       </c>
       <c r="D902" t="s">
         <v>904</v>
@@ -17925,7 +18213,7 @@
         <v>38</v>
       </c>
       <c r="C903">
-        <v>7300</v>
+        <v>7620</v>
       </c>
       <c r="D903" t="s">
         <v>905</v>
@@ -17939,7 +18227,7 @@
         <v>39</v>
       </c>
       <c r="C904">
-        <v>7290</v>
+        <v>7610</v>
       </c>
       <c r="D904" t="s">
         <v>906</v>
@@ -17953,7 +18241,7 @@
         <v>40</v>
       </c>
       <c r="C905">
-        <v>7260</v>
+        <v>7570</v>
       </c>
       <c r="D905" t="s">
         <v>907</v>
@@ -17967,7 +18255,7 @@
         <v>41</v>
       </c>
       <c r="C906">
-        <v>7210</v>
+        <v>7520</v>
       </c>
       <c r="D906" t="s">
         <v>908</v>
@@ -17981,7 +18269,7 @@
         <v>42</v>
       </c>
       <c r="C907">
-        <v>7160</v>
+        <v>7470</v>
       </c>
       <c r="D907" t="s">
         <v>909</v>
@@ -17995,7 +18283,7 @@
         <v>43</v>
       </c>
       <c r="C908">
-        <v>7110</v>
+        <v>7400</v>
       </c>
       <c r="D908" t="s">
         <v>910</v>
@@ -18009,7 +18297,7 @@
         <v>44</v>
       </c>
       <c r="C909">
-        <v>7050</v>
+        <v>7340</v>
       </c>
       <c r="D909" t="s">
         <v>911</v>
@@ -18023,7 +18311,7 @@
         <v>45</v>
       </c>
       <c r="C910">
-        <v>7000</v>
+        <v>7280</v>
       </c>
       <c r="D910" t="s">
         <v>912</v>
@@ -18037,7 +18325,7 @@
         <v>46</v>
       </c>
       <c r="C911">
-        <v>6950</v>
+        <v>7230</v>
       </c>
       <c r="D911" t="s">
         <v>913</v>
@@ -18051,7 +18339,7 @@
         <v>47</v>
       </c>
       <c r="C912">
-        <v>6900</v>
+        <v>7190</v>
       </c>
       <c r="D912" t="s">
         <v>914</v>
@@ -18065,7 +18353,7 @@
         <v>48</v>
       </c>
       <c r="C913">
-        <v>6870</v>
+        <v>7160</v>
       </c>
       <c r="D913" t="s">
         <v>915</v>
@@ -18079,7 +18367,7 @@
         <v>49</v>
       </c>
       <c r="C914">
-        <v>6840</v>
+        <v>7130</v>
       </c>
       <c r="D914" t="s">
         <v>916</v>
@@ -18093,7 +18381,7 @@
         <v>50</v>
       </c>
       <c r="C915">
-        <v>6820</v>
+        <v>7110</v>
       </c>
       <c r="D915" t="s">
         <v>917</v>
@@ -18107,7 +18395,7 @@
         <v>51</v>
       </c>
       <c r="C916">
-        <v>6810</v>
+        <v>7100</v>
       </c>
       <c r="D916" t="s">
         <v>918</v>
@@ -18121,7 +18409,7 @@
         <v>52</v>
       </c>
       <c r="C917">
-        <v>6810</v>
+        <v>7100</v>
       </c>
       <c r="D917" t="s">
         <v>919</v>
@@ -18135,7 +18423,7 @@
         <v>53</v>
       </c>
       <c r="C918">
-        <v>6820</v>
+        <v>7100</v>
       </c>
       <c r="D918" t="s">
         <v>920</v>
@@ -18149,7 +18437,7 @@
         <v>54</v>
       </c>
       <c r="C919">
-        <v>6830</v>
+        <v>7100</v>
       </c>
       <c r="D919" t="s">
         <v>921</v>
@@ -18163,7 +18451,7 @@
         <v>55</v>
       </c>
       <c r="C920">
-        <v>6850</v>
+        <v>7100</v>
       </c>
       <c r="D920" t="s">
         <v>922</v>
@@ -18177,7 +18465,7 @@
         <v>56</v>
       </c>
       <c r="C921">
-        <v>6880</v>
+        <v>7110</v>
       </c>
       <c r="D921" t="s">
         <v>923</v>
@@ -18191,7 +18479,7 @@
         <v>57</v>
       </c>
       <c r="C922">
-        <v>6910</v>
+        <v>7110</v>
       </c>
       <c r="D922" t="s">
         <v>924</v>
@@ -18205,7 +18493,7 @@
         <v>58</v>
       </c>
       <c r="C923">
-        <v>6950</v>
+        <v>7120</v>
       </c>
       <c r="D923" t="s">
         <v>925</v>
@@ -18219,7 +18507,7 @@
         <v>59</v>
       </c>
       <c r="C924">
-        <v>6990</v>
+        <v>7130</v>
       </c>
       <c r="D924" t="s">
         <v>926</v>
@@ -18233,7 +18521,7 @@
         <v>60</v>
       </c>
       <c r="C925">
-        <v>7040</v>
+        <v>7140</v>
       </c>
       <c r="D925" t="s">
         <v>927</v>
@@ -18247,7 +18535,7 @@
         <v>61</v>
       </c>
       <c r="C926">
-        <v>7080</v>
+        <v>7150</v>
       </c>
       <c r="D926" t="s">
         <v>928</v>
@@ -18261,7 +18549,7 @@
         <v>62</v>
       </c>
       <c r="C927">
-        <v>7130</v>
+        <v>7170</v>
       </c>
       <c r="D927" t="s">
         <v>929</v>
@@ -18275,7 +18563,7 @@
         <v>63</v>
       </c>
       <c r="C928">
-        <v>7180</v>
+        <v>7200</v>
       </c>
       <c r="D928" t="s">
         <v>930</v>
@@ -18289,7 +18577,7 @@
         <v>64</v>
       </c>
       <c r="C929">
-        <v>7230</v>
+        <v>7250</v>
       </c>
       <c r="D929" t="s">
         <v>931</v>
@@ -18303,7 +18591,7 @@
         <v>65</v>
       </c>
       <c r="C930">
-        <v>7290</v>
+        <v>7310</v>
       </c>
       <c r="D930" t="s">
         <v>932</v>
@@ -18317,7 +18605,7 @@
         <v>66</v>
       </c>
       <c r="C931">
-        <v>7360</v>
+        <v>7390</v>
       </c>
       <c r="D931" t="s">
         <v>933</v>
@@ -18331,7 +18619,7 @@
         <v>67</v>
       </c>
       <c r="C932">
-        <v>7440</v>
+        <v>7480</v>
       </c>
       <c r="D932" t="s">
         <v>934</v>
@@ -18345,7 +18633,7 @@
         <v>68</v>
       </c>
       <c r="C933">
-        <v>7510</v>
+        <v>7580</v>
       </c>
       <c r="D933" t="s">
         <v>935</v>
@@ -18359,7 +18647,7 @@
         <v>69</v>
       </c>
       <c r="C934">
-        <v>7580</v>
+        <v>7670</v>
       </c>
       <c r="D934" t="s">
         <v>936</v>
@@ -18373,7 +18661,7 @@
         <v>70</v>
       </c>
       <c r="C935">
-        <v>7650</v>
+        <v>7750</v>
       </c>
       <c r="D935" t="s">
         <v>937</v>
@@ -18387,7 +18675,7 @@
         <v>71</v>
       </c>
       <c r="C936">
-        <v>7690</v>
+        <v>7810</v>
       </c>
       <c r="D936" t="s">
         <v>938</v>
@@ -18401,7 +18689,7 @@
         <v>72</v>
       </c>
       <c r="C937">
-        <v>7720</v>
+        <v>7840</v>
       </c>
       <c r="D937" t="s">
         <v>939</v>
@@ -18415,7 +18703,7 @@
         <v>73</v>
       </c>
       <c r="C938">
-        <v>7740</v>
+        <v>7850</v>
       </c>
       <c r="D938" t="s">
         <v>940</v>
@@ -18429,7 +18717,7 @@
         <v>74</v>
       </c>
       <c r="C939">
-        <v>7750</v>
+        <v>7850</v>
       </c>
       <c r="D939" t="s">
         <v>941</v>
@@ -18443,7 +18731,7 @@
         <v>75</v>
       </c>
       <c r="C940">
-        <v>7750</v>
+        <v>7840</v>
       </c>
       <c r="D940" t="s">
         <v>942</v>
@@ -18457,7 +18745,7 @@
         <v>76</v>
       </c>
       <c r="C941">
-        <v>7740</v>
+        <v>7830</v>
       </c>
       <c r="D941" t="s">
         <v>943</v>
@@ -18471,7 +18759,7 @@
         <v>77</v>
       </c>
       <c r="C942">
-        <v>7710</v>
+        <v>7830</v>
       </c>
       <c r="D942" t="s">
         <v>944</v>
@@ -18485,7 +18773,7 @@
         <v>78</v>
       </c>
       <c r="C943">
-        <v>7690</v>
+        <v>7830</v>
       </c>
       <c r="D943" t="s">
         <v>945</v>
@@ -18499,7 +18787,7 @@
         <v>79</v>
       </c>
       <c r="C944">
-        <v>7660</v>
+        <v>7800</v>
       </c>
       <c r="D944" t="s">
         <v>946</v>
@@ -18513,7 +18801,7 @@
         <v>80</v>
       </c>
       <c r="C945">
-        <v>7610</v>
+        <v>7760</v>
       </c>
       <c r="D945" t="s">
         <v>947</v>
@@ -18527,7 +18815,7 @@
         <v>81</v>
       </c>
       <c r="C946">
-        <v>7570</v>
+        <v>7700</v>
       </c>
       <c r="D946" t="s">
         <v>948</v>
@@ -18541,7 +18829,7 @@
         <v>82</v>
       </c>
       <c r="C947">
-        <v>7520</v>
+        <v>7650</v>
       </c>
       <c r="D947" t="s">
         <v>949</v>
@@ -18555,7 +18843,7 @@
         <v>83</v>
       </c>
       <c r="C948">
-        <v>7450</v>
+        <v>7570</v>
       </c>
       <c r="D948" t="s">
         <v>950</v>
@@ -18569,7 +18857,7 @@
         <v>84</v>
       </c>
       <c r="C949">
-        <v>7390</v>
+        <v>7500</v>
       </c>
       <c r="D949" t="s">
         <v>951</v>
@@ -18583,7 +18871,7 @@
         <v>85</v>
       </c>
       <c r="C950">
-        <v>7280</v>
+        <v>7410</v>
       </c>
       <c r="D950" t="s">
         <v>952</v>
@@ -18597,7 +18885,7 @@
         <v>86</v>
       </c>
       <c r="C951">
-        <v>7140</v>
+        <v>7300</v>
       </c>
       <c r="D951" t="s">
         <v>953</v>
@@ -18611,7 +18899,7 @@
         <v>87</v>
       </c>
       <c r="C952">
-        <v>7040</v>
+        <v>7170</v>
       </c>
       <c r="D952" t="s">
         <v>954</v>
@@ -18625,7 +18913,7 @@
         <v>88</v>
       </c>
       <c r="C953">
-        <v>6920</v>
+        <v>7030</v>
       </c>
       <c r="D953" t="s">
         <v>955</v>
@@ -18639,7 +18927,7 @@
         <v>89</v>
       </c>
       <c r="C954">
-        <v>6740</v>
+        <v>6870</v>
       </c>
       <c r="D954" t="s">
         <v>956</v>
@@ -18653,7 +18941,7 @@
         <v>90</v>
       </c>
       <c r="C955">
-        <v>6610</v>
+        <v>6720</v>
       </c>
       <c r="D955" t="s">
         <v>957</v>
@@ -18667,7 +18955,7 @@
         <v>91</v>
       </c>
       <c r="C956">
-        <v>6430</v>
+        <v>6550</v>
       </c>
       <c r="D956" t="s">
         <v>958</v>
@@ -18681,7 +18969,7 @@
         <v>92</v>
       </c>
       <c r="C957">
-        <v>6300</v>
+        <v>6430</v>
       </c>
       <c r="D957" t="s">
         <v>959</v>
@@ -18695,7 +18983,7 @@
         <v>93</v>
       </c>
       <c r="C958">
-        <v>6150</v>
+        <v>6270</v>
       </c>
       <c r="D958" t="s">
         <v>960</v>
@@ -18709,7 +18997,7 @@
         <v>94</v>
       </c>
       <c r="C959">
-        <v>5970</v>
+        <v>6140</v>
       </c>
       <c r="D959" t="s">
         <v>961</v>
@@ -18723,7 +19011,7 @@
         <v>95</v>
       </c>
       <c r="C960">
-        <v>5890</v>
+        <v>6020</v>
       </c>
       <c r="D960" t="s">
         <v>962</v>
@@ -18737,7 +19025,7 @@
         <v>96</v>
       </c>
       <c r="C961">
-        <v>5780</v>
+        <v>5900</v>
       </c>
       <c r="D961" t="s">
         <v>963</v>
@@ -18751,7 +19039,7 @@
         <v>1</v>
       </c>
       <c r="C962">
-        <v>5730</v>
+        <v>5830</v>
       </c>
       <c r="D962" t="s">
         <v>964</v>
@@ -18765,7 +19053,7 @@
         <v>2</v>
       </c>
       <c r="C963">
-        <v>5680</v>
+        <v>5770</v>
       </c>
       <c r="D963" t="s">
         <v>965</v>
@@ -18779,7 +19067,7 @@
         <v>3</v>
       </c>
       <c r="C964">
-        <v>5630</v>
+        <v>5720</v>
       </c>
       <c r="D964" t="s">
         <v>966</v>
@@ -18793,7 +19081,7 @@
         <v>4</v>
       </c>
       <c r="C965">
-        <v>5570</v>
+        <v>5680</v>
       </c>
       <c r="D965" t="s">
         <v>967</v>
@@ -18807,7 +19095,7 @@
         <v>5</v>
       </c>
       <c r="C966">
-        <v>5520</v>
+        <v>5630</v>
       </c>
       <c r="D966" t="s">
         <v>968</v>
@@ -18821,7 +19109,7 @@
         <v>6</v>
       </c>
       <c r="C967">
-        <v>5480</v>
+        <v>5580</v>
       </c>
       <c r="D967" t="s">
         <v>969</v>
@@ -18835,7 +19123,7 @@
         <v>7</v>
       </c>
       <c r="C968">
-        <v>5450</v>
+        <v>5550</v>
       </c>
       <c r="D968" t="s">
         <v>970</v>
@@ -18849,7 +19137,7 @@
         <v>8</v>
       </c>
       <c r="C969">
-        <v>5430</v>
+        <v>5520</v>
       </c>
       <c r="D969" t="s">
         <v>971</v>
@@ -18863,7 +19151,7 @@
         <v>9</v>
       </c>
       <c r="C970">
-        <v>5410</v>
+        <v>5490</v>
       </c>
       <c r="D970" t="s">
         <v>972</v>
@@ -18877,7 +19165,7 @@
         <v>10</v>
       </c>
       <c r="C971">
-        <v>5400</v>
+        <v>5460</v>
       </c>
       <c r="D971" t="s">
         <v>973</v>
@@ -18891,7 +19179,7 @@
         <v>11</v>
       </c>
       <c r="C972">
-        <v>5400</v>
+        <v>5450</v>
       </c>
       <c r="D972" t="s">
         <v>974</v>
@@ -18905,7 +19193,7 @@
         <v>12</v>
       </c>
       <c r="C973">
-        <v>5400</v>
+        <v>5450</v>
       </c>
       <c r="D973" t="s">
         <v>975</v>
@@ -18919,7 +19207,7 @@
         <v>13</v>
       </c>
       <c r="C974">
-        <v>5400</v>
+        <v>5450</v>
       </c>
       <c r="D974" t="s">
         <v>976</v>
@@ -18933,7 +19221,7 @@
         <v>14</v>
       </c>
       <c r="C975">
-        <v>5410</v>
+        <v>5450</v>
       </c>
       <c r="D975" t="s">
         <v>977</v>
@@ -18947,7 +19235,7 @@
         <v>15</v>
       </c>
       <c r="C976">
-        <v>5420</v>
+        <v>5460</v>
       </c>
       <c r="D976" t="s">
         <v>978</v>
@@ -18961,7 +19249,7 @@
         <v>16</v>
       </c>
       <c r="C977">
-        <v>5420</v>
+        <v>5470</v>
       </c>
       <c r="D977" t="s">
         <v>979</v>
@@ -18975,7 +19263,7 @@
         <v>17</v>
       </c>
       <c r="C978">
-        <v>5430</v>
+        <v>5490</v>
       </c>
       <c r="D978" t="s">
         <v>980</v>
@@ -18989,7 +19277,7 @@
         <v>18</v>
       </c>
       <c r="C979">
-        <v>5450</v>
+        <v>5510</v>
       </c>
       <c r="D979" t="s">
         <v>981</v>
@@ -19003,7 +19291,7 @@
         <v>19</v>
       </c>
       <c r="C980">
-        <v>5470</v>
+        <v>5530</v>
       </c>
       <c r="D980" t="s">
         <v>982</v>
@@ -19017,7 +19305,7 @@
         <v>20</v>
       </c>
       <c r="C981">
-        <v>5500</v>
+        <v>5560</v>
       </c>
       <c r="D981" t="s">
         <v>983</v>
@@ -19031,7 +19319,7 @@
         <v>21</v>
       </c>
       <c r="C982">
-        <v>5550</v>
+        <v>5620</v>
       </c>
       <c r="D982" t="s">
         <v>984</v>
@@ -19045,7 +19333,7 @@
         <v>22</v>
       </c>
       <c r="C983">
-        <v>5630</v>
+        <v>5700</v>
       </c>
       <c r="D983" t="s">
         <v>985</v>
@@ -19059,7 +19347,7 @@
         <v>23</v>
       </c>
       <c r="C984">
-        <v>5720</v>
+        <v>5810</v>
       </c>
       <c r="D984" t="s">
         <v>986</v>
@@ -19073,7 +19361,7 @@
         <v>24</v>
       </c>
       <c r="C985">
-        <v>5840</v>
+        <v>5940</v>
       </c>
       <c r="D985" t="s">
         <v>987</v>
@@ -19087,7 +19375,7 @@
         <v>25</v>
       </c>
       <c r="C986">
-        <v>5990</v>
+        <v>6090</v>
       </c>
       <c r="D986" t="s">
         <v>988</v>
@@ -19101,7 +19389,7 @@
         <v>26</v>
       </c>
       <c r="C987">
-        <v>6150</v>
+        <v>6250</v>
       </c>
       <c r="D987" t="s">
         <v>989</v>
@@ -19115,7 +19403,7 @@
         <v>27</v>
       </c>
       <c r="C988">
-        <v>6310</v>
+        <v>6420</v>
       </c>
       <c r="D988" t="s">
         <v>990</v>
@@ -19129,7 +19417,7 @@
         <v>28</v>
       </c>
       <c r="C989">
-        <v>6490</v>
+        <v>6590</v>
       </c>
       <c r="D989" t="s">
         <v>991</v>
@@ -19143,7 +19431,7 @@
         <v>29</v>
       </c>
       <c r="C990">
-        <v>6650</v>
+        <v>6760</v>
       </c>
       <c r="D990" t="s">
         <v>992</v>
@@ -19157,7 +19445,7 @@
         <v>30</v>
       </c>
       <c r="C991">
-        <v>6810</v>
+        <v>6910</v>
       </c>
       <c r="D991" t="s">
         <v>993</v>
@@ -19171,7 +19459,7 @@
         <v>31</v>
       </c>
       <c r="C992">
-        <v>6950</v>
+        <v>7040</v>
       </c>
       <c r="D992" t="s">
         <v>994</v>
@@ -19185,7 +19473,7 @@
         <v>32</v>
       </c>
       <c r="C993">
-        <v>7060</v>
+        <v>7150</v>
       </c>
       <c r="D993" t="s">
         <v>995</v>
@@ -19199,7 +19487,7 @@
         <v>33</v>
       </c>
       <c r="C994">
-        <v>7140</v>
+        <v>7240</v>
       </c>
       <c r="D994" t="s">
         <v>996</v>
@@ -19213,7 +19501,7 @@
         <v>34</v>
       </c>
       <c r="C995">
-        <v>7200</v>
+        <v>7290</v>
       </c>
       <c r="D995" t="s">
         <v>997</v>
@@ -19227,7 +19515,7 @@
         <v>35</v>
       </c>
       <c r="C996">
-        <v>7220</v>
+        <v>7320</v>
       </c>
       <c r="D996" t="s">
         <v>998</v>
@@ -19241,7 +19529,7 @@
         <v>36</v>
       </c>
       <c r="C997">
-        <v>7220</v>
+        <v>7330</v>
       </c>
       <c r="D997" t="s">
         <v>999</v>
@@ -19255,7 +19543,7 @@
         <v>37</v>
       </c>
       <c r="C998">
-        <v>7190</v>
+        <v>7300</v>
       </c>
       <c r="D998" t="s">
         <v>1000</v>
@@ -19269,7 +19557,7 @@
         <v>38</v>
       </c>
       <c r="C999">
-        <v>7150</v>
+        <v>7260</v>
       </c>
       <c r="D999" t="s">
         <v>1001</v>
@@ -19283,7 +19571,7 @@
         <v>39</v>
       </c>
       <c r="C1000">
-        <v>7090</v>
+        <v>7190</v>
       </c>
       <c r="D1000" t="s">
         <v>1002</v>
@@ -19297,7 +19585,7 @@
         <v>40</v>
       </c>
       <c r="C1001">
-        <v>7020</v>
+        <v>7110</v>
       </c>
       <c r="D1001" t="s">
         <v>1003</v>
@@ -19311,7 +19599,7 @@
         <v>41</v>
       </c>
       <c r="C1002">
-        <v>6950</v>
+        <v>7020</v>
       </c>
       <c r="D1002" t="s">
         <v>1004</v>
@@ -19325,7 +19613,7 @@
         <v>42</v>
       </c>
       <c r="C1003">
-        <v>6880</v>
+        <v>6920</v>
       </c>
       <c r="D1003" t="s">
         <v>1005</v>
@@ -19339,7 +19627,7 @@
         <v>43</v>
       </c>
       <c r="C1004">
-        <v>6810</v>
+        <v>6820</v>
       </c>
       <c r="D1004" t="s">
         <v>1006</v>
@@ -19353,7 +19641,7 @@
         <v>44</v>
       </c>
       <c r="C1005">
-        <v>6740</v>
+        <v>6730</v>
       </c>
       <c r="D1005" t="s">
         <v>1007</v>
@@ -19367,7 +19655,7 @@
         <v>45</v>
       </c>
       <c r="C1006">
-        <v>6680</v>
+        <v>6640</v>
       </c>
       <c r="D1006" t="s">
         <v>1008</v>
@@ -19381,7 +19669,7 @@
         <v>46</v>
       </c>
       <c r="C1007">
-        <v>6630</v>
+        <v>6560</v>
       </c>
       <c r="D1007" t="s">
         <v>1009</v>
@@ -19395,7 +19683,7 @@
         <v>47</v>
       </c>
       <c r="C1008">
-        <v>6590</v>
+        <v>6490</v>
       </c>
       <c r="D1008" t="s">
         <v>1010</v>
@@ -19409,7 +19697,7 @@
         <v>48</v>
       </c>
       <c r="C1009">
-        <v>6550</v>
+        <v>6430</v>
       </c>
       <c r="D1009" t="s">
         <v>1011</v>
@@ -19423,7 +19711,7 @@
         <v>49</v>
       </c>
       <c r="C1010">
-        <v>6520</v>
+        <v>6390</v>
       </c>
       <c r="D1010" t="s">
         <v>1012</v>
@@ -19437,7 +19725,7 @@
         <v>50</v>
       </c>
       <c r="C1011">
-        <v>6500</v>
+        <v>6370</v>
       </c>
       <c r="D1011" t="s">
         <v>1013</v>
@@ -19451,7 +19739,7 @@
         <v>51</v>
       </c>
       <c r="C1012">
-        <v>6500</v>
+        <v>6360</v>
       </c>
       <c r="D1012" t="s">
         <v>1014</v>
@@ -19465,7 +19753,7 @@
         <v>52</v>
       </c>
       <c r="C1013">
-        <v>6500</v>
+        <v>6370</v>
       </c>
       <c r="D1013" t="s">
         <v>1015</v>
@@ -19479,7 +19767,7 @@
         <v>53</v>
       </c>
       <c r="C1014">
-        <v>6520</v>
+        <v>6390</v>
       </c>
       <c r="D1014" t="s">
         <v>1016</v>
@@ -19493,7 +19781,7 @@
         <v>54</v>
       </c>
       <c r="C1015">
-        <v>6550</v>
+        <v>6420</v>
       </c>
       <c r="D1015" t="s">
         <v>1017</v>
@@ -19507,7 +19795,7 @@
         <v>55</v>
       </c>
       <c r="C1016">
-        <v>6590</v>
+        <v>6460</v>
       </c>
       <c r="D1016" t="s">
         <v>1018</v>
@@ -19521,7 +19809,7 @@
         <v>56</v>
       </c>
       <c r="C1017">
-        <v>6630</v>
+        <v>6510</v>
       </c>
       <c r="D1017" t="s">
         <v>1019</v>
@@ -19535,7 +19823,7 @@
         <v>57</v>
       </c>
       <c r="C1018">
-        <v>6680</v>
+        <v>6560</v>
       </c>
       <c r="D1018" t="s">
         <v>1020</v>
@@ -19549,7 +19837,7 @@
         <v>58</v>
       </c>
       <c r="C1019">
-        <v>6720</v>
+        <v>6600</v>
       </c>
       <c r="D1019" t="s">
         <v>1021</v>
@@ -19563,7 +19851,7 @@
         <v>59</v>
       </c>
       <c r="C1020">
-        <v>6770</v>
+        <v>6650</v>
       </c>
       <c r="D1020" t="s">
         <v>1022</v>
@@ -19577,7 +19865,7 @@
         <v>60</v>
       </c>
       <c r="C1021">
-        <v>6810</v>
+        <v>6700</v>
       </c>
       <c r="D1021" t="s">
         <v>1023</v>
@@ -19591,7 +19879,7 @@
         <v>61</v>
       </c>
       <c r="C1022">
-        <v>6850</v>
+        <v>6760</v>
       </c>
       <c r="D1022" t="s">
         <v>1024</v>
@@ -19605,7 +19893,7 @@
         <v>62</v>
       </c>
       <c r="C1023">
-        <v>6900</v>
+        <v>6810</v>
       </c>
       <c r="D1023" t="s">
         <v>1025</v>
@@ -19619,7 +19907,7 @@
         <v>63</v>
       </c>
       <c r="C1024">
-        <v>6950</v>
+        <v>6880</v>
       </c>
       <c r="D1024" t="s">
         <v>1026</v>
@@ -19633,7 +19921,7 @@
         <v>64</v>
       </c>
       <c r="C1025">
-        <v>7010</v>
+        <v>6970</v>
       </c>
       <c r="D1025" t="s">
         <v>1027</v>
@@ -19647,7 +19935,7 @@
         <v>65</v>
       </c>
       <c r="C1026">
-        <v>7090</v>
+        <v>7080</v>
       </c>
       <c r="D1026" t="s">
         <v>1028</v>
@@ -19661,7 +19949,7 @@
         <v>66</v>
       </c>
       <c r="C1027">
-        <v>7180</v>
+        <v>7200</v>
       </c>
       <c r="D1027" t="s">
         <v>1029</v>
@@ -19675,7 +19963,7 @@
         <v>67</v>
       </c>
       <c r="C1028">
-        <v>7290</v>
+        <v>7330</v>
       </c>
       <c r="D1028" t="s">
         <v>1030</v>
@@ -19689,7 +19977,7 @@
         <v>68</v>
       </c>
       <c r="C1029">
-        <v>7400</v>
+        <v>7470</v>
       </c>
       <c r="D1029" t="s">
         <v>1031</v>
@@ -19703,7 +19991,7 @@
         <v>69</v>
       </c>
       <c r="C1030">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="D1030" t="s">
         <v>1032</v>
@@ -19717,7 +20005,7 @@
         <v>70</v>
       </c>
       <c r="C1031">
-        <v>7590</v>
+        <v>7710</v>
       </c>
       <c r="D1031" t="s">
         <v>1033</v>
@@ -19731,7 +20019,7 @@
         <v>71</v>
       </c>
       <c r="C1032">
-        <v>7660</v>
+        <v>7790</v>
       </c>
       <c r="D1032" t="s">
         <v>1034</v>
@@ -19745,7 +20033,7 @@
         <v>72</v>
       </c>
       <c r="C1033">
-        <v>7710</v>
+        <v>7830</v>
       </c>
       <c r="D1033" t="s">
         <v>1035</v>
@@ -19759,7 +20047,7 @@
         <v>73</v>
       </c>
       <c r="C1034">
-        <v>7730</v>
+        <v>7850</v>
       </c>
       <c r="D1034" t="s">
         <v>1036</v>
@@ -19773,7 +20061,7 @@
         <v>74</v>
       </c>
       <c r="C1035">
-        <v>7750</v>
+        <v>7840</v>
       </c>
       <c r="D1035" t="s">
         <v>1037</v>
@@ -19787,7 +20075,7 @@
         <v>75</v>
       </c>
       <c r="C1036">
-        <v>7750</v>
+        <v>7830</v>
       </c>
       <c r="D1036" t="s">
         <v>1038</v>
@@ -19801,7 +20089,7 @@
         <v>76</v>
       </c>
       <c r="C1037">
-        <v>7750</v>
+        <v>7830</v>
       </c>
       <c r="D1037" t="s">
         <v>1039</v>
@@ -19815,7 +20103,7 @@
         <v>77</v>
       </c>
       <c r="C1038">
-        <v>7750</v>
+        <v>7830</v>
       </c>
       <c r="D1038" t="s">
         <v>1040</v>
@@ -19829,7 +20117,7 @@
         <v>78</v>
       </c>
       <c r="C1039">
-        <v>7740</v>
+        <v>7820</v>
       </c>
       <c r="D1039" t="s">
         <v>1041</v>
@@ -19843,7 +20131,7 @@
         <v>79</v>
       </c>
       <c r="C1040">
-        <v>7720</v>
+        <v>7800</v>
       </c>
       <c r="D1040" t="s">
         <v>1042</v>
@@ -19857,7 +20145,7 @@
         <v>80</v>
       </c>
       <c r="C1041">
-        <v>7670</v>
+        <v>7770</v>
       </c>
       <c r="D1041" t="s">
         <v>1043</v>
@@ -19871,7 +20159,7 @@
         <v>81</v>
       </c>
       <c r="C1042">
-        <v>7630</v>
+        <v>7730</v>
       </c>
       <c r="D1042" t="s">
         <v>1044</v>
@@ -19885,7 +20173,7 @@
         <v>82</v>
       </c>
       <c r="C1043">
-        <v>7580</v>
+        <v>7680</v>
       </c>
       <c r="D1043" t="s">
         <v>1045</v>
@@ -19899,7 +20187,7 @@
         <v>83</v>
       </c>
       <c r="C1044">
-        <v>7510</v>
+        <v>7600</v>
       </c>
       <c r="D1044" t="s">
         <v>1046</v>
@@ -19913,7 +20201,7 @@
         <v>84</v>
       </c>
       <c r="C1045">
-        <v>7450</v>
+        <v>7520</v>
       </c>
       <c r="D1045" t="s">
         <v>1047</v>
@@ -19927,7 +20215,7 @@
         <v>85</v>
       </c>
       <c r="C1046">
-        <v>7340</v>
+        <v>7420</v>
       </c>
       <c r="D1046" t="s">
         <v>1048</v>
@@ -19941,7 +20229,7 @@
         <v>86</v>
       </c>
       <c r="C1047">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="D1047" t="s">
         <v>1049</v>
@@ -19955,7 +20243,7 @@
         <v>87</v>
       </c>
       <c r="C1048">
-        <v>7100</v>
+        <v>7170</v>
       </c>
       <c r="D1048" t="s">
         <v>1050</v>
@@ -19969,7 +20257,7 @@
         <v>88</v>
       </c>
       <c r="C1049">
-        <v>6980</v>
+        <v>7040</v>
       </c>
       <c r="D1049" t="s">
         <v>1051</v>
@@ -19983,7 +20271,7 @@
         <v>89</v>
       </c>
       <c r="C1050">
-        <v>6820</v>
+        <v>6880</v>
       </c>
       <c r="D1050" t="s">
         <v>1052</v>
@@ -19997,7 +20285,7 @@
         <v>90</v>
       </c>
       <c r="C1051">
-        <v>6690</v>
+        <v>6740</v>
       </c>
       <c r="D1051" t="s">
         <v>1053</v>
@@ -20011,7 +20299,7 @@
         <v>91</v>
       </c>
       <c r="C1052">
-        <v>6510</v>
+        <v>6570</v>
       </c>
       <c r="D1052" t="s">
         <v>1054</v>
@@ -20025,7 +20313,7 @@
         <v>92</v>
       </c>
       <c r="C1053">
-        <v>6380</v>
+        <v>6430</v>
       </c>
       <c r="D1053" t="s">
         <v>1055</v>
@@ -20039,7 +20327,7 @@
         <v>93</v>
       </c>
       <c r="C1054">
-        <v>6240</v>
+        <v>6300</v>
       </c>
       <c r="D1054" t="s">
         <v>1056</v>
@@ -20053,7 +20341,7 @@
         <v>94</v>
       </c>
       <c r="C1055">
-        <v>6060</v>
+        <v>6160</v>
       </c>
       <c r="D1055" t="s">
         <v>1057</v>
@@ -20067,7 +20355,7 @@
         <v>95</v>
       </c>
       <c r="C1056">
-        <v>5980</v>
+        <v>6040</v>
       </c>
       <c r="D1056" t="s">
         <v>1058</v>
@@ -20081,7 +20369,7 @@
         <v>96</v>
       </c>
       <c r="C1057">
-        <v>5870</v>
+        <v>5920</v>
       </c>
       <c r="D1057" t="s">
         <v>1059</v>
@@ -20095,7 +20383,7 @@
         <v>1</v>
       </c>
       <c r="C1058">
-        <v>5820</v>
+        <v>5870</v>
       </c>
       <c r="D1058" t="s">
         <v>1060</v>
@@ -20109,7 +20397,7 @@
         <v>2</v>
       </c>
       <c r="C1059">
-        <v>5780</v>
+        <v>5800</v>
       </c>
       <c r="D1059" t="s">
         <v>1061</v>
@@ -20123,7 +20411,7 @@
         <v>3</v>
       </c>
       <c r="C1060">
-        <v>5720</v>
+        <v>5740</v>
       </c>
       <c r="D1060" t="s">
         <v>1062</v>
@@ -20137,7 +20425,7 @@
         <v>4</v>
       </c>
       <c r="C1061">
-        <v>5650</v>
+        <v>5690</v>
       </c>
       <c r="D1061" t="s">
         <v>1063</v>
@@ -20151,7 +20439,7 @@
         <v>5</v>
       </c>
       <c r="C1062">
-        <v>5600</v>
+        <v>5650</v>
       </c>
       <c r="D1062" t="s">
         <v>1064</v>
@@ -20165,7 +20453,7 @@
         <v>6</v>
       </c>
       <c r="C1063">
-        <v>5570</v>
+        <v>5620</v>
       </c>
       <c r="D1063" t="s">
         <v>1065</v>
@@ -20179,7 +20467,7 @@
         <v>7</v>
       </c>
       <c r="C1064">
-        <v>5530</v>
+        <v>5580</v>
       </c>
       <c r="D1064" t="s">
         <v>1066</v>
@@ -20193,7 +20481,7 @@
         <v>8</v>
       </c>
       <c r="C1065">
-        <v>5500</v>
+        <v>5550</v>
       </c>
       <c r="D1065" t="s">
         <v>1067</v>
@@ -20207,7 +20495,7 @@
         <v>9</v>
       </c>
       <c r="C1066">
-        <v>5460</v>
+        <v>5530</v>
       </c>
       <c r="D1066" t="s">
         <v>1068</v>
@@ -20221,7 +20509,7 @@
         <v>10</v>
       </c>
       <c r="C1067">
-        <v>5440</v>
+        <v>5510</v>
       </c>
       <c r="D1067" t="s">
         <v>1069</v>
@@ -20235,7 +20523,7 @@
         <v>11</v>
       </c>
       <c r="C1068">
-        <v>5430</v>
+        <v>5500</v>
       </c>
       <c r="D1068" t="s">
         <v>1070</v>
@@ -20249,7 +20537,7 @@
         <v>12</v>
       </c>
       <c r="C1069">
-        <v>5430</v>
+        <v>5500</v>
       </c>
       <c r="D1069" t="s">
         <v>1071</v>
@@ -20263,7 +20551,7 @@
         <v>13</v>
       </c>
       <c r="C1070">
-        <v>5450</v>
+        <v>5500</v>
       </c>
       <c r="D1070" t="s">
         <v>1072</v>
@@ -20277,7 +20565,7 @@
         <v>14</v>
       </c>
       <c r="C1071">
-        <v>5460</v>
+        <v>5500</v>
       </c>
       <c r="D1071" t="s">
         <v>1073</v>
@@ -20291,7 +20579,7 @@
         <v>15</v>
       </c>
       <c r="C1072">
-        <v>5480</v>
+        <v>5510</v>
       </c>
       <c r="D1072" t="s">
         <v>1074</v>
@@ -20305,7 +20593,7 @@
         <v>16</v>
       </c>
       <c r="C1073">
-        <v>5500</v>
+        <v>5530</v>
       </c>
       <c r="D1073" t="s">
         <v>1075</v>
@@ -20319,7 +20607,7 @@
         <v>17</v>
       </c>
       <c r="C1074">
-        <v>5510</v>
+        <v>5550</v>
       </c>
       <c r="D1074" t="s">
         <v>1076</v>
@@ -20333,7 +20621,7 @@
         <v>18</v>
       </c>
       <c r="C1075">
-        <v>5530</v>
+        <v>5580</v>
       </c>
       <c r="D1075" t="s">
         <v>1077</v>
@@ -20347,7 +20635,7 @@
         <v>19</v>
       </c>
       <c r="C1076">
-        <v>5550</v>
+        <v>5610</v>
       </c>
       <c r="D1076" t="s">
         <v>1078</v>
@@ -20361,7 +20649,7 @@
         <v>20</v>
       </c>
       <c r="C1077">
-        <v>5580</v>
+        <v>5650</v>
       </c>
       <c r="D1077" t="s">
         <v>1079</v>
@@ -20375,7 +20663,7 @@
         <v>21</v>
       </c>
       <c r="C1078">
-        <v>5630</v>
+        <v>5700</v>
       </c>
       <c r="D1078" t="s">
         <v>1080</v>
@@ -20389,7 +20677,7 @@
         <v>22</v>
       </c>
       <c r="C1079">
-        <v>5710</v>
+        <v>5760</v>
       </c>
       <c r="D1079" t="s">
         <v>1081</v>
@@ -20403,7 +20691,7 @@
         <v>23</v>
       </c>
       <c r="C1080">
-        <v>5800</v>
+        <v>5850</v>
       </c>
       <c r="D1080" t="s">
         <v>1082</v>
@@ -20417,7 +20705,7 @@
         <v>24</v>
       </c>
       <c r="C1081">
-        <v>5930</v>
+        <v>5960</v>
       </c>
       <c r="D1081" t="s">
         <v>1083</v>
@@ -20431,7 +20719,7 @@
         <v>25</v>
       </c>
       <c r="C1082">
-        <v>6070</v>
+        <v>6080</v>
       </c>
       <c r="D1082" t="s">
         <v>1084</v>
@@ -20445,7 +20733,7 @@
         <v>26</v>
       </c>
       <c r="C1083">
-        <v>6230</v>
+        <v>6240</v>
       </c>
       <c r="D1083" t="s">
         <v>1085</v>
@@ -20459,7 +20747,7 @@
         <v>27</v>
       </c>
       <c r="C1084">
-        <v>6400</v>
+        <v>6420</v>
       </c>
       <c r="D1084" t="s">
         <v>1086</v>
@@ -20473,7 +20761,7 @@
         <v>28</v>
       </c>
       <c r="C1085">
-        <v>6570</v>
+        <v>6630</v>
       </c>
       <c r="D1085" t="s">
         <v>1087</v>
@@ -20487,7 +20775,7 @@
         <v>29</v>
       </c>
       <c r="C1086">
-        <v>6730</v>
+        <v>6850</v>
       </c>
       <c r="D1086" t="s">
         <v>1088</v>
@@ -20501,7 +20789,7 @@
         <v>30</v>
       </c>
       <c r="C1087">
-        <v>6880</v>
+        <v>7030</v>
       </c>
       <c r="D1087" t="s">
         <v>1089</v>
@@ -20515,7 +20803,7 @@
         <v>31</v>
       </c>
       <c r="C1088">
-        <v>7000</v>
+        <v>7170</v>
       </c>
       <c r="D1088" t="s">
         <v>1090</v>
@@ -20529,7 +20817,7 @@
         <v>32</v>
       </c>
       <c r="C1089">
-        <v>7090</v>
+        <v>7250</v>
       </c>
       <c r="D1089" t="s">
         <v>1091</v>
@@ -20543,7 +20831,7 @@
         <v>33</v>
       </c>
       <c r="C1090">
-        <v>7160</v>
+        <v>7290</v>
       </c>
       <c r="D1090" t="s">
         <v>1092</v>
@@ -20557,7 +20845,7 @@
         <v>34</v>
       </c>
       <c r="C1091">
-        <v>7190</v>
+        <v>7300</v>
       </c>
       <c r="D1091" t="s">
         <v>1093</v>
@@ -20571,7 +20859,7 @@
         <v>35</v>
       </c>
       <c r="C1092">
-        <v>7190</v>
+        <v>7250</v>
       </c>
       <c r="D1092" t="s">
         <v>1094</v>
@@ -20585,7 +20873,7 @@
         <v>36</v>
       </c>
       <c r="C1093">
-        <v>7160</v>
+        <v>7190</v>
       </c>
       <c r="D1093" t="s">
         <v>1095</v>
@@ -20599,7 +20887,7 @@
         <v>37</v>
       </c>
       <c r="C1094">
-        <v>7110</v>
+        <v>7090</v>
       </c>
       <c r="D1094" t="s">
         <v>1096</v>
@@ -20613,7 +20901,7 @@
         <v>38</v>
       </c>
       <c r="C1095">
-        <v>7040</v>
+        <v>6990</v>
       </c>
       <c r="D1095" t="s">
         <v>1097</v>
@@ -20627,7 +20915,7 @@
         <v>39</v>
       </c>
       <c r="C1096">
-        <v>6960</v>
+        <v>6880</v>
       </c>
       <c r="D1096" t="s">
         <v>1098</v>
@@ -20641,7 +20929,7 @@
         <v>40</v>
       </c>
       <c r="C1097">
-        <v>6880</v>
+        <v>6760</v>
       </c>
       <c r="D1097" t="s">
         <v>1099</v>
@@ -20655,7 +20943,7 @@
         <v>41</v>
       </c>
       <c r="C1098">
-        <v>6790</v>
+        <v>6640</v>
       </c>
       <c r="D1098" t="s">
         <v>1100</v>
@@ -20669,7 +20957,7 @@
         <v>42</v>
       </c>
       <c r="C1099">
-        <v>6700</v>
+        <v>6510</v>
       </c>
       <c r="D1099" t="s">
         <v>1101</v>
@@ -20683,7 +20971,7 @@
         <v>43</v>
       </c>
       <c r="C1100">
-        <v>6620</v>
+        <v>6380</v>
       </c>
       <c r="D1100" t="s">
         <v>1102</v>
@@ -20697,7 +20985,7 @@
         <v>44</v>
       </c>
       <c r="C1101">
-        <v>6550</v>
+        <v>6240</v>
       </c>
       <c r="D1101" t="s">
         <v>1103</v>
@@ -20711,7 +20999,7 @@
         <v>45</v>
       </c>
       <c r="C1102">
-        <v>6480</v>
+        <v>6100</v>
       </c>
       <c r="D1102" t="s">
         <v>1104</v>
@@ -20725,7 +21013,7 @@
         <v>46</v>
       </c>
       <c r="C1103">
-        <v>6410</v>
+        <v>5970</v>
       </c>
       <c r="D1103" t="s">
         <v>1105</v>
@@ -20739,7 +21027,7 @@
         <v>47</v>
       </c>
       <c r="C1104">
-        <v>6360</v>
+        <v>5880</v>
       </c>
       <c r="D1104" t="s">
         <v>1106</v>
@@ -20753,7 +21041,7 @@
         <v>48</v>
       </c>
       <c r="C1105">
-        <v>6310</v>
+        <v>5800</v>
       </c>
       <c r="D1105" t="s">
         <v>1107</v>
@@ -20767,7 +21055,7 @@
         <v>49</v>
       </c>
       <c r="C1106">
-        <v>6270</v>
+        <v>5760</v>
       </c>
       <c r="D1106" t="s">
         <v>1108</v>
@@ -20781,7 +21069,7 @@
         <v>50</v>
       </c>
       <c r="C1107">
-        <v>6250</v>
+        <v>5740</v>
       </c>
       <c r="D1107" t="s">
         <v>1109</v>
@@ -20795,7 +21083,7 @@
         <v>51</v>
       </c>
       <c r="C1108">
-        <v>6240</v>
+        <v>5750</v>
       </c>
       <c r="D1108" t="s">
         <v>1110</v>
@@ -20809,7 +21097,7 @@
         <v>52</v>
       </c>
       <c r="C1109">
-        <v>6240</v>
+        <v>5790</v>
       </c>
       <c r="D1109" t="s">
         <v>1111</v>
@@ -20823,7 +21111,7 @@
         <v>53</v>
       </c>
       <c r="C1110">
-        <v>6270</v>
+        <v>5850</v>
       </c>
       <c r="D1110" t="s">
         <v>1112</v>
@@ -20837,7 +21125,7 @@
         <v>54</v>
       </c>
       <c r="C1111">
-        <v>6300</v>
+        <v>5910</v>
       </c>
       <c r="D1111" t="s">
         <v>1113</v>
@@ -20851,7 +21139,7 @@
         <v>55</v>
       </c>
       <c r="C1112">
-        <v>6360</v>
+        <v>5980</v>
       </c>
       <c r="D1112" t="s">
         <v>1114</v>
@@ -20865,7 +21153,7 @@
         <v>56</v>
       </c>
       <c r="C1113">
-        <v>6420</v>
+        <v>6040</v>
       </c>
       <c r="D1113" t="s">
         <v>1115</v>
@@ -20879,7 +21167,7 @@
         <v>57</v>
       </c>
       <c r="C1114">
-        <v>6490</v>
+        <v>6100</v>
       </c>
       <c r="D1114" t="s">
         <v>1116</v>
@@ -20893,7 +21181,7 @@
         <v>58</v>
       </c>
       <c r="C1115">
-        <v>6560</v>
+        <v>6180</v>
       </c>
       <c r="D1115" t="s">
         <v>1117</v>
@@ -20907,7 +21195,7 @@
         <v>59</v>
       </c>
       <c r="C1116">
-        <v>6620</v>
+        <v>6280</v>
       </c>
       <c r="D1116" t="s">
         <v>1118</v>
@@ -20921,7 +21209,7 @@
         <v>60</v>
       </c>
       <c r="C1117">
-        <v>6690</v>
+        <v>6410</v>
       </c>
       <c r="D1117" t="s">
         <v>1119</v>
@@ -20935,7 +21223,7 @@
         <v>61</v>
       </c>
       <c r="C1118">
-        <v>6750</v>
+        <v>6550</v>
       </c>
       <c r="D1118" t="s">
         <v>1120</v>
@@ -20949,7 +21237,7 @@
         <v>62</v>
       </c>
       <c r="C1119">
-        <v>6810</v>
+        <v>6680</v>
       </c>
       <c r="D1119" t="s">
         <v>1121</v>
@@ -20963,7 +21251,7 @@
         <v>63</v>
       </c>
       <c r="C1120">
-        <v>6870</v>
+        <v>6810</v>
       </c>
       <c r="D1120" t="s">
         <v>1122</v>
@@ -20977,7 +21265,7 @@
         <v>64</v>
       </c>
       <c r="C1121">
-        <v>6950</v>
+        <v>6920</v>
       </c>
       <c r="D1121" t="s">
         <v>1123</v>
@@ -20991,7 +21279,7 @@
         <v>65</v>
       </c>
       <c r="C1122">
-        <v>7040</v>
+        <v>7030</v>
       </c>
       <c r="D1122" t="s">
         <v>1124</v>
@@ -21005,7 +21293,7 @@
         <v>66</v>
       </c>
       <c r="C1123">
-        <v>7150</v>
+        <v>7160</v>
       </c>
       <c r="D1123" t="s">
         <v>1125</v>
@@ -21019,7 +21307,7 @@
         <v>67</v>
       </c>
       <c r="C1124">
-        <v>7280</v>
+        <v>7300</v>
       </c>
       <c r="D1124" t="s">
         <v>1126</v>
@@ -21033,7 +21321,7 @@
         <v>68</v>
       </c>
       <c r="C1125">
-        <v>7410</v>
+        <v>7460</v>
       </c>
       <c r="D1125" t="s">
         <v>1127</v>
@@ -21047,7 +21335,7 @@
         <v>69</v>
       </c>
       <c r="C1126">
-        <v>7540</v>
+        <v>7630</v>
       </c>
       <c r="D1126" t="s">
         <v>1128</v>
@@ -21061,7 +21349,7 @@
         <v>70</v>
       </c>
       <c r="C1127">
-        <v>7650</v>
+        <v>7770</v>
       </c>
       <c r="D1127" t="s">
         <v>1129</v>
@@ -21075,7 +21363,7 @@
         <v>71</v>
       </c>
       <c r="C1128">
-        <v>7730</v>
+        <v>7860</v>
       </c>
       <c r="D1128" t="s">
         <v>1130</v>
@@ -21089,7 +21377,7 @@
         <v>72</v>
       </c>
       <c r="C1129">
-        <v>7780</v>
+        <v>7900</v>
       </c>
       <c r="D1129" t="s">
         <v>1131</v>
@@ -21103,7 +21391,7 @@
         <v>73</v>
       </c>
       <c r="C1130">
-        <v>7800</v>
+        <v>7950</v>
       </c>
       <c r="D1130" t="s">
         <v>1132</v>
@@ -21117,7 +21405,7 @@
         <v>74</v>
       </c>
       <c r="C1131">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="D1131" t="s">
         <v>1133</v>
@@ -21131,7 +21419,7 @@
         <v>75</v>
       </c>
       <c r="C1132">
-        <v>7790</v>
+        <v>7890</v>
       </c>
       <c r="D1132" t="s">
         <v>1134</v>
@@ -21145,7 +21433,7 @@
         <v>76</v>
       </c>
       <c r="C1133">
-        <v>7790</v>
+        <v>7880</v>
       </c>
       <c r="D1133" t="s">
         <v>1135</v>
@@ -21159,7 +21447,7 @@
         <v>77</v>
       </c>
       <c r="C1134">
-        <v>7790</v>
+        <v>7860</v>
       </c>
       <c r="D1134" t="s">
         <v>1136</v>
@@ -21173,7 +21461,7 @@
         <v>78</v>
       </c>
       <c r="C1135">
-        <v>7780</v>
+        <v>7830</v>
       </c>
       <c r="D1135" t="s">
         <v>1137</v>
@@ -21187,7 +21475,7 @@
         <v>79</v>
       </c>
       <c r="C1136">
-        <v>7770</v>
+        <v>7810</v>
       </c>
       <c r="D1136" t="s">
         <v>1138</v>
@@ -21201,7 +21489,7 @@
         <v>80</v>
       </c>
       <c r="C1137">
-        <v>7730</v>
+        <v>7770</v>
       </c>
       <c r="D1137" t="s">
         <v>1139</v>
@@ -21215,7 +21503,7 @@
         <v>81</v>
       </c>
       <c r="C1138">
-        <v>7690</v>
+        <v>7730</v>
       </c>
       <c r="D1138" t="s">
         <v>1140</v>
@@ -21229,7 +21517,7 @@
         <v>82</v>
       </c>
       <c r="C1139">
-        <v>7640</v>
+        <v>7680</v>
       </c>
       <c r="D1139" t="s">
         <v>1141</v>
@@ -21243,7 +21531,7 @@
         <v>83</v>
       </c>
       <c r="C1140">
-        <v>7560</v>
+        <v>7610</v>
       </c>
       <c r="D1140" t="s">
         <v>1142</v>
@@ -21257,7 +21545,7 @@
         <v>84</v>
       </c>
       <c r="C1141">
-        <v>7500</v>
+        <v>7520</v>
       </c>
       <c r="D1141" t="s">
         <v>1143</v>
@@ -21271,7 +21559,7 @@
         <v>85</v>
       </c>
       <c r="C1142">
-        <v>7390</v>
+        <v>7430</v>
       </c>
       <c r="D1142" t="s">
         <v>1144</v>
@@ -21285,7 +21573,7 @@
         <v>86</v>
       </c>
       <c r="C1143">
-        <v>7250</v>
+        <v>7310</v>
       </c>
       <c r="D1143" t="s">
         <v>1145</v>
@@ -21299,7 +21587,7 @@
         <v>87</v>
       </c>
       <c r="C1144">
-        <v>7160</v>
+        <v>7180</v>
       </c>
       <c r="D1144" t="s">
         <v>1146</v>
@@ -21313,7 +21601,7 @@
         <v>88</v>
       </c>
       <c r="C1145">
-        <v>7030</v>
+        <v>7020</v>
       </c>
       <c r="D1145" t="s">
         <v>1147</v>
@@ -21341,7 +21629,7 @@
         <v>90</v>
       </c>
       <c r="C1147">
-        <v>6720</v>
+        <v>6700</v>
       </c>
       <c r="D1147" t="s">
         <v>1149</v>
@@ -21369,7 +21657,7 @@
         <v>92</v>
       </c>
       <c r="C1149">
-        <v>6430</v>
+        <v>6420</v>
       </c>
       <c r="D1149" t="s">
         <v>1151</v>
@@ -21383,7 +21671,7 @@
         <v>93</v>
       </c>
       <c r="C1150">
-        <v>6280</v>
+        <v>6300</v>
       </c>
       <c r="D1150" t="s">
         <v>1152</v>
@@ -21397,7 +21685,7 @@
         <v>94</v>
       </c>
       <c r="C1151">
-        <v>6120</v>
+        <v>6190</v>
       </c>
       <c r="D1151" t="s">
         <v>1153</v>
@@ -21411,7 +21699,7 @@
         <v>95</v>
       </c>
       <c r="C1152">
-        <v>6030</v>
+        <v>6090</v>
       </c>
       <c r="D1152" t="s">
         <v>1154</v>
@@ -21425,7 +21713,7 @@
         <v>96</v>
       </c>
       <c r="C1153">
-        <v>5920</v>
+        <v>6000</v>
       </c>
       <c r="D1153" t="s">
         <v>1155</v>
@@ -28149,6 +28437,1350 @@
       </c>
       <c r="D1633" t="s">
         <v>1635</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:4">
+      <c r="A1634" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1634">
+        <v>1</v>
+      </c>
+      <c r="C1634">
+        <v>5900</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:4">
+      <c r="A1635" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1635">
+        <v>2</v>
+      </c>
+      <c r="C1635">
+        <v>5840</v>
+      </c>
+      <c r="D1635" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:4">
+      <c r="A1636" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1636">
+        <v>3</v>
+      </c>
+      <c r="C1636">
+        <v>5780</v>
+      </c>
+      <c r="D1636" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:4">
+      <c r="A1637" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1637">
+        <v>4</v>
+      </c>
+      <c r="C1637">
+        <v>5730</v>
+      </c>
+      <c r="D1637" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:4">
+      <c r="A1638" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1638">
+        <v>5</v>
+      </c>
+      <c r="C1638">
+        <v>5690</v>
+      </c>
+      <c r="D1638" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:4">
+      <c r="A1639" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1639">
+        <v>6</v>
+      </c>
+      <c r="C1639">
+        <v>5660</v>
+      </c>
+      <c r="D1639" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:4">
+      <c r="A1640" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1640">
+        <v>7</v>
+      </c>
+      <c r="C1640">
+        <v>5620</v>
+      </c>
+      <c r="D1640" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:4">
+      <c r="A1641" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1641">
+        <v>8</v>
+      </c>
+      <c r="C1641">
+        <v>5600</v>
+      </c>
+      <c r="D1641" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:4">
+      <c r="A1642" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1642">
+        <v>9</v>
+      </c>
+      <c r="C1642">
+        <v>5570</v>
+      </c>
+      <c r="D1642" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:4">
+      <c r="A1643" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1643">
+        <v>10</v>
+      </c>
+      <c r="C1643">
+        <v>5550</v>
+      </c>
+      <c r="D1643" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:4">
+      <c r="A1644" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1644">
+        <v>11</v>
+      </c>
+      <c r="C1644">
+        <v>5540</v>
+      </c>
+      <c r="D1644" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:4">
+      <c r="A1645" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1645">
+        <v>12</v>
+      </c>
+      <c r="C1645">
+        <v>5530</v>
+      </c>
+      <c r="D1645" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:4">
+      <c r="A1646" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1646">
+        <v>13</v>
+      </c>
+      <c r="C1646">
+        <v>5530</v>
+      </c>
+      <c r="D1646" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:4">
+      <c r="A1647" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1647">
+        <v>14</v>
+      </c>
+      <c r="C1647">
+        <v>5540</v>
+      </c>
+      <c r="D1647" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:4">
+      <c r="A1648" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1648">
+        <v>15</v>
+      </c>
+      <c r="C1648">
+        <v>5550</v>
+      </c>
+      <c r="D1648" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:4">
+      <c r="A1649" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1649">
+        <v>16</v>
+      </c>
+      <c r="C1649">
+        <v>5560</v>
+      </c>
+      <c r="D1649" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:4">
+      <c r="A1650" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1650">
+        <v>17</v>
+      </c>
+      <c r="C1650">
+        <v>5580</v>
+      </c>
+      <c r="D1650" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:4">
+      <c r="A1651" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1651">
+        <v>18</v>
+      </c>
+      <c r="C1651">
+        <v>5600</v>
+      </c>
+      <c r="D1651" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:4">
+      <c r="A1652" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1652">
+        <v>19</v>
+      </c>
+      <c r="C1652">
+        <v>5630</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:4">
+      <c r="A1653" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1653">
+        <v>20</v>
+      </c>
+      <c r="C1653">
+        <v>5670</v>
+      </c>
+      <c r="D1653" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:4">
+      <c r="A1654" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1654">
+        <v>21</v>
+      </c>
+      <c r="C1654">
+        <v>5710</v>
+      </c>
+      <c r="D1654" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:4">
+      <c r="A1655" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1655">
+        <v>22</v>
+      </c>
+      <c r="C1655">
+        <v>5770</v>
+      </c>
+      <c r="D1655" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:4">
+      <c r="A1656" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1656">
+        <v>23</v>
+      </c>
+      <c r="C1656">
+        <v>5860</v>
+      </c>
+      <c r="D1656" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:4">
+      <c r="A1657" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1657">
+        <v>24</v>
+      </c>
+      <c r="C1657">
+        <v>5960</v>
+      </c>
+      <c r="D1657" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:4">
+      <c r="A1658" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1658">
+        <v>25</v>
+      </c>
+      <c r="C1658">
+        <v>6090</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:4">
+      <c r="A1659" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1659">
+        <v>26</v>
+      </c>
+      <c r="C1659">
+        <v>6250</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:4">
+      <c r="A1660" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1660">
+        <v>27</v>
+      </c>
+      <c r="C1660">
+        <v>6450</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:4">
+      <c r="A1661" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1661">
+        <v>28</v>
+      </c>
+      <c r="C1661">
+        <v>6680</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:4">
+      <c r="A1662" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1662">
+        <v>29</v>
+      </c>
+      <c r="C1662">
+        <v>6930</v>
+      </c>
+      <c r="D1662" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:4">
+      <c r="A1663" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1663">
+        <v>30</v>
+      </c>
+      <c r="C1663">
+        <v>7140</v>
+      </c>
+      <c r="D1663" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:4">
+      <c r="A1664" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1664">
+        <v>31</v>
+      </c>
+      <c r="C1664">
+        <v>7280</v>
+      </c>
+      <c r="D1664" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:4">
+      <c r="A1665" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1665">
+        <v>32</v>
+      </c>
+      <c r="C1665">
+        <v>7370</v>
+      </c>
+      <c r="D1665" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:4">
+      <c r="A1666" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1666">
+        <v>33</v>
+      </c>
+      <c r="C1666">
+        <v>7400</v>
+      </c>
+      <c r="D1666" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:4">
+      <c r="A1667" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1667">
+        <v>34</v>
+      </c>
+      <c r="C1667">
+        <v>7410</v>
+      </c>
+      <c r="D1667" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:4">
+      <c r="A1668" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1668">
+        <v>35</v>
+      </c>
+      <c r="C1668">
+        <v>7410</v>
+      </c>
+      <c r="D1668" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:4">
+      <c r="A1669" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1669">
+        <v>36</v>
+      </c>
+      <c r="C1669">
+        <v>7390</v>
+      </c>
+      <c r="D1669" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:4">
+      <c r="A1670" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1670">
+        <v>37</v>
+      </c>
+      <c r="C1670">
+        <v>7360</v>
+      </c>
+      <c r="D1670" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:4">
+      <c r="A1671" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1671">
+        <v>38</v>
+      </c>
+      <c r="C1671">
+        <v>7320</v>
+      </c>
+      <c r="D1671" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:4">
+      <c r="A1672" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1672">
+        <v>39</v>
+      </c>
+      <c r="C1672">
+        <v>7270</v>
+      </c>
+      <c r="D1672" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:4">
+      <c r="A1673" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1673">
+        <v>40</v>
+      </c>
+      <c r="C1673">
+        <v>7200</v>
+      </c>
+      <c r="D1673" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:4">
+      <c r="A1674" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1674">
+        <v>41</v>
+      </c>
+      <c r="C1674">
+        <v>7120</v>
+      </c>
+      <c r="D1674" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:4">
+      <c r="A1675" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1675">
+        <v>42</v>
+      </c>
+      <c r="C1675">
+        <v>7030</v>
+      </c>
+      <c r="D1675" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:4">
+      <c r="A1676" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1676">
+        <v>43</v>
+      </c>
+      <c r="C1676">
+        <v>6950</v>
+      </c>
+      <c r="D1676" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:4">
+      <c r="A1677" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1677">
+        <v>44</v>
+      </c>
+      <c r="C1677">
+        <v>6870</v>
+      </c>
+      <c r="D1677" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:4">
+      <c r="A1678" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1678">
+        <v>45</v>
+      </c>
+      <c r="C1678">
+        <v>6780</v>
+      </c>
+      <c r="D1678" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:4">
+      <c r="A1679" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1679">
+        <v>46</v>
+      </c>
+      <c r="C1679">
+        <v>6710</v>
+      </c>
+      <c r="D1679" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:4">
+      <c r="A1680" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1680">
+        <v>47</v>
+      </c>
+      <c r="C1680">
+        <v>6650</v>
+      </c>
+      <c r="D1680" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:4">
+      <c r="A1681" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1681">
+        <v>48</v>
+      </c>
+      <c r="C1681">
+        <v>6610</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:4">
+      <c r="A1682" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1682">
+        <v>49</v>
+      </c>
+      <c r="C1682">
+        <v>6570</v>
+      </c>
+      <c r="D1682" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:4">
+      <c r="A1683" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1683">
+        <v>50</v>
+      </c>
+      <c r="C1683">
+        <v>6550</v>
+      </c>
+      <c r="D1683" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:4">
+      <c r="A1684" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1684">
+        <v>51</v>
+      </c>
+      <c r="C1684">
+        <v>6560</v>
+      </c>
+      <c r="D1684" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:4">
+      <c r="A1685" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1685">
+        <v>52</v>
+      </c>
+      <c r="C1685">
+        <v>6580</v>
+      </c>
+      <c r="D1685" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:4">
+      <c r="A1686" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1686">
+        <v>53</v>
+      </c>
+      <c r="C1686">
+        <v>6610</v>
+      </c>
+      <c r="D1686" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:4">
+      <c r="A1687" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1687">
+        <v>54</v>
+      </c>
+      <c r="C1687">
+        <v>6650</v>
+      </c>
+      <c r="D1687" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:4">
+      <c r="A1688" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1688">
+        <v>55</v>
+      </c>
+      <c r="C1688">
+        <v>6690</v>
+      </c>
+      <c r="D1688" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:4">
+      <c r="A1689" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1689">
+        <v>56</v>
+      </c>
+      <c r="C1689">
+        <v>6730</v>
+      </c>
+      <c r="D1689" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:4">
+      <c r="A1690" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1690">
+        <v>57</v>
+      </c>
+      <c r="C1690">
+        <v>6770</v>
+      </c>
+      <c r="D1690" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:4">
+      <c r="A1691" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1691">
+        <v>58</v>
+      </c>
+      <c r="C1691">
+        <v>6820</v>
+      </c>
+      <c r="D1691" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:4">
+      <c r="A1692" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1692">
+        <v>59</v>
+      </c>
+      <c r="C1692">
+        <v>6870</v>
+      </c>
+      <c r="D1692" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:4">
+      <c r="A1693" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1693">
+        <v>60</v>
+      </c>
+      <c r="C1693">
+        <v>6920</v>
+      </c>
+      <c r="D1693" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:4">
+      <c r="A1694" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1694">
+        <v>61</v>
+      </c>
+      <c r="C1694">
+        <v>6980</v>
+      </c>
+      <c r="D1694" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:4">
+      <c r="A1695" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1695">
+        <v>62</v>
+      </c>
+      <c r="C1695">
+        <v>7040</v>
+      </c>
+      <c r="D1695" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:4">
+      <c r="A1696" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1696">
+        <v>63</v>
+      </c>
+      <c r="C1696">
+        <v>7110</v>
+      </c>
+      <c r="D1696" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:4">
+      <c r="A1697" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1697">
+        <v>64</v>
+      </c>
+      <c r="C1697">
+        <v>7180</v>
+      </c>
+      <c r="D1697" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:4">
+      <c r="A1698" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1698">
+        <v>65</v>
+      </c>
+      <c r="C1698">
+        <v>7260</v>
+      </c>
+      <c r="D1698" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:4">
+      <c r="A1699" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1699">
+        <v>66</v>
+      </c>
+      <c r="C1699">
+        <v>7350</v>
+      </c>
+      <c r="D1699" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:4">
+      <c r="A1700" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1700">
+        <v>67</v>
+      </c>
+      <c r="C1700">
+        <v>7470</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:4">
+      <c r="A1701" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1701">
+        <v>68</v>
+      </c>
+      <c r="C1701">
+        <v>7600</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:4">
+      <c r="A1702" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1702">
+        <v>69</v>
+      </c>
+      <c r="C1702">
+        <v>7750</v>
+      </c>
+      <c r="D1702" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:4">
+      <c r="A1703" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1703">
+        <v>70</v>
+      </c>
+      <c r="C1703">
+        <v>7860</v>
+      </c>
+      <c r="D1703" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:4">
+      <c r="A1704" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1704">
+        <v>71</v>
+      </c>
+      <c r="C1704">
+        <v>7930</v>
+      </c>
+      <c r="D1704" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:4">
+      <c r="A1705" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1705">
+        <v>72</v>
+      </c>
+      <c r="C1705">
+        <v>7960</v>
+      </c>
+      <c r="D1705" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:4">
+      <c r="A1706" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1706">
+        <v>73</v>
+      </c>
+      <c r="C1706">
+        <v>7960</v>
+      </c>
+      <c r="D1706" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:4">
+      <c r="A1707" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1707">
+        <v>74</v>
+      </c>
+      <c r="C1707">
+        <v>7950</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:4">
+      <c r="A1708" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1708">
+        <v>75</v>
+      </c>
+      <c r="C1708">
+        <v>7930</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:4">
+      <c r="A1709" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1709">
+        <v>76</v>
+      </c>
+      <c r="C1709">
+        <v>7920</v>
+      </c>
+      <c r="D1709" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:4">
+      <c r="A1710" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1710">
+        <v>77</v>
+      </c>
+      <c r="C1710">
+        <v>7900</v>
+      </c>
+      <c r="D1710" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:4">
+      <c r="A1711" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1711">
+        <v>78</v>
+      </c>
+      <c r="C1711">
+        <v>7880</v>
+      </c>
+      <c r="D1711" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:4">
+      <c r="A1712" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1712">
+        <v>79</v>
+      </c>
+      <c r="C1712">
+        <v>7860</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:4">
+      <c r="A1713" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1713">
+        <v>80</v>
+      </c>
+      <c r="C1713">
+        <v>7830</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:4">
+      <c r="A1714" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1714">
+        <v>81</v>
+      </c>
+      <c r="C1714">
+        <v>7790</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:4">
+      <c r="A1715" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1715">
+        <v>82</v>
+      </c>
+      <c r="C1715">
+        <v>7740</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:4">
+      <c r="A1716" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1716">
+        <v>83</v>
+      </c>
+      <c r="C1716">
+        <v>7680</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:4">
+      <c r="A1717" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1717">
+        <v>84</v>
+      </c>
+      <c r="C1717">
+        <v>7590</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:4">
+      <c r="A1718" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1718">
+        <v>85</v>
+      </c>
+      <c r="C1718">
+        <v>7500</v>
+      </c>
+      <c r="D1718" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:4">
+      <c r="A1719" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1719">
+        <v>86</v>
+      </c>
+      <c r="C1719">
+        <v>7380</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:4">
+      <c r="A1720" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1720">
+        <v>87</v>
+      </c>
+      <c r="C1720">
+        <v>7240</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:4">
+      <c r="A1721" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1721">
+        <v>88</v>
+      </c>
+      <c r="C1721">
+        <v>7090</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:4">
+      <c r="A1722" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1722">
+        <v>89</v>
+      </c>
+      <c r="C1722">
+        <v>6920</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:4">
+      <c r="A1723" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1723">
+        <v>90</v>
+      </c>
+      <c r="C1723">
+        <v>6760</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:4">
+      <c r="A1724" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1724">
+        <v>91</v>
+      </c>
+      <c r="C1724">
+        <v>6610</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:4">
+      <c r="A1725" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1725">
+        <v>92</v>
+      </c>
+      <c r="C1725">
+        <v>6470</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:4">
+      <c r="A1726" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1726">
+        <v>93</v>
+      </c>
+      <c r="C1726">
+        <v>6340</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:4">
+      <c r="A1727" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1727">
+        <v>94</v>
+      </c>
+      <c r="C1727">
+        <v>6230</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:4">
+      <c r="A1728" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1728">
+        <v>95</v>
+      </c>
+      <c r="C1728">
+        <v>6130</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:4">
+      <c r="A1729" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B1729">
+        <v>96</v>
+      </c>
+      <c r="C1729">
+        <v>6040</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>1731</v>
       </c>
     </row>
   </sheetData>
